--- a/BackTest/2020-01-19 BackTest AE.xlsx
+++ b/BackTest/2020-01-19 BackTest AE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>184.9</v>
+        <v>183.2</v>
       </c>
       <c r="C2" t="n">
-        <v>184.9</v>
+        <v>183.2</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9</v>
+        <v>183.2</v>
       </c>
       <c r="E2" t="n">
-        <v>184.9</v>
+        <v>183.2</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>722.3152</v>
       </c>
       <c r="G2" t="n">
-        <v>186.4250000000001</v>
+        <v>186.4900000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>183.2</v>
+        <v>184.9</v>
       </c>
       <c r="C3" t="n">
-        <v>183.2</v>
+        <v>184.9</v>
       </c>
       <c r="D3" t="n">
-        <v>183.2</v>
+        <v>184.9</v>
       </c>
       <c r="E3" t="n">
-        <v>183.2</v>
+        <v>184.9</v>
       </c>
       <c r="F3" t="n">
-        <v>5548.5878</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>186.3316666666668</v>
+        <v>186.4250000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>184.9</v>
+        <v>183.2</v>
       </c>
       <c r="C4" t="n">
-        <v>184.9</v>
+        <v>183.2</v>
       </c>
       <c r="D4" t="n">
-        <v>184.9</v>
+        <v>183.2</v>
       </c>
       <c r="E4" t="n">
-        <v>184.9</v>
+        <v>183.2</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>5548.5878</v>
       </c>
       <c r="G4" t="n">
-        <v>186.3050000000001</v>
+        <v>186.3316666666668</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>183.9</v>
+        <v>184.9</v>
       </c>
       <c r="C5" t="n">
-        <v>183.9</v>
+        <v>184.9</v>
       </c>
       <c r="D5" t="n">
-        <v>183.9</v>
+        <v>184.9</v>
       </c>
       <c r="E5" t="n">
-        <v>183.9</v>
+        <v>184.9</v>
       </c>
       <c r="F5" t="n">
-        <v>1669.5784</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>186.2266666666668</v>
+        <v>186.3050000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="C6" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="D6" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="E6" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>1669.5784</v>
       </c>
       <c r="G6" t="n">
-        <v>186.1983333333334</v>
+        <v>186.2266666666668</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>184.9</v>
       </c>
       <c r="F7" t="n">
-        <v>2104.8567</v>
+        <v>2.8</v>
       </c>
       <c r="G7" t="n">
-        <v>186.1366666666667</v>
+        <v>186.1983333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>184.8</v>
+        <v>184.9</v>
       </c>
       <c r="C8" t="n">
         <v>184.9</v>
@@ -652,13 +652,13 @@
         <v>184.9</v>
       </c>
       <c r="E8" t="n">
-        <v>184.8</v>
+        <v>184.9</v>
       </c>
       <c r="F8" t="n">
-        <v>21559.8105</v>
+        <v>2104.8567</v>
       </c>
       <c r="G8" t="n">
-        <v>186.0950000000001</v>
+        <v>186.1366666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>183.8</v>
+        <v>184.8</v>
       </c>
       <c r="C9" t="n">
-        <v>183.8</v>
+        <v>184.9</v>
       </c>
       <c r="D9" t="n">
-        <v>183.8</v>
+        <v>184.9</v>
       </c>
       <c r="E9" t="n">
-        <v>183.8</v>
+        <v>184.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1960</v>
+        <v>21559.8105</v>
       </c>
       <c r="G9" t="n">
-        <v>186.0500000000001</v>
+        <v>186.0950000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>183.8</v>
       </c>
       <c r="C10" t="n">
-        <v>182.3</v>
+        <v>183.8</v>
       </c>
       <c r="D10" t="n">
         <v>183.8</v>
       </c>
       <c r="E10" t="n">
-        <v>182.3</v>
+        <v>183.8</v>
       </c>
       <c r="F10" t="n">
-        <v>802.46</v>
+        <v>1960</v>
       </c>
       <c r="G10" t="n">
-        <v>185.9650000000001</v>
+        <v>186.0500000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>182.2</v>
+        <v>183.8</v>
       </c>
       <c r="C11" t="n">
-        <v>182.1</v>
+        <v>182.3</v>
       </c>
       <c r="D11" t="n">
-        <v>182.2</v>
+        <v>183.8</v>
       </c>
       <c r="E11" t="n">
-        <v>182.1</v>
+        <v>182.3</v>
       </c>
       <c r="F11" t="n">
-        <v>5000</v>
+        <v>802.46</v>
       </c>
       <c r="G11" t="n">
-        <v>185.8766666666667</v>
+        <v>185.9650000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>182.1</v>
+        <v>182.2</v>
       </c>
       <c r="C12" t="n">
         <v>182.1</v>
       </c>
       <c r="D12" t="n">
-        <v>182.1</v>
+        <v>182.2</v>
       </c>
       <c r="E12" t="n">
         <v>182.1</v>
       </c>
       <c r="F12" t="n">
-        <v>25.136</v>
+        <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>185.7883333333334</v>
+        <v>185.8766666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>182.1</v>
       </c>
       <c r="F13" t="n">
-        <v>1060</v>
+        <v>25.136</v>
       </c>
       <c r="G13" t="n">
-        <v>185.7050000000001</v>
+        <v>185.7883333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>182.1</v>
       </c>
       <c r="F14" t="n">
-        <v>147.3833</v>
+        <v>1060</v>
       </c>
       <c r="G14" t="n">
-        <v>185.6216666666668</v>
+        <v>185.7050000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>182</v>
+        <v>182.1</v>
       </c>
       <c r="C15" t="n">
-        <v>182</v>
+        <v>182.1</v>
       </c>
       <c r="D15" t="n">
-        <v>182</v>
+        <v>182.1</v>
       </c>
       <c r="E15" t="n">
-        <v>182</v>
+        <v>182.1</v>
       </c>
       <c r="F15" t="n">
         <v>147.3833</v>
       </c>
       <c r="G15" t="n">
-        <v>185.5366666666667</v>
+        <v>185.6216666666668</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>147.3833</v>
       </c>
       <c r="G16" t="n">
-        <v>185.4683333333334</v>
+        <v>185.5366666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>183</v>
       </c>
       <c r="C17" t="n">
-        <v>183.9</v>
+        <v>183</v>
       </c>
       <c r="D17" t="n">
-        <v>183.9</v>
+        <v>183</v>
       </c>
       <c r="E17" t="n">
         <v>183</v>
       </c>
       <c r="F17" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>185.3833333333334</v>
+        <v>185.4683333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>183.9</v>
+        <v>183</v>
       </c>
       <c r="C18" t="n">
         <v>183.9</v>
@@ -1002,13 +1002,13 @@
         <v>183.9</v>
       </c>
       <c r="E18" t="n">
-        <v>183.9</v>
+        <v>183</v>
       </c>
       <c r="F18" t="n">
-        <v>3326.9185</v>
+        <v>300</v>
       </c>
       <c r="G18" t="n">
-        <v>185.2550000000001</v>
+        <v>185.3833333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="C19" t="n">
-        <v>184.8</v>
+        <v>183.9</v>
       </c>
       <c r="D19" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="E19" t="n">
-        <v>184.8</v>
+        <v>183.9</v>
       </c>
       <c r="F19" t="n">
-        <v>3116.297214593591</v>
+        <v>3326.9185</v>
       </c>
       <c r="G19" t="n">
-        <v>185.2316666666667</v>
+        <v>185.2550000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C20" t="n">
         <v>184.8</v>
       </c>
-      <c r="C20" t="n">
-        <v>183.9</v>
-      </c>
       <c r="D20" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E20" t="n">
         <v>184.8</v>
       </c>
-      <c r="E20" t="n">
-        <v>183.9</v>
-      </c>
       <c r="F20" t="n">
-        <v>5000.000016450216</v>
+        <v>3116.297214593591</v>
       </c>
       <c r="G20" t="n">
-        <v>185.1933333333333</v>
+        <v>185.2316666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>184.9</v>
+        <v>184.8</v>
       </c>
       <c r="C21" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="D21" t="n">
-        <v>184.9</v>
+        <v>184.8</v>
       </c>
       <c r="E21" t="n">
-        <v>184.9</v>
+        <v>183.9</v>
       </c>
       <c r="F21" t="n">
-        <v>4.8789</v>
+        <v>5000.000016450216</v>
       </c>
       <c r="G21" t="n">
-        <v>185.1716666666667</v>
+        <v>185.1933333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>184.9</v>
       </c>
       <c r="F22" t="n">
-        <v>3152.6779</v>
+        <v>4.8789</v>
       </c>
       <c r="G22" t="n">
-        <v>185.13</v>
+        <v>185.1716666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>184.9</v>
       </c>
       <c r="F23" t="n">
-        <v>5098.1253</v>
+        <v>3152.6779</v>
       </c>
       <c r="G23" t="n">
-        <v>185.0616666666666</v>
+        <v>185.13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>184.9</v>
       </c>
       <c r="C24" t="n">
-        <v>183.1</v>
+        <v>184.9</v>
       </c>
       <c r="D24" t="n">
         <v>184.9</v>
       </c>
       <c r="E24" t="n">
-        <v>183.1</v>
+        <v>184.9</v>
       </c>
       <c r="F24" t="n">
-        <v>1679.16</v>
+        <v>5098.1253</v>
       </c>
       <c r="G24" t="n">
-        <v>184.955</v>
+        <v>185.0616666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="C25" t="n">
-        <v>185</v>
+        <v>183.1</v>
       </c>
       <c r="D25" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="E25" t="n">
-        <v>185</v>
+        <v>183.1</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>1679.16</v>
       </c>
       <c r="G25" t="n">
-        <v>184.89</v>
+        <v>184.955</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>185</v>
       </c>
       <c r="C26" t="n">
-        <v>188.3</v>
+        <v>185</v>
       </c>
       <c r="D26" t="n">
-        <v>188.3</v>
+        <v>185</v>
       </c>
       <c r="E26" t="n">
         <v>185</v>
       </c>
       <c r="F26" t="n">
-        <v>20349.3579</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>184.9083333333333</v>
+        <v>184.89</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C27" t="n">
-        <v>185.8</v>
+        <v>188.3</v>
       </c>
       <c r="D27" t="n">
-        <v>197</v>
+        <v>188.3</v>
       </c>
       <c r="E27" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F27" t="n">
-        <v>76408.50810000001</v>
+        <v>20349.3579</v>
       </c>
       <c r="G27" t="n">
-        <v>184.8849999999999</v>
+        <v>184.9083333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>188.1</v>
+        <v>187</v>
       </c>
       <c r="C28" t="n">
-        <v>188.1</v>
+        <v>185.8</v>
       </c>
       <c r="D28" t="n">
-        <v>188.1</v>
+        <v>197</v>
       </c>
       <c r="E28" t="n">
-        <v>188.1</v>
+        <v>183</v>
       </c>
       <c r="F28" t="n">
-        <v>1927.6482</v>
+        <v>76408.50810000001</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8699999999999</v>
+        <v>184.8849999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>188.1</v>
       </c>
       <c r="D29" t="n">
-        <v>190.4</v>
+        <v>188.1</v>
       </c>
       <c r="E29" t="n">
         <v>188.1</v>
       </c>
       <c r="F29" t="n">
-        <v>6613.2711</v>
+        <v>1927.6482</v>
       </c>
       <c r="G29" t="n">
-        <v>184.8466666666666</v>
+        <v>184.8699999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>188.1</v>
       </c>
       <c r="C30" t="n">
-        <v>190.5</v>
+        <v>188.1</v>
       </c>
       <c r="D30" t="n">
-        <v>190.5</v>
+        <v>190.4</v>
       </c>
       <c r="E30" t="n">
         <v>188.1</v>
       </c>
       <c r="F30" t="n">
-        <v>3863.5471</v>
+        <v>6613.2711</v>
       </c>
       <c r="G30" t="n">
-        <v>184.8716666666666</v>
+        <v>184.8466666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="C31" t="n">
         <v>190.5</v>
       </c>
-      <c r="C31" t="n">
-        <v>196</v>
-      </c>
       <c r="D31" t="n">
-        <v>199.7</v>
+        <v>190.5</v>
       </c>
       <c r="E31" t="n">
-        <v>190.5</v>
+        <v>188.1</v>
       </c>
       <c r="F31" t="n">
-        <v>72833.68769999999</v>
+        <v>3863.5471</v>
       </c>
       <c r="G31" t="n">
-        <v>184.9883333333333</v>
+        <v>184.8716666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="C32" t="n">
         <v>196</v>
       </c>
-      <c r="C32" t="n">
-        <v>199.8</v>
-      </c>
       <c r="D32" t="n">
-        <v>199.8</v>
+        <v>199.7</v>
       </c>
       <c r="E32" t="n">
-        <v>195.3</v>
+        <v>190.5</v>
       </c>
       <c r="F32" t="n">
-        <v>17931.535</v>
+        <v>72833.68769999999</v>
       </c>
       <c r="G32" t="n">
-        <v>185.1683333333333</v>
+        <v>184.9883333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>199.7</v>
+        <v>196</v>
       </c>
       <c r="C33" t="n">
-        <v>205</v>
+        <v>199.8</v>
       </c>
       <c r="D33" t="n">
-        <v>207.2</v>
+        <v>199.8</v>
       </c>
       <c r="E33" t="n">
-        <v>199.7</v>
+        <v>195.3</v>
       </c>
       <c r="F33" t="n">
-        <v>30284.99357249035</v>
+        <v>17931.535</v>
       </c>
       <c r="G33" t="n">
-        <v>185.4016666666666</v>
+        <v>185.1683333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>205.1</v>
+        <v>199.7</v>
       </c>
       <c r="C34" t="n">
-        <v>219.9</v>
+        <v>205</v>
       </c>
       <c r="D34" t="n">
-        <v>219.9</v>
+        <v>207.2</v>
       </c>
       <c r="E34" t="n">
-        <v>205</v>
+        <v>199.7</v>
       </c>
       <c r="F34" t="n">
-        <v>65009.3825</v>
+        <v>30284.99357249035</v>
       </c>
       <c r="G34" t="n">
-        <v>185.9183333333333</v>
+        <v>185.4016666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>218.9</v>
+        <v>205.1</v>
       </c>
       <c r="C35" t="n">
-        <v>214</v>
+        <v>219.9</v>
       </c>
       <c r="D35" t="n">
         <v>219.9</v>
       </c>
       <c r="E35" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F35" t="n">
-        <v>38706.83443129283</v>
+        <v>65009.3825</v>
       </c>
       <c r="G35" t="n">
-        <v>186.3849999999999</v>
+        <v>185.9183333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="C36" t="n">
         <v>214</v>
       </c>
-      <c r="C36" t="n">
-        <v>196.3</v>
-      </c>
       <c r="D36" t="n">
+        <v>219.9</v>
+      </c>
+      <c r="E36" t="n">
         <v>214</v>
       </c>
-      <c r="E36" t="n">
-        <v>196.3</v>
-      </c>
       <c r="F36" t="n">
-        <v>39558.92326757905</v>
+        <v>38706.83443129283</v>
       </c>
       <c r="G36" t="n">
-        <v>186.5566666666666</v>
+        <v>186.3849999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>198.5</v>
+        <v>214</v>
       </c>
       <c r="C37" t="n">
-        <v>193.7</v>
+        <v>196.3</v>
       </c>
       <c r="D37" t="n">
-        <v>198.6</v>
+        <v>214</v>
       </c>
       <c r="E37" t="n">
-        <v>191.4</v>
+        <v>196.3</v>
       </c>
       <c r="F37" t="n">
-        <v>8206.534941802443</v>
+        <v>39558.92326757905</v>
       </c>
       <c r="G37" t="n">
-        <v>186.6766666666666</v>
+        <v>186.5566666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>194.7</v>
+        <v>198.5</v>
       </c>
       <c r="C38" t="n">
-        <v>196.9</v>
+        <v>193.7</v>
       </c>
       <c r="D38" t="n">
-        <v>196.9</v>
+        <v>198.6</v>
       </c>
       <c r="E38" t="n">
-        <v>193.7</v>
+        <v>191.4</v>
       </c>
       <c r="F38" t="n">
-        <v>5051.4972</v>
+        <v>8206.534941802443</v>
       </c>
       <c r="G38" t="n">
-        <v>186.8116666666666</v>
+        <v>186.6766666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>194.7</v>
+      </c>
+      <c r="C39" t="n">
         <v>196.9</v>
       </c>
-      <c r="C39" t="n">
-        <v>204</v>
-      </c>
       <c r="D39" t="n">
-        <v>215.8</v>
+        <v>196.9</v>
       </c>
       <c r="E39" t="n">
-        <v>196.9</v>
+        <v>193.7</v>
       </c>
       <c r="F39" t="n">
-        <v>14786.04999874055</v>
+        <v>5051.4972</v>
       </c>
       <c r="G39" t="n">
-        <v>187.08</v>
+        <v>186.8116666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>206.7</v>
+        <v>196.9</v>
       </c>
       <c r="C40" t="n">
-        <v>197.9</v>
+        <v>204</v>
       </c>
       <c r="D40" t="n">
-        <v>206.7</v>
+        <v>215.8</v>
       </c>
       <c r="E40" t="n">
-        <v>197.9</v>
+        <v>196.9</v>
       </c>
       <c r="F40" t="n">
-        <v>8868.3115</v>
+        <v>14786.04999874055</v>
       </c>
       <c r="G40" t="n">
-        <v>187.2783333333333</v>
+        <v>187.08</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>200.9</v>
+        <v>206.7</v>
       </c>
       <c r="C41" t="n">
-        <v>202</v>
+        <v>197.9</v>
       </c>
       <c r="D41" t="n">
-        <v>202</v>
+        <v>206.7</v>
       </c>
       <c r="E41" t="n">
-        <v>200.9</v>
+        <v>197.9</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>8868.3115</v>
       </c>
       <c r="G41" t="n">
-        <v>187.5133333333333</v>
+        <v>187.2783333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>201</v>
+        <v>200.9</v>
       </c>
       <c r="C42" t="n">
-        <v>204.9</v>
+        <v>202</v>
       </c>
       <c r="D42" t="n">
-        <v>204.9</v>
+        <v>202</v>
       </c>
       <c r="E42" t="n">
-        <v>201</v>
+        <v>200.9</v>
       </c>
       <c r="F42" t="n">
-        <v>19005.70027891655</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>187.7966666666666</v>
+        <v>187.5133333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C43" t="n">
-        <v>200</v>
+        <v>204.9</v>
       </c>
       <c r="D43" t="n">
-        <v>202</v>
+        <v>204.9</v>
       </c>
       <c r="E43" t="n">
-        <v>199.9</v>
+        <v>201</v>
       </c>
       <c r="F43" t="n">
-        <v>11279.587</v>
+        <v>19005.70027891655</v>
       </c>
       <c r="G43" t="n">
-        <v>188.0299999999999</v>
+        <v>187.7966666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>202</v>
+      </c>
+      <c r="C44" t="n">
         <v>200</v>
       </c>
-      <c r="C44" t="n">
-        <v>205</v>
-      </c>
       <c r="D44" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E44" t="n">
-        <v>198</v>
+        <v>199.9</v>
       </c>
       <c r="F44" t="n">
-        <v>3363.6671</v>
+        <v>11279.587</v>
       </c>
       <c r="G44" t="n">
-        <v>188.3633333333333</v>
+        <v>188.0299999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>199.5</v>
+        <v>200</v>
       </c>
       <c r="C45" t="n">
-        <v>208.4</v>
+        <v>205</v>
       </c>
       <c r="D45" t="n">
-        <v>208.4</v>
+        <v>205</v>
       </c>
       <c r="E45" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F45" t="n">
-        <v>15778.7018</v>
+        <v>3363.6671</v>
       </c>
       <c r="G45" t="n">
-        <v>188.77</v>
+        <v>188.3633333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>208.2</v>
+        <v>199.5</v>
       </c>
       <c r="C46" t="n">
-        <v>205</v>
+        <v>208.4</v>
       </c>
       <c r="D46" t="n">
-        <v>215.6</v>
+        <v>208.4</v>
       </c>
       <c r="E46" t="n">
-        <v>204.4</v>
+        <v>199</v>
       </c>
       <c r="F46" t="n">
-        <v>28128.42811368274</v>
+        <v>15778.7018</v>
       </c>
       <c r="G46" t="n">
-        <v>189.1216666666666</v>
+        <v>188.77</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>213.5</v>
+        <v>208.2</v>
       </c>
       <c r="C47" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D47" t="n">
-        <v>214.5</v>
+        <v>215.6</v>
       </c>
       <c r="E47" t="n">
-        <v>210.1</v>
+        <v>204.4</v>
       </c>
       <c r="F47" t="n">
-        <v>76883.8147</v>
+        <v>28128.42811368274</v>
       </c>
       <c r="G47" t="n">
-        <v>189.5716666666666</v>
+        <v>189.1216666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>210.3</v>
+        <v>213.5</v>
       </c>
       <c r="C48" t="n">
-        <v>206.7</v>
+        <v>211</v>
       </c>
       <c r="D48" t="n">
-        <v>210.3</v>
+        <v>214.5</v>
       </c>
       <c r="E48" t="n">
-        <v>206.7</v>
+        <v>210.1</v>
       </c>
       <c r="F48" t="n">
-        <v>5306.0631</v>
+        <v>76883.8147</v>
       </c>
       <c r="G48" t="n">
-        <v>189.95</v>
+        <v>189.5716666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>210.3</v>
       </c>
       <c r="C49" t="n">
-        <v>210.3</v>
+        <v>206.7</v>
       </c>
       <c r="D49" t="n">
         <v>210.3</v>
@@ -2090,10 +2090,10 @@
         <v>206.7</v>
       </c>
       <c r="F49" t="n">
-        <v>13646.3392</v>
+        <v>5306.0631</v>
       </c>
       <c r="G49" t="n">
-        <v>190.4133333333333</v>
+        <v>189.95</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>210.3</v>
       </c>
       <c r="C50" t="n">
-        <v>213.4</v>
+        <v>210.3</v>
       </c>
       <c r="D50" t="n">
-        <v>214.5</v>
+        <v>210.3</v>
       </c>
       <c r="E50" t="n">
-        <v>210.3</v>
+        <v>206.7</v>
       </c>
       <c r="F50" t="n">
-        <v>50788.9532</v>
+        <v>13646.3392</v>
       </c>
       <c r="G50" t="n">
-        <v>190.915</v>
+        <v>190.4133333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>210.3</v>
+      </c>
+      <c r="C51" t="n">
         <v>213.4</v>
       </c>
-      <c r="C51" t="n">
-        <v>217.6</v>
-      </c>
       <c r="D51" t="n">
-        <v>218.5</v>
+        <v>214.5</v>
       </c>
       <c r="E51" t="n">
-        <v>213.4</v>
+        <v>210.3</v>
       </c>
       <c r="F51" t="n">
-        <v>8417.513999999999</v>
+        <v>50788.9532</v>
       </c>
       <c r="G51" t="n">
-        <v>191.4916666666666</v>
+        <v>190.915</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>213.4</v>
+      </c>
+      <c r="C52" t="n">
         <v>217.6</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>218.5</v>
       </c>
-      <c r="D52" t="n">
-        <v>218.8</v>
-      </c>
       <c r="E52" t="n">
-        <v>217.6</v>
+        <v>213.4</v>
       </c>
       <c r="F52" t="n">
-        <v>20937.86845740402</v>
+        <v>8417.513999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>192.085</v>
+        <v>191.4916666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>217.6</v>
+      </c>
+      <c r="C53" t="n">
         <v>218.5</v>
       </c>
-      <c r="C53" t="n">
-        <v>218.4</v>
-      </c>
       <c r="D53" t="n">
-        <v>218.7</v>
+        <v>218.8</v>
       </c>
       <c r="E53" t="n">
-        <v>218.4</v>
+        <v>217.6</v>
       </c>
       <c r="F53" t="n">
-        <v>14198.9251</v>
+        <v>20937.86845740402</v>
       </c>
       <c r="G53" t="n">
-        <v>192.6683333333333</v>
+        <v>192.085</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>218.3</v>
+        <v>218.5</v>
       </c>
       <c r="C54" t="n">
-        <v>213.1</v>
+        <v>218.4</v>
       </c>
       <c r="D54" t="n">
-        <v>218.3</v>
+        <v>218.7</v>
       </c>
       <c r="E54" t="n">
-        <v>211</v>
+        <v>218.4</v>
       </c>
       <c r="F54" t="n">
-        <v>4734.6961</v>
+        <v>14198.9251</v>
       </c>
       <c r="G54" t="n">
-        <v>193.1616666666667</v>
+        <v>192.6683333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>217.2</v>
+        <v>218.3</v>
       </c>
       <c r="C55" t="n">
-        <v>213.3</v>
+        <v>213.1</v>
       </c>
       <c r="D55" t="n">
-        <v>217.2</v>
+        <v>218.3</v>
       </c>
       <c r="E55" t="n">
-        <v>213.3</v>
+        <v>211</v>
       </c>
       <c r="F55" t="n">
-        <v>1773.5699</v>
+        <v>4734.6961</v>
       </c>
       <c r="G55" t="n">
-        <v>193.6799999999999</v>
+        <v>193.1616666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>215.9</v>
+        <v>217.2</v>
       </c>
       <c r="C56" t="n">
-        <v>213.4</v>
+        <v>213.3</v>
       </c>
       <c r="D56" t="n">
         <v>217.2</v>
@@ -2335,10 +2335,10 @@
         <v>213.3</v>
       </c>
       <c r="F56" t="n">
-        <v>10408.74268268877</v>
+        <v>1773.5699</v>
       </c>
       <c r="G56" t="n">
-        <v>194.1783333333333</v>
+        <v>193.6799999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>215.8</v>
+        <v>215.9</v>
       </c>
       <c r="C57" t="n">
-        <v>213.3</v>
+        <v>213.4</v>
       </c>
       <c r="D57" t="n">
-        <v>215.8</v>
+        <v>217.2</v>
       </c>
       <c r="E57" t="n">
         <v>213.3</v>
       </c>
       <c r="F57" t="n">
-        <v>5456.6265</v>
+        <v>10408.74268268877</v>
       </c>
       <c r="G57" t="n">
-        <v>194.6749999999999</v>
+        <v>194.1783333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>213.3</v>
+        <v>215.8</v>
       </c>
       <c r="C58" t="n">
         <v>213.3</v>
       </c>
       <c r="D58" t="n">
-        <v>213.3</v>
+        <v>215.8</v>
       </c>
       <c r="E58" t="n">
         <v>213.3</v>
       </c>
       <c r="F58" t="n">
-        <v>6162.1299</v>
+        <v>5456.6265</v>
       </c>
       <c r="G58" t="n">
-        <v>195.1799999999999</v>
+        <v>194.6749999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>213.3</v>
       </c>
       <c r="F59" t="n">
-        <v>4723.8648</v>
+        <v>6162.1299</v>
       </c>
       <c r="G59" t="n">
-        <v>195.6983333333332</v>
+        <v>195.1799999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>209.1</v>
+        <v>213.3</v>
       </c>
       <c r="C60" t="n">
-        <v>209.1</v>
+        <v>213.3</v>
       </c>
       <c r="D60" t="n">
-        <v>209.1</v>
+        <v>213.3</v>
       </c>
       <c r="E60" t="n">
-        <v>209.1</v>
+        <v>213.3</v>
       </c>
       <c r="F60" t="n">
-        <v>991</v>
+        <v>4723.8648</v>
       </c>
       <c r="G60" t="n">
-        <v>196.1316666666666</v>
+        <v>195.6983333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>209.1</v>
       </c>
       <c r="C61" t="n">
-        <v>208.1</v>
+        <v>209.1</v>
       </c>
       <c r="D61" t="n">
         <v>209.1</v>
       </c>
       <c r="E61" t="n">
-        <v>208.1</v>
+        <v>209.1</v>
       </c>
       <c r="F61" t="n">
-        <v>523.7907</v>
+        <v>991</v>
       </c>
       <c r="G61" t="n">
-        <v>196.5466666666666</v>
+        <v>196.1316666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>204</v>
+        <v>209.1</v>
       </c>
       <c r="C62" t="n">
-        <v>200.2</v>
+        <v>208.1</v>
       </c>
       <c r="D62" t="n">
-        <v>204</v>
+        <v>209.1</v>
       </c>
       <c r="E62" t="n">
-        <v>200.2</v>
+        <v>208.1</v>
       </c>
       <c r="F62" t="n">
-        <v>1157.8345</v>
+        <v>523.7907</v>
       </c>
       <c r="G62" t="n">
-        <v>196.8016666666666</v>
+        <v>196.5466666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>202.9</v>
+        <v>204</v>
       </c>
       <c r="C63" t="n">
-        <v>198.2</v>
+        <v>200.2</v>
       </c>
       <c r="D63" t="n">
-        <v>202.9</v>
+        <v>204</v>
       </c>
       <c r="E63" t="n">
-        <v>198.2</v>
+        <v>200.2</v>
       </c>
       <c r="F63" t="n">
-        <v>2832.5852</v>
+        <v>1157.8345</v>
       </c>
       <c r="G63" t="n">
-        <v>197.0516666666666</v>
+        <v>196.8016666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>202</v>
+        <v>202.9</v>
       </c>
       <c r="C64" t="n">
-        <v>202</v>
+        <v>198.2</v>
       </c>
       <c r="D64" t="n">
-        <v>202</v>
+        <v>202.9</v>
       </c>
       <c r="E64" t="n">
-        <v>202</v>
+        <v>198.2</v>
       </c>
       <c r="F64" t="n">
-        <v>22</v>
+        <v>2832.5852</v>
       </c>
       <c r="G64" t="n">
-        <v>197.3366666666666</v>
+        <v>197.0516666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,31 +2638,35 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>198.1</v>
+        <v>202</v>
       </c>
       <c r="C65" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D65" t="n">
-        <v>198.1</v>
+        <v>202</v>
       </c>
       <c r="E65" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F65" t="n">
-        <v>3097.0122</v>
+        <v>22</v>
       </c>
       <c r="G65" t="n">
-        <v>197.5716666666666</v>
+        <v>197.3366666666666</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>198.2</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -2673,32 +2677,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>199</v>
+        <v>198.1</v>
       </c>
       <c r="C66" t="n">
         <v>198</v>
       </c>
       <c r="D66" t="n">
-        <v>199</v>
+        <v>198.1</v>
       </c>
       <c r="E66" t="n">
         <v>198</v>
       </c>
       <c r="F66" t="n">
-        <v>6099.8774</v>
+        <v>3097.0122</v>
       </c>
       <c r="G66" t="n">
-        <v>197.7899999999999</v>
+        <v>197.5716666666666</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>202</v>
+      </c>
+      <c r="K66" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2720,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>197.1</v>
+        <v>199</v>
       </c>
       <c r="C67" t="n">
-        <v>196.9</v>
+        <v>198</v>
       </c>
       <c r="D67" t="n">
-        <v>197.1</v>
+        <v>199</v>
       </c>
       <c r="E67" t="n">
-        <v>190.6</v>
+        <v>198</v>
       </c>
       <c r="F67" t="n">
-        <v>13201.5783</v>
+        <v>6099.8774</v>
       </c>
       <c r="G67" t="n">
-        <v>197.9899999999999</v>
+        <v>197.7899999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2744,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2761,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>193</v>
+        <v>197.1</v>
       </c>
       <c r="C68" t="n">
-        <v>193</v>
+        <v>196.9</v>
       </c>
       <c r="D68" t="n">
-        <v>193</v>
+        <v>197.1</v>
       </c>
       <c r="E68" t="n">
-        <v>193</v>
+        <v>190.6</v>
       </c>
       <c r="F68" t="n">
-        <v>3070.0012</v>
+        <v>13201.5783</v>
       </c>
       <c r="G68" t="n">
-        <v>198.1249999999999</v>
+        <v>197.9899999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2785,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2802,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>193.1</v>
+        <v>193</v>
       </c>
       <c r="C69" t="n">
-        <v>193.1</v>
+        <v>193</v>
       </c>
       <c r="D69" t="n">
-        <v>193.1</v>
+        <v>193</v>
       </c>
       <c r="E69" t="n">
-        <v>193.1</v>
+        <v>193</v>
       </c>
       <c r="F69" t="n">
-        <v>1070.0012</v>
+        <v>3070.0012</v>
       </c>
       <c r="G69" t="n">
-        <v>198.2799999999999</v>
+        <v>198.1249999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2826,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2825,10 +2855,10 @@
         <v>193.1</v>
       </c>
       <c r="F70" t="n">
-        <v>2302.0257</v>
+        <v>1070.0012</v>
       </c>
       <c r="G70" t="n">
-        <v>198.46</v>
+        <v>198.2799999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2867,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2884,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>195</v>
+        <v>193.1</v>
       </c>
       <c r="C71" t="n">
-        <v>204</v>
+        <v>193.1</v>
       </c>
       <c r="D71" t="n">
-        <v>204</v>
+        <v>193.1</v>
       </c>
       <c r="E71" t="n">
-        <v>195</v>
+        <v>193.1</v>
       </c>
       <c r="F71" t="n">
-        <v>10813.1486</v>
+        <v>2302.0257</v>
       </c>
       <c r="G71" t="n">
-        <v>198.825</v>
+        <v>198.46</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +2908,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2925,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>195</v>
+      </c>
+      <c r="C72" t="n">
         <v>204</v>
       </c>
-      <c r="C72" t="n">
-        <v>208</v>
-      </c>
       <c r="D72" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E72" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F72" t="n">
-        <v>3075.784</v>
+        <v>10813.1486</v>
       </c>
       <c r="G72" t="n">
-        <v>199.2566666666666</v>
+        <v>198.825</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +2949,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +2966,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>207.9</v>
+        <v>204</v>
       </c>
       <c r="C73" t="n">
-        <v>207.9</v>
+        <v>208</v>
       </c>
       <c r="D73" t="n">
-        <v>207.9</v>
+        <v>208</v>
       </c>
       <c r="E73" t="n">
-        <v>207.9</v>
+        <v>204</v>
       </c>
       <c r="F73" t="n">
-        <v>40</v>
+        <v>3075.784</v>
       </c>
       <c r="G73" t="n">
-        <v>199.6866666666666</v>
+        <v>199.2566666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +2990,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3007,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>204.1</v>
+        <v>207.9</v>
       </c>
       <c r="C74" t="n">
-        <v>204.1</v>
+        <v>207.9</v>
       </c>
       <c r="D74" t="n">
-        <v>204.1</v>
+        <v>207.9</v>
       </c>
       <c r="E74" t="n">
-        <v>204.1</v>
+        <v>207.9</v>
       </c>
       <c r="F74" t="n">
-        <v>1246.0555</v>
+        <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>200.0533333333333</v>
+        <v>199.6866666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3031,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3048,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>206.8</v>
+        <v>204.1</v>
       </c>
       <c r="C75" t="n">
-        <v>206.8</v>
+        <v>204.1</v>
       </c>
       <c r="D75" t="n">
-        <v>206.8</v>
+        <v>204.1</v>
       </c>
       <c r="E75" t="n">
-        <v>206.8</v>
+        <v>204.1</v>
       </c>
       <c r="F75" t="n">
-        <v>50.8273</v>
+        <v>1246.0555</v>
       </c>
       <c r="G75" t="n">
-        <v>200.4666666666666</v>
+        <v>200.0533333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3072,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3089,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>204.2</v>
+        <v>206.8</v>
       </c>
       <c r="C76" t="n">
-        <v>192.1</v>
+        <v>206.8</v>
       </c>
       <c r="D76" t="n">
-        <v>204.2</v>
+        <v>206.8</v>
       </c>
       <c r="E76" t="n">
-        <v>192.1</v>
+        <v>206.8</v>
       </c>
       <c r="F76" t="n">
-        <v>6400.908</v>
+        <v>50.8273</v>
       </c>
       <c r="G76" t="n">
-        <v>200.6183333333333</v>
+        <v>200.4666666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3113,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3130,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>194.1</v>
+        <v>204.2</v>
       </c>
       <c r="C77" t="n">
-        <v>194.1</v>
+        <v>192.1</v>
       </c>
       <c r="D77" t="n">
-        <v>195</v>
+        <v>204.2</v>
       </c>
       <c r="E77" t="n">
-        <v>194.1</v>
+        <v>192.1</v>
       </c>
       <c r="F77" t="n">
-        <v>5700</v>
+        <v>6400.908</v>
       </c>
       <c r="G77" t="n">
-        <v>200.7883333333333</v>
+        <v>200.6183333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3154,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3171,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>199</v>
+        <v>194.1</v>
       </c>
       <c r="C78" t="n">
-        <v>198</v>
+        <v>194.1</v>
       </c>
       <c r="D78" t="n">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E78" t="n">
-        <v>198</v>
+        <v>194.1</v>
       </c>
       <c r="F78" t="n">
-        <v>1453.2362</v>
+        <v>5700</v>
       </c>
       <c r="G78" t="n">
-        <v>201.0233333333333</v>
+        <v>200.7883333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3195,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3212,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>199</v>
+      </c>
+      <c r="C79" t="n">
         <v>198</v>
       </c>
-      <c r="C79" t="n">
-        <v>197.9</v>
-      </c>
       <c r="D79" t="n">
+        <v>199</v>
+      </c>
+      <c r="E79" t="n">
         <v>198</v>
       </c>
-      <c r="E79" t="n">
-        <v>197.9</v>
-      </c>
       <c r="F79" t="n">
-        <v>9548.663200000001</v>
+        <v>1453.2362</v>
       </c>
       <c r="G79" t="n">
-        <v>201.2416666666666</v>
+        <v>201.0233333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3236,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3166,19 +3256,19 @@
         <v>198</v>
       </c>
       <c r="C80" t="n">
-        <v>196.1</v>
+        <v>197.9</v>
       </c>
       <c r="D80" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E80" t="n">
-        <v>196.1</v>
+        <v>197.9</v>
       </c>
       <c r="F80" t="n">
-        <v>5852.9488</v>
+        <v>9548.663200000001</v>
       </c>
       <c r="G80" t="n">
-        <v>201.445</v>
+        <v>201.2416666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3277,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3294,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C81" t="n">
         <v>196.1</v>
       </c>
       <c r="D81" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E81" t="n">
         <v>196.1</v>
       </c>
       <c r="F81" t="n">
-        <v>11862.8707</v>
+        <v>5852.9488</v>
       </c>
       <c r="G81" t="n">
-        <v>201.6316666666667</v>
+        <v>201.445</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3318,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3335,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>200.8</v>
+        <v>200</v>
       </c>
       <c r="C82" t="n">
-        <v>198</v>
+        <v>196.1</v>
       </c>
       <c r="D82" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E82" t="n">
-        <v>197</v>
+        <v>196.1</v>
       </c>
       <c r="F82" t="n">
-        <v>28358.77</v>
+        <v>11862.8707</v>
       </c>
       <c r="G82" t="n">
-        <v>201.85</v>
+        <v>201.6316666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3359,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3376,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>197.1</v>
+        <v>200.8</v>
       </c>
       <c r="C83" t="n">
-        <v>194.1</v>
+        <v>198</v>
       </c>
       <c r="D83" t="n">
-        <v>197.1</v>
+        <v>202</v>
       </c>
       <c r="E83" t="n">
-        <v>194.1</v>
+        <v>197</v>
       </c>
       <c r="F83" t="n">
-        <v>10043.6236</v>
+        <v>28358.77</v>
       </c>
       <c r="G83" t="n">
-        <v>202.0033333333334</v>
+        <v>201.85</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3400,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3417,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="C84" t="n">
         <v>194.1</v>
       </c>
-      <c r="C84" t="n">
-        <v>192.3</v>
-      </c>
       <c r="D84" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="E84" t="n">
         <v>194.1</v>
       </c>
-      <c r="E84" t="n">
-        <v>192.2</v>
-      </c>
       <c r="F84" t="n">
-        <v>24097.3841</v>
+        <v>10043.6236</v>
       </c>
       <c r="G84" t="n">
-        <v>202.1566666666667</v>
+        <v>202.0033333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3441,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3458,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>192.3</v>
+        <v>194.1</v>
       </c>
       <c r="C85" t="n">
         <v>192.3</v>
       </c>
       <c r="D85" t="n">
-        <v>192.3</v>
+        <v>194.1</v>
       </c>
       <c r="E85" t="n">
-        <v>192.3</v>
+        <v>192.2</v>
       </c>
       <c r="F85" t="n">
-        <v>2570.3581</v>
+        <v>24097.3841</v>
       </c>
       <c r="G85" t="n">
-        <v>202.2783333333333</v>
+        <v>202.1566666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3482,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3499,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>192.2</v>
+        <v>192.3</v>
       </c>
       <c r="C86" t="n">
-        <v>192.2</v>
+        <v>192.3</v>
       </c>
       <c r="D86" t="n">
-        <v>192.2</v>
+        <v>192.3</v>
       </c>
       <c r="E86" t="n">
-        <v>192.2</v>
+        <v>192.3</v>
       </c>
       <c r="F86" t="n">
-        <v>1519.6185</v>
+        <v>2570.3581</v>
       </c>
       <c r="G86" t="n">
-        <v>202.3433333333333</v>
+        <v>202.2783333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3523,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3540,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>192.1</v>
+        <v>192.2</v>
       </c>
       <c r="C87" t="n">
-        <v>194</v>
+        <v>192.2</v>
       </c>
       <c r="D87" t="n">
-        <v>194</v>
+        <v>192.2</v>
       </c>
       <c r="E87" t="n">
-        <v>192.1</v>
+        <v>192.2</v>
       </c>
       <c r="F87" t="n">
-        <v>14141.867</v>
+        <v>1519.6185</v>
       </c>
       <c r="G87" t="n">
-        <v>202.48</v>
+        <v>202.3433333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3564,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3581,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>192.8</v>
+        <v>192.1</v>
       </c>
       <c r="C88" t="n">
-        <v>192.2</v>
+        <v>194</v>
       </c>
       <c r="D88" t="n">
-        <v>192.8</v>
+        <v>194</v>
       </c>
       <c r="E88" t="n">
-        <v>192.2</v>
+        <v>192.1</v>
       </c>
       <c r="F88" t="n">
-        <v>7833.0771</v>
+        <v>14141.867</v>
       </c>
       <c r="G88" t="n">
-        <v>202.5483333333333</v>
+        <v>202.48</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3605,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3622,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>192</v>
+        <v>192.8</v>
       </c>
       <c r="C89" t="n">
-        <v>192</v>
+        <v>192.2</v>
       </c>
       <c r="D89" t="n">
-        <v>192</v>
+        <v>192.8</v>
       </c>
       <c r="E89" t="n">
-        <v>192</v>
+        <v>192.2</v>
       </c>
       <c r="F89" t="n">
-        <v>251.2992</v>
+        <v>7833.0771</v>
       </c>
       <c r="G89" t="n">
-        <v>202.6133333333333</v>
+        <v>202.5483333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3646,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3516,19 +3666,19 @@
         <v>192</v>
       </c>
       <c r="C90" t="n">
-        <v>187.3</v>
+        <v>192</v>
       </c>
       <c r="D90" t="n">
         <v>192</v>
       </c>
       <c r="E90" t="n">
-        <v>187.3</v>
+        <v>192</v>
       </c>
       <c r="F90" t="n">
-        <v>13795.5989</v>
+        <v>251.2992</v>
       </c>
       <c r="G90" t="n">
-        <v>202.56</v>
+        <v>202.6133333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3687,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,36 +3704,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>189.9</v>
+        <v>192</v>
       </c>
       <c r="C91" t="n">
-        <v>190</v>
+        <v>187.3</v>
       </c>
       <c r="D91" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E91" t="n">
-        <v>189.9</v>
+        <v>187.3</v>
       </c>
       <c r="F91" t="n">
-        <v>33147.0026</v>
+        <v>13795.5989</v>
       </c>
       <c r="G91" t="n">
-        <v>202.46</v>
+        <v>202.56</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>187.3</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>187.3</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
+        <v>198.2</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3587,38 +3745,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>192</v>
+        <v>189.9</v>
       </c>
       <c r="C92" t="n">
-        <v>192.8</v>
+        <v>190</v>
       </c>
       <c r="D92" t="n">
-        <v>192.8</v>
+        <v>190</v>
       </c>
       <c r="E92" t="n">
-        <v>192</v>
+        <v>189.9</v>
       </c>
       <c r="F92" t="n">
-        <v>11004.5003</v>
+        <v>33147.0026</v>
       </c>
       <c r="G92" t="n">
-        <v>202.3433333333333</v>
+        <v>202.46</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>190</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>187.3</v>
+        <v>198.2</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -3630,22 +3786,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>194.5</v>
+        <v>192</v>
       </c>
       <c r="C93" t="n">
-        <v>200.9</v>
+        <v>192.8</v>
       </c>
       <c r="D93" t="n">
-        <v>200.9</v>
+        <v>192.8</v>
       </c>
       <c r="E93" t="n">
-        <v>194.5</v>
+        <v>192</v>
       </c>
       <c r="F93" t="n">
-        <v>1300</v>
+        <v>11004.5003</v>
       </c>
       <c r="G93" t="n">
-        <v>202.275</v>
+        <v>202.3433333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3655,11 +3811,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>187.3</v>
+        <v>198.2</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3671,22 +3827,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>193</v>
+        <v>194.5</v>
       </c>
       <c r="C94" t="n">
-        <v>194</v>
+        <v>200.9</v>
       </c>
       <c r="D94" t="n">
-        <v>194</v>
+        <v>200.9</v>
       </c>
       <c r="E94" t="n">
-        <v>190</v>
+        <v>194.5</v>
       </c>
       <c r="F94" t="n">
-        <v>17114.1344</v>
+        <v>1300</v>
       </c>
       <c r="G94" t="n">
-        <v>201.8433333333333</v>
+        <v>202.275</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3695,8 +3851,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3706,22 +3868,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C95" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D95" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E95" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F95" t="n">
-        <v>383.4848</v>
+        <v>17114.1344</v>
       </c>
       <c r="G95" t="n">
-        <v>201.46</v>
+        <v>201.8433333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3730,8 +3892,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3753,10 +3921,10 @@
         <v>191</v>
       </c>
       <c r="F96" t="n">
-        <v>765.1979</v>
+        <v>383.4848</v>
       </c>
       <c r="G96" t="n">
-        <v>201.3716666666667</v>
+        <v>201.46</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3765,8 +3933,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3776,22 +3950,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>191.1</v>
+        <v>191</v>
       </c>
       <c r="C97" t="n">
         <v>191</v>
       </c>
       <c r="D97" t="n">
-        <v>191.1</v>
+        <v>191</v>
       </c>
       <c r="E97" t="n">
         <v>191</v>
       </c>
       <c r="F97" t="n">
-        <v>1149.089</v>
+        <v>765.1979</v>
       </c>
       <c r="G97" t="n">
-        <v>201.3266666666667</v>
+        <v>201.3716666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3800,8 +3974,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3811,22 +3991,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="C98" t="n">
         <v>191</v>
-      </c>
-      <c r="C98" t="n">
-        <v>188.3</v>
       </c>
       <c r="D98" t="n">
         <v>191.1</v>
       </c>
       <c r="E98" t="n">
-        <v>188.3</v>
+        <v>191</v>
       </c>
       <c r="F98" t="n">
-        <v>16848.7928</v>
+        <v>1149.089</v>
       </c>
       <c r="G98" t="n">
-        <v>201.1833333333333</v>
+        <v>201.3266666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3835,8 +4015,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3846,22 +4032,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C99" t="n">
-        <v>188</v>
+        <v>188.3</v>
       </c>
       <c r="D99" t="n">
-        <v>189</v>
+        <v>191.1</v>
       </c>
       <c r="E99" t="n">
-        <v>187.3</v>
+        <v>188.3</v>
       </c>
       <c r="F99" t="n">
-        <v>12137.0279</v>
+        <v>16848.7928</v>
       </c>
       <c r="G99" t="n">
-        <v>200.9166666666667</v>
+        <v>201.1833333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3870,8 +4056,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3881,22 +4073,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>187.5</v>
+        <v>189</v>
       </c>
       <c r="C100" t="n">
-        <v>189.9</v>
+        <v>188</v>
       </c>
       <c r="D100" t="n">
-        <v>189.9</v>
+        <v>189</v>
       </c>
       <c r="E100" t="n">
-        <v>187.5</v>
+        <v>187.3</v>
       </c>
       <c r="F100" t="n">
-        <v>2422.9128</v>
+        <v>12137.0279</v>
       </c>
       <c r="G100" t="n">
-        <v>200.7833333333333</v>
+        <v>200.9166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3905,8 +4097,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3916,22 +4114,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>189</v>
+        <v>187.5</v>
       </c>
       <c r="C101" t="n">
-        <v>191.5</v>
+        <v>189.9</v>
       </c>
       <c r="D101" t="n">
-        <v>193</v>
+        <v>189.9</v>
       </c>
       <c r="E101" t="n">
-        <v>189</v>
+        <v>187.5</v>
       </c>
       <c r="F101" t="n">
-        <v>6832.52</v>
+        <v>2422.9128</v>
       </c>
       <c r="G101" t="n">
-        <v>200.6083333333333</v>
+        <v>200.7833333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3940,8 +4138,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3951,22 +4155,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>189.6</v>
+        <v>189</v>
       </c>
       <c r="C102" t="n">
-        <v>189.6</v>
+        <v>191.5</v>
       </c>
       <c r="D102" t="n">
-        <v>189.6</v>
+        <v>193</v>
       </c>
       <c r="E102" t="n">
-        <v>189.6</v>
+        <v>189</v>
       </c>
       <c r="F102" t="n">
-        <v>1592.2061</v>
+        <v>6832.52</v>
       </c>
       <c r="G102" t="n">
-        <v>200.3533333333334</v>
+        <v>200.6083333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3975,8 +4179,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3986,22 +4196,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>191</v>
+        <v>189.6</v>
       </c>
       <c r="C103" t="n">
-        <v>187.7</v>
+        <v>189.6</v>
       </c>
       <c r="D103" t="n">
-        <v>191</v>
+        <v>189.6</v>
       </c>
       <c r="E103" t="n">
-        <v>187.7</v>
+        <v>189.6</v>
       </c>
       <c r="F103" t="n">
-        <v>6353.6473</v>
+        <v>1592.2061</v>
       </c>
       <c r="G103" t="n">
-        <v>200.1483333333334</v>
+        <v>200.3533333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4010,8 +4220,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4021,22 +4237,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C104" t="n">
-        <v>191.9</v>
+        <v>187.7</v>
       </c>
       <c r="D104" t="n">
-        <v>191.9</v>
+        <v>191</v>
       </c>
       <c r="E104" t="n">
-        <v>190</v>
+        <v>187.7</v>
       </c>
       <c r="F104" t="n">
-        <v>1578.015</v>
+        <v>6353.6473</v>
       </c>
       <c r="G104" t="n">
-        <v>199.93</v>
+        <v>200.1483333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4045,8 +4261,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4056,22 +4278,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>190</v>
+      </c>
+      <c r="C105" t="n">
         <v>191.9</v>
       </c>
-      <c r="C105" t="n">
-        <v>190.9</v>
-      </c>
       <c r="D105" t="n">
-        <v>192</v>
+        <v>191.9</v>
       </c>
       <c r="E105" t="n">
-        <v>190.9</v>
+        <v>190</v>
       </c>
       <c r="F105" t="n">
-        <v>570.8102</v>
+        <v>1578.015</v>
       </c>
       <c r="G105" t="n">
-        <v>199.6383333333333</v>
+        <v>199.93</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4080,8 +4302,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4091,10 +4319,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="C106" t="n">
         <v>190.9</v>
-      </c>
-      <c r="C106" t="n">
-        <v>192</v>
       </c>
       <c r="D106" t="n">
         <v>192</v>
@@ -4103,10 +4331,10 @@
         <v>190.9</v>
       </c>
       <c r="F106" t="n">
-        <v>399.3577</v>
+        <v>570.8102</v>
       </c>
       <c r="G106" t="n">
-        <v>199.4216666666667</v>
+        <v>199.6383333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4115,8 +4343,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4126,22 +4360,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>191.9</v>
+        <v>190.9</v>
       </c>
       <c r="C107" t="n">
-        <v>191.9</v>
+        <v>192</v>
       </c>
       <c r="D107" t="n">
-        <v>191.9</v>
+        <v>192</v>
       </c>
       <c r="E107" t="n">
-        <v>191.9</v>
+        <v>190.9</v>
       </c>
       <c r="F107" t="n">
-        <v>794.4335</v>
+        <v>399.3577</v>
       </c>
       <c r="G107" t="n">
-        <v>199.1033333333334</v>
+        <v>199.4216666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4150,8 +4384,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4161,22 +4401,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>190.9</v>
+        <v>191.9</v>
       </c>
       <c r="C108" t="n">
-        <v>190.9</v>
+        <v>191.9</v>
       </c>
       <c r="D108" t="n">
-        <v>190.9</v>
+        <v>191.9</v>
       </c>
       <c r="E108" t="n">
-        <v>190.9</v>
+        <v>191.9</v>
       </c>
       <c r="F108" t="n">
-        <v>1245.9325</v>
+        <v>794.4335</v>
       </c>
       <c r="G108" t="n">
-        <v>198.84</v>
+        <v>199.1033333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4185,8 +4425,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4196,22 +4442,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>191.9</v>
+        <v>190.9</v>
       </c>
       <c r="C109" t="n">
-        <v>192</v>
+        <v>190.9</v>
       </c>
       <c r="D109" t="n">
-        <v>192</v>
+        <v>190.9</v>
       </c>
       <c r="E109" t="n">
-        <v>191.9</v>
+        <v>190.9</v>
       </c>
       <c r="F109" t="n">
-        <v>169.7918</v>
+        <v>1245.9325</v>
       </c>
       <c r="G109" t="n">
-        <v>198.535</v>
+        <v>198.84</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4220,8 +4466,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4231,7 +4483,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>192</v>
+        <v>191.9</v>
       </c>
       <c r="C110" t="n">
         <v>192</v>
@@ -4240,13 +4492,13 @@
         <v>192</v>
       </c>
       <c r="E110" t="n">
-        <v>192</v>
+        <v>191.9</v>
       </c>
       <c r="F110" t="n">
-        <v>57.0996</v>
+        <v>169.7918</v>
       </c>
       <c r="G110" t="n">
-        <v>198.1783333333333</v>
+        <v>198.535</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4255,8 +4507,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4278,10 +4536,10 @@
         <v>192</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9004</v>
+        <v>57.0996</v>
       </c>
       <c r="G111" t="n">
-        <v>197.7516666666667</v>
+        <v>198.1783333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4290,8 +4548,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4301,22 +4565,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>191.9</v>
+        <v>192</v>
       </c>
       <c r="C112" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="D112" t="n">
-        <v>191.9</v>
+        <v>192</v>
       </c>
       <c r="E112" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="F112" t="n">
-        <v>15134.6669</v>
+        <v>0.9004</v>
       </c>
       <c r="G112" t="n">
-        <v>197.2916666666667</v>
+        <v>197.7516666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4325,8 +4589,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4336,22 +4606,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>190</v>
+        <v>191.9</v>
       </c>
       <c r="C113" t="n">
-        <v>190</v>
+        <v>190.9</v>
       </c>
       <c r="D113" t="n">
-        <v>190</v>
+        <v>191.9</v>
       </c>
       <c r="E113" t="n">
-        <v>190</v>
+        <v>190.9</v>
       </c>
       <c r="F113" t="n">
-        <v>92.04089999999999</v>
+        <v>15134.6669</v>
       </c>
       <c r="G113" t="n">
-        <v>196.8183333333333</v>
+        <v>197.2916666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4360,8 +4630,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4371,22 +4647,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C114" t="n">
-        <v>188.8</v>
+        <v>190</v>
       </c>
       <c r="D114" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E114" t="n">
-        <v>188.8</v>
+        <v>190</v>
       </c>
       <c r="F114" t="n">
-        <v>11227.3025</v>
+        <v>92.04089999999999</v>
       </c>
       <c r="G114" t="n">
-        <v>196.4133333333333</v>
+        <v>196.8183333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4395,8 +4671,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4406,22 +4688,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C115" t="n">
-        <v>189</v>
+        <v>188.8</v>
       </c>
       <c r="D115" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E115" t="n">
-        <v>189</v>
+        <v>188.8</v>
       </c>
       <c r="F115" t="n">
-        <v>4544.0754</v>
+        <v>11227.3025</v>
       </c>
       <c r="G115" t="n">
-        <v>196.0083333333333</v>
+        <v>196.4133333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4430,8 +4712,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4441,22 +4729,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>190.8</v>
+        <v>190</v>
       </c>
       <c r="C116" t="n">
-        <v>190.8</v>
+        <v>189</v>
       </c>
       <c r="D116" t="n">
-        <v>190.8</v>
+        <v>190</v>
       </c>
       <c r="E116" t="n">
-        <v>190.8</v>
+        <v>189</v>
       </c>
       <c r="F116" t="n">
-        <v>664.6844</v>
+        <v>4544.0754</v>
       </c>
       <c r="G116" t="n">
-        <v>195.6316666666667</v>
+        <v>196.0083333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4465,8 +4753,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4476,22 +4770,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>190</v>
+        <v>190.8</v>
       </c>
       <c r="C117" t="n">
-        <v>190</v>
+        <v>190.8</v>
       </c>
       <c r="D117" t="n">
-        <v>190</v>
+        <v>190.8</v>
       </c>
       <c r="E117" t="n">
-        <v>190</v>
+        <v>190.8</v>
       </c>
       <c r="F117" t="n">
-        <v>811.8953</v>
+        <v>664.6844</v>
       </c>
       <c r="G117" t="n">
-        <v>195.2433333333333</v>
+        <v>195.6316666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4500,8 +4794,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4511,22 +4811,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>190.9</v>
+        <v>190</v>
       </c>
       <c r="C118" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D118" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E118" t="n">
-        <v>190.8</v>
+        <v>190</v>
       </c>
       <c r="F118" t="n">
-        <v>3933.305</v>
+        <v>811.8953</v>
       </c>
       <c r="G118" t="n">
-        <v>194.8716666666667</v>
+        <v>195.2433333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4535,8 +4835,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4546,7 +4852,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="C119" t="n">
         <v>191</v>
@@ -4555,13 +4861,13 @@
         <v>191</v>
       </c>
       <c r="E119" t="n">
-        <v>191</v>
+        <v>190.8</v>
       </c>
       <c r="F119" t="n">
-        <v>2766.8072</v>
+        <v>3933.305</v>
       </c>
       <c r="G119" t="n">
-        <v>194.5</v>
+        <v>194.8716666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4570,8 +4876,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4593,10 +4905,10 @@
         <v>191</v>
       </c>
       <c r="F120" t="n">
-        <v>751.8773</v>
+        <v>2766.8072</v>
       </c>
       <c r="G120" t="n">
-        <v>194.1983333333334</v>
+        <v>194.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4605,8 +4917,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4619,19 +4937,19 @@
         <v>191</v>
       </c>
       <c r="C121" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="D121" t="n">
         <v>191</v>
       </c>
       <c r="E121" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="F121" t="n">
-        <v>471.8938</v>
+        <v>751.8773</v>
       </c>
       <c r="G121" t="n">
-        <v>193.9116666666667</v>
+        <v>194.1983333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4640,8 +4958,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4651,22 +4975,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="C122" t="n">
         <v>190.9</v>
       </c>
       <c r="D122" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="E122" t="n">
         <v>190.9</v>
       </c>
       <c r="F122" t="n">
-        <v>59.7321</v>
+        <v>471.8938</v>
       </c>
       <c r="G122" t="n">
-        <v>193.7566666666667</v>
+        <v>193.9116666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4675,8 +4999,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4686,22 +5016,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>190</v>
+        <v>190.9</v>
       </c>
       <c r="C123" t="n">
-        <v>190</v>
+        <v>190.9</v>
       </c>
       <c r="D123" t="n">
-        <v>190</v>
+        <v>190.9</v>
       </c>
       <c r="E123" t="n">
-        <v>190</v>
+        <v>190.9</v>
       </c>
       <c r="F123" t="n">
-        <v>1311.0874</v>
+        <v>59.7321</v>
       </c>
       <c r="G123" t="n">
-        <v>193.62</v>
+        <v>193.7566666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4710,8 +5040,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4733,10 +5069,10 @@
         <v>190</v>
       </c>
       <c r="F124" t="n">
-        <v>125.6142</v>
+        <v>1311.0874</v>
       </c>
       <c r="G124" t="n">
-        <v>193.42</v>
+        <v>193.62</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4745,8 +5081,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4759,19 +5101,19 @@
         <v>190</v>
       </c>
       <c r="C125" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D125" t="n">
         <v>190</v>
       </c>
       <c r="E125" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F125" t="n">
-        <v>173.2984</v>
+        <v>125.6142</v>
       </c>
       <c r="G125" t="n">
-        <v>193.27</v>
+        <v>193.42</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4780,8 +5122,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4791,22 +5139,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C126" t="n">
         <v>189</v>
       </c>
       <c r="D126" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E126" t="n">
         <v>189</v>
       </c>
       <c r="F126" t="n">
-        <v>159.498</v>
+        <v>173.2984</v>
       </c>
       <c r="G126" t="n">
-        <v>193.12</v>
+        <v>193.27</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4815,8 +5163,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4826,22 +5180,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C127" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D127" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E127" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F127" t="n">
-        <v>4274.0542</v>
+        <v>159.498</v>
       </c>
       <c r="G127" t="n">
-        <v>193.005</v>
+        <v>193.12</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4850,8 +5204,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4861,22 +5221,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>190.9</v>
+        <v>190</v>
       </c>
       <c r="C128" t="n">
-        <v>188.7</v>
+        <v>190</v>
       </c>
       <c r="D128" t="n">
-        <v>191.9</v>
+        <v>190</v>
       </c>
       <c r="E128" t="n">
-        <v>188.7</v>
+        <v>190</v>
       </c>
       <c r="F128" t="n">
-        <v>2878.4156</v>
+        <v>4274.0542</v>
       </c>
       <c r="G128" t="n">
-        <v>192.9333333333333</v>
+        <v>193.005</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4885,8 +5245,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4896,22 +5262,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>190</v>
+        <v>190.9</v>
       </c>
       <c r="C129" t="n">
-        <v>190</v>
+        <v>188.7</v>
       </c>
       <c r="D129" t="n">
-        <v>190</v>
+        <v>191.9</v>
       </c>
       <c r="E129" t="n">
-        <v>190</v>
+        <v>188.7</v>
       </c>
       <c r="F129" t="n">
-        <v>150</v>
+        <v>2878.4156</v>
       </c>
       <c r="G129" t="n">
-        <v>192.8816666666667</v>
+        <v>192.9333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4920,8 +5286,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4931,22 +5303,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C130" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D130" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E130" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F130" t="n">
-        <v>108.9886</v>
+        <v>150</v>
       </c>
       <c r="G130" t="n">
-        <v>192.8633333333333</v>
+        <v>192.8816666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4955,8 +5327,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4969,19 +5347,19 @@
         <v>192</v>
       </c>
       <c r="C131" t="n">
-        <v>188.7</v>
+        <v>192</v>
       </c>
       <c r="D131" t="n">
         <v>192</v>
       </c>
       <c r="E131" t="n">
-        <v>188.7</v>
+        <v>192</v>
       </c>
       <c r="F131" t="n">
-        <v>6239.2326</v>
+        <v>108.9886</v>
       </c>
       <c r="G131" t="n">
-        <v>192.6083333333333</v>
+        <v>192.8633333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4990,8 +5368,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5001,22 +5385,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>192</v>
+      </c>
+      <c r="C132" t="n">
         <v>188.7</v>
       </c>
-      <c r="C132" t="n">
-        <v>190.9</v>
-      </c>
       <c r="D132" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="E132" t="n">
         <v>188.7</v>
       </c>
       <c r="F132" t="n">
-        <v>19393.0186</v>
+        <v>6239.2326</v>
       </c>
       <c r="G132" t="n">
-        <v>192.3233333333333</v>
+        <v>192.6083333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5025,8 +5409,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5036,22 +5426,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>188.8</v>
+        <v>188.7</v>
       </c>
       <c r="C133" t="n">
-        <v>188.7</v>
+        <v>190.9</v>
       </c>
       <c r="D133" t="n">
-        <v>188.8</v>
+        <v>190.9</v>
       </c>
       <c r="E133" t="n">
         <v>188.7</v>
       </c>
       <c r="F133" t="n">
-        <v>2498.5754</v>
+        <v>19393.0186</v>
       </c>
       <c r="G133" t="n">
-        <v>192.0033333333334</v>
+        <v>192.3233333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5060,8 +5450,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5071,22 +5467,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>188.7</v>
+        <v>188.8</v>
       </c>
       <c r="C134" t="n">
         <v>188.7</v>
       </c>
       <c r="D134" t="n">
-        <v>188.7</v>
+        <v>188.8</v>
       </c>
       <c r="E134" t="n">
         <v>188.7</v>
       </c>
       <c r="F134" t="n">
-        <v>2168.154</v>
+        <v>2498.5754</v>
       </c>
       <c r="G134" t="n">
-        <v>191.7466666666667</v>
+        <v>192.0033333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5095,8 +5491,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5118,10 +5520,10 @@
         <v>188.7</v>
       </c>
       <c r="F135" t="n">
-        <v>1044.7684</v>
+        <v>2168.154</v>
       </c>
       <c r="G135" t="n">
-        <v>191.4450000000001</v>
+        <v>191.7466666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5130,8 +5532,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5141,22 +5549,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>190.7</v>
+        <v>188.7</v>
       </c>
       <c r="C136" t="n">
-        <v>190.7</v>
+        <v>188.7</v>
       </c>
       <c r="D136" t="n">
-        <v>190.7</v>
+        <v>188.7</v>
       </c>
       <c r="E136" t="n">
-        <v>190.7</v>
+        <v>188.7</v>
       </c>
       <c r="F136" t="n">
-        <v>605.61</v>
+        <v>1044.7684</v>
       </c>
       <c r="G136" t="n">
-        <v>191.4216666666667</v>
+        <v>191.4450000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5165,8 +5573,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5179,19 +5593,19 @@
         <v>190.7</v>
       </c>
       <c r="C137" t="n">
-        <v>188.7</v>
+        <v>190.7</v>
       </c>
       <c r="D137" t="n">
-        <v>191</v>
+        <v>190.7</v>
       </c>
       <c r="E137" t="n">
-        <v>188.7</v>
+        <v>190.7</v>
       </c>
       <c r="F137" t="n">
-        <v>12531.3638</v>
+        <v>605.61</v>
       </c>
       <c r="G137" t="n">
-        <v>191.3316666666667</v>
+        <v>191.4216666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5200,8 +5614,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5211,22 +5631,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>188.8</v>
+        <v>190.7</v>
       </c>
       <c r="C138" t="n">
-        <v>192</v>
+        <v>188.7</v>
       </c>
       <c r="D138" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E138" t="n">
         <v>188.7</v>
       </c>
       <c r="F138" t="n">
-        <v>303</v>
+        <v>12531.3638</v>
       </c>
       <c r="G138" t="n">
-        <v>191.2316666666667</v>
+        <v>191.3316666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5235,8 +5655,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5246,7 +5672,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>191</v>
+        <v>188.8</v>
       </c>
       <c r="C139" t="n">
         <v>192</v>
@@ -5255,13 +5681,13 @@
         <v>192</v>
       </c>
       <c r="E139" t="n">
-        <v>191</v>
+        <v>188.7</v>
       </c>
       <c r="F139" t="n">
-        <v>7078.0892</v>
+        <v>303</v>
       </c>
       <c r="G139" t="n">
-        <v>191.1333333333334</v>
+        <v>191.2316666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5270,8 +5696,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5281,22 +5713,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>191</v>
+      </c>
+      <c r="C140" t="n">
         <v>192</v>
-      </c>
-      <c r="C140" t="n">
-        <v>189.7</v>
       </c>
       <c r="D140" t="n">
         <v>192</v>
       </c>
       <c r="E140" t="n">
-        <v>189.7</v>
+        <v>191</v>
       </c>
       <c r="F140" t="n">
-        <v>5258.2286</v>
+        <v>7078.0892</v>
       </c>
       <c r="G140" t="n">
-        <v>191.0266666666667</v>
+        <v>191.1333333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5305,8 +5737,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5316,22 +5754,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>189.7</v>
+        <v>192</v>
       </c>
       <c r="C141" t="n">
         <v>189.7</v>
       </c>
       <c r="D141" t="n">
-        <v>189.7</v>
+        <v>192</v>
       </c>
       <c r="E141" t="n">
         <v>189.7</v>
       </c>
       <c r="F141" t="n">
-        <v>9432.677</v>
+        <v>5258.2286</v>
       </c>
       <c r="G141" t="n">
-        <v>190.9200000000001</v>
+        <v>191.0266666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5340,8 +5778,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5351,22 +5795,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>191.5</v>
+        <v>189.7</v>
       </c>
       <c r="C142" t="n">
-        <v>191.5</v>
+        <v>189.7</v>
       </c>
       <c r="D142" t="n">
-        <v>191.5</v>
+        <v>189.7</v>
       </c>
       <c r="E142" t="n">
-        <v>191.5</v>
+        <v>189.7</v>
       </c>
       <c r="F142" t="n">
-        <v>5</v>
+        <v>9432.677</v>
       </c>
       <c r="G142" t="n">
-        <v>190.8116666666668</v>
+        <v>190.9200000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5375,8 +5819,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5398,10 +5848,10 @@
         <v>191.5</v>
       </c>
       <c r="F143" t="n">
-        <v>48.0385</v>
+        <v>5</v>
       </c>
       <c r="G143" t="n">
-        <v>190.7683333333334</v>
+        <v>190.8116666666668</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5410,8 +5860,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5433,10 +5889,10 @@
         <v>191.5</v>
       </c>
       <c r="F144" t="n">
-        <v>5</v>
+        <v>48.0385</v>
       </c>
       <c r="G144" t="n">
-        <v>190.7550000000001</v>
+        <v>190.7683333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5445,8 +5901,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5933,7 @@
         <v>5</v>
       </c>
       <c r="G145" t="n">
-        <v>190.7416666666668</v>
+        <v>190.7550000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5480,8 +5942,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5503,10 +5971,10 @@
         <v>191.5</v>
       </c>
       <c r="F146" t="n">
-        <v>1037.7545691906</v>
+        <v>5</v>
       </c>
       <c r="G146" t="n">
-        <v>190.7300000000001</v>
+        <v>190.7416666666668</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5515,8 +5983,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5526,22 +6000,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>189.7</v>
+        <v>191.5</v>
       </c>
       <c r="C147" t="n">
-        <v>189.7</v>
+        <v>191.5</v>
       </c>
       <c r="D147" t="n">
-        <v>189.7</v>
+        <v>191.5</v>
       </c>
       <c r="E147" t="n">
-        <v>189.7</v>
+        <v>191.5</v>
       </c>
       <c r="F147" t="n">
-        <v>1037.7546</v>
+        <v>1037.7545691906</v>
       </c>
       <c r="G147" t="n">
-        <v>190.6583333333334</v>
+        <v>190.7300000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5550,8 +6024,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5561,22 +6041,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>191.5</v>
+        <v>189.7</v>
       </c>
       <c r="C148" t="n">
-        <v>191.5</v>
+        <v>189.7</v>
       </c>
       <c r="D148" t="n">
-        <v>191.5</v>
+        <v>189.7</v>
       </c>
       <c r="E148" t="n">
-        <v>191.5</v>
+        <v>189.7</v>
       </c>
       <c r="F148" t="n">
-        <v>6</v>
+        <v>1037.7546</v>
       </c>
       <c r="G148" t="n">
-        <v>190.6466666666667</v>
+        <v>190.6583333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5585,8 +6065,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5596,22 +6082,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>191.4</v>
+        <v>191.5</v>
       </c>
       <c r="C149" t="n">
-        <v>191.4</v>
+        <v>191.5</v>
       </c>
       <c r="D149" t="n">
-        <v>191.4</v>
+        <v>191.5</v>
       </c>
       <c r="E149" t="n">
-        <v>191.4</v>
+        <v>191.5</v>
       </c>
       <c r="F149" t="n">
         <v>6</v>
       </c>
       <c r="G149" t="n">
-        <v>190.6366666666667</v>
+        <v>190.6466666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5620,8 +6106,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5631,22 +6123,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>189.7</v>
+        <v>191.4</v>
       </c>
       <c r="C150" t="n">
-        <v>189.7</v>
+        <v>191.4</v>
       </c>
       <c r="D150" t="n">
-        <v>189.7</v>
+        <v>191.4</v>
       </c>
       <c r="E150" t="n">
-        <v>189.7</v>
+        <v>191.4</v>
       </c>
       <c r="F150" t="n">
-        <v>3718.7121</v>
+        <v>6</v>
       </c>
       <c r="G150" t="n">
-        <v>190.6766666666668</v>
+        <v>190.6366666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5655,8 +6147,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5678,10 +6176,10 @@
         <v>189.7</v>
       </c>
       <c r="F151" t="n">
-        <v>880.466</v>
+        <v>3718.7121</v>
       </c>
       <c r="G151" t="n">
-        <v>190.6716666666668</v>
+        <v>190.6766666666668</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5690,8 +6188,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5701,22 +6205,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>191.4</v>
+        <v>189.7</v>
       </c>
       <c r="C152" t="n">
         <v>189.7</v>
       </c>
       <c r="D152" t="n">
-        <v>191.4</v>
+        <v>189.7</v>
       </c>
       <c r="E152" t="n">
         <v>189.7</v>
       </c>
       <c r="F152" t="n">
-        <v>1068.4815</v>
+        <v>880.466</v>
       </c>
       <c r="G152" t="n">
-        <v>190.6200000000001</v>
+        <v>190.6716666666668</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5725,8 +6229,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5736,22 +6246,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>191.5</v>
+        <v>191.4</v>
       </c>
       <c r="C153" t="n">
-        <v>191.5</v>
+        <v>189.7</v>
       </c>
       <c r="D153" t="n">
-        <v>191.5</v>
+        <v>191.4</v>
       </c>
       <c r="E153" t="n">
-        <v>191.5</v>
+        <v>189.7</v>
       </c>
       <c r="F153" t="n">
-        <v>3</v>
+        <v>1068.4815</v>
       </c>
       <c r="G153" t="n">
-        <v>190.4633333333335</v>
+        <v>190.6200000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5760,8 +6270,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5771,22 +6287,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>191.4</v>
+        <v>191.5</v>
       </c>
       <c r="C154" t="n">
-        <v>192</v>
+        <v>191.5</v>
       </c>
       <c r="D154" t="n">
-        <v>192</v>
+        <v>191.5</v>
       </c>
       <c r="E154" t="n">
-        <v>191.4</v>
+        <v>191.5</v>
       </c>
       <c r="F154" t="n">
-        <v>5006</v>
+        <v>3</v>
       </c>
       <c r="G154" t="n">
-        <v>190.4300000000001</v>
+        <v>190.4633333333335</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5795,8 +6311,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5806,7 +6328,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>192</v>
+        <v>191.4</v>
       </c>
       <c r="C155" t="n">
         <v>192</v>
@@ -5815,13 +6337,13 @@
         <v>192</v>
       </c>
       <c r="E155" t="n">
-        <v>192</v>
+        <v>191.4</v>
       </c>
       <c r="F155" t="n">
-        <v>44</v>
+        <v>5006</v>
       </c>
       <c r="G155" t="n">
-        <v>190.4466666666668</v>
+        <v>190.4300000000001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5830,8 +6352,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5841,7 +6369,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C156" t="n">
         <v>192</v>
@@ -5850,13 +6378,13 @@
         <v>192</v>
       </c>
       <c r="E156" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F156" t="n">
-        <v>94.6765</v>
+        <v>44</v>
       </c>
       <c r="G156" t="n">
-        <v>190.4633333333335</v>
+        <v>190.4466666666668</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5865,8 +6393,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5876,7 +6410,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C157" t="n">
         <v>192</v>
@@ -5885,13 +6419,13 @@
         <v>192</v>
       </c>
       <c r="E157" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F157" t="n">
-        <v>1000</v>
+        <v>94.6765</v>
       </c>
       <c r="G157" t="n">
-        <v>190.4800000000001</v>
+        <v>190.4633333333335</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5900,8 +6434,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5923,10 +6463,10 @@
         <v>192</v>
       </c>
       <c r="F158" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="G158" t="n">
-        <v>190.5416666666668</v>
+        <v>190.4800000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5935,8 +6475,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5958,10 +6504,10 @@
         <v>192</v>
       </c>
       <c r="F159" t="n">
-        <v>2.7778</v>
+        <v>110</v>
       </c>
       <c r="G159" t="n">
-        <v>190.6083333333335</v>
+        <v>190.5416666666668</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5970,8 +6516,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5981,22 +6533,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>190.1</v>
+        <v>192</v>
       </c>
       <c r="C160" t="n">
-        <v>190.1</v>
+        <v>192</v>
       </c>
       <c r="D160" t="n">
-        <v>190.1</v>
+        <v>192</v>
       </c>
       <c r="E160" t="n">
-        <v>190.1</v>
+        <v>192</v>
       </c>
       <c r="F160" t="n">
-        <v>6</v>
+        <v>2.7778</v>
       </c>
       <c r="G160" t="n">
-        <v>190.6116666666668</v>
+        <v>190.6083333333335</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6005,8 +6557,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6016,22 +6574,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>192</v>
+        <v>190.1</v>
       </c>
       <c r="C161" t="n">
-        <v>192</v>
+        <v>190.1</v>
       </c>
       <c r="D161" t="n">
-        <v>192</v>
+        <v>190.1</v>
       </c>
       <c r="E161" t="n">
-        <v>192</v>
+        <v>190.1</v>
       </c>
       <c r="F161" t="n">
         <v>6</v>
       </c>
       <c r="G161" t="n">
-        <v>190.6200000000002</v>
+        <v>190.6116666666668</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6040,8 +6598,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6063,10 +6627,10 @@
         <v>192</v>
       </c>
       <c r="F162" t="n">
-        <v>9.4513</v>
+        <v>6</v>
       </c>
       <c r="G162" t="n">
-        <v>190.6600000000002</v>
+        <v>190.6200000000002</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6075,8 +6639,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6086,22 +6656,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C163" t="n">
-        <v>190.1</v>
+        <v>192</v>
       </c>
       <c r="D163" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E163" t="n">
-        <v>190.1</v>
+        <v>192</v>
       </c>
       <c r="F163" t="n">
-        <v>150</v>
+        <v>9.4513</v>
       </c>
       <c r="G163" t="n">
-        <v>190.7000000000002</v>
+        <v>190.6600000000002</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6110,8 +6680,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6124,19 +6700,19 @@
         <v>191</v>
       </c>
       <c r="C164" t="n">
-        <v>191</v>
+        <v>190.1</v>
       </c>
       <c r="D164" t="n">
         <v>191</v>
       </c>
       <c r="E164" t="n">
-        <v>191</v>
+        <v>190.1</v>
       </c>
       <c r="F164" t="n">
-        <v>76.8322</v>
+        <v>150</v>
       </c>
       <c r="G164" t="n">
-        <v>190.6850000000001</v>
+        <v>190.7000000000002</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6145,8 +6721,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6156,22 +6738,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>193.2</v>
+        <v>191</v>
       </c>
       <c r="C165" t="n">
-        <v>193.2</v>
+        <v>191</v>
       </c>
       <c r="D165" t="n">
-        <v>193.2</v>
+        <v>191</v>
       </c>
       <c r="E165" t="n">
-        <v>193.2</v>
+        <v>191</v>
       </c>
       <c r="F165" t="n">
-        <v>6</v>
+        <v>76.8322</v>
       </c>
       <c r="G165" t="n">
-        <v>190.7233333333335</v>
+        <v>190.6850000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6180,8 +6762,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6194,19 +6782,19 @@
         <v>193.2</v>
       </c>
       <c r="C166" t="n">
-        <v>190.1</v>
+        <v>193.2</v>
       </c>
       <c r="D166" t="n">
-        <v>196</v>
+        <v>193.2</v>
       </c>
       <c r="E166" t="n">
-        <v>190.1</v>
+        <v>193.2</v>
       </c>
       <c r="F166" t="n">
-        <v>14632.8762</v>
+        <v>6</v>
       </c>
       <c r="G166" t="n">
-        <v>190.6916666666669</v>
+        <v>190.7233333333335</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6215,8 +6803,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6226,22 +6820,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>196.7</v>
+        <v>193.2</v>
       </c>
       <c r="C167" t="n">
-        <v>196.7</v>
+        <v>190.1</v>
       </c>
       <c r="D167" t="n">
-        <v>196.7</v>
+        <v>196</v>
       </c>
       <c r="E167" t="n">
-        <v>196.7</v>
+        <v>190.1</v>
       </c>
       <c r="F167" t="n">
-        <v>101.677</v>
+        <v>14632.8762</v>
       </c>
       <c r="G167" t="n">
-        <v>190.7716666666669</v>
+        <v>190.6916666666669</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6250,8 +6844,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6261,22 +6861,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>191.2</v>
+        <v>196.7</v>
       </c>
       <c r="C168" t="n">
-        <v>192</v>
+        <v>196.7</v>
       </c>
       <c r="D168" t="n">
-        <v>192</v>
+        <v>196.7</v>
       </c>
       <c r="E168" t="n">
-        <v>191.1</v>
+        <v>196.7</v>
       </c>
       <c r="F168" t="n">
-        <v>990</v>
+        <v>101.677</v>
       </c>
       <c r="G168" t="n">
-        <v>190.7900000000002</v>
+        <v>190.7716666666669</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6285,8 +6885,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6296,22 +6902,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>191.1</v>
+        <v>191.2</v>
       </c>
       <c r="C169" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="D169" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="E169" t="n">
         <v>191.1</v>
       </c>
       <c r="F169" t="n">
-        <v>2304.1857</v>
+        <v>990</v>
       </c>
       <c r="G169" t="n">
-        <v>190.7750000000002</v>
+        <v>190.7900000000002</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6320,8 +6926,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6331,22 +6943,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>191.2</v>
+        <v>191.1</v>
       </c>
       <c r="C170" t="n">
-        <v>191.2</v>
+        <v>191.1</v>
       </c>
       <c r="D170" t="n">
-        <v>191.2</v>
+        <v>191.1</v>
       </c>
       <c r="E170" t="n">
-        <v>191.2</v>
+        <v>191.1</v>
       </c>
       <c r="F170" t="n">
-        <v>153.93</v>
+        <v>2304.1857</v>
       </c>
       <c r="G170" t="n">
-        <v>190.7616666666669</v>
+        <v>190.7750000000002</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6355,8 +6967,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6369,19 +6987,19 @@
         <v>191.2</v>
       </c>
       <c r="C171" t="n">
-        <v>191.1</v>
+        <v>191.2</v>
       </c>
       <c r="D171" t="n">
         <v>191.2</v>
       </c>
       <c r="E171" t="n">
-        <v>191.1</v>
+        <v>191.2</v>
       </c>
       <c r="F171" t="n">
-        <v>1089.2303</v>
+        <v>153.93</v>
       </c>
       <c r="G171" t="n">
-        <v>190.7466666666669</v>
+        <v>190.7616666666669</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6390,8 +7008,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6404,19 +7028,19 @@
         <v>191.2</v>
       </c>
       <c r="C172" t="n">
-        <v>191.2</v>
+        <v>191.1</v>
       </c>
       <c r="D172" t="n">
         <v>191.2</v>
       </c>
       <c r="E172" t="n">
-        <v>191.2</v>
+        <v>191.1</v>
       </c>
       <c r="F172" t="n">
-        <v>5</v>
+        <v>1089.2303</v>
       </c>
       <c r="G172" t="n">
-        <v>190.7516666666669</v>
+        <v>190.7466666666669</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6425,8 +7049,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6436,22 +7066,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>193.9</v>
+        <v>191.2</v>
       </c>
       <c r="C173" t="n">
-        <v>193.9</v>
+        <v>191.2</v>
       </c>
       <c r="D173" t="n">
-        <v>193.9</v>
+        <v>191.2</v>
       </c>
       <c r="E173" t="n">
-        <v>193.9</v>
+        <v>191.2</v>
       </c>
       <c r="F173" t="n">
-        <v>4.9055</v>
+        <v>5</v>
       </c>
       <c r="G173" t="n">
-        <v>190.8166666666669</v>
+        <v>190.7516666666669</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6460,8 +7090,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6474,19 +7110,19 @@
         <v>193.9</v>
       </c>
       <c r="C174" t="n">
-        <v>191</v>
+        <v>193.9</v>
       </c>
       <c r="D174" t="n">
         <v>193.9</v>
       </c>
       <c r="E174" t="n">
-        <v>191</v>
+        <v>193.9</v>
       </c>
       <c r="F174" t="n">
-        <v>11471.1445</v>
+        <v>4.9055</v>
       </c>
       <c r="G174" t="n">
-        <v>190.8533333333336</v>
+        <v>190.8166666666669</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6495,8 +7131,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6506,22 +7148,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>192.1</v>
+        <v>193.9</v>
       </c>
       <c r="C175" t="n">
-        <v>192.1</v>
+        <v>191</v>
       </c>
       <c r="D175" t="n">
-        <v>192.1</v>
+        <v>193.9</v>
       </c>
       <c r="E175" t="n">
-        <v>192.1</v>
+        <v>191</v>
       </c>
       <c r="F175" t="n">
-        <v>72.62179999999999</v>
+        <v>11471.1445</v>
       </c>
       <c r="G175" t="n">
-        <v>190.9050000000003</v>
+        <v>190.8533333333336</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6530,8 +7172,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6541,22 +7189,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>192</v>
+        <v>192.1</v>
       </c>
       <c r="C176" t="n">
-        <v>191.7</v>
+        <v>192.1</v>
       </c>
       <c r="D176" t="n">
-        <v>192</v>
+        <v>192.1</v>
       </c>
       <c r="E176" t="n">
-        <v>191.7</v>
+        <v>192.1</v>
       </c>
       <c r="F176" t="n">
-        <v>182.4142</v>
+        <v>72.62179999999999</v>
       </c>
       <c r="G176" t="n">
-        <v>190.9200000000003</v>
+        <v>190.9050000000003</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6565,8 +7213,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6579,19 +7233,19 @@
         <v>192</v>
       </c>
       <c r="C177" t="n">
-        <v>192</v>
+        <v>191.7</v>
       </c>
       <c r="D177" t="n">
         <v>192</v>
       </c>
       <c r="E177" t="n">
-        <v>192</v>
+        <v>191.7</v>
       </c>
       <c r="F177" t="n">
-        <v>6588.4278</v>
+        <v>182.4142</v>
       </c>
       <c r="G177" t="n">
-        <v>190.9533333333336</v>
+        <v>190.9200000000003</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6600,8 +7254,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6611,22 +7271,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="C178" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="D178" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="E178" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="F178" t="n">
-        <v>2628.6163</v>
+        <v>6588.4278</v>
       </c>
       <c r="G178" t="n">
-        <v>190.9516666666669</v>
+        <v>190.9533333333336</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6635,8 +7295,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6646,22 +7312,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>190.8</v>
+        <v>191.1</v>
       </c>
       <c r="C179" t="n">
-        <v>190.8</v>
+        <v>190.9</v>
       </c>
       <c r="D179" t="n">
-        <v>191</v>
+        <v>191.1</v>
       </c>
       <c r="E179" t="n">
-        <v>190.8</v>
+        <v>190.9</v>
       </c>
       <c r="F179" t="n">
-        <v>2368.6501</v>
+        <v>2628.6163</v>
       </c>
       <c r="G179" t="n">
-        <v>190.9483333333336</v>
+        <v>190.9516666666669</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6670,8 +7336,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6687,16 +7359,16 @@
         <v>190.8</v>
       </c>
       <c r="D180" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E180" t="n">
         <v>190.8</v>
       </c>
       <c r="F180" t="n">
-        <v>64</v>
+        <v>2368.6501</v>
       </c>
       <c r="G180" t="n">
-        <v>190.9450000000002</v>
+        <v>190.9483333333336</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6705,8 +7377,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6722,16 +7400,16 @@
         <v>190.8</v>
       </c>
       <c r="D181" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="E181" t="n">
         <v>190.8</v>
       </c>
       <c r="F181" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="G181" t="n">
-        <v>190.9433333333336</v>
+        <v>190.9450000000002</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6740,8 +7418,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6763,10 +7447,10 @@
         <v>190.8</v>
       </c>
       <c r="F182" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G182" t="n">
-        <v>190.9416666666669</v>
+        <v>190.9433333333336</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6775,8 +7459,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6786,22 +7476,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>190.9</v>
+        <v>190.8</v>
       </c>
       <c r="C183" t="n">
         <v>190.8</v>
       </c>
       <c r="D183" t="n">
-        <v>191.8</v>
+        <v>190.8</v>
       </c>
       <c r="E183" t="n">
         <v>190.8</v>
       </c>
       <c r="F183" t="n">
-        <v>1689.5135</v>
+        <v>5</v>
       </c>
       <c r="G183" t="n">
-        <v>190.9550000000002</v>
+        <v>190.9416666666669</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6810,8 +7500,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6821,33 +7517,80 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="C184" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="D184" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="E184" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1689.5135</v>
+      </c>
+      <c r="G184" t="n">
+        <v>190.9550000000002</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
         <v>190.7</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C185" t="n">
         <v>190.1</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D185" t="n">
         <v>190.8</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E185" t="n">
         <v>190.1</v>
       </c>
-      <c r="F184" t="n">
+      <c r="F185" t="n">
         <v>25027.2385</v>
       </c>
-      <c r="G184" t="n">
+      <c r="G185" t="n">
         <v>190.9566666666669</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest AE.xlsx
+++ b/BackTest/2020-01-19 BackTest AE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:N195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>722.3152</v>
       </c>
       <c r="G2" t="n">
+        <v>183.1533333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>186.4900000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
+        <v>183.2133333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>186.4250000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>5548.5878</v>
       </c>
       <c r="G4" t="n">
+        <v>183.1599999999999</v>
+      </c>
+      <c r="H4" t="n">
         <v>186.3316666666668</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
+        <v>183.32</v>
+      </c>
+      <c r="H5" t="n">
         <v>186.3050000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1669.5784</v>
       </c>
       <c r="G6" t="n">
+        <v>183.36</v>
+      </c>
+      <c r="H6" t="n">
         <v>186.2266666666668</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2.8</v>
       </c>
       <c r="G7" t="n">
+        <v>183.4866666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>186.1983333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>2104.8567</v>
       </c>
       <c r="G8" t="n">
+        <v>183.6199999999999</v>
+      </c>
+      <c r="H8" t="n">
         <v>186.1366666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>21559.8105</v>
       </c>
       <c r="G9" t="n">
+        <v>183.7199999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>186.0950000000001</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1960</v>
       </c>
       <c r="G10" t="n">
+        <v>183.74</v>
+      </c>
+      <c r="H10" t="n">
         <v>186.0500000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>802.46</v>
       </c>
       <c r="G11" t="n">
+        <v>183.7466666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>185.9650000000001</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>5000</v>
       </c>
       <c r="G12" t="n">
+        <v>183.6533333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>185.8766666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>25.136</v>
       </c>
       <c r="G13" t="n">
+        <v>183.56</v>
+      </c>
+      <c r="H13" t="n">
         <v>185.7883333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1060</v>
       </c>
       <c r="G14" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="H14" t="n">
         <v>185.7050000000001</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,25 @@
         <v>147.3833</v>
       </c>
       <c r="G15" t="n">
+        <v>183.4933333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>185.6216666666668</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +989,29 @@
         <v>147.3833</v>
       </c>
       <c r="G16" t="n">
+        <v>183.42</v>
+      </c>
+      <c r="H16" t="n">
         <v>185.5366666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1035,29 @@
         <v>3</v>
       </c>
       <c r="G17" t="n">
+        <v>183.4066666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>185.4683333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>182</v>
+      </c>
+      <c r="L17" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1081,29 @@
         <v>300</v>
       </c>
       <c r="G18" t="n">
+        <v>183.34</v>
+      </c>
+      <c r="H18" t="n">
         <v>185.3833333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>183</v>
+      </c>
+      <c r="L18" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1127,29 @@
         <v>3326.9185</v>
       </c>
       <c r="G19" t="n">
+        <v>183.3866666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>185.2550000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1173,29 @@
         <v>3116.297214593591</v>
       </c>
       <c r="G20" t="n">
+        <v>183.38</v>
+      </c>
+      <c r="H20" t="n">
         <v>185.2316666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1219,29 @@
         <v>5000.000016450216</v>
       </c>
       <c r="G21" t="n">
+        <v>183.38</v>
+      </c>
+      <c r="H21" t="n">
         <v>185.1933333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="L21" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1265,29 @@
         <v>4.8789</v>
       </c>
       <c r="G22" t="n">
+        <v>183.38</v>
+      </c>
+      <c r="H22" t="n">
         <v>185.1716666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1311,27 @@
         <v>3152.6779</v>
       </c>
       <c r="G23" t="n">
+        <v>183.38</v>
+      </c>
+      <c r="H23" t="n">
         <v>185.13</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1355,27 @@
         <v>5098.1253</v>
       </c>
       <c r="G24" t="n">
+        <v>183.38</v>
+      </c>
+      <c r="H24" t="n">
         <v>185.0616666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1399,27 @@
         <v>1679.16</v>
       </c>
       <c r="G25" t="n">
+        <v>183.3333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>184.955</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1443,27 @@
         <v>4</v>
       </c>
       <c r="G26" t="n">
+        <v>183.5133333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>184.89</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1487,27 @@
         <v>20349.3579</v>
       </c>
       <c r="G27" t="n">
+        <v>183.9266666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>184.9083333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1531,27 @@
         <v>76408.50810000001</v>
       </c>
       <c r="G28" t="n">
+        <v>184.1733333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>184.8849999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1575,27 @@
         <v>1927.6482</v>
       </c>
       <c r="G29" t="n">
+        <v>184.5733333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>184.8699999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1619,27 @@
         <v>6613.2711</v>
       </c>
       <c r="G30" t="n">
+        <v>184.9733333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>184.8466666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1663,27 @@
         <v>3863.5471</v>
       </c>
       <c r="G31" t="n">
+        <v>185.54</v>
+      </c>
+      <c r="H31" t="n">
         <v>184.8716666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1707,27 @@
         <v>72833.68769999999</v>
       </c>
       <c r="G32" t="n">
+        <v>186.4066666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>184.9883333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1751,27 @@
         <v>17931.535</v>
       </c>
       <c r="G33" t="n">
+        <v>187.4666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>185.1683333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1795,27 @@
         <v>30284.99357249035</v>
       </c>
       <c r="G34" t="n">
+        <v>188.8733333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>185.4016666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1839,27 @@
         <v>65009.3825</v>
       </c>
       <c r="G35" t="n">
+        <v>191.2133333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>185.9183333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1883,27 @@
         <v>38706.83443129283</v>
       </c>
       <c r="G36" t="n">
+        <v>193.22</v>
+      </c>
+      <c r="H36" t="n">
         <v>186.3849999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1927,27 @@
         <v>39558.92326757905</v>
       </c>
       <c r="G37" t="n">
+        <v>193.98</v>
+      </c>
+      <c r="H37" t="n">
         <v>186.5566666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1971,27 @@
         <v>8206.534941802443</v>
       </c>
       <c r="G38" t="n">
+        <v>194.5666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>186.6766666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2015,27 @@
         <v>5051.4972</v>
       </c>
       <c r="G39" t="n">
+        <v>195.3666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>186.8116666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2059,27 @@
         <v>14786.04999874055</v>
       </c>
       <c r="G40" t="n">
+        <v>196.76</v>
+      </c>
+      <c r="H40" t="n">
         <v>187.08</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2103,27 @@
         <v>8868.3115</v>
       </c>
       <c r="G41" t="n">
+        <v>197.62</v>
+      </c>
+      <c r="H41" t="n">
         <v>187.2783333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2147,27 @@
         <v>6</v>
       </c>
       <c r="G42" t="n">
+        <v>198.5333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>187.5133333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2191,27 @@
         <v>19005.70027891655</v>
       </c>
       <c r="G43" t="n">
+        <v>199.8066666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>187.7966666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2235,27 @@
         <v>11279.587</v>
       </c>
       <c r="G44" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="H44" t="n">
         <v>188.0299999999999</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2279,27 @@
         <v>3363.6671</v>
       </c>
       <c r="G45" t="n">
+        <v>201.7266666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>188.3633333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2323,27 @@
         <v>15778.7018</v>
       </c>
       <c r="G46" t="n">
+        <v>202.92</v>
+      </c>
+      <c r="H46" t="n">
         <v>188.77</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2367,27 @@
         <v>28128.42811368274</v>
       </c>
       <c r="G47" t="n">
+        <v>203.52</v>
+      </c>
+      <c r="H47" t="n">
         <v>189.1216666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2411,27 @@
         <v>76883.8147</v>
       </c>
       <c r="G48" t="n">
+        <v>204.2666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>189.5716666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2455,27 @@
         <v>5306.0631</v>
       </c>
       <c r="G49" t="n">
+        <v>204.38</v>
+      </c>
+      <c r="H49" t="n">
         <v>189.95</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2499,27 @@
         <v>13646.3392</v>
       </c>
       <c r="G50" t="n">
+        <v>203.74</v>
+      </c>
+      <c r="H50" t="n">
         <v>190.4133333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2543,27 @@
         <v>50788.9532</v>
       </c>
       <c r="G51" t="n">
+        <v>203.7</v>
+      </c>
+      <c r="H51" t="n">
         <v>190.915</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2587,27 @@
         <v>8417.513999999999</v>
       </c>
       <c r="G52" t="n">
+        <v>205.12</v>
+      </c>
+      <c r="H52" t="n">
         <v>191.4916666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2631,27 @@
         <v>20937.86845740402</v>
       </c>
       <c r="G53" t="n">
+        <v>206.7733333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>192.085</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2675,27 @@
         <v>14198.9251</v>
       </c>
       <c r="G54" t="n">
+        <v>208.2066666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>192.6683333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,19 +2719,28 @@
         <v>4734.6961</v>
       </c>
       <c r="G55" t="n">
+        <v>208.8133333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>193.1616666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
+      <c r="L55" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>1.165236133992312</v>
       </c>
     </row>
     <row r="56">
@@ -2338,18 +2763,21 @@
         <v>1773.5699</v>
       </c>
       <c r="G56" t="n">
+        <v>209.84</v>
+      </c>
+      <c r="H56" t="n">
         <v>193.6799999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2801,21 @@
         <v>10408.74268268877</v>
       </c>
       <c r="G57" t="n">
+        <v>210.6</v>
+      </c>
+      <c r="H57" t="n">
         <v>194.1783333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2839,21 @@
         <v>5456.6265</v>
       </c>
       <c r="G58" t="n">
+        <v>211.16</v>
+      </c>
+      <c r="H58" t="n">
         <v>194.6749999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2877,21 @@
         <v>6162.1299</v>
       </c>
       <c r="G59" t="n">
+        <v>212.0466666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>195.1799999999999</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2915,21 @@
         <v>4723.8648</v>
       </c>
       <c r="G60" t="n">
+        <v>212.6</v>
+      </c>
+      <c r="H60" t="n">
         <v>195.6983333333332</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2953,21 @@
         <v>991</v>
       </c>
       <c r="G61" t="n">
+        <v>212.6466666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>196.1316666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2991,21 @@
         <v>523.7907</v>
       </c>
       <c r="G62" t="n">
+        <v>212.8533333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>196.5466666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3029,21 @@
         <v>1157.8345</v>
       </c>
       <c r="G63" t="n">
+        <v>212.1333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>196.8016666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3067,21 @@
         <v>2832.5852</v>
       </c>
       <c r="G64" t="n">
+        <v>211.5666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>197.0516666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,22 +3105,21 @@
         <v>22</v>
       </c>
       <c r="G65" t="n">
+        <v>211.0133333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>197.3366666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="K65" t="n">
-        <v>198.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,26 +3143,21 @@
         <v>3097.0122</v>
       </c>
       <c r="G66" t="n">
+        <v>209.9866666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>197.5716666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>202</v>
-      </c>
-      <c r="K66" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2735,24 +3181,21 @@
         <v>6099.8774</v>
       </c>
       <c r="G67" t="n">
+        <v>208.68</v>
+      </c>
+      <c r="H67" t="n">
         <v>197.7899999999999</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,24 +3219,21 @@
         <v>13201.5783</v>
       </c>
       <c r="G68" t="n">
+        <v>207.24</v>
+      </c>
+      <c r="H68" t="n">
         <v>197.9899999999999</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2817,24 +3257,21 @@
         <v>3070.0012</v>
       </c>
       <c r="G69" t="n">
+        <v>205.5466666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>198.1249999999999</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2858,24 +3295,21 @@
         <v>1070.0012</v>
       </c>
       <c r="G70" t="n">
+        <v>204.2133333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>198.2799999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2899,24 +3333,21 @@
         <v>2302.0257</v>
       </c>
       <c r="G71" t="n">
+        <v>202.8666666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>198.46</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2940,24 +3371,21 @@
         <v>10813.1486</v>
       </c>
       <c r="G72" t="n">
+        <v>202.24</v>
+      </c>
+      <c r="H72" t="n">
         <v>198.825</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2981,24 +3409,21 @@
         <v>3075.784</v>
       </c>
       <c r="G73" t="n">
+        <v>201.8866666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>199.2566666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,24 +3447,21 @@
         <v>40</v>
       </c>
       <c r="G74" t="n">
+        <v>201.5266666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>199.6866666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3063,24 +3485,21 @@
         <v>1246.0555</v>
       </c>
       <c r="G75" t="n">
+        <v>200.9133333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>200.0533333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3104,24 +3523,21 @@
         <v>50.8273</v>
       </c>
       <c r="G76" t="n">
+        <v>200.7599999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>200.4666666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3145,24 +3561,21 @@
         <v>6400.908</v>
       </c>
       <c r="G77" t="n">
+        <v>199.6933333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>200.6183333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,24 +3599,21 @@
         <v>5700</v>
       </c>
       <c r="G78" t="n">
+        <v>199.2866666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>200.7883333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3227,24 +3637,21 @@
         <v>1453.2362</v>
       </c>
       <c r="G79" t="n">
+        <v>199.2733333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>201.0233333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,24 +3675,21 @@
         <v>9548.663200000001</v>
       </c>
       <c r="G80" t="n">
+        <v>199</v>
+      </c>
+      <c r="H80" t="n">
         <v>201.2416666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3309,24 +3713,21 @@
         <v>5852.9488</v>
       </c>
       <c r="G81" t="n">
+        <v>198.8733333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>201.445</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3350,24 +3751,21 @@
         <v>11862.8707</v>
       </c>
       <c r="G82" t="n">
+        <v>198.7466666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>201.6316666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3391,24 +3789,21 @@
         <v>28358.77</v>
       </c>
       <c r="G83" t="n">
+        <v>198.82</v>
+      </c>
+      <c r="H83" t="n">
         <v>201.85</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3432,24 +3827,21 @@
         <v>10043.6236</v>
       </c>
       <c r="G84" t="n">
+        <v>198.8933333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>202.0033333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3473,24 +3865,21 @@
         <v>24097.3841</v>
       </c>
       <c r="G85" t="n">
+        <v>198.84</v>
+      </c>
+      <c r="H85" t="n">
         <v>202.1566666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,24 +3903,21 @@
         <v>2570.3581</v>
       </c>
       <c r="G86" t="n">
+        <v>198.7866666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>202.2783333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3555,24 +3941,21 @@
         <v>1519.6185</v>
       </c>
       <c r="G87" t="n">
+        <v>198</v>
+      </c>
+      <c r="H87" t="n">
         <v>202.3433333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3596,24 +3979,21 @@
         <v>14141.867</v>
       </c>
       <c r="G88" t="n">
+        <v>197.0666666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>202.48</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3637,24 +4017,21 @@
         <v>7833.0771</v>
       </c>
       <c r="G89" t="n">
+        <v>196.02</v>
+      </c>
+      <c r="H89" t="n">
         <v>202.5483333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,24 +4055,21 @@
         <v>251.2992</v>
       </c>
       <c r="G90" t="n">
+        <v>195.2133333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>202.6133333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,24 +4093,21 @@
         <v>13795.5989</v>
       </c>
       <c r="G91" t="n">
+        <v>193.9133333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>202.56</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,24 +4131,21 @@
         <v>33147.0026</v>
       </c>
       <c r="G92" t="n">
+        <v>193.7733333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>202.46</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3801,24 +4169,21 @@
         <v>11004.5003</v>
       </c>
       <c r="G93" t="n">
+        <v>193.6866666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>202.3433333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,24 +4207,21 @@
         <v>1300</v>
       </c>
       <c r="G94" t="n">
+        <v>193.88</v>
+      </c>
+      <c r="H94" t="n">
         <v>202.275</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3883,24 +4245,21 @@
         <v>17114.1344</v>
       </c>
       <c r="G95" t="n">
+        <v>193.62</v>
+      </c>
+      <c r="H95" t="n">
         <v>201.8433333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3924,24 +4283,21 @@
         <v>383.4848</v>
       </c>
       <c r="G96" t="n">
+        <v>193.28</v>
+      </c>
+      <c r="H96" t="n">
         <v>201.46</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,24 +4321,21 @@
         <v>765.1979</v>
       </c>
       <c r="G97" t="n">
+        <v>192.94</v>
+      </c>
+      <c r="H97" t="n">
         <v>201.3716666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,24 +4359,21 @@
         <v>1149.089</v>
       </c>
       <c r="G98" t="n">
+        <v>192.4733333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>201.3266666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4047,24 +4397,21 @@
         <v>16848.7928</v>
       </c>
       <c r="G99" t="n">
+        <v>192.0866666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>201.1833333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,24 +4435,21 @@
         <v>12137.0279</v>
       </c>
       <c r="G100" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="H100" t="n">
         <v>200.9166666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4129,24 +4473,21 @@
         <v>2422.9128</v>
       </c>
       <c r="G101" t="n">
+        <v>191.64</v>
+      </c>
+      <c r="H101" t="n">
         <v>200.7833333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,24 +4511,21 @@
         <v>6832.52</v>
       </c>
       <c r="G102" t="n">
+        <v>191.5933333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>200.6083333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,24 +4549,21 @@
         <v>1592.2061</v>
       </c>
       <c r="G103" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="H103" t="n">
         <v>200.3533333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,24 +4587,21 @@
         <v>6353.6473</v>
       </c>
       <c r="G104" t="n">
+        <v>191</v>
+      </c>
+      <c r="H104" t="n">
         <v>200.1483333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4293,24 +4625,21 @@
         <v>1578.015</v>
       </c>
       <c r="G105" t="n">
+        <v>190.9933333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>199.93</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,24 +4663,21 @@
         <v>570.8102</v>
       </c>
       <c r="G106" t="n">
+        <v>191.2333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>199.6383333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,24 +4701,21 @@
         <v>399.3577</v>
       </c>
       <c r="G107" t="n">
+        <v>191.3666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>199.4216666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,24 +4739,21 @@
         <v>794.4335</v>
       </c>
       <c r="G108" t="n">
+        <v>191.3066666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>199.1033333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,24 +4777,21 @@
         <v>1245.9325</v>
       </c>
       <c r="G109" t="n">
+        <v>190.64</v>
+      </c>
+      <c r="H109" t="n">
         <v>198.84</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,24 +4815,21 @@
         <v>169.7918</v>
       </c>
       <c r="G110" t="n">
+        <v>190.5066666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>198.535</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4539,24 +4853,21 @@
         <v>57.0996</v>
       </c>
       <c r="G111" t="n">
+        <v>190.5733333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>198.1783333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,24 +4891,21 @@
         <v>0.9004</v>
       </c>
       <c r="G112" t="n">
+        <v>190.64</v>
+      </c>
+      <c r="H112" t="n">
         <v>197.7516666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4621,24 +4929,21 @@
         <v>15134.6669</v>
       </c>
       <c r="G113" t="n">
+        <v>190.6333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>197.2916666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4662,24 +4967,21 @@
         <v>92.04089999999999</v>
       </c>
       <c r="G114" t="n">
+        <v>190.7466666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>196.8183333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,24 +5005,21 @@
         <v>11227.3025</v>
       </c>
       <c r="G115" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="H115" t="n">
         <v>196.4133333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,24 +5043,21 @@
         <v>4544.0754</v>
       </c>
       <c r="G116" t="n">
+        <v>190.74</v>
+      </c>
+      <c r="H116" t="n">
         <v>196.0083333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4785,24 +5081,21 @@
         <v>664.6844</v>
       </c>
       <c r="G117" t="n">
+        <v>190.6933333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>195.6316666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,24 +5119,21 @@
         <v>811.8953</v>
       </c>
       <c r="G118" t="n">
+        <v>190.72</v>
+      </c>
+      <c r="H118" t="n">
         <v>195.2433333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4867,24 +5157,21 @@
         <v>3933.305</v>
       </c>
       <c r="G119" t="n">
+        <v>190.94</v>
+      </c>
+      <c r="H119" t="n">
         <v>194.8716666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4908,24 +5195,21 @@
         <v>2766.8072</v>
       </c>
       <c r="G120" t="n">
+        <v>190.88</v>
+      </c>
+      <c r="H120" t="n">
         <v>194.5</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4949,24 +5233,21 @@
         <v>751.8773</v>
       </c>
       <c r="G121" t="n">
+        <v>190.8866666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>194.1983333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,24 +5271,21 @@
         <v>471.8938</v>
       </c>
       <c r="G122" t="n">
+        <v>190.8133333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>193.9116666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5031,24 +5309,21 @@
         <v>59.7321</v>
       </c>
       <c r="G123" t="n">
+        <v>190.7466666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>193.7566666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,24 +5347,21 @@
         <v>1311.0874</v>
       </c>
       <c r="G124" t="n">
+        <v>190.6866666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>193.62</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5113,24 +5385,21 @@
         <v>125.6142</v>
       </c>
       <c r="G125" t="n">
+        <v>190.5533333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>193.42</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,24 +5423,21 @@
         <v>173.2984</v>
       </c>
       <c r="G126" t="n">
+        <v>190.3533333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>193.27</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5195,24 +5461,21 @@
         <v>159.498</v>
       </c>
       <c r="G127" t="n">
+        <v>190.1533333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>193.12</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5236,24 +5499,21 @@
         <v>4274.0542</v>
       </c>
       <c r="G128" t="n">
+        <v>190.0933333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>193.005</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5277,24 +5537,21 @@
         <v>2878.4156</v>
       </c>
       <c r="G129" t="n">
+        <v>190.0066666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>192.9333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5318,24 +5575,21 @@
         <v>150</v>
       </c>
       <c r="G130" t="n">
+        <v>190.0866666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>192.8816666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5359,24 +5613,21 @@
         <v>108.9886</v>
       </c>
       <c r="G131" t="n">
+        <v>190.2866666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>192.8633333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5400,24 +5651,21 @@
         <v>6239.2326</v>
       </c>
       <c r="G132" t="n">
+        <v>190.1466666666666</v>
+      </c>
+      <c r="H132" t="n">
         <v>192.6083333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5441,24 +5689,21 @@
         <v>19393.0186</v>
       </c>
       <c r="G133" t="n">
+        <v>190.2066666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>192.3233333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5482,24 +5727,21 @@
         <v>2498.5754</v>
       </c>
       <c r="G134" t="n">
+        <v>190.0533333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>192.0033333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,24 +5765,21 @@
         <v>2168.154</v>
       </c>
       <c r="G135" t="n">
+        <v>189.8999999999999</v>
+      </c>
+      <c r="H135" t="n">
         <v>191.7466666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5564,24 +5803,21 @@
         <v>1044.7684</v>
       </c>
       <c r="G136" t="n">
+        <v>189.7466666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>191.4450000000001</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5605,24 +5841,21 @@
         <v>605.61</v>
       </c>
       <c r="G137" t="n">
+        <v>189.7333333333332</v>
+      </c>
+      <c r="H137" t="n">
         <v>191.4216666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,24 +5879,21 @@
         <v>12531.3638</v>
       </c>
       <c r="G138" t="n">
+        <v>189.5866666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>191.3316666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5687,24 +5917,21 @@
         <v>303</v>
       </c>
       <c r="G139" t="n">
+        <v>189.7199999999999</v>
+      </c>
+      <c r="H139" t="n">
         <v>191.2316666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5728,24 +5955,21 @@
         <v>7078.0892</v>
       </c>
       <c r="G140" t="n">
+        <v>189.8533333333332</v>
+      </c>
+      <c r="H140" t="n">
         <v>191.1333333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5769,24 +5993,21 @@
         <v>5258.2286</v>
       </c>
       <c r="G141" t="n">
+        <v>189.8999999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>191.0266666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5810,24 +6031,21 @@
         <v>9432.677</v>
       </c>
       <c r="G142" t="n">
+        <v>189.9466666666665</v>
+      </c>
+      <c r="H142" t="n">
         <v>190.9200000000001</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5851,24 +6069,21 @@
         <v>5</v>
       </c>
       <c r="G143" t="n">
+        <v>190.0466666666665</v>
+      </c>
+      <c r="H143" t="n">
         <v>190.8116666666668</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,24 +6107,21 @@
         <v>48.0385</v>
       </c>
       <c r="G144" t="n">
+        <v>190.2333333333332</v>
+      </c>
+      <c r="H144" t="n">
         <v>190.7683333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5933,24 +6145,21 @@
         <v>5</v>
       </c>
       <c r="G145" t="n">
+        <v>190.3333333333332</v>
+      </c>
+      <c r="H145" t="n">
         <v>190.7550000000001</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5974,24 +6183,21 @@
         <v>5</v>
       </c>
       <c r="G146" t="n">
+        <v>190.2999999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>190.7416666666668</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6015,24 +6221,21 @@
         <v>1037.7545691906</v>
       </c>
       <c r="G147" t="n">
+        <v>190.4866666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>190.7300000000001</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6056,24 +6259,21 @@
         <v>1037.7546</v>
       </c>
       <c r="G148" t="n">
+        <v>190.4066666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>190.6583333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6097,24 +6297,21 @@
         <v>6</v>
       </c>
       <c r="G149" t="n">
+        <v>190.5933333333332</v>
+      </c>
+      <c r="H149" t="n">
         <v>190.6466666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6138,24 +6335,21 @@
         <v>6</v>
       </c>
       <c r="G150" t="n">
+        <v>190.7733333333332</v>
+      </c>
+      <c r="H150" t="n">
         <v>190.6366666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6179,24 +6373,21 @@
         <v>3718.7121</v>
       </c>
       <c r="G151" t="n">
+        <v>190.8399999999999</v>
+      </c>
+      <c r="H151" t="n">
         <v>190.6766666666668</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6220,24 +6411,21 @@
         <v>880.466</v>
       </c>
       <c r="G152" t="n">
+        <v>190.7733333333332</v>
+      </c>
+      <c r="H152" t="n">
         <v>190.6716666666668</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6261,24 +6449,21 @@
         <v>1068.4815</v>
       </c>
       <c r="G153" t="n">
+        <v>190.8399999999999</v>
+      </c>
+      <c r="H153" t="n">
         <v>190.6200000000001</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6302,24 +6487,21 @@
         <v>3</v>
       </c>
       <c r="G154" t="n">
+        <v>190.8066666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>190.4633333333335</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6343,24 +6525,21 @@
         <v>5006</v>
       </c>
       <c r="G155" t="n">
+        <v>190.8066666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>190.4300000000001</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6384,24 +6563,21 @@
         <v>44</v>
       </c>
       <c r="G156" t="n">
+        <v>190.9599999999999</v>
+      </c>
+      <c r="H156" t="n">
         <v>190.4466666666668</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6425,24 +6601,21 @@
         <v>94.6765</v>
       </c>
       <c r="G157" t="n">
+        <v>191.1133333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>190.4633333333335</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,24 +6639,21 @@
         <v>1000</v>
       </c>
       <c r="G158" t="n">
+        <v>191.1466666666666</v>
+      </c>
+      <c r="H158" t="n">
         <v>190.4800000000001</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6507,24 +6677,21 @@
         <v>110</v>
       </c>
       <c r="G159" t="n">
+        <v>191.1799999999999</v>
+      </c>
+      <c r="H159" t="n">
         <v>190.5416666666668</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6548,24 +6715,21 @@
         <v>2.7778</v>
       </c>
       <c r="G160" t="n">
+        <v>191.2133333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>190.6083333333335</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,24 +6753,21 @@
         <v>6</v>
       </c>
       <c r="G161" t="n">
+        <v>191.1199999999999</v>
+      </c>
+      <c r="H161" t="n">
         <v>190.6116666666668</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6630,24 +6791,21 @@
         <v>6</v>
       </c>
       <c r="G162" t="n">
+        <v>191.1533333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>190.6200000000002</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6671,24 +6829,21 @@
         <v>9.4513</v>
       </c>
       <c r="G163" t="n">
+        <v>191.3066666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>190.6600000000002</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6712,24 +6867,21 @@
         <v>150</v>
       </c>
       <c r="G164" t="n">
+        <v>191.2133333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>190.7000000000002</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6753,24 +6905,21 @@
         <v>76.8322</v>
       </c>
       <c r="G165" t="n">
+        <v>191.1866666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>190.6850000000001</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6794,24 +6943,21 @@
         <v>6</v>
       </c>
       <c r="G166" t="n">
+        <v>191.4199999999999</v>
+      </c>
+      <c r="H166" t="n">
         <v>190.7233333333335</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6835,24 +6981,21 @@
         <v>14632.8762</v>
       </c>
       <c r="G167" t="n">
+        <v>191.4466666666666</v>
+      </c>
+      <c r="H167" t="n">
         <v>190.6916666666669</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6876,24 +7019,21 @@
         <v>101.677</v>
       </c>
       <c r="G168" t="n">
+        <v>191.9133333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>190.7716666666669</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6917,24 +7057,21 @@
         <v>990</v>
       </c>
       <c r="G169" t="n">
+        <v>191.9466666666666</v>
+      </c>
+      <c r="H169" t="n">
         <v>190.7900000000002</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,24 +7095,21 @@
         <v>2304.1857</v>
       </c>
       <c r="G170" t="n">
+        <v>191.8866666666666</v>
+      </c>
+      <c r="H170" t="n">
         <v>190.7750000000002</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6999,24 +7133,21 @@
         <v>153.93</v>
       </c>
       <c r="G171" t="n">
+        <v>191.8333333333332</v>
+      </c>
+      <c r="H171" t="n">
         <v>190.7616666666669</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7040,24 +7171,21 @@
         <v>1089.2303</v>
       </c>
       <c r="G172" t="n">
+        <v>191.7733333333332</v>
+      </c>
+      <c r="H172" t="n">
         <v>190.7466666666669</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7081,24 +7209,21 @@
         <v>5</v>
       </c>
       <c r="G173" t="n">
+        <v>191.7199999999999</v>
+      </c>
+      <c r="H173" t="n">
         <v>190.7516666666669</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7122,24 +7247,21 @@
         <v>4.9055</v>
       </c>
       <c r="G174" t="n">
+        <v>191.8466666666666</v>
+      </c>
+      <c r="H174" t="n">
         <v>190.8166666666669</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7163,24 +7285,21 @@
         <v>11471.1445</v>
       </c>
       <c r="G175" t="n">
+        <v>191.7799999999999</v>
+      </c>
+      <c r="H175" t="n">
         <v>190.8533333333336</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7204,24 +7323,21 @@
         <v>72.62179999999999</v>
       </c>
       <c r="G176" t="n">
+        <v>191.9133333333332</v>
+      </c>
+      <c r="H176" t="n">
         <v>190.9050000000003</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7245,24 +7361,21 @@
         <v>182.4142</v>
       </c>
       <c r="G177" t="n">
+        <v>191.8933333333332</v>
+      </c>
+      <c r="H177" t="n">
         <v>190.9200000000003</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7286,24 +7399,21 @@
         <v>6588.4278</v>
       </c>
       <c r="G178" t="n">
+        <v>191.8933333333332</v>
+      </c>
+      <c r="H178" t="n">
         <v>190.9533333333336</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7327,24 +7437,21 @@
         <v>2628.6163</v>
       </c>
       <c r="G179" t="n">
+        <v>191.9466666666666</v>
+      </c>
+      <c r="H179" t="n">
         <v>190.9516666666669</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7368,24 +7475,21 @@
         <v>2368.6501</v>
       </c>
       <c r="G180" t="n">
+        <v>191.9333333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>190.9483333333336</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7409,24 +7513,21 @@
         <v>64</v>
       </c>
       <c r="G181" t="n">
+        <v>191.7733333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>190.9450000000002</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7450,24 +7551,21 @@
         <v>15</v>
       </c>
       <c r="G182" t="n">
+        <v>191.82</v>
+      </c>
+      <c r="H182" t="n">
         <v>190.9433333333336</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7491,24 +7589,21 @@
         <v>5</v>
       </c>
       <c r="G183" t="n">
+        <v>191.4266666666666</v>
+      </c>
+      <c r="H183" t="n">
         <v>190.9416666666669</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7532,24 +7627,21 @@
         <v>1689.5135</v>
       </c>
       <c r="G184" t="n">
+        <v>191.3466666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>190.9550000000002</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7573,24 +7665,401 @@
         <v>25027.2385</v>
       </c>
       <c r="G185" t="n">
+        <v>191.28</v>
+      </c>
+      <c r="H185" t="n">
         <v>190.9566666666669</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>190</v>
+      </c>
+      <c r="C186" t="n">
+        <v>190</v>
+      </c>
+      <c r="D186" t="n">
+        <v>190</v>
+      </c>
+      <c r="E186" t="n">
+        <v>190</v>
+      </c>
+      <c r="F186" t="n">
+        <v>359.6523</v>
+      </c>
+      <c r="G186" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="H186" t="n">
+        <v>190.9733333333336</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>190</v>
+      </c>
+      <c r="C187" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="D187" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="E187" t="n">
+        <v>190</v>
+      </c>
+      <c r="F187" t="n">
+        <v>12292.25</v>
+      </c>
+      <c r="G187" t="n">
+        <v>191.18</v>
+      </c>
+      <c r="H187" t="n">
+        <v>191.0033333333336</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>191</v>
+      </c>
+      <c r="D188" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4020.959</v>
+      </c>
+      <c r="G188" t="n">
+        <v>191.1666666666667</v>
+      </c>
+      <c r="H188" t="n">
+        <v>191.0200000000002</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>191</v>
+      </c>
+      <c r="C189" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>191</v>
+      </c>
+      <c r="E189" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="F189" t="n">
+        <v>7831.6875</v>
+      </c>
+      <c r="G189" t="n">
+        <v>190.92</v>
+      </c>
+      <c r="H189" t="n">
+        <v>191.0450000000002</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="C190" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="F190" t="n">
+        <v>69.86422976501305</v>
+      </c>
+      <c r="G190" t="n">
+        <v>190.9533333333333</v>
+      </c>
+      <c r="H190" t="n">
+        <v>191.0700000000002</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="D191" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="E191" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="F191" t="n">
+        <v>15681.9503</v>
+      </c>
+      <c r="G191" t="n">
+        <v>190.8066666666667</v>
+      </c>
+      <c r="H191" t="n">
+        <v>191.0350000000002</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="D192" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="E192" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>7788.1125</v>
+      </c>
+      <c r="G192" t="n">
+        <v>190.8733333333334</v>
+      </c>
+      <c r="H192" t="n">
+        <v>191.1016666666669</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="D193" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="F193" t="n">
+        <v>5</v>
+      </c>
+      <c r="G193" t="n">
+        <v>190.8866666666667</v>
+      </c>
+      <c r="H193" t="n">
+        <v>191.1233333333336</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="C194" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E194" t="n">
+        <v>191</v>
+      </c>
+      <c r="F194" t="n">
+        <v>40</v>
+      </c>
+      <c r="G194" t="n">
+        <v>190.9266666666667</v>
+      </c>
+      <c r="H194" t="n">
+        <v>191.1700000000002</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="C195" t="n">
+        <v>192</v>
+      </c>
+      <c r="D195" t="n">
+        <v>192</v>
+      </c>
+      <c r="E195" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="F195" t="n">
+        <v>35</v>
+      </c>
+      <c r="G195" t="n">
+        <v>191.0066666666667</v>
+      </c>
+      <c r="H195" t="n">
+        <v>191.2250000000002</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest AE.xlsx
+++ b/BackTest/2020-01-19 BackTest AE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>186</v>
+        <v>182.1</v>
       </c>
       <c r="C2" t="n">
-        <v>189</v>
+        <v>182.1</v>
       </c>
       <c r="D2" t="n">
-        <v>189</v>
+        <v>182.1</v>
       </c>
       <c r="E2" t="n">
-        <v>185</v>
+        <v>182.1</v>
       </c>
       <c r="F2" t="n">
-        <v>347.9392</v>
+        <v>147.3833</v>
       </c>
       <c r="G2" t="n">
-        <v>-35211.69379406203</v>
+        <v>-124894.668494062</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,518 +467,635 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>188.5</v>
+        <v>182</v>
       </c>
       <c r="C3" t="n">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D3" t="n">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E3" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F3" t="n">
-        <v>109.6857</v>
+        <v>147.3833</v>
       </c>
       <c r="G3" t="n">
-        <v>-35102.00809406203</v>
+        <v>-125042.051794062</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>182.1</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C4" t="n">
-        <v>188.9</v>
+        <v>183</v>
       </c>
       <c r="D4" t="n">
-        <v>188.9</v>
+        <v>183</v>
       </c>
       <c r="E4" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F4" t="n">
-        <v>184.2885</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>-35286.29659406203</v>
+        <v>-125039.051794062</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>182</v>
+      </c>
+      <c r="K4" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C5" t="n">
-        <v>186</v>
+        <v>183.9</v>
       </c>
       <c r="D5" t="n">
-        <v>189</v>
+        <v>183.9</v>
       </c>
       <c r="E5" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F5" t="n">
-        <v>7.778</v>
+        <v>300</v>
       </c>
       <c r="G5" t="n">
-        <v>-35294.07459406203</v>
+        <v>-124739.051794062</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>183</v>
+      </c>
+      <c r="K5" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>188</v>
+        <v>183.9</v>
       </c>
       <c r="C6" t="n">
-        <v>186</v>
+        <v>183.9</v>
       </c>
       <c r="D6" t="n">
-        <v>189</v>
+        <v>183.9</v>
       </c>
       <c r="E6" t="n">
-        <v>185</v>
+        <v>183.9</v>
       </c>
       <c r="F6" t="n">
-        <v>9185.565699999999</v>
+        <v>3326.9185</v>
       </c>
       <c r="G6" t="n">
-        <v>-35294.07459406203</v>
+        <v>-124739.051794062</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>186</v>
+        <v>184.9</v>
       </c>
       <c r="C7" t="n">
-        <v>186.5</v>
+        <v>184.8</v>
       </c>
       <c r="D7" t="n">
-        <v>186.5</v>
+        <v>184.9</v>
       </c>
       <c r="E7" t="n">
-        <v>186</v>
+        <v>184.8</v>
       </c>
       <c r="F7" t="n">
-        <v>1152.6075</v>
+        <v>3116.297214593591</v>
       </c>
       <c r="G7" t="n">
-        <v>-34141.46709406203</v>
+        <v>-121622.7545794684</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>188.5</v>
+        <v>184.8</v>
       </c>
       <c r="C8" t="n">
-        <v>188.8</v>
+        <v>183.9</v>
       </c>
       <c r="D8" t="n">
-        <v>189</v>
+        <v>184.8</v>
       </c>
       <c r="E8" t="n">
-        <v>186</v>
+        <v>183.9</v>
       </c>
       <c r="F8" t="n">
-        <v>1370.5705</v>
+        <v>5000.000016450216</v>
       </c>
       <c r="G8" t="n">
-        <v>-32770.89659406203</v>
+        <v>-126622.7545959186</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>186</v>
+        <v>184.9</v>
       </c>
       <c r="C9" t="n">
-        <v>187.9</v>
+        <v>184.9</v>
       </c>
       <c r="D9" t="n">
-        <v>188.8</v>
+        <v>184.9</v>
       </c>
       <c r="E9" t="n">
-        <v>185</v>
+        <v>184.9</v>
       </c>
       <c r="F9" t="n">
-        <v>5467.7899</v>
+        <v>4.8789</v>
       </c>
       <c r="G9" t="n">
-        <v>-38238.68649406203</v>
+        <v>-126617.8756959186</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>186</v>
+        <v>184.9</v>
       </c>
       <c r="C10" t="n">
-        <v>186</v>
+        <v>184.9</v>
       </c>
       <c r="D10" t="n">
-        <v>187.9</v>
+        <v>184.9</v>
       </c>
       <c r="E10" t="n">
-        <v>186</v>
+        <v>184.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1491.1793</v>
+        <v>3152.6779</v>
       </c>
       <c r="G10" t="n">
-        <v>-39729.86579406203</v>
+        <v>-126617.8756959186</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>187.9</v>
+        <v>184.9</v>
       </c>
       <c r="C11" t="n">
-        <v>187.9</v>
+        <v>184.9</v>
       </c>
       <c r="D11" t="n">
-        <v>187.9</v>
+        <v>184.9</v>
       </c>
       <c r="E11" t="n">
-        <v>187.9</v>
+        <v>184.9</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>5098.1253</v>
       </c>
       <c r="G11" t="n">
-        <v>-39725.86579406203</v>
+        <v>-126617.8756959186</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>185.2</v>
+        <v>184.9</v>
       </c>
       <c r="C12" t="n">
-        <v>187.9</v>
+        <v>183.1</v>
       </c>
       <c r="D12" t="n">
-        <v>187.9</v>
+        <v>184.9</v>
       </c>
       <c r="E12" t="n">
-        <v>185</v>
+        <v>183.1</v>
       </c>
       <c r="F12" t="n">
-        <v>10161.9886</v>
+        <v>1679.16</v>
       </c>
       <c r="G12" t="n">
-        <v>-39725.86579406203</v>
+        <v>-128297.0356959186</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>185.9</v>
+        <v>185</v>
       </c>
       <c r="C13" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" t="n">
-        <v>185.9</v>
+        <v>185</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>-39736.86579406203</v>
+        <v>-128293.0356959186</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184.8</v>
+        <v>185</v>
       </c>
       <c r="C14" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="E14" t="n">
         <v>185</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
+        <v>20349.3579</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-107943.6777959186</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>185</v>
       </c>
-      <c r="E14" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>355.3438</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-40092.20959406203</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>184.1</v>
+        <v>187</v>
       </c>
       <c r="C15" t="n">
-        <v>184</v>
+        <v>185.8</v>
       </c>
       <c r="D15" t="n">
-        <v>185.5</v>
+        <v>197</v>
       </c>
       <c r="E15" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" t="n">
-        <v>19814.6439</v>
+        <v>76408.50810000001</v>
       </c>
       <c r="G15" t="n">
-        <v>-59906.85349406203</v>
+        <v>-184352.1858959186</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1927.6482</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-182424.5376959186</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
         <v>183.9</v>
       </c>
-      <c r="C16" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E16" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>272.6548</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-60179.50829406203</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>184</v>
+        <v>188.1</v>
       </c>
       <c r="C17" t="n">
-        <v>184</v>
+        <v>188.1</v>
       </c>
       <c r="D17" t="n">
-        <v>184</v>
+        <v>190.4</v>
       </c>
       <c r="E17" t="n">
-        <v>184</v>
+        <v>188.1</v>
       </c>
       <c r="F17" t="n">
-        <v>166.8528</v>
+        <v>6613.2711</v>
       </c>
       <c r="G17" t="n">
-        <v>-60012.65549406203</v>
+        <v>-182424.5376959186</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,33 +1104,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>184</v>
+        <v>188.1</v>
       </c>
       <c r="C18" t="n">
-        <v>184</v>
+        <v>190.5</v>
       </c>
       <c r="D18" t="n">
-        <v>184</v>
+        <v>190.5</v>
       </c>
       <c r="E18" t="n">
-        <v>184</v>
+        <v>188.1</v>
       </c>
       <c r="F18" t="n">
-        <v>253.6772</v>
+        <v>3863.5471</v>
       </c>
       <c r="G18" t="n">
-        <v>-60012.65549406203</v>
+        <v>-178560.9905959186</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,68 +1146,84 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>182.5</v>
+        <v>190.5</v>
       </c>
       <c r="C19" t="n">
-        <v>182.5</v>
+        <v>196</v>
       </c>
       <c r="D19" t="n">
-        <v>182.5</v>
+        <v>199.7</v>
       </c>
       <c r="E19" t="n">
-        <v>182.5</v>
+        <v>190.5</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>72833.68769999999</v>
       </c>
       <c r="G19" t="n">
-        <v>-60015.65549406203</v>
+        <v>-105727.3028959186</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>183.3</v>
+        <v>196</v>
       </c>
       <c r="C20" t="n">
-        <v>183.3</v>
+        <v>199.8</v>
       </c>
       <c r="D20" t="n">
-        <v>183.3</v>
+        <v>199.8</v>
       </c>
       <c r="E20" t="n">
-        <v>183.3</v>
+        <v>195.3</v>
       </c>
       <c r="F20" t="n">
-        <v>121.978</v>
+        <v>17931.535</v>
       </c>
       <c r="G20" t="n">
-        <v>-59893.67749406202</v>
+        <v>-87795.76789591865</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,33 +1232,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>183.1</v>
+        <v>199.7</v>
       </c>
       <c r="C21" t="n">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D21" t="n">
-        <v>183.1</v>
+        <v>207.2</v>
       </c>
       <c r="E21" t="n">
-        <v>183</v>
+        <v>199.7</v>
       </c>
       <c r="F21" t="n">
-        <v>5222.0071</v>
+        <v>30284.99357249035</v>
       </c>
       <c r="G21" t="n">
-        <v>-65115.68459406203</v>
+        <v>-57510.7743234283</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1274,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>182.9</v>
+        <v>205.1</v>
       </c>
       <c r="C22" t="n">
-        <v>182.9</v>
+        <v>219.9</v>
       </c>
       <c r="D22" t="n">
-        <v>182.9</v>
+        <v>219.9</v>
       </c>
       <c r="E22" t="n">
-        <v>182.9</v>
+        <v>205</v>
       </c>
       <c r="F22" t="n">
-        <v>290.6508</v>
+        <v>65009.3825</v>
       </c>
       <c r="G22" t="n">
-        <v>-65406.33539406203</v>
+        <v>7498.608176571703</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1316,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>183.4</v>
+        <v>218.9</v>
       </c>
       <c r="C23" t="n">
-        <v>183.4</v>
+        <v>214</v>
       </c>
       <c r="D23" t="n">
-        <v>183.4</v>
+        <v>219.9</v>
       </c>
       <c r="E23" t="n">
-        <v>183.4</v>
+        <v>214</v>
       </c>
       <c r="F23" t="n">
-        <v>1936.555</v>
+        <v>38706.83443129283</v>
       </c>
       <c r="G23" t="n">
-        <v>-63469.78039406203</v>
+        <v>-31208.22625472113</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,33 +1358,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>183.5</v>
+        <v>214</v>
       </c>
       <c r="C24" t="n">
-        <v>183.5</v>
+        <v>196.3</v>
       </c>
       <c r="D24" t="n">
-        <v>183.5</v>
+        <v>214</v>
       </c>
       <c r="E24" t="n">
-        <v>183.5</v>
+        <v>196.3</v>
       </c>
       <c r="F24" t="n">
-        <v>4027.426</v>
+        <v>39558.92326757905</v>
       </c>
       <c r="G24" t="n">
-        <v>-59442.35439406203</v>
+        <v>-70767.14952230017</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1400,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>183.5</v>
+        <v>198.5</v>
       </c>
       <c r="C25" t="n">
-        <v>182.2</v>
+        <v>193.7</v>
       </c>
       <c r="D25" t="n">
-        <v>183.5</v>
+        <v>198.6</v>
       </c>
       <c r="E25" t="n">
-        <v>182.2</v>
+        <v>191.4</v>
       </c>
       <c r="F25" t="n">
-        <v>35081.4019</v>
+        <v>8206.534941802443</v>
       </c>
       <c r="G25" t="n">
-        <v>-94523.75629406203</v>
+        <v>-78973.68446410261</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1442,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>183.5</v>
+        <v>194.7</v>
       </c>
       <c r="C26" t="n">
-        <v>183.5</v>
+        <v>196.9</v>
       </c>
       <c r="D26" t="n">
-        <v>183.5</v>
+        <v>196.9</v>
       </c>
       <c r="E26" t="n">
-        <v>183.5</v>
+        <v>193.7</v>
       </c>
       <c r="F26" t="n">
-        <v>1893.7333</v>
+        <v>5051.4972</v>
       </c>
       <c r="G26" t="n">
-        <v>-92630.02299406202</v>
+        <v>-73922.18726410261</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1484,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>183.5</v>
+        <v>196.9</v>
       </c>
       <c r="C27" t="n">
-        <v>183.5</v>
+        <v>204</v>
       </c>
       <c r="D27" t="n">
-        <v>184</v>
+        <v>215.8</v>
       </c>
       <c r="E27" t="n">
-        <v>183.5</v>
+        <v>196.9</v>
       </c>
       <c r="F27" t="n">
-        <v>11433.3802</v>
+        <v>14786.04999874055</v>
       </c>
       <c r="G27" t="n">
-        <v>-92630.02299406202</v>
+        <v>-59136.13726536206</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1526,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>183.1</v>
+        <v>206.7</v>
       </c>
       <c r="C28" t="n">
-        <v>183</v>
+        <v>197.9</v>
       </c>
       <c r="D28" t="n">
-        <v>183.1</v>
+        <v>206.7</v>
       </c>
       <c r="E28" t="n">
-        <v>183</v>
+        <v>197.9</v>
       </c>
       <c r="F28" t="n">
-        <v>7993.6985</v>
+        <v>8868.3115</v>
       </c>
       <c r="G28" t="n">
-        <v>-100623.721494062</v>
+        <v>-68004.44876536206</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,85 +1568,93 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>185</v>
+        <v>200.9</v>
       </c>
       <c r="C29" t="n">
-        <v>182.2</v>
+        <v>202</v>
       </c>
       <c r="D29" t="n">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E29" t="n">
-        <v>182.2</v>
+        <v>200.9</v>
       </c>
       <c r="F29" t="n">
-        <v>10117.1232</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>-110740.844694062</v>
+        <v>-67998.44876536206</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>183</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>183.1</v>
+        <v>201</v>
       </c>
       <c r="C30" t="n">
-        <v>183.1</v>
+        <v>204.9</v>
       </c>
       <c r="D30" t="n">
-        <v>183.1</v>
+        <v>204.9</v>
       </c>
       <c r="E30" t="n">
-        <v>183.1</v>
+        <v>201</v>
       </c>
       <c r="F30" t="n">
-        <v>95.6872</v>
+        <v>19005.70027891655</v>
       </c>
       <c r="G30" t="n">
-        <v>-110645.157494062</v>
+        <v>-48992.74848644551</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1454,39 +1663,40 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>183.2</v>
+        <v>202</v>
       </c>
       <c r="C31" t="n">
-        <v>183.2</v>
+        <v>200</v>
       </c>
       <c r="D31" t="n">
-        <v>183.2</v>
+        <v>202</v>
       </c>
       <c r="E31" t="n">
-        <v>183.2</v>
+        <v>199.9</v>
       </c>
       <c r="F31" t="n">
-        <v>722.3152</v>
+        <v>11279.587</v>
       </c>
       <c r="G31" t="n">
-        <v>-109922.842294062</v>
+        <v>-60272.33548644551</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1495,39 +1705,40 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>184.9</v>
+        <v>200</v>
       </c>
       <c r="C32" t="n">
-        <v>184.9</v>
+        <v>205</v>
       </c>
       <c r="D32" t="n">
-        <v>184.9</v>
+        <v>205</v>
       </c>
       <c r="E32" t="n">
-        <v>184.9</v>
+        <v>198</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>3363.6671</v>
       </c>
       <c r="G32" t="n">
-        <v>-109919.842294062</v>
+        <v>-56908.66838644551</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1536,39 +1747,40 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>183.2</v>
+        <v>199.5</v>
       </c>
       <c r="C33" t="n">
-        <v>183.2</v>
+        <v>208.4</v>
       </c>
       <c r="D33" t="n">
-        <v>183.2</v>
+        <v>208.4</v>
       </c>
       <c r="E33" t="n">
-        <v>183.2</v>
+        <v>199</v>
       </c>
       <c r="F33" t="n">
-        <v>5548.5878</v>
+        <v>15778.7018</v>
       </c>
       <c r="G33" t="n">
-        <v>-115468.430094062</v>
+        <v>-41129.96658644551</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1577,39 +1789,40 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>184.9</v>
+        <v>208.2</v>
       </c>
       <c r="C34" t="n">
-        <v>184.9</v>
+        <v>205</v>
       </c>
       <c r="D34" t="n">
-        <v>184.9</v>
+        <v>215.6</v>
       </c>
       <c r="E34" t="n">
-        <v>184.9</v>
+        <v>204.4</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>28128.42811368274</v>
       </c>
       <c r="G34" t="n">
-        <v>-115465.430094062</v>
+        <v>-69258.39470012825</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1618,39 +1831,40 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>211</v>
+      </c>
+      <c r="D35" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>76883.8147</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7625.419999871752</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
         <v>183.9</v>
       </c>
-      <c r="C35" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D35" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E35" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1669.5784</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-117135.008494062</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1659,39 +1873,40 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>184.9</v>
+        <v>210.3</v>
       </c>
       <c r="C36" t="n">
-        <v>184.9</v>
+        <v>206.7</v>
       </c>
       <c r="D36" t="n">
-        <v>184.9</v>
+        <v>210.3</v>
       </c>
       <c r="E36" t="n">
-        <v>184.9</v>
+        <v>206.7</v>
       </c>
       <c r="F36" t="n">
-        <v>2.8</v>
+        <v>5306.0631</v>
       </c>
       <c r="G36" t="n">
-        <v>-117132.208494062</v>
+        <v>2319.356899871752</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
         <v>183.9</v>
       </c>
-      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1700,39 +1915,40 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>184.9</v>
+        <v>210.3</v>
       </c>
       <c r="C37" t="n">
-        <v>184.9</v>
+        <v>210.3</v>
       </c>
       <c r="D37" t="n">
-        <v>184.9</v>
+        <v>210.3</v>
       </c>
       <c r="E37" t="n">
-        <v>184.9</v>
+        <v>206.7</v>
       </c>
       <c r="F37" t="n">
-        <v>2104.8567</v>
+        <v>13646.3392</v>
       </c>
       <c r="G37" t="n">
-        <v>-117132.208494062</v>
+        <v>15965.69609987175</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1741,39 +1957,40 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>184.8</v>
+        <v>210.3</v>
       </c>
       <c r="C38" t="n">
-        <v>184.9</v>
+        <v>213.4</v>
       </c>
       <c r="D38" t="n">
-        <v>184.9</v>
+        <v>214.5</v>
       </c>
       <c r="E38" t="n">
-        <v>184.8</v>
+        <v>210.3</v>
       </c>
       <c r="F38" t="n">
-        <v>21559.8105</v>
+        <v>50788.9532</v>
       </c>
       <c r="G38" t="n">
-        <v>-117132.208494062</v>
+        <v>66754.64929987176</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1782,39 +1999,40 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>183.8</v>
+        <v>213.4</v>
       </c>
       <c r="C39" t="n">
-        <v>183.8</v>
+        <v>217.6</v>
       </c>
       <c r="D39" t="n">
-        <v>183.8</v>
+        <v>218.5</v>
       </c>
       <c r="E39" t="n">
-        <v>183.8</v>
+        <v>213.4</v>
       </c>
       <c r="F39" t="n">
-        <v>1960</v>
+        <v>8417.513999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>-119092.208494062</v>
+        <v>75172.16329987175</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1823,28 +2041,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>183.8</v>
+        <v>217.6</v>
       </c>
       <c r="C40" t="n">
-        <v>182.3</v>
+        <v>218.5</v>
       </c>
       <c r="D40" t="n">
-        <v>183.8</v>
+        <v>218.8</v>
       </c>
       <c r="E40" t="n">
-        <v>182.3</v>
+        <v>217.6</v>
       </c>
       <c r="F40" t="n">
-        <v>802.46</v>
+        <v>20937.86845740402</v>
       </c>
       <c r="G40" t="n">
-        <v>-119894.668494062</v>
+        <v>96110.03175727578</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1853,7 +2072,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1862,39 +2083,40 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>182.2</v>
+        <v>218.5</v>
       </c>
       <c r="C41" t="n">
-        <v>182.1</v>
+        <v>218.4</v>
       </c>
       <c r="D41" t="n">
-        <v>182.2</v>
+        <v>218.7</v>
       </c>
       <c r="E41" t="n">
-        <v>182.1</v>
+        <v>218.4</v>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>14198.9251</v>
       </c>
       <c r="G41" t="n">
-        <v>-124894.668494062</v>
+        <v>81911.10665727578</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>182.3</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1903,39 +2125,40 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>182.1</v>
+        <v>218.3</v>
       </c>
       <c r="C42" t="n">
-        <v>182.1</v>
+        <v>213.1</v>
       </c>
       <c r="D42" t="n">
-        <v>182.1</v>
+        <v>218.3</v>
       </c>
       <c r="E42" t="n">
-        <v>182.1</v>
+        <v>211</v>
       </c>
       <c r="F42" t="n">
-        <v>25.136</v>
+        <v>4734.6961</v>
       </c>
       <c r="G42" t="n">
-        <v>-124894.668494062</v>
+        <v>77176.41055727578</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1944,39 +2167,40 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>182.1</v>
+        <v>217.2</v>
       </c>
       <c r="C43" t="n">
-        <v>182.1</v>
+        <v>213.3</v>
       </c>
       <c r="D43" t="n">
-        <v>182.1</v>
+        <v>217.2</v>
       </c>
       <c r="E43" t="n">
-        <v>182.1</v>
+        <v>213.3</v>
       </c>
       <c r="F43" t="n">
-        <v>1060</v>
+        <v>1773.5699</v>
       </c>
       <c r="G43" t="n">
-        <v>-124894.668494062</v>
+        <v>78949.98045727579</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1985,39 +2209,40 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>182.1</v>
+        <v>215.9</v>
       </c>
       <c r="C44" t="n">
-        <v>182.1</v>
+        <v>213.4</v>
       </c>
       <c r="D44" t="n">
-        <v>182.1</v>
+        <v>217.2</v>
       </c>
       <c r="E44" t="n">
-        <v>182.1</v>
+        <v>213.3</v>
       </c>
       <c r="F44" t="n">
-        <v>147.3833</v>
+        <v>10408.74268268877</v>
       </c>
       <c r="G44" t="n">
-        <v>-124894.668494062</v>
+        <v>89358.72313996455</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2026,39 +2251,40 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>182</v>
+        <v>215.8</v>
       </c>
       <c r="C45" t="n">
-        <v>182</v>
+        <v>213.3</v>
       </c>
       <c r="D45" t="n">
-        <v>182</v>
+        <v>215.8</v>
       </c>
       <c r="E45" t="n">
-        <v>182</v>
+        <v>213.3</v>
       </c>
       <c r="F45" t="n">
-        <v>147.3833</v>
+        <v>5456.6265</v>
       </c>
       <c r="G45" t="n">
-        <v>-125042.051794062</v>
+        <v>83902.09663996455</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2067,46 +2293,50 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>183</v>
+        <v>213.3</v>
       </c>
       <c r="C46" t="n">
-        <v>183</v>
+        <v>213.3</v>
       </c>
       <c r="D46" t="n">
-        <v>183</v>
+        <v>213.3</v>
       </c>
       <c r="E46" t="n">
-        <v>183</v>
+        <v>213.3</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>6162.1299</v>
       </c>
       <c r="G46" t="n">
-        <v>-125039.051794062</v>
+        <v>83902.09663996455</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>182</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>1.154869494290375</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.015934065934066</v>
       </c>
     </row>
     <row r="47">
@@ -2114,473 +2344,418 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>183</v>
+        <v>213.3</v>
       </c>
       <c r="C47" t="n">
-        <v>183.9</v>
+        <v>213.3</v>
       </c>
       <c r="D47" t="n">
-        <v>183.9</v>
+        <v>213.3</v>
       </c>
       <c r="E47" t="n">
-        <v>183</v>
+        <v>213.3</v>
       </c>
       <c r="F47" t="n">
-        <v>300</v>
+        <v>4723.8648</v>
       </c>
       <c r="G47" t="n">
-        <v>-124739.051794062</v>
+        <v>83902.09663996455</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>183</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>183.9</v>
+        <v>209.1</v>
       </c>
       <c r="C48" t="n">
-        <v>183.9</v>
+        <v>209.1</v>
       </c>
       <c r="D48" t="n">
-        <v>183.9</v>
+        <v>209.1</v>
       </c>
       <c r="E48" t="n">
-        <v>183.9</v>
+        <v>209.1</v>
       </c>
       <c r="F48" t="n">
-        <v>3326.9185</v>
+        <v>991</v>
       </c>
       <c r="G48" t="n">
-        <v>-124739.051794062</v>
+        <v>82911.09663996455</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>183.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>184.9</v>
+        <v>209.1</v>
       </c>
       <c r="C49" t="n">
-        <v>184.8</v>
+        <v>208.1</v>
       </c>
       <c r="D49" t="n">
-        <v>184.9</v>
+        <v>209.1</v>
       </c>
       <c r="E49" t="n">
-        <v>184.8</v>
+        <v>208.1</v>
       </c>
       <c r="F49" t="n">
-        <v>3116.297214593591</v>
+        <v>523.7907</v>
       </c>
       <c r="G49" t="n">
-        <v>-121622.7545794684</v>
+        <v>82387.30593996456</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>183.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>184.8</v>
+        <v>204</v>
       </c>
       <c r="C50" t="n">
-        <v>183.9</v>
+        <v>200.2</v>
       </c>
       <c r="D50" t="n">
-        <v>184.8</v>
+        <v>204</v>
       </c>
       <c r="E50" t="n">
-        <v>183.9</v>
+        <v>200.2</v>
       </c>
       <c r="F50" t="n">
-        <v>5000.000016450216</v>
+        <v>1157.8345</v>
       </c>
       <c r="G50" t="n">
-        <v>-126622.7545959186</v>
+        <v>81229.47143996456</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>184.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>184.9</v>
+        <v>202.9</v>
       </c>
       <c r="C51" t="n">
-        <v>184.9</v>
+        <v>198.2</v>
       </c>
       <c r="D51" t="n">
-        <v>184.9</v>
+        <v>202.9</v>
       </c>
       <c r="E51" t="n">
-        <v>184.9</v>
+        <v>198.2</v>
       </c>
       <c r="F51" t="n">
-        <v>4.8789</v>
+        <v>2832.5852</v>
       </c>
       <c r="G51" t="n">
-        <v>-126617.8756959186</v>
+        <v>78396.88623996456</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>183.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>184.9</v>
+        <v>202</v>
       </c>
       <c r="C52" t="n">
-        <v>184.9</v>
+        <v>202</v>
       </c>
       <c r="D52" t="n">
-        <v>184.9</v>
+        <v>202</v>
       </c>
       <c r="E52" t="n">
-        <v>184.9</v>
+        <v>202</v>
       </c>
       <c r="F52" t="n">
-        <v>3152.6779</v>
+        <v>22</v>
       </c>
       <c r="G52" t="n">
-        <v>-126617.8756959186</v>
+        <v>78418.88623996456</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>184.9</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>184.9</v>
+        <v>198.1</v>
       </c>
       <c r="C53" t="n">
-        <v>184.9</v>
+        <v>198</v>
       </c>
       <c r="D53" t="n">
-        <v>184.9</v>
+        <v>198.1</v>
       </c>
       <c r="E53" t="n">
-        <v>184.9</v>
+        <v>198</v>
       </c>
       <c r="F53" t="n">
-        <v>5098.1253</v>
+        <v>3097.0122</v>
       </c>
       <c r="G53" t="n">
-        <v>-126617.8756959186</v>
+        <v>75321.87403996456</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>184.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>184.9</v>
+        <v>199</v>
       </c>
       <c r="C54" t="n">
-        <v>183.1</v>
+        <v>198</v>
       </c>
       <c r="D54" t="n">
-        <v>184.9</v>
+        <v>199</v>
       </c>
       <c r="E54" t="n">
-        <v>183.1</v>
+        <v>198</v>
       </c>
       <c r="F54" t="n">
-        <v>1679.16</v>
+        <v>6099.8774</v>
       </c>
       <c r="G54" t="n">
-        <v>-128297.0356959186</v>
+        <v>75321.87403996456</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>184.9</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>185</v>
+        <v>197.1</v>
       </c>
       <c r="C55" t="n">
-        <v>185</v>
+        <v>196.9</v>
       </c>
       <c r="D55" t="n">
-        <v>185</v>
+        <v>197.1</v>
       </c>
       <c r="E55" t="n">
-        <v>185</v>
+        <v>190.6</v>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>13201.5783</v>
       </c>
       <c r="G55" t="n">
-        <v>-128293.0356959186</v>
+        <v>62120.29573996456</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>183.1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C56" t="n">
-        <v>188.3</v>
+        <v>193</v>
       </c>
       <c r="D56" t="n">
-        <v>188.3</v>
+        <v>193</v>
       </c>
       <c r="E56" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F56" t="n">
-        <v>20349.3579</v>
+        <v>3070.0012</v>
       </c>
       <c r="G56" t="n">
-        <v>-107943.6777959186</v>
+        <v>59050.29453996456</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>185</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>187</v>
+        <v>193.1</v>
       </c>
       <c r="C57" t="n">
-        <v>185.8</v>
+        <v>193.1</v>
       </c>
       <c r="D57" t="n">
-        <v>197</v>
+        <v>193.1</v>
       </c>
       <c r="E57" t="n">
-        <v>183</v>
+        <v>193.1</v>
       </c>
       <c r="F57" t="n">
-        <v>76408.50810000001</v>
+        <v>1070.0012</v>
       </c>
       <c r="G57" t="n">
-        <v>-184352.1858959186</v>
+        <v>60120.29573996456</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>188.3</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>188.1</v>
+        <v>193.1</v>
       </c>
       <c r="C58" t="n">
-        <v>188.1</v>
+        <v>193.1</v>
       </c>
       <c r="D58" t="n">
-        <v>188.1</v>
+        <v>193.1</v>
       </c>
       <c r="E58" t="n">
-        <v>188.1</v>
+        <v>193.1</v>
       </c>
       <c r="F58" t="n">
-        <v>1927.6482</v>
+        <v>2302.0257</v>
       </c>
       <c r="G58" t="n">
-        <v>-182424.5376959186</v>
+        <v>60120.29573996456</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2590,36 +2765,33 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>188.1</v>
+        <v>195</v>
       </c>
       <c r="C59" t="n">
-        <v>188.1</v>
+        <v>204</v>
       </c>
       <c r="D59" t="n">
-        <v>190.4</v>
+        <v>204</v>
       </c>
       <c r="E59" t="n">
-        <v>188.1</v>
+        <v>195</v>
       </c>
       <c r="F59" t="n">
-        <v>6613.2711</v>
+        <v>10813.1486</v>
       </c>
       <c r="G59" t="n">
-        <v>-182424.5376959186</v>
+        <v>70933.44433996457</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2629,36 +2801,33 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>188.1</v>
+        <v>204</v>
       </c>
       <c r="C60" t="n">
-        <v>190.5</v>
+        <v>208</v>
       </c>
       <c r="D60" t="n">
-        <v>190.5</v>
+        <v>208</v>
       </c>
       <c r="E60" t="n">
-        <v>188.1</v>
+        <v>204</v>
       </c>
       <c r="F60" t="n">
-        <v>3863.5471</v>
+        <v>3075.784</v>
       </c>
       <c r="G60" t="n">
-        <v>-178560.9905959186</v>
+        <v>74009.22833996457</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2668,36 +2837,33 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>190.5</v>
+        <v>207.9</v>
       </c>
       <c r="C61" t="n">
-        <v>196</v>
+        <v>207.9</v>
       </c>
       <c r="D61" t="n">
-        <v>199.7</v>
+        <v>207.9</v>
       </c>
       <c r="E61" t="n">
-        <v>190.5</v>
+        <v>207.9</v>
       </c>
       <c r="F61" t="n">
-        <v>72833.68769999999</v>
+        <v>40</v>
       </c>
       <c r="G61" t="n">
-        <v>-105727.3028959186</v>
+        <v>73969.22833996457</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2707,36 +2873,33 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>196</v>
+        <v>204.1</v>
       </c>
       <c r="C62" t="n">
-        <v>199.8</v>
+        <v>204.1</v>
       </c>
       <c r="D62" t="n">
-        <v>199.8</v>
+        <v>204.1</v>
       </c>
       <c r="E62" t="n">
-        <v>195.3</v>
+        <v>204.1</v>
       </c>
       <c r="F62" t="n">
-        <v>17931.535</v>
+        <v>1246.0555</v>
       </c>
       <c r="G62" t="n">
-        <v>-87795.76789591865</v>
+        <v>72723.17283996457</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2746,36 +2909,33 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>199.7</v>
+        <v>206.8</v>
       </c>
       <c r="C63" t="n">
-        <v>205</v>
+        <v>206.8</v>
       </c>
       <c r="D63" t="n">
-        <v>207.2</v>
+        <v>206.8</v>
       </c>
       <c r="E63" t="n">
-        <v>199.7</v>
+        <v>206.8</v>
       </c>
       <c r="F63" t="n">
-        <v>30284.99357249035</v>
+        <v>50.8273</v>
       </c>
       <c r="G63" t="n">
-        <v>-57510.7743234283</v>
+        <v>72774.00013996457</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2785,36 +2945,33 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>205.1</v>
+        <v>204.2</v>
       </c>
       <c r="C64" t="n">
-        <v>219.9</v>
+        <v>192.1</v>
       </c>
       <c r="D64" t="n">
-        <v>219.9</v>
+        <v>204.2</v>
       </c>
       <c r="E64" t="n">
-        <v>205</v>
+        <v>192.1</v>
       </c>
       <c r="F64" t="n">
-        <v>65009.3825</v>
+        <v>6400.908</v>
       </c>
       <c r="G64" t="n">
-        <v>7498.608176571703</v>
+        <v>66373.09213996457</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2824,75 +2981,69 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>218.9</v>
+        <v>194.1</v>
       </c>
       <c r="C65" t="n">
-        <v>214</v>
+        <v>194.1</v>
       </c>
       <c r="D65" t="n">
-        <v>219.9</v>
+        <v>195</v>
       </c>
       <c r="E65" t="n">
-        <v>214</v>
+        <v>194.1</v>
       </c>
       <c r="F65" t="n">
-        <v>38706.83443129283</v>
+        <v>5700</v>
       </c>
       <c r="G65" t="n">
-        <v>-31208.22625472113</v>
+        <v>72073.09213996457</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C66" t="n">
-        <v>196.3</v>
+        <v>198</v>
       </c>
       <c r="D66" t="n">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E66" t="n">
-        <v>196.3</v>
+        <v>198</v>
       </c>
       <c r="F66" t="n">
-        <v>39558.92326757905</v>
+        <v>1453.2362</v>
       </c>
       <c r="G66" t="n">
-        <v>-70767.14952230017</v>
+        <v>73526.32833996457</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2902,36 +3053,33 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>198.5</v>
+        <v>198</v>
       </c>
       <c r="C67" t="n">
-        <v>193.7</v>
+        <v>197.9</v>
       </c>
       <c r="D67" t="n">
-        <v>198.6</v>
+        <v>198</v>
       </c>
       <c r="E67" t="n">
-        <v>191.4</v>
+        <v>197.9</v>
       </c>
       <c r="F67" t="n">
-        <v>8206.534941802443</v>
+        <v>9548.663200000001</v>
       </c>
       <c r="G67" t="n">
-        <v>-78973.68446410261</v>
+        <v>63977.66513996457</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2941,36 +3089,33 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>194.7</v>
+        <v>198</v>
       </c>
       <c r="C68" t="n">
-        <v>196.9</v>
+        <v>196.1</v>
       </c>
       <c r="D68" t="n">
-        <v>196.9</v>
+        <v>199</v>
       </c>
       <c r="E68" t="n">
-        <v>193.7</v>
+        <v>196.1</v>
       </c>
       <c r="F68" t="n">
-        <v>5051.4972</v>
+        <v>5852.9488</v>
       </c>
       <c r="G68" t="n">
-        <v>-73922.18726410261</v>
+        <v>58124.71633996457</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2980,36 +3125,33 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>196.9</v>
+        <v>200</v>
       </c>
       <c r="C69" t="n">
-        <v>204</v>
+        <v>196.1</v>
       </c>
       <c r="D69" t="n">
-        <v>215.8</v>
+        <v>203</v>
       </c>
       <c r="E69" t="n">
-        <v>196.9</v>
+        <v>196.1</v>
       </c>
       <c r="F69" t="n">
-        <v>14786.04999874055</v>
+        <v>11862.8707</v>
       </c>
       <c r="G69" t="n">
-        <v>-59136.13726536206</v>
+        <v>58124.71633996457</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3019,36 +3161,33 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>206.7</v>
+        <v>200.8</v>
       </c>
       <c r="C70" t="n">
-        <v>197.9</v>
+        <v>198</v>
       </c>
       <c r="D70" t="n">
-        <v>206.7</v>
+        <v>202</v>
       </c>
       <c r="E70" t="n">
-        <v>197.9</v>
+        <v>197</v>
       </c>
       <c r="F70" t="n">
-        <v>8868.3115</v>
+        <v>28358.77</v>
       </c>
       <c r="G70" t="n">
-        <v>-68004.44876536206</v>
+        <v>86483.48633996457</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3058,36 +3197,33 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>200.9</v>
+        <v>197.1</v>
       </c>
       <c r="C71" t="n">
-        <v>202</v>
+        <v>194.1</v>
       </c>
       <c r="D71" t="n">
-        <v>202</v>
+        <v>197.1</v>
       </c>
       <c r="E71" t="n">
-        <v>200.9</v>
+        <v>194.1</v>
       </c>
       <c r="F71" t="n">
-        <v>6</v>
+        <v>10043.6236</v>
       </c>
       <c r="G71" t="n">
-        <v>-67998.44876536206</v>
+        <v>76439.86273996456</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3097,36 +3233,33 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>201</v>
+        <v>194.1</v>
       </c>
       <c r="C72" t="n">
-        <v>204.9</v>
+        <v>192.3</v>
       </c>
       <c r="D72" t="n">
-        <v>204.9</v>
+        <v>194.1</v>
       </c>
       <c r="E72" t="n">
-        <v>201</v>
+        <v>192.2</v>
       </c>
       <c r="F72" t="n">
-        <v>19005.70027891655</v>
+        <v>24097.3841</v>
       </c>
       <c r="G72" t="n">
-        <v>-48992.74848644551</v>
+        <v>52342.47863996457</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3136,36 +3269,33 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>202</v>
+        <v>192.3</v>
       </c>
       <c r="C73" t="n">
-        <v>200</v>
+        <v>192.3</v>
       </c>
       <c r="D73" t="n">
-        <v>202</v>
+        <v>192.3</v>
       </c>
       <c r="E73" t="n">
-        <v>199.9</v>
+        <v>192.3</v>
       </c>
       <c r="F73" t="n">
-        <v>11279.587</v>
+        <v>2570.3581</v>
       </c>
       <c r="G73" t="n">
-        <v>-60272.33548644551</v>
+        <v>52342.47863996457</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3175,36 +3305,33 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>200</v>
+        <v>192.2</v>
       </c>
       <c r="C74" t="n">
-        <v>205</v>
+        <v>192.2</v>
       </c>
       <c r="D74" t="n">
-        <v>205</v>
+        <v>192.2</v>
       </c>
       <c r="E74" t="n">
-        <v>198</v>
+        <v>192.2</v>
       </c>
       <c r="F74" t="n">
-        <v>3363.6671</v>
+        <v>1519.6185</v>
       </c>
       <c r="G74" t="n">
-        <v>-56908.66838644551</v>
+        <v>50822.86013996457</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3214,36 +3341,33 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>199.5</v>
+        <v>192.1</v>
       </c>
       <c r="C75" t="n">
-        <v>208.4</v>
+        <v>194</v>
       </c>
       <c r="D75" t="n">
-        <v>208.4</v>
+        <v>194</v>
       </c>
       <c r="E75" t="n">
-        <v>199</v>
+        <v>192.1</v>
       </c>
       <c r="F75" t="n">
-        <v>15778.7018</v>
+        <v>14141.867</v>
       </c>
       <c r="G75" t="n">
-        <v>-41129.96658644551</v>
+        <v>64964.72713996457</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3253,36 +3377,33 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>208.2</v>
+        <v>192.8</v>
       </c>
       <c r="C76" t="n">
-        <v>205</v>
+        <v>192.2</v>
       </c>
       <c r="D76" t="n">
-        <v>215.6</v>
+        <v>192.8</v>
       </c>
       <c r="E76" t="n">
-        <v>204.4</v>
+        <v>192.2</v>
       </c>
       <c r="F76" t="n">
-        <v>28128.42811368274</v>
+        <v>7833.0771</v>
       </c>
       <c r="G76" t="n">
-        <v>-69258.39470012825</v>
+        <v>57131.65003996457</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3292,36 +3413,33 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>213.5</v>
+        <v>192</v>
       </c>
       <c r="C77" t="n">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D77" t="n">
-        <v>214.5</v>
+        <v>192</v>
       </c>
       <c r="E77" t="n">
-        <v>210.1</v>
+        <v>192</v>
       </c>
       <c r="F77" t="n">
-        <v>76883.8147</v>
+        <v>251.2992</v>
       </c>
       <c r="G77" t="n">
-        <v>7625.419999871752</v>
+        <v>56880.35083996457</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3331,36 +3449,33 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>210.3</v>
+        <v>192</v>
       </c>
       <c r="C78" t="n">
-        <v>206.7</v>
+        <v>187.3</v>
       </c>
       <c r="D78" t="n">
-        <v>210.3</v>
+        <v>192</v>
       </c>
       <c r="E78" t="n">
-        <v>206.7</v>
+        <v>187.3</v>
       </c>
       <c r="F78" t="n">
-        <v>5306.0631</v>
+        <v>13795.5989</v>
       </c>
       <c r="G78" t="n">
-        <v>2319.356899871752</v>
+        <v>43084.75193996457</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3370,36 +3485,33 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>210.3</v>
+        <v>189.9</v>
       </c>
       <c r="C79" t="n">
-        <v>210.3</v>
+        <v>190</v>
       </c>
       <c r="D79" t="n">
-        <v>210.3</v>
+        <v>190</v>
       </c>
       <c r="E79" t="n">
-        <v>206.7</v>
+        <v>189.9</v>
       </c>
       <c r="F79" t="n">
-        <v>13646.3392</v>
+        <v>33147.0026</v>
       </c>
       <c r="G79" t="n">
-        <v>15965.69609987175</v>
+        <v>76231.75453996458</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3409,36 +3521,33 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>210.3</v>
+        <v>192</v>
       </c>
       <c r="C80" t="n">
-        <v>213.4</v>
+        <v>192.8</v>
       </c>
       <c r="D80" t="n">
-        <v>214.5</v>
+        <v>192.8</v>
       </c>
       <c r="E80" t="n">
-        <v>210.3</v>
+        <v>192</v>
       </c>
       <c r="F80" t="n">
-        <v>50788.9532</v>
+        <v>11004.5003</v>
       </c>
       <c r="G80" t="n">
-        <v>66754.64929987176</v>
+        <v>87236.25483996457</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3448,36 +3557,33 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>213.4</v>
+        <v>194.5</v>
       </c>
       <c r="C81" t="n">
-        <v>217.6</v>
+        <v>200.9</v>
       </c>
       <c r="D81" t="n">
-        <v>218.5</v>
+        <v>200.9</v>
       </c>
       <c r="E81" t="n">
-        <v>213.4</v>
+        <v>194.5</v>
       </c>
       <c r="F81" t="n">
-        <v>8417.513999999999</v>
+        <v>1300</v>
       </c>
       <c r="G81" t="n">
-        <v>75172.16329987175</v>
+        <v>88536.25483996457</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3487,36 +3593,33 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>217.6</v>
+        <v>193</v>
       </c>
       <c r="C82" t="n">
-        <v>218.5</v>
+        <v>194</v>
       </c>
       <c r="D82" t="n">
-        <v>218.8</v>
+        <v>194</v>
       </c>
       <c r="E82" t="n">
-        <v>217.6</v>
+        <v>190</v>
       </c>
       <c r="F82" t="n">
-        <v>20937.86845740402</v>
+        <v>17114.1344</v>
       </c>
       <c r="G82" t="n">
-        <v>96110.03175727578</v>
+        <v>71422.12043996458</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3526,36 +3629,33 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>218.5</v>
+        <v>191</v>
       </c>
       <c r="C83" t="n">
-        <v>218.4</v>
+        <v>191</v>
       </c>
       <c r="D83" t="n">
-        <v>218.7</v>
+        <v>191</v>
       </c>
       <c r="E83" t="n">
-        <v>218.4</v>
+        <v>191</v>
       </c>
       <c r="F83" t="n">
-        <v>14198.9251</v>
+        <v>383.4848</v>
       </c>
       <c r="G83" t="n">
-        <v>81911.10665727578</v>
+        <v>71038.63563996457</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3565,36 +3665,33 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>218.3</v>
+        <v>191</v>
       </c>
       <c r="C84" t="n">
-        <v>213.1</v>
+        <v>191</v>
       </c>
       <c r="D84" t="n">
-        <v>218.3</v>
+        <v>191</v>
       </c>
       <c r="E84" t="n">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="F84" t="n">
-        <v>4734.6961</v>
+        <v>765.1979</v>
       </c>
       <c r="G84" t="n">
-        <v>77176.41055727578</v>
+        <v>71038.63563996457</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3604,36 +3701,33 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>217.2</v>
+        <v>191.1</v>
       </c>
       <c r="C85" t="n">
-        <v>213.3</v>
+        <v>191</v>
       </c>
       <c r="D85" t="n">
-        <v>217.2</v>
+        <v>191.1</v>
       </c>
       <c r="E85" t="n">
-        <v>213.3</v>
+        <v>191</v>
       </c>
       <c r="F85" t="n">
-        <v>1773.5699</v>
+        <v>1149.089</v>
       </c>
       <c r="G85" t="n">
-        <v>78949.98045727579</v>
+        <v>71038.63563996457</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3643,36 +3737,33 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>215.9</v>
+        <v>191</v>
       </c>
       <c r="C86" t="n">
-        <v>213.4</v>
+        <v>188.3</v>
       </c>
       <c r="D86" t="n">
-        <v>217.2</v>
+        <v>191.1</v>
       </c>
       <c r="E86" t="n">
-        <v>213.3</v>
+        <v>188.3</v>
       </c>
       <c r="F86" t="n">
-        <v>10408.74268268877</v>
+        <v>16848.7928</v>
       </c>
       <c r="G86" t="n">
-        <v>89358.72313996455</v>
+        <v>54189.84283996458</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3682,36 +3773,33 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>215.8</v>
+        <v>189</v>
       </c>
       <c r="C87" t="n">
-        <v>213.3</v>
+        <v>188</v>
       </c>
       <c r="D87" t="n">
-        <v>215.8</v>
+        <v>189</v>
       </c>
       <c r="E87" t="n">
-        <v>213.3</v>
+        <v>187.3</v>
       </c>
       <c r="F87" t="n">
-        <v>5456.6265</v>
+        <v>12137.0279</v>
       </c>
       <c r="G87" t="n">
-        <v>83902.09663996455</v>
+        <v>42052.81493996458</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3721,36 +3809,33 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>213.3</v>
+        <v>187.5</v>
       </c>
       <c r="C88" t="n">
-        <v>213.3</v>
+        <v>189.9</v>
       </c>
       <c r="D88" t="n">
-        <v>213.3</v>
+        <v>189.9</v>
       </c>
       <c r="E88" t="n">
-        <v>213.3</v>
+        <v>187.5</v>
       </c>
       <c r="F88" t="n">
-        <v>6162.1299</v>
+        <v>2422.9128</v>
       </c>
       <c r="G88" t="n">
-        <v>83902.09663996455</v>
+        <v>44475.72773996458</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3760,36 +3845,33 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>213.3</v>
+        <v>189</v>
       </c>
       <c r="C89" t="n">
-        <v>213.3</v>
+        <v>191.5</v>
       </c>
       <c r="D89" t="n">
-        <v>213.3</v>
+        <v>193</v>
       </c>
       <c r="E89" t="n">
-        <v>213.3</v>
+        <v>189</v>
       </c>
       <c r="F89" t="n">
-        <v>4723.8648</v>
+        <v>6832.52</v>
       </c>
       <c r="G89" t="n">
-        <v>83902.09663996455</v>
+        <v>51308.24773996457</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3799,36 +3881,33 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>209.1</v>
+        <v>189.6</v>
       </c>
       <c r="C90" t="n">
-        <v>209.1</v>
+        <v>189.6</v>
       </c>
       <c r="D90" t="n">
-        <v>209.1</v>
+        <v>189.6</v>
       </c>
       <c r="E90" t="n">
-        <v>209.1</v>
+        <v>189.6</v>
       </c>
       <c r="F90" t="n">
-        <v>991</v>
+        <v>1592.2061</v>
       </c>
       <c r="G90" t="n">
-        <v>82911.09663996455</v>
+        <v>49716.04163996457</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3838,36 +3917,33 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>209.1</v>
+        <v>191</v>
       </c>
       <c r="C91" t="n">
-        <v>208.1</v>
+        <v>187.7</v>
       </c>
       <c r="D91" t="n">
-        <v>209.1</v>
+        <v>191</v>
       </c>
       <c r="E91" t="n">
-        <v>208.1</v>
+        <v>187.7</v>
       </c>
       <c r="F91" t="n">
-        <v>523.7907</v>
+        <v>6353.6473</v>
       </c>
       <c r="G91" t="n">
-        <v>82387.30593996456</v>
+        <v>43362.39433996457</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3877,36 +3953,33 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C92" t="n">
-        <v>200.2</v>
+        <v>191.9</v>
       </c>
       <c r="D92" t="n">
-        <v>204</v>
+        <v>191.9</v>
       </c>
       <c r="E92" t="n">
-        <v>200.2</v>
+        <v>190</v>
       </c>
       <c r="F92" t="n">
-        <v>1157.8345</v>
+        <v>1578.015</v>
       </c>
       <c r="G92" t="n">
-        <v>81229.47143996456</v>
+        <v>44940.40933996457</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3916,36 +3989,33 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>202.9</v>
+        <v>191.9</v>
       </c>
       <c r="C93" t="n">
-        <v>198.2</v>
+        <v>190.9</v>
       </c>
       <c r="D93" t="n">
-        <v>202.9</v>
+        <v>192</v>
       </c>
       <c r="E93" t="n">
-        <v>198.2</v>
+        <v>190.9</v>
       </c>
       <c r="F93" t="n">
-        <v>2832.5852</v>
+        <v>570.8102</v>
       </c>
       <c r="G93" t="n">
-        <v>78396.88623996456</v>
+        <v>44369.59913996457</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3955,36 +4025,33 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>202</v>
+        <v>190.9</v>
       </c>
       <c r="C94" t="n">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D94" t="n">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E94" t="n">
-        <v>202</v>
+        <v>190.9</v>
       </c>
       <c r="F94" t="n">
-        <v>22</v>
+        <v>399.3577</v>
       </c>
       <c r="G94" t="n">
-        <v>78418.88623996456</v>
+        <v>44768.95683996457</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3994,36 +4061,33 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>198.1</v>
+        <v>191.9</v>
       </c>
       <c r="C95" t="n">
-        <v>198</v>
+        <v>191.9</v>
       </c>
       <c r="D95" t="n">
-        <v>198.1</v>
+        <v>191.9</v>
       </c>
       <c r="E95" t="n">
-        <v>198</v>
+        <v>191.9</v>
       </c>
       <c r="F95" t="n">
-        <v>3097.0122</v>
+        <v>794.4335</v>
       </c>
       <c r="G95" t="n">
-        <v>75321.87403996456</v>
+        <v>43974.52333996457</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4033,36 +4097,33 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>199</v>
+        <v>190.9</v>
       </c>
       <c r="C96" t="n">
-        <v>198</v>
+        <v>190.9</v>
       </c>
       <c r="D96" t="n">
-        <v>199</v>
+        <v>190.9</v>
       </c>
       <c r="E96" t="n">
-        <v>198</v>
+        <v>190.9</v>
       </c>
       <c r="F96" t="n">
-        <v>6099.8774</v>
+        <v>1245.9325</v>
       </c>
       <c r="G96" t="n">
-        <v>75321.87403996456</v>
+        <v>42728.59083996457</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4072,36 +4133,33 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>197.1</v>
+        <v>191.9</v>
       </c>
       <c r="C97" t="n">
-        <v>196.9</v>
+        <v>192</v>
       </c>
       <c r="D97" t="n">
-        <v>197.1</v>
+        <v>192</v>
       </c>
       <c r="E97" t="n">
-        <v>190.6</v>
+        <v>191.9</v>
       </c>
       <c r="F97" t="n">
-        <v>13201.5783</v>
+        <v>169.7918</v>
       </c>
       <c r="G97" t="n">
-        <v>62120.29573996456</v>
+        <v>42898.38263996457</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4111,36 +4169,33 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C98" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D98" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E98" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F98" t="n">
-        <v>3070.0012</v>
+        <v>57.0996</v>
       </c>
       <c r="G98" t="n">
-        <v>59050.29453996456</v>
+        <v>42898.38263996457</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4150,36 +4205,33 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>193.1</v>
+        <v>192</v>
       </c>
       <c r="C99" t="n">
-        <v>193.1</v>
+        <v>192</v>
       </c>
       <c r="D99" t="n">
-        <v>193.1</v>
+        <v>192</v>
       </c>
       <c r="E99" t="n">
-        <v>193.1</v>
+        <v>192</v>
       </c>
       <c r="F99" t="n">
-        <v>1070.0012</v>
+        <v>0.9004</v>
       </c>
       <c r="G99" t="n">
-        <v>60120.29573996456</v>
+        <v>42898.38263996457</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4189,36 +4241,33 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>193.1</v>
+        <v>191.9</v>
       </c>
       <c r="C100" t="n">
-        <v>193.1</v>
+        <v>190.9</v>
       </c>
       <c r="D100" t="n">
-        <v>193.1</v>
+        <v>191.9</v>
       </c>
       <c r="E100" t="n">
-        <v>193.1</v>
+        <v>190.9</v>
       </c>
       <c r="F100" t="n">
-        <v>2302.0257</v>
+        <v>15134.6669</v>
       </c>
       <c r="G100" t="n">
-        <v>60120.29573996456</v>
+        <v>27763.71573996457</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4228,36 +4277,33 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C101" t="n">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D101" t="n">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E101" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F101" t="n">
-        <v>10813.1486</v>
+        <v>92.04089999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>70933.44433996457</v>
+        <v>27671.67483996457</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4267,36 +4313,33 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C102" t="n">
-        <v>208</v>
+        <v>188.8</v>
       </c>
       <c r="D102" t="n">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E102" t="n">
-        <v>204</v>
+        <v>188.8</v>
       </c>
       <c r="F102" t="n">
-        <v>3075.784</v>
+        <v>11227.3025</v>
       </c>
       <c r="G102" t="n">
-        <v>74009.22833996457</v>
+        <v>16444.37233996457</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4306,36 +4349,33 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>207.9</v>
+        <v>190</v>
       </c>
       <c r="C103" t="n">
-        <v>207.9</v>
+        <v>189</v>
       </c>
       <c r="D103" t="n">
-        <v>207.9</v>
+        <v>190</v>
       </c>
       <c r="E103" t="n">
-        <v>207.9</v>
+        <v>189</v>
       </c>
       <c r="F103" t="n">
-        <v>40</v>
+        <v>4544.0754</v>
       </c>
       <c r="G103" t="n">
-        <v>73969.22833996457</v>
+        <v>20988.44773996457</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4345,36 +4385,33 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>204.1</v>
+        <v>190.8</v>
       </c>
       <c r="C104" t="n">
-        <v>204.1</v>
+        <v>190.8</v>
       </c>
       <c r="D104" t="n">
-        <v>204.1</v>
+        <v>190.8</v>
       </c>
       <c r="E104" t="n">
-        <v>204.1</v>
+        <v>190.8</v>
       </c>
       <c r="F104" t="n">
-        <v>1246.0555</v>
+        <v>664.6844</v>
       </c>
       <c r="G104" t="n">
-        <v>72723.17283996457</v>
+        <v>21653.13213996457</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4384,36 +4421,33 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>206.8</v>
+        <v>190</v>
       </c>
       <c r="C105" t="n">
-        <v>206.8</v>
+        <v>190</v>
       </c>
       <c r="D105" t="n">
-        <v>206.8</v>
+        <v>190</v>
       </c>
       <c r="E105" t="n">
-        <v>206.8</v>
+        <v>190</v>
       </c>
       <c r="F105" t="n">
-        <v>50.8273</v>
+        <v>811.8953</v>
       </c>
       <c r="G105" t="n">
-        <v>72774.00013996457</v>
+        <v>20841.23683996457</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4423,36 +4457,33 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>204.2</v>
+        <v>190.9</v>
       </c>
       <c r="C106" t="n">
-        <v>192.1</v>
+        <v>191</v>
       </c>
       <c r="D106" t="n">
-        <v>204.2</v>
+        <v>191</v>
       </c>
       <c r="E106" t="n">
-        <v>192.1</v>
+        <v>190.8</v>
       </c>
       <c r="F106" t="n">
-        <v>6400.908</v>
+        <v>3933.305</v>
       </c>
       <c r="G106" t="n">
-        <v>66373.09213996457</v>
+        <v>24774.54183996457</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4462,36 +4493,33 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>194.1</v>
+        <v>191</v>
       </c>
       <c r="C107" t="n">
-        <v>194.1</v>
+        <v>191</v>
       </c>
       <c r="D107" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E107" t="n">
-        <v>194.1</v>
+        <v>191</v>
       </c>
       <c r="F107" t="n">
-        <v>5700</v>
+        <v>2766.8072</v>
       </c>
       <c r="G107" t="n">
-        <v>72073.09213996457</v>
+        <v>24774.54183996457</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4501,36 +4529,33 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C108" t="n">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D108" t="n">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E108" t="n">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F108" t="n">
-        <v>1453.2362</v>
+        <v>751.8773</v>
       </c>
       <c r="G108" t="n">
-        <v>73526.32833996457</v>
+        <v>24774.54183996457</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4540,36 +4565,33 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C109" t="n">
-        <v>197.9</v>
+        <v>190.9</v>
       </c>
       <c r="D109" t="n">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E109" t="n">
-        <v>197.9</v>
+        <v>190.9</v>
       </c>
       <c r="F109" t="n">
-        <v>9548.663200000001</v>
+        <v>471.8938</v>
       </c>
       <c r="G109" t="n">
-        <v>63977.66513996457</v>
+        <v>24302.64803996457</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4579,36 +4601,33 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>198</v>
+        <v>190.9</v>
       </c>
       <c r="C110" t="n">
-        <v>196.1</v>
+        <v>190.9</v>
       </c>
       <c r="D110" t="n">
-        <v>199</v>
+        <v>190.9</v>
       </c>
       <c r="E110" t="n">
-        <v>196.1</v>
+        <v>190.9</v>
       </c>
       <c r="F110" t="n">
-        <v>5852.9488</v>
+        <v>59.7321</v>
       </c>
       <c r="G110" t="n">
-        <v>58124.71633996457</v>
+        <v>24302.64803996457</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4618,36 +4637,33 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C111" t="n">
-        <v>196.1</v>
+        <v>190</v>
       </c>
       <c r="D111" t="n">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E111" t="n">
-        <v>196.1</v>
+        <v>190</v>
       </c>
       <c r="F111" t="n">
-        <v>11862.8707</v>
+        <v>1311.0874</v>
       </c>
       <c r="G111" t="n">
-        <v>58124.71633996457</v>
+        <v>22991.56063996457</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4657,36 +4673,33 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>200.8</v>
+        <v>190</v>
       </c>
       <c r="C112" t="n">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D112" t="n">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E112" t="n">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F112" t="n">
-        <v>28358.77</v>
+        <v>125.6142</v>
       </c>
       <c r="G112" t="n">
-        <v>86483.48633996457</v>
+        <v>22991.56063996457</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4696,36 +4709,33 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>197.1</v>
+        <v>190</v>
       </c>
       <c r="C113" t="n">
-        <v>194.1</v>
+        <v>189</v>
       </c>
       <c r="D113" t="n">
-        <v>197.1</v>
+        <v>190</v>
       </c>
       <c r="E113" t="n">
-        <v>194.1</v>
+        <v>189</v>
       </c>
       <c r="F113" t="n">
-        <v>10043.6236</v>
+        <v>173.2984</v>
       </c>
       <c r="G113" t="n">
-        <v>76439.86273996456</v>
+        <v>22818.26223996457</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4735,36 +4745,33 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>194.1</v>
+        <v>189</v>
       </c>
       <c r="C114" t="n">
-        <v>192.3</v>
+        <v>189</v>
       </c>
       <c r="D114" t="n">
-        <v>194.1</v>
+        <v>189</v>
       </c>
       <c r="E114" t="n">
-        <v>192.2</v>
+        <v>189</v>
       </c>
       <c r="F114" t="n">
-        <v>24097.3841</v>
+        <v>159.498</v>
       </c>
       <c r="G114" t="n">
-        <v>52342.47863996457</v>
+        <v>22818.26223996457</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4774,36 +4781,33 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>192.3</v>
+        <v>190</v>
       </c>
       <c r="C115" t="n">
-        <v>192.3</v>
+        <v>190</v>
       </c>
       <c r="D115" t="n">
-        <v>192.3</v>
+        <v>190</v>
       </c>
       <c r="E115" t="n">
-        <v>192.3</v>
+        <v>190</v>
       </c>
       <c r="F115" t="n">
-        <v>2570.3581</v>
+        <v>4274.0542</v>
       </c>
       <c r="G115" t="n">
-        <v>52342.47863996457</v>
+        <v>27092.31643996456</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4813,36 +4817,33 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>192.2</v>
+        <v>190.9</v>
       </c>
       <c r="C116" t="n">
-        <v>192.2</v>
+        <v>188.7</v>
       </c>
       <c r="D116" t="n">
-        <v>192.2</v>
+        <v>191.9</v>
       </c>
       <c r="E116" t="n">
-        <v>192.2</v>
+        <v>188.7</v>
       </c>
       <c r="F116" t="n">
-        <v>1519.6185</v>
+        <v>2878.4156</v>
       </c>
       <c r="G116" t="n">
-        <v>50822.86013996457</v>
+        <v>24213.90083996456</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4852,36 +4853,33 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>192.1</v>
+        <v>190</v>
       </c>
       <c r="C117" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D117" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E117" t="n">
-        <v>192.1</v>
+        <v>190</v>
       </c>
       <c r="F117" t="n">
-        <v>14141.867</v>
+        <v>150</v>
       </c>
       <c r="G117" t="n">
-        <v>64964.72713996457</v>
+        <v>24363.90083996456</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4891,36 +4889,33 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>192.8</v>
+        <v>192</v>
       </c>
       <c r="C118" t="n">
-        <v>192.2</v>
+        <v>192</v>
       </c>
       <c r="D118" t="n">
-        <v>192.8</v>
+        <v>192</v>
       </c>
       <c r="E118" t="n">
-        <v>192.2</v>
+        <v>192</v>
       </c>
       <c r="F118" t="n">
-        <v>7833.0771</v>
+        <v>108.9886</v>
       </c>
       <c r="G118" t="n">
-        <v>57131.65003996457</v>
+        <v>24472.88943996457</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4930,14 +4925,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4947,62 +4939,61 @@
         <v>192</v>
       </c>
       <c r="C119" t="n">
-        <v>192</v>
+        <v>188.7</v>
       </c>
       <c r="D119" t="n">
         <v>192</v>
       </c>
       <c r="E119" t="n">
-        <v>192</v>
+        <v>188.7</v>
       </c>
       <c r="F119" t="n">
-        <v>251.2992</v>
+        <v>6239.2326</v>
       </c>
       <c r="G119" t="n">
-        <v>56880.35083996457</v>
+        <v>18233.65683996457</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>192</v>
+        <v>188.7</v>
       </c>
       <c r="C120" t="n">
-        <v>187.3</v>
+        <v>190.9</v>
       </c>
       <c r="D120" t="n">
-        <v>192</v>
+        <v>190.9</v>
       </c>
       <c r="E120" t="n">
-        <v>187.3</v>
+        <v>188.7</v>
       </c>
       <c r="F120" t="n">
-        <v>13795.5989</v>
+        <v>19393.0186</v>
       </c>
       <c r="G120" t="n">
-        <v>43084.75193996457</v>
+        <v>37626.67543996457</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5010,28 +5001,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>189.9</v>
+        <v>188.8</v>
       </c>
       <c r="C121" t="n">
-        <v>190</v>
+        <v>188.7</v>
       </c>
       <c r="D121" t="n">
-        <v>190</v>
+        <v>188.8</v>
       </c>
       <c r="E121" t="n">
-        <v>189.9</v>
+        <v>188.7</v>
       </c>
       <c r="F121" t="n">
-        <v>33147.0026</v>
+        <v>2498.5754</v>
       </c>
       <c r="G121" t="n">
-        <v>76231.75453996458</v>
+        <v>35128.10003996456</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5045,34 +5037,35 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>192</v>
+        <v>188.7</v>
       </c>
       <c r="C122" t="n">
-        <v>192.8</v>
+        <v>188.7</v>
       </c>
       <c r="D122" t="n">
-        <v>192.8</v>
+        <v>188.7</v>
       </c>
       <c r="E122" t="n">
-        <v>192</v>
+        <v>188.7</v>
       </c>
       <c r="F122" t="n">
-        <v>11004.5003</v>
+        <v>2168.154</v>
       </c>
       <c r="G122" t="n">
-        <v>87236.25483996457</v>
+        <v>35128.10003996456</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5080,34 +5073,35 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>194.5</v>
+        <v>188.7</v>
       </c>
       <c r="C123" t="n">
-        <v>200.9</v>
+        <v>188.7</v>
       </c>
       <c r="D123" t="n">
-        <v>200.9</v>
+        <v>188.7</v>
       </c>
       <c r="E123" t="n">
-        <v>194.5</v>
+        <v>188.7</v>
       </c>
       <c r="F123" t="n">
-        <v>1300</v>
+        <v>1044.7684</v>
       </c>
       <c r="G123" t="n">
-        <v>88536.25483996457</v>
+        <v>35128.10003996456</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5115,34 +5109,35 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>193</v>
+        <v>190.7</v>
       </c>
       <c r="C124" t="n">
-        <v>194</v>
+        <v>190.7</v>
       </c>
       <c r="D124" t="n">
-        <v>194</v>
+        <v>190.7</v>
       </c>
       <c r="E124" t="n">
-        <v>190</v>
+        <v>190.7</v>
       </c>
       <c r="F124" t="n">
-        <v>17114.1344</v>
+        <v>605.61</v>
       </c>
       <c r="G124" t="n">
-        <v>71422.12043996458</v>
+        <v>35733.71003996456</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5150,28 +5145,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>191</v>
+        <v>190.7</v>
       </c>
       <c r="C125" t="n">
-        <v>191</v>
+        <v>188.7</v>
       </c>
       <c r="D125" t="n">
         <v>191</v>
       </c>
       <c r="E125" t="n">
-        <v>191</v>
+        <v>188.7</v>
       </c>
       <c r="F125" t="n">
-        <v>383.4848</v>
+        <v>12531.3638</v>
       </c>
       <c r="G125" t="n">
-        <v>71038.63563996457</v>
+        <v>23202.34623996457</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5185,28 +5181,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>191</v>
+        <v>188.8</v>
       </c>
       <c r="C126" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D126" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E126" t="n">
-        <v>191</v>
+        <v>188.7</v>
       </c>
       <c r="F126" t="n">
-        <v>765.1979</v>
+        <v>303</v>
       </c>
       <c r="G126" t="n">
-        <v>71038.63563996457</v>
+        <v>23505.34623996457</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5220,34 +5217,35 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>191.1</v>
+        <v>191</v>
       </c>
       <c r="C127" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D127" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="E127" t="n">
         <v>191</v>
       </c>
       <c r="F127" t="n">
-        <v>1149.089</v>
+        <v>7078.0892</v>
       </c>
       <c r="G127" t="n">
-        <v>71038.63563996457</v>
+        <v>23505.34623996457</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5255,28 +5253,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C128" t="n">
-        <v>188.3</v>
+        <v>189.7</v>
       </c>
       <c r="D128" t="n">
-        <v>191.1</v>
+        <v>192</v>
       </c>
       <c r="E128" t="n">
-        <v>188.3</v>
+        <v>189.7</v>
       </c>
       <c r="F128" t="n">
-        <v>16848.7928</v>
+        <v>5258.2286</v>
       </c>
       <c r="G128" t="n">
-        <v>54189.84283996458</v>
+        <v>18247.11763996456</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5290,28 +5289,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>189</v>
+        <v>189.7</v>
       </c>
       <c r="C129" t="n">
-        <v>188</v>
+        <v>189.7</v>
       </c>
       <c r="D129" t="n">
-        <v>189</v>
+        <v>189.7</v>
       </c>
       <c r="E129" t="n">
-        <v>187.3</v>
+        <v>189.7</v>
       </c>
       <c r="F129" t="n">
-        <v>12137.0279</v>
+        <v>9432.677</v>
       </c>
       <c r="G129" t="n">
-        <v>42052.81493996458</v>
+        <v>18247.11763996456</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5325,34 +5325,35 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>187.5</v>
+        <v>191.5</v>
       </c>
       <c r="C130" t="n">
-        <v>189.9</v>
+        <v>191.5</v>
       </c>
       <c r="D130" t="n">
-        <v>189.9</v>
+        <v>191.5</v>
       </c>
       <c r="E130" t="n">
-        <v>187.5</v>
+        <v>191.5</v>
       </c>
       <c r="F130" t="n">
-        <v>2422.9128</v>
+        <v>5</v>
       </c>
       <c r="G130" t="n">
-        <v>44475.72773996458</v>
+        <v>18252.11763996456</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5360,34 +5361,35 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>189</v>
+        <v>191.5</v>
       </c>
       <c r="C131" t="n">
         <v>191.5</v>
       </c>
       <c r="D131" t="n">
-        <v>193</v>
+        <v>191.5</v>
       </c>
       <c r="E131" t="n">
-        <v>189</v>
+        <v>191.5</v>
       </c>
       <c r="F131" t="n">
-        <v>6832.52</v>
+        <v>48.0385</v>
       </c>
       <c r="G131" t="n">
-        <v>51308.24773996457</v>
+        <v>18252.11763996456</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5395,34 +5397,35 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>189.6</v>
+        <v>191.5</v>
       </c>
       <c r="C132" t="n">
-        <v>189.6</v>
+        <v>191.5</v>
       </c>
       <c r="D132" t="n">
-        <v>189.6</v>
+        <v>191.5</v>
       </c>
       <c r="E132" t="n">
-        <v>189.6</v>
+        <v>191.5</v>
       </c>
       <c r="F132" t="n">
-        <v>1592.2061</v>
+        <v>5</v>
       </c>
       <c r="G132" t="n">
-        <v>49716.04163996457</v>
+        <v>18252.11763996456</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5430,34 +5433,35 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>191</v>
+        <v>191.5</v>
       </c>
       <c r="C133" t="n">
-        <v>187.7</v>
+        <v>191.5</v>
       </c>
       <c r="D133" t="n">
-        <v>191</v>
+        <v>191.5</v>
       </c>
       <c r="E133" t="n">
-        <v>187.7</v>
+        <v>191.5</v>
       </c>
       <c r="F133" t="n">
-        <v>6353.6473</v>
+        <v>5</v>
       </c>
       <c r="G133" t="n">
-        <v>43362.39433996457</v>
+        <v>18252.11763996456</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5465,34 +5469,35 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>190</v>
+        <v>191.5</v>
       </c>
       <c r="C134" t="n">
-        <v>191.9</v>
+        <v>191.5</v>
       </c>
       <c r="D134" t="n">
-        <v>191.9</v>
+        <v>191.5</v>
       </c>
       <c r="E134" t="n">
-        <v>190</v>
+        <v>191.5</v>
       </c>
       <c r="F134" t="n">
-        <v>1578.015</v>
+        <v>1037.7545691906</v>
       </c>
       <c r="G134" t="n">
-        <v>44940.40933996457</v>
+        <v>18252.11763996456</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5500,28 +5505,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>191.9</v>
+        <v>189.7</v>
       </c>
       <c r="C135" t="n">
-        <v>190.9</v>
+        <v>189.7</v>
       </c>
       <c r="D135" t="n">
-        <v>192</v>
+        <v>189.7</v>
       </c>
       <c r="E135" t="n">
-        <v>190.9</v>
+        <v>189.7</v>
       </c>
       <c r="F135" t="n">
-        <v>570.8102</v>
+        <v>1037.7546</v>
       </c>
       <c r="G135" t="n">
-        <v>44369.59913996457</v>
+        <v>17214.36303996456</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5535,34 +5541,35 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>190.9</v>
+        <v>191.5</v>
       </c>
       <c r="C136" t="n">
-        <v>192</v>
+        <v>191.5</v>
       </c>
       <c r="D136" t="n">
-        <v>192</v>
+        <v>191.5</v>
       </c>
       <c r="E136" t="n">
-        <v>190.9</v>
+        <v>191.5</v>
       </c>
       <c r="F136" t="n">
-        <v>399.3577</v>
+        <v>6</v>
       </c>
       <c r="G136" t="n">
-        <v>44768.95683996457</v>
+        <v>17220.36303996456</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5570,28 +5577,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>191.9</v>
+        <v>191.4</v>
       </c>
       <c r="C137" t="n">
-        <v>191.9</v>
+        <v>191.4</v>
       </c>
       <c r="D137" t="n">
-        <v>191.9</v>
+        <v>191.4</v>
       </c>
       <c r="E137" t="n">
-        <v>191.9</v>
+        <v>191.4</v>
       </c>
       <c r="F137" t="n">
-        <v>794.4335</v>
+        <v>6</v>
       </c>
       <c r="G137" t="n">
-        <v>43974.52333996457</v>
+        <v>17214.36303996456</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5605,34 +5613,35 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>190.9</v>
+        <v>189.7</v>
       </c>
       <c r="C138" t="n">
-        <v>190.9</v>
+        <v>189.7</v>
       </c>
       <c r="D138" t="n">
-        <v>190.9</v>
+        <v>189.7</v>
       </c>
       <c r="E138" t="n">
-        <v>190.9</v>
+        <v>189.7</v>
       </c>
       <c r="F138" t="n">
-        <v>1245.9325</v>
+        <v>3718.7121</v>
       </c>
       <c r="G138" t="n">
-        <v>42728.59083996457</v>
+        <v>13495.65093996456</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5640,34 +5649,35 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>191.9</v>
+        <v>189.7</v>
       </c>
       <c r="C139" t="n">
-        <v>192</v>
+        <v>189.7</v>
       </c>
       <c r="D139" t="n">
-        <v>192</v>
+        <v>189.7</v>
       </c>
       <c r="E139" t="n">
-        <v>191.9</v>
+        <v>189.7</v>
       </c>
       <c r="F139" t="n">
-        <v>169.7918</v>
+        <v>880.466</v>
       </c>
       <c r="G139" t="n">
-        <v>42898.38263996457</v>
+        <v>13495.65093996456</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5675,34 +5685,35 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>192</v>
+        <v>191.4</v>
       </c>
       <c r="C140" t="n">
-        <v>192</v>
+        <v>189.7</v>
       </c>
       <c r="D140" t="n">
-        <v>192</v>
+        <v>191.4</v>
       </c>
       <c r="E140" t="n">
-        <v>192</v>
+        <v>189.7</v>
       </c>
       <c r="F140" t="n">
-        <v>57.0996</v>
+        <v>1068.4815</v>
       </c>
       <c r="G140" t="n">
-        <v>42898.38263996457</v>
+        <v>13495.65093996456</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5710,34 +5721,35 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>192</v>
+        <v>191.5</v>
       </c>
       <c r="C141" t="n">
-        <v>192</v>
+        <v>191.5</v>
       </c>
       <c r="D141" t="n">
-        <v>192</v>
+        <v>191.5</v>
       </c>
       <c r="E141" t="n">
-        <v>192</v>
+        <v>191.5</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9004</v>
+        <v>3</v>
       </c>
       <c r="G141" t="n">
-        <v>42898.38263996457</v>
+        <v>13498.65093996456</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5745,34 +5757,35 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>191.9</v>
+        <v>191.4</v>
       </c>
       <c r="C142" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="D142" t="n">
-        <v>191.9</v>
+        <v>192</v>
       </c>
       <c r="E142" t="n">
-        <v>190.9</v>
+        <v>191.4</v>
       </c>
       <c r="F142" t="n">
-        <v>15134.6669</v>
+        <v>5006</v>
       </c>
       <c r="G142" t="n">
-        <v>27763.71573996457</v>
+        <v>18504.65093996456</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5780,34 +5793,35 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C143" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D143" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E143" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F143" t="n">
-        <v>92.04089999999999</v>
+        <v>44</v>
       </c>
       <c r="G143" t="n">
-        <v>27671.67483996457</v>
+        <v>18504.65093996456</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5815,34 +5829,35 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C144" t="n">
-        <v>188.8</v>
+        <v>192</v>
       </c>
       <c r="D144" t="n">
         <v>192</v>
       </c>
       <c r="E144" t="n">
-        <v>188.8</v>
+        <v>190</v>
       </c>
       <c r="F144" t="n">
-        <v>11227.3025</v>
+        <v>94.6765</v>
       </c>
       <c r="G144" t="n">
-        <v>16444.37233996457</v>
+        <v>18504.65093996456</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5850,28 +5865,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C145" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D145" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E145" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F145" t="n">
-        <v>4544.0754</v>
+        <v>1000</v>
       </c>
       <c r="G145" t="n">
-        <v>20988.44773996457</v>
+        <v>18504.65093996456</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5885,28 +5901,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="C146" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="D146" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="E146" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="F146" t="n">
-        <v>664.6844</v>
+        <v>110</v>
       </c>
       <c r="G146" t="n">
-        <v>21653.13213996457</v>
+        <v>18504.65093996456</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5920,28 +5937,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C147" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D147" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E147" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F147" t="n">
-        <v>811.8953</v>
+        <v>2.7778</v>
       </c>
       <c r="G147" t="n">
-        <v>20841.23683996457</v>
+        <v>18504.65093996456</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5955,28 +5973,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>190.9</v>
+        <v>190.1</v>
       </c>
       <c r="C148" t="n">
-        <v>191</v>
+        <v>190.1</v>
       </c>
       <c r="D148" t="n">
-        <v>191</v>
+        <v>190.1</v>
       </c>
       <c r="E148" t="n">
-        <v>190.8</v>
+        <v>190.1</v>
       </c>
       <c r="F148" t="n">
-        <v>3933.305</v>
+        <v>6</v>
       </c>
       <c r="G148" t="n">
-        <v>24774.54183996457</v>
+        <v>18498.65093996456</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5990,28 +6009,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C149" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D149" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E149" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F149" t="n">
-        <v>2766.8072</v>
+        <v>6</v>
       </c>
       <c r="G149" t="n">
-        <v>24774.54183996457</v>
+        <v>18504.65093996456</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6025,28 +6045,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C150" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D150" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E150" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F150" t="n">
-        <v>751.8773</v>
+        <v>9.4513</v>
       </c>
       <c r="G150" t="n">
-        <v>24774.54183996457</v>
+        <v>18504.65093996456</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6060,6 +6081,7 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6069,19 +6091,19 @@
         <v>191</v>
       </c>
       <c r="C151" t="n">
-        <v>190.9</v>
+        <v>190.1</v>
       </c>
       <c r="D151" t="n">
         <v>191</v>
       </c>
       <c r="E151" t="n">
-        <v>190.9</v>
+        <v>190.1</v>
       </c>
       <c r="F151" t="n">
-        <v>471.8938</v>
+        <v>150</v>
       </c>
       <c r="G151" t="n">
-        <v>24302.64803996457</v>
+        <v>18354.65093996456</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6095,28 +6117,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="C152" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="D152" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="E152" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="F152" t="n">
-        <v>59.7321</v>
+        <v>76.8322</v>
       </c>
       <c r="G152" t="n">
-        <v>24302.64803996457</v>
+        <v>18431.48313996456</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6130,28 +6153,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>190</v>
+        <v>193.2</v>
       </c>
       <c r="C153" t="n">
-        <v>190</v>
+        <v>193.2</v>
       </c>
       <c r="D153" t="n">
-        <v>190</v>
+        <v>193.2</v>
       </c>
       <c r="E153" t="n">
-        <v>190</v>
+        <v>193.2</v>
       </c>
       <c r="F153" t="n">
-        <v>1311.0874</v>
+        <v>6</v>
       </c>
       <c r="G153" t="n">
-        <v>22991.56063996457</v>
+        <v>18437.48313996456</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6165,34 +6189,35 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>190</v>
+        <v>193.2</v>
       </c>
       <c r="C154" t="n">
-        <v>190</v>
+        <v>190.1</v>
       </c>
       <c r="D154" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E154" t="n">
-        <v>190</v>
+        <v>190.1</v>
       </c>
       <c r="F154" t="n">
-        <v>125.6142</v>
+        <v>14632.8762</v>
       </c>
       <c r="G154" t="n">
-        <v>22991.56063996457</v>
+        <v>3804.606939964562</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -6200,34 +6225,35 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>190</v>
+        <v>196.7</v>
       </c>
       <c r="C155" t="n">
-        <v>189</v>
+        <v>196.7</v>
       </c>
       <c r="D155" t="n">
-        <v>190</v>
+        <v>196.7</v>
       </c>
       <c r="E155" t="n">
-        <v>189</v>
+        <v>196.7</v>
       </c>
       <c r="F155" t="n">
-        <v>173.2984</v>
+        <v>101.677</v>
       </c>
       <c r="G155" t="n">
-        <v>22818.26223996457</v>
+        <v>3906.283939964562</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -6235,28 +6261,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>189</v>
+        <v>191.2</v>
       </c>
       <c r="C156" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D156" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E156" t="n">
-        <v>189</v>
+        <v>191.1</v>
       </c>
       <c r="F156" t="n">
-        <v>159.498</v>
+        <v>990</v>
       </c>
       <c r="G156" t="n">
-        <v>22818.26223996457</v>
+        <v>2916.283939964562</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6270,28 +6297,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>190</v>
+        <v>191.1</v>
       </c>
       <c r="C157" t="n">
-        <v>190</v>
+        <v>191.1</v>
       </c>
       <c r="D157" t="n">
-        <v>190</v>
+        <v>191.1</v>
       </c>
       <c r="E157" t="n">
-        <v>190</v>
+        <v>191.1</v>
       </c>
       <c r="F157" t="n">
-        <v>4274.0542</v>
+        <v>2304.1857</v>
       </c>
       <c r="G157" t="n">
-        <v>27092.31643996456</v>
+        <v>612.0982399645623</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6305,28 +6333,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>190.9</v>
+        <v>191.2</v>
       </c>
       <c r="C158" t="n">
-        <v>188.7</v>
+        <v>191.2</v>
       </c>
       <c r="D158" t="n">
-        <v>191.9</v>
+        <v>191.2</v>
       </c>
       <c r="E158" t="n">
-        <v>188.7</v>
+        <v>191.2</v>
       </c>
       <c r="F158" t="n">
-        <v>2878.4156</v>
+        <v>153.93</v>
       </c>
       <c r="G158" t="n">
-        <v>24213.90083996456</v>
+        <v>766.0282399645623</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6340,28 +6369,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>190</v>
+        <v>191.2</v>
       </c>
       <c r="C159" t="n">
-        <v>190</v>
+        <v>191.1</v>
       </c>
       <c r="D159" t="n">
-        <v>190</v>
+        <v>191.2</v>
       </c>
       <c r="E159" t="n">
-        <v>190</v>
+        <v>191.1</v>
       </c>
       <c r="F159" t="n">
-        <v>150</v>
+        <v>1089.2303</v>
       </c>
       <c r="G159" t="n">
-        <v>24363.90083996456</v>
+        <v>-323.2020600354376</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6375,28 +6405,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>192</v>
+        <v>191.2</v>
       </c>
       <c r="C160" t="n">
-        <v>192</v>
+        <v>191.2</v>
       </c>
       <c r="D160" t="n">
-        <v>192</v>
+        <v>191.2</v>
       </c>
       <c r="E160" t="n">
-        <v>192</v>
+        <v>191.2</v>
       </c>
       <c r="F160" t="n">
-        <v>108.9886</v>
+        <v>5</v>
       </c>
       <c r="G160" t="n">
-        <v>24472.88943996457</v>
+        <v>-318.2020600354376</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6410,28 +6441,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>192</v>
+        <v>193.9</v>
       </c>
       <c r="C161" t="n">
-        <v>188.7</v>
+        <v>193.9</v>
       </c>
       <c r="D161" t="n">
-        <v>192</v>
+        <v>193.9</v>
       </c>
       <c r="E161" t="n">
-        <v>188.7</v>
+        <v>193.9</v>
       </c>
       <c r="F161" t="n">
-        <v>6239.2326</v>
+        <v>4.9055</v>
       </c>
       <c r="G161" t="n">
-        <v>18233.65683996457</v>
+        <v>-313.2965600354376</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6445,28 +6477,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>188.7</v>
+        <v>193.9</v>
       </c>
       <c r="C162" t="n">
-        <v>190.9</v>
+        <v>191</v>
       </c>
       <c r="D162" t="n">
-        <v>190.9</v>
+        <v>193.9</v>
       </c>
       <c r="E162" t="n">
-        <v>188.7</v>
+        <v>191</v>
       </c>
       <c r="F162" t="n">
-        <v>19393.0186</v>
+        <v>11471.1445</v>
       </c>
       <c r="G162" t="n">
-        <v>37626.67543996457</v>
+        <v>-11784.44106003544</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6480,28 +6513,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>188.8</v>
+        <v>192.1</v>
       </c>
       <c r="C163" t="n">
-        <v>188.7</v>
+        <v>192.1</v>
       </c>
       <c r="D163" t="n">
-        <v>188.8</v>
+        <v>192.1</v>
       </c>
       <c r="E163" t="n">
-        <v>188.7</v>
+        <v>192.1</v>
       </c>
       <c r="F163" t="n">
-        <v>2498.5754</v>
+        <v>72.62179999999999</v>
       </c>
       <c r="G163" t="n">
-        <v>35128.10003996456</v>
+        <v>-11711.81926003544</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6515,28 +6549,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>188.7</v>
+        <v>192</v>
       </c>
       <c r="C164" t="n">
-        <v>188.7</v>
+        <v>191.7</v>
       </c>
       <c r="D164" t="n">
-        <v>188.7</v>
+        <v>192</v>
       </c>
       <c r="E164" t="n">
-        <v>188.7</v>
+        <v>191.7</v>
       </c>
       <c r="F164" t="n">
-        <v>2168.154</v>
+        <v>182.4142</v>
       </c>
       <c r="G164" t="n">
-        <v>35128.10003996456</v>
+        <v>-11894.23346003544</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6550,28 +6585,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>188.7</v>
+        <v>192</v>
       </c>
       <c r="C165" t="n">
-        <v>188.7</v>
+        <v>192</v>
       </c>
       <c r="D165" t="n">
-        <v>188.7</v>
+        <v>192</v>
       </c>
       <c r="E165" t="n">
-        <v>188.7</v>
+        <v>192</v>
       </c>
       <c r="F165" t="n">
-        <v>1044.7684</v>
+        <v>6588.4278</v>
       </c>
       <c r="G165" t="n">
-        <v>35128.10003996456</v>
+        <v>-5305.805660035437</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6585,28 +6621,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>190.7</v>
+        <v>191.1</v>
       </c>
       <c r="C166" t="n">
-        <v>190.7</v>
+        <v>190.9</v>
       </c>
       <c r="D166" t="n">
-        <v>190.7</v>
+        <v>191.1</v>
       </c>
       <c r="E166" t="n">
-        <v>190.7</v>
+        <v>190.9</v>
       </c>
       <c r="F166" t="n">
-        <v>605.61</v>
+        <v>2628.6163</v>
       </c>
       <c r="G166" t="n">
-        <v>35733.71003996456</v>
+        <v>-7934.421960035437</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6620,28 +6657,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>190.7</v>
+        <v>190.8</v>
       </c>
       <c r="C167" t="n">
-        <v>188.7</v>
+        <v>190.8</v>
       </c>
       <c r="D167" t="n">
         <v>191</v>
       </c>
       <c r="E167" t="n">
-        <v>188.7</v>
+        <v>190.8</v>
       </c>
       <c r="F167" t="n">
-        <v>12531.3638</v>
+        <v>2368.6501</v>
       </c>
       <c r="G167" t="n">
-        <v>23202.34623996457</v>
+        <v>-10303.07206003544</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6655,28 +6693,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>188.8</v>
+        <v>190.8</v>
       </c>
       <c r="C168" t="n">
-        <v>192</v>
+        <v>190.8</v>
       </c>
       <c r="D168" t="n">
         <v>192</v>
       </c>
       <c r="E168" t="n">
-        <v>188.7</v>
+        <v>190.8</v>
       </c>
       <c r="F168" t="n">
-        <v>303</v>
+        <v>64</v>
       </c>
       <c r="G168" t="n">
-        <v>23505.34623996457</v>
+        <v>-10303.07206003544</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6690,28 +6729,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>191</v>
+        <v>190.8</v>
       </c>
       <c r="C169" t="n">
-        <v>192</v>
+        <v>190.8</v>
       </c>
       <c r="D169" t="n">
-        <v>192</v>
+        <v>190.8</v>
       </c>
       <c r="E169" t="n">
-        <v>191</v>
+        <v>190.8</v>
       </c>
       <c r="F169" t="n">
-        <v>7078.0892</v>
+        <v>15</v>
       </c>
       <c r="G169" t="n">
-        <v>23505.34623996457</v>
+        <v>-10303.07206003544</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6725,28 +6765,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>192</v>
+        <v>190.8</v>
       </c>
       <c r="C170" t="n">
-        <v>189.7</v>
+        <v>190.8</v>
       </c>
       <c r="D170" t="n">
-        <v>192</v>
+        <v>190.8</v>
       </c>
       <c r="E170" t="n">
-        <v>189.7</v>
+        <v>190.8</v>
       </c>
       <c r="F170" t="n">
-        <v>5258.2286</v>
+        <v>5</v>
       </c>
       <c r="G170" t="n">
-        <v>18247.11763996456</v>
+        <v>-10303.07206003544</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6760,28 +6801,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>189.7</v>
+        <v>190.9</v>
       </c>
       <c r="C171" t="n">
-        <v>189.7</v>
+        <v>190.8</v>
       </c>
       <c r="D171" t="n">
-        <v>189.7</v>
+        <v>191.8</v>
       </c>
       <c r="E171" t="n">
-        <v>189.7</v>
+        <v>190.8</v>
       </c>
       <c r="F171" t="n">
-        <v>9432.677</v>
+        <v>1689.5135</v>
       </c>
       <c r="G171" t="n">
-        <v>18247.11763996456</v>
+        <v>-10303.07206003544</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6795,28 +6837,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>191.5</v>
+        <v>190.7</v>
       </c>
       <c r="C172" t="n">
-        <v>191.5</v>
+        <v>190.1</v>
       </c>
       <c r="D172" t="n">
-        <v>191.5</v>
+        <v>190.8</v>
       </c>
       <c r="E172" t="n">
-        <v>191.5</v>
+        <v>190.1</v>
       </c>
       <c r="F172" t="n">
-        <v>5</v>
+        <v>25027.2385</v>
       </c>
       <c r="G172" t="n">
-        <v>18252.11763996456</v>
+        <v>-35330.31056003543</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6830,28 +6873,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>191.5</v>
+        <v>190</v>
       </c>
       <c r="C173" t="n">
-        <v>191.5</v>
+        <v>190</v>
       </c>
       <c r="D173" t="n">
-        <v>191.5</v>
+        <v>190</v>
       </c>
       <c r="E173" t="n">
-        <v>191.5</v>
+        <v>190</v>
       </c>
       <c r="F173" t="n">
-        <v>48.0385</v>
+        <v>359.6523</v>
       </c>
       <c r="G173" t="n">
-        <v>18252.11763996456</v>
+        <v>-35689.96286003543</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6865,28 +6909,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>191.5</v>
+        <v>190</v>
       </c>
       <c r="C174" t="n">
-        <v>191.5</v>
+        <v>190.8</v>
       </c>
       <c r="D174" t="n">
-        <v>191.5</v>
+        <v>190.8</v>
       </c>
       <c r="E174" t="n">
-        <v>191.5</v>
+        <v>190</v>
       </c>
       <c r="F174" t="n">
-        <v>5</v>
+        <v>12292.25</v>
       </c>
       <c r="G174" t="n">
-        <v>18252.11763996456</v>
+        <v>-23397.71286003543</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6900,28 +6945,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>191.5</v>
+        <v>190.2</v>
       </c>
       <c r="C175" t="n">
-        <v>191.5</v>
+        <v>191</v>
       </c>
       <c r="D175" t="n">
-        <v>191.5</v>
+        <v>192.9</v>
       </c>
       <c r="E175" t="n">
-        <v>191.5</v>
+        <v>190.2</v>
       </c>
       <c r="F175" t="n">
-        <v>5</v>
+        <v>4020.959</v>
       </c>
       <c r="G175" t="n">
-        <v>18252.11763996456</v>
+        <v>-19376.75386003543</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6935,28 +6981,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>191.5</v>
+        <v>191</v>
       </c>
       <c r="C176" t="n">
-        <v>191.5</v>
+        <v>190.2</v>
       </c>
       <c r="D176" t="n">
-        <v>191.5</v>
+        <v>191</v>
       </c>
       <c r="E176" t="n">
-        <v>191.5</v>
+        <v>190.2</v>
       </c>
       <c r="F176" t="n">
-        <v>1037.7545691906</v>
+        <v>7831.6875</v>
       </c>
       <c r="G176" t="n">
-        <v>18252.11763996456</v>
+        <v>-27208.44136003543</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6970,28 +7017,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>189.7</v>
+        <v>190.3</v>
       </c>
       <c r="C177" t="n">
-        <v>189.7</v>
+        <v>191.5</v>
       </c>
       <c r="D177" t="n">
-        <v>189.7</v>
+        <v>191.5</v>
       </c>
       <c r="E177" t="n">
-        <v>189.7</v>
+        <v>190.3</v>
       </c>
       <c r="F177" t="n">
-        <v>1037.7546</v>
+        <v>69.86422976501305</v>
       </c>
       <c r="G177" t="n">
-        <v>17214.36303996456</v>
+        <v>-27138.57713027042</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7005,28 +7053,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>191.5</v>
+        <v>190.3</v>
       </c>
       <c r="C178" t="n">
-        <v>191.5</v>
+        <v>189.9</v>
       </c>
       <c r="D178" t="n">
-        <v>191.5</v>
+        <v>190.3</v>
       </c>
       <c r="E178" t="n">
-        <v>191.5</v>
+        <v>189.9</v>
       </c>
       <c r="F178" t="n">
-        <v>6</v>
+        <v>15681.9503</v>
       </c>
       <c r="G178" t="n">
-        <v>17220.36303996456</v>
+        <v>-42820.52743027042</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7040,28 +7089,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>191.4</v>
+        <v>190.2</v>
       </c>
       <c r="C179" t="n">
-        <v>191.4</v>
+        <v>192.7</v>
       </c>
       <c r="D179" t="n">
-        <v>191.4</v>
+        <v>192.7</v>
       </c>
       <c r="E179" t="n">
-        <v>191.4</v>
+        <v>190.2</v>
       </c>
       <c r="F179" t="n">
-        <v>6</v>
+        <v>7788.1125</v>
       </c>
       <c r="G179" t="n">
-        <v>17214.36303996456</v>
+        <v>-35032.41493027042</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7075,28 +7125,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>189.7</v>
+        <v>192.2</v>
       </c>
       <c r="C180" t="n">
-        <v>189.7</v>
+        <v>192.2</v>
       </c>
       <c r="D180" t="n">
-        <v>189.7</v>
+        <v>192.2</v>
       </c>
       <c r="E180" t="n">
-        <v>189.7</v>
+        <v>192.2</v>
       </c>
       <c r="F180" t="n">
-        <v>3718.7121</v>
+        <v>5</v>
       </c>
       <c r="G180" t="n">
-        <v>13495.65093996456</v>
+        <v>-35037.41493027042</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7110,28 +7161,29 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>189.7</v>
+        <v>191.3</v>
       </c>
       <c r="C181" t="n">
-        <v>189.7</v>
+        <v>191.5</v>
       </c>
       <c r="D181" t="n">
-        <v>189.7</v>
+        <v>191.5</v>
       </c>
       <c r="E181" t="n">
-        <v>189.7</v>
+        <v>191</v>
       </c>
       <c r="F181" t="n">
-        <v>880.466</v>
+        <v>40</v>
       </c>
       <c r="G181" t="n">
-        <v>13495.65093996456</v>
+        <v>-35077.41493027042</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7145,28 +7197,29 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>191.4</v>
+        <v>191.6</v>
       </c>
       <c r="C182" t="n">
-        <v>189.7</v>
+        <v>192</v>
       </c>
       <c r="D182" t="n">
-        <v>191.4</v>
+        <v>192</v>
       </c>
       <c r="E182" t="n">
-        <v>189.7</v>
+        <v>191.6</v>
       </c>
       <c r="F182" t="n">
-        <v>1068.4815</v>
+        <v>35</v>
       </c>
       <c r="G182" t="n">
-        <v>13495.65093996456</v>
+        <v>-35042.41493027042</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7180,1476 +7233,7 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="C183" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="D183" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="E183" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="F183" t="n">
-        <v>3</v>
-      </c>
-      <c r="G183" t="n">
-        <v>13498.65093996456</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>191.4</v>
-      </c>
-      <c r="C184" t="n">
-        <v>192</v>
-      </c>
-      <c r="D184" t="n">
-        <v>192</v>
-      </c>
-      <c r="E184" t="n">
-        <v>191.4</v>
-      </c>
-      <c r="F184" t="n">
-        <v>5006</v>
-      </c>
-      <c r="G184" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>192</v>
-      </c>
-      <c r="C185" t="n">
-        <v>192</v>
-      </c>
-      <c r="D185" t="n">
-        <v>192</v>
-      </c>
-      <c r="E185" t="n">
-        <v>192</v>
-      </c>
-      <c r="F185" t="n">
-        <v>44</v>
-      </c>
-      <c r="G185" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>190</v>
-      </c>
-      <c r="C186" t="n">
-        <v>192</v>
-      </c>
-      <c r="D186" t="n">
-        <v>192</v>
-      </c>
-      <c r="E186" t="n">
-        <v>190</v>
-      </c>
-      <c r="F186" t="n">
-        <v>94.6765</v>
-      </c>
-      <c r="G186" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>192</v>
-      </c>
-      <c r="C187" t="n">
-        <v>192</v>
-      </c>
-      <c r="D187" t="n">
-        <v>192</v>
-      </c>
-      <c r="E187" t="n">
-        <v>192</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G187" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>192</v>
-      </c>
-      <c r="C188" t="n">
-        <v>192</v>
-      </c>
-      <c r="D188" t="n">
-        <v>192</v>
-      </c>
-      <c r="E188" t="n">
-        <v>192</v>
-      </c>
-      <c r="F188" t="n">
-        <v>110</v>
-      </c>
-      <c r="G188" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>192</v>
-      </c>
-      <c r="C189" t="n">
-        <v>192</v>
-      </c>
-      <c r="D189" t="n">
-        <v>192</v>
-      </c>
-      <c r="E189" t="n">
-        <v>192</v>
-      </c>
-      <c r="F189" t="n">
-        <v>2.7778</v>
-      </c>
-      <c r="G189" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="C190" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="D190" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="E190" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="F190" t="n">
-        <v>6</v>
-      </c>
-      <c r="G190" t="n">
-        <v>18498.65093996456</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>192</v>
-      </c>
-      <c r="C191" t="n">
-        <v>192</v>
-      </c>
-      <c r="D191" t="n">
-        <v>192</v>
-      </c>
-      <c r="E191" t="n">
-        <v>192</v>
-      </c>
-      <c r="F191" t="n">
-        <v>6</v>
-      </c>
-      <c r="G191" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>192</v>
-      </c>
-      <c r="C192" t="n">
-        <v>192</v>
-      </c>
-      <c r="D192" t="n">
-        <v>192</v>
-      </c>
-      <c r="E192" t="n">
-        <v>192</v>
-      </c>
-      <c r="F192" t="n">
-        <v>9.4513</v>
-      </c>
-      <c r="G192" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>191</v>
-      </c>
-      <c r="C193" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="D193" t="n">
-        <v>191</v>
-      </c>
-      <c r="E193" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="F193" t="n">
-        <v>150</v>
-      </c>
-      <c r="G193" t="n">
-        <v>18354.65093996456</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>191</v>
-      </c>
-      <c r="C194" t="n">
-        <v>191</v>
-      </c>
-      <c r="D194" t="n">
-        <v>191</v>
-      </c>
-      <c r="E194" t="n">
-        <v>191</v>
-      </c>
-      <c r="F194" t="n">
-        <v>76.8322</v>
-      </c>
-      <c r="G194" t="n">
-        <v>18431.48313996456</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>193.2</v>
-      </c>
-      <c r="C195" t="n">
-        <v>193.2</v>
-      </c>
-      <c r="D195" t="n">
-        <v>193.2</v>
-      </c>
-      <c r="E195" t="n">
-        <v>193.2</v>
-      </c>
-      <c r="F195" t="n">
-        <v>6</v>
-      </c>
-      <c r="G195" t="n">
-        <v>18437.48313996456</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>193.2</v>
-      </c>
-      <c r="C196" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="D196" t="n">
-        <v>196</v>
-      </c>
-      <c r="E196" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="F196" t="n">
-        <v>14632.8762</v>
-      </c>
-      <c r="G196" t="n">
-        <v>3804.606939964562</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="C197" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="D197" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="E197" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="F197" t="n">
-        <v>101.677</v>
-      </c>
-      <c r="G197" t="n">
-        <v>3906.283939964562</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="C198" t="n">
-        <v>192</v>
-      </c>
-      <c r="D198" t="n">
-        <v>192</v>
-      </c>
-      <c r="E198" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="F198" t="n">
-        <v>990</v>
-      </c>
-      <c r="G198" t="n">
-        <v>2916.283939964562</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="C199" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="D199" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="E199" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2304.1857</v>
-      </c>
-      <c r="G199" t="n">
-        <v>612.0982399645623</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="C200" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="D200" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="E200" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="F200" t="n">
-        <v>153.93</v>
-      </c>
-      <c r="G200" t="n">
-        <v>766.0282399645623</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="C201" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="D201" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="E201" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1089.2303</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-323.2020600354376</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="C202" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="D202" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="E202" t="n">
-        <v>191.2</v>
-      </c>
-      <c r="F202" t="n">
-        <v>5</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-318.2020600354376</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>193.9</v>
-      </c>
-      <c r="C203" t="n">
-        <v>193.9</v>
-      </c>
-      <c r="D203" t="n">
-        <v>193.9</v>
-      </c>
-      <c r="E203" t="n">
-        <v>193.9</v>
-      </c>
-      <c r="F203" t="n">
-        <v>4.9055</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-313.2965600354376</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>193.9</v>
-      </c>
-      <c r="C204" t="n">
-        <v>191</v>
-      </c>
-      <c r="D204" t="n">
-        <v>193.9</v>
-      </c>
-      <c r="E204" t="n">
-        <v>191</v>
-      </c>
-      <c r="F204" t="n">
-        <v>11471.1445</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-11784.44106003544</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>192.1</v>
-      </c>
-      <c r="C205" t="n">
-        <v>192.1</v>
-      </c>
-      <c r="D205" t="n">
-        <v>192.1</v>
-      </c>
-      <c r="E205" t="n">
-        <v>192.1</v>
-      </c>
-      <c r="F205" t="n">
-        <v>72.62179999999999</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-11711.81926003544</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>192</v>
-      </c>
-      <c r="C206" t="n">
-        <v>191.7</v>
-      </c>
-      <c r="D206" t="n">
-        <v>192</v>
-      </c>
-      <c r="E206" t="n">
-        <v>191.7</v>
-      </c>
-      <c r="F206" t="n">
-        <v>182.4142</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-11894.23346003544</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>192</v>
-      </c>
-      <c r="C207" t="n">
-        <v>192</v>
-      </c>
-      <c r="D207" t="n">
-        <v>192</v>
-      </c>
-      <c r="E207" t="n">
-        <v>192</v>
-      </c>
-      <c r="F207" t="n">
-        <v>6588.4278</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-5305.805660035437</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="C208" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="D208" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="E208" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2628.6163</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-7934.421960035437</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="C209" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="D209" t="n">
-        <v>191</v>
-      </c>
-      <c r="E209" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="F209" t="n">
-        <v>2368.6501</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-10303.07206003544</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="C210" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="D210" t="n">
-        <v>192</v>
-      </c>
-      <c r="E210" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="F210" t="n">
-        <v>64</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-10303.07206003544</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="C211" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="D211" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="E211" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="F211" t="n">
-        <v>15</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-10303.07206003544</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="C212" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="D212" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="E212" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="F212" t="n">
-        <v>5</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-10303.07206003544</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="C213" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="D213" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="E213" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1689.5135</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-10303.07206003544</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>190.7</v>
-      </c>
-      <c r="C214" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="D214" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="E214" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="F214" t="n">
-        <v>25027.2385</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-35330.31056003543</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>190</v>
-      </c>
-      <c r="C215" t="n">
-        <v>190</v>
-      </c>
-      <c r="D215" t="n">
-        <v>190</v>
-      </c>
-      <c r="E215" t="n">
-        <v>190</v>
-      </c>
-      <c r="F215" t="n">
-        <v>359.6523</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-35689.96286003543</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>190</v>
-      </c>
-      <c r="C216" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="D216" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="E216" t="n">
-        <v>190</v>
-      </c>
-      <c r="F216" t="n">
-        <v>12292.25</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-23397.71286003543</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>190.2</v>
-      </c>
-      <c r="C217" t="n">
-        <v>191</v>
-      </c>
-      <c r="D217" t="n">
-        <v>192.9</v>
-      </c>
-      <c r="E217" t="n">
-        <v>190.2</v>
-      </c>
-      <c r="F217" t="n">
-        <v>4020.959</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-19376.75386003543</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>191</v>
-      </c>
-      <c r="C218" t="n">
-        <v>190.2</v>
-      </c>
-      <c r="D218" t="n">
-        <v>191</v>
-      </c>
-      <c r="E218" t="n">
-        <v>190.2</v>
-      </c>
-      <c r="F218" t="n">
-        <v>7831.6875</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-27208.44136003543</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="C219" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="D219" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="E219" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="F219" t="n">
-        <v>69.86422976501305</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-27138.57713027042</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="C220" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="D220" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="E220" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="F220" t="n">
-        <v>15681.9503</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-42820.52743027042</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>190.2</v>
-      </c>
-      <c r="C221" t="n">
-        <v>192.7</v>
-      </c>
-      <c r="D221" t="n">
-        <v>192.7</v>
-      </c>
-      <c r="E221" t="n">
-        <v>190.2</v>
-      </c>
-      <c r="F221" t="n">
-        <v>7788.1125</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-35032.41493027042</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>192.2</v>
-      </c>
-      <c r="C222" t="n">
-        <v>192.2</v>
-      </c>
-      <c r="D222" t="n">
-        <v>192.2</v>
-      </c>
-      <c r="E222" t="n">
-        <v>192.2</v>
-      </c>
-      <c r="F222" t="n">
-        <v>5</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-35037.41493027042</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>191.3</v>
-      </c>
-      <c r="C223" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="D223" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="E223" t="n">
-        <v>191</v>
-      </c>
-      <c r="F223" t="n">
-        <v>40</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-35077.41493027042</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>191.6</v>
-      </c>
-      <c r="C224" t="n">
-        <v>192</v>
-      </c>
-      <c r="D224" t="n">
-        <v>192</v>
-      </c>
-      <c r="E224" t="n">
-        <v>191.6</v>
-      </c>
-      <c r="F224" t="n">
-        <v>35</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-35042.41493027042</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
+      <c r="N182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest AE.xlsx
+++ b/BackTest/2020-01-19 BackTest AE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N182"/>
+  <dimension ref="A1:N253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>182.1</v>
+        <v>188.8</v>
       </c>
       <c r="C2" t="n">
-        <v>182.1</v>
+        <v>188.8</v>
       </c>
       <c r="D2" t="n">
-        <v>182.1</v>
+        <v>188.8</v>
       </c>
       <c r="E2" t="n">
-        <v>182.1</v>
+        <v>188.8</v>
       </c>
       <c r="F2" t="n">
-        <v>147.3833</v>
+        <v>1750.5612</v>
       </c>
       <c r="G2" t="n">
-        <v>-124894.668494062</v>
+        <v>-27934.24229406203</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C3" t="n">
-        <v>182</v>
+        <v>186.5</v>
       </c>
       <c r="D3" t="n">
-        <v>182</v>
+        <v>188.8</v>
       </c>
       <c r="E3" t="n">
-        <v>182</v>
+        <v>186.5</v>
       </c>
       <c r="F3" t="n">
-        <v>147.3833</v>
+        <v>23244.5478</v>
       </c>
       <c r="G3" t="n">
-        <v>-125042.051794062</v>
+        <v>-51178.79009406203</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>182.1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>183</v>
+        <v>186.5</v>
       </c>
       <c r="C4" t="n">
-        <v>183</v>
+        <v>188.6</v>
       </c>
       <c r="D4" t="n">
-        <v>183</v>
+        <v>188.8</v>
       </c>
       <c r="E4" t="n">
-        <v>183</v>
+        <v>186.5</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>6284.5031</v>
       </c>
       <c r="G4" t="n">
-        <v>-125039.051794062</v>
+        <v>-44894.28699406203</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>182</v>
-      </c>
-      <c r="K4" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>183</v>
+        <v>188.6</v>
       </c>
       <c r="C5" t="n">
-        <v>183.9</v>
+        <v>186.6</v>
       </c>
       <c r="D5" t="n">
-        <v>183.9</v>
+        <v>188.6</v>
       </c>
       <c r="E5" t="n">
-        <v>183</v>
+        <v>186.6</v>
       </c>
       <c r="F5" t="n">
-        <v>300</v>
+        <v>44.2151</v>
       </c>
       <c r="G5" t="n">
-        <v>-124739.051794062</v>
+        <v>-44938.50209406203</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>183</v>
-      </c>
-      <c r="K5" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>183.9</v>
+        <v>188.6</v>
       </c>
       <c r="C6" t="n">
-        <v>183.9</v>
+        <v>188.6</v>
       </c>
       <c r="D6" t="n">
-        <v>183.9</v>
+        <v>188.6</v>
       </c>
       <c r="E6" t="n">
-        <v>183.9</v>
+        <v>188.6</v>
       </c>
       <c r="F6" t="n">
-        <v>3326.9185</v>
+        <v>14.3743</v>
       </c>
       <c r="G6" t="n">
-        <v>-124739.051794062</v>
+        <v>-44924.12779406203</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>183.9</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -642,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>184.9</v>
+        <v>187.4</v>
       </c>
       <c r="C7" t="n">
-        <v>184.8</v>
+        <v>187.4</v>
       </c>
       <c r="D7" t="n">
-        <v>184.9</v>
+        <v>187.4</v>
       </c>
       <c r="E7" t="n">
-        <v>184.8</v>
+        <v>187.4</v>
       </c>
       <c r="F7" t="n">
-        <v>3116.297214593591</v>
+        <v>45.6789</v>
       </c>
       <c r="G7" t="n">
-        <v>-121622.7545794684</v>
+        <v>-44969.80669406203</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -686,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>184.8</v>
+        <v>187.4</v>
       </c>
       <c r="C8" t="n">
-        <v>183.9</v>
+        <v>186.5</v>
       </c>
       <c r="D8" t="n">
-        <v>184.8</v>
+        <v>187.4</v>
       </c>
       <c r="E8" t="n">
-        <v>183.9</v>
+        <v>186.5</v>
       </c>
       <c r="F8" t="n">
-        <v>5000.000016450216</v>
+        <v>8443.331700000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-126622.7545959186</v>
+        <v>-53413.13839406203</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -730,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>184.9</v>
+        <v>187.6</v>
       </c>
       <c r="C9" t="n">
-        <v>184.9</v>
+        <v>187.4</v>
       </c>
       <c r="D9" t="n">
-        <v>184.9</v>
+        <v>187.6</v>
       </c>
       <c r="E9" t="n">
-        <v>184.9</v>
+        <v>186.5</v>
       </c>
       <c r="F9" t="n">
-        <v>4.8789</v>
+        <v>5623.0359</v>
       </c>
       <c r="G9" t="n">
-        <v>-126617.8756959186</v>
+        <v>-47790.10249406203</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -774,40 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>184.9</v>
+        <v>187.4</v>
       </c>
       <c r="C10" t="n">
-        <v>184.9</v>
+        <v>187.4</v>
       </c>
       <c r="D10" t="n">
-        <v>184.9</v>
+        <v>187.4</v>
       </c>
       <c r="E10" t="n">
-        <v>184.9</v>
+        <v>187.4</v>
       </c>
       <c r="F10" t="n">
-        <v>3152.6779</v>
+        <v>5163.4233</v>
       </c>
       <c r="G10" t="n">
-        <v>-126617.8756959186</v>
+        <v>-47790.10249406203</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -818,40 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>184.9</v>
+        <v>187.4</v>
       </c>
       <c r="C11" t="n">
-        <v>184.9</v>
+        <v>187.4</v>
       </c>
       <c r="D11" t="n">
-        <v>184.9</v>
+        <v>187.4</v>
       </c>
       <c r="E11" t="n">
-        <v>184.9</v>
+        <v>187.4</v>
       </c>
       <c r="F11" t="n">
-        <v>5098.1253</v>
+        <v>3258.6982</v>
       </c>
       <c r="G11" t="n">
-        <v>-126617.8756959186</v>
+        <v>-47790.10249406203</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -862,40 +798,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>184.9</v>
+        <v>187.1</v>
       </c>
       <c r="C12" t="n">
-        <v>183.1</v>
+        <v>187.1</v>
       </c>
       <c r="D12" t="n">
-        <v>184.9</v>
+        <v>187.1</v>
       </c>
       <c r="E12" t="n">
-        <v>183.1</v>
+        <v>187.1</v>
       </c>
       <c r="F12" t="n">
-        <v>1679.16</v>
+        <v>5.778</v>
       </c>
       <c r="G12" t="n">
-        <v>-128297.0356959186</v>
+        <v>-47795.88049406202</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -906,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>185</v>
+        <v>187.1</v>
       </c>
       <c r="C13" t="n">
-        <v>185</v>
+        <v>187.1</v>
       </c>
       <c r="D13" t="n">
-        <v>185</v>
+        <v>187.1</v>
       </c>
       <c r="E13" t="n">
-        <v>185</v>
+        <v>187.1</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>174.5222</v>
       </c>
       <c r="G13" t="n">
-        <v>-128293.0356959186</v>
+        <v>-47795.88049406202</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -950,40 +870,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C14" t="n">
-        <v>188.3</v>
+        <v>187.1</v>
       </c>
       <c r="D14" t="n">
-        <v>188.3</v>
+        <v>187.1</v>
       </c>
       <c r="E14" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F14" t="n">
-        <v>20349.3579</v>
+        <v>5802.8561</v>
       </c>
       <c r="G14" t="n">
-        <v>-107943.6777959186</v>
+        <v>-47795.88049406202</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>185</v>
-      </c>
-      <c r="K14" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -994,40 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>187</v>
+        <v>187.1</v>
       </c>
       <c r="C15" t="n">
-        <v>185.8</v>
+        <v>187.1</v>
       </c>
       <c r="D15" t="n">
-        <v>197</v>
+        <v>187.1</v>
       </c>
       <c r="E15" t="n">
-        <v>183</v>
+        <v>187.1</v>
       </c>
       <c r="F15" t="n">
-        <v>76408.50810000001</v>
+        <v>180</v>
       </c>
       <c r="G15" t="n">
-        <v>-184352.1858959186</v>
+        <v>-47795.88049406202</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>188.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1038,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>188.1</v>
+        <v>186</v>
       </c>
       <c r="C16" t="n">
-        <v>188.1</v>
+        <v>189</v>
       </c>
       <c r="D16" t="n">
-        <v>188.1</v>
+        <v>189</v>
       </c>
       <c r="E16" t="n">
-        <v>188.1</v>
+        <v>184.9</v>
       </c>
       <c r="F16" t="n">
-        <v>1927.6482</v>
+        <v>7030.4857</v>
       </c>
       <c r="G16" t="n">
-        <v>-182424.5376959186</v>
+        <v>-40765.39479406203</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1062,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1080,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>188.1</v>
+        <v>189</v>
       </c>
       <c r="C17" t="n">
-        <v>188.1</v>
+        <v>191.6</v>
       </c>
       <c r="D17" t="n">
-        <v>190.4</v>
+        <v>191.6</v>
       </c>
       <c r="E17" t="n">
-        <v>188.1</v>
+        <v>189</v>
       </c>
       <c r="F17" t="n">
-        <v>6613.2711</v>
+        <v>2204.6789</v>
       </c>
       <c r="G17" t="n">
-        <v>-182424.5376959186</v>
+        <v>-38560.71589406203</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1104,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>188.1</v>
+        <v>189</v>
       </c>
       <c r="C18" t="n">
-        <v>190.5</v>
+        <v>186.2</v>
       </c>
       <c r="D18" t="n">
-        <v>190.5</v>
+        <v>195</v>
       </c>
       <c r="E18" t="n">
-        <v>188.1</v>
+        <v>186.1</v>
       </c>
       <c r="F18" t="n">
-        <v>3863.5471</v>
+        <v>3699.5212</v>
       </c>
       <c r="G18" t="n">
-        <v>-178560.9905959186</v>
+        <v>-42260.23709406203</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1146,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1164,40 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>190.5</v>
+        <v>187.2</v>
       </c>
       <c r="C19" t="n">
-        <v>196</v>
+        <v>186.2</v>
       </c>
       <c r="D19" t="n">
-        <v>199.7</v>
+        <v>191</v>
       </c>
       <c r="E19" t="n">
-        <v>190.5</v>
+        <v>186.2</v>
       </c>
       <c r="F19" t="n">
-        <v>72833.68769999999</v>
+        <v>2318.5537</v>
       </c>
       <c r="G19" t="n">
-        <v>-105727.3028959186</v>
+        <v>-42260.23709406203</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>190.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1208,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>196</v>
+        <v>189.9</v>
       </c>
       <c r="C20" t="n">
-        <v>199.8</v>
+        <v>186.2</v>
       </c>
       <c r="D20" t="n">
-        <v>199.8</v>
+        <v>189.9</v>
       </c>
       <c r="E20" t="n">
-        <v>195.3</v>
+        <v>186.2</v>
       </c>
       <c r="F20" t="n">
-        <v>17931.535</v>
+        <v>2255.851</v>
       </c>
       <c r="G20" t="n">
-        <v>-87795.76789591865</v>
+        <v>-42260.23709406203</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1232,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1250,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>199.7</v>
+        <v>187.4</v>
       </c>
       <c r="C21" t="n">
-        <v>205</v>
+        <v>187.4</v>
       </c>
       <c r="D21" t="n">
-        <v>207.2</v>
+        <v>187.4</v>
       </c>
       <c r="E21" t="n">
-        <v>199.7</v>
+        <v>186.1</v>
       </c>
       <c r="F21" t="n">
-        <v>30284.99357249035</v>
+        <v>5134.3471</v>
       </c>
       <c r="G21" t="n">
-        <v>-57510.7743234283</v>
+        <v>-37125.88999406203</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1274,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1292,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>205.1</v>
+        <v>187.4</v>
       </c>
       <c r="C22" t="n">
-        <v>219.9</v>
+        <v>189</v>
       </c>
       <c r="D22" t="n">
-        <v>219.9</v>
+        <v>189</v>
       </c>
       <c r="E22" t="n">
-        <v>205</v>
+        <v>187.4</v>
       </c>
       <c r="F22" t="n">
-        <v>65009.3825</v>
+        <v>1967.9925</v>
       </c>
       <c r="G22" t="n">
-        <v>7498.608176571703</v>
+        <v>-35157.89749406203</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1316,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1334,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>218.9</v>
+        <v>187</v>
       </c>
       <c r="C23" t="n">
-        <v>214</v>
+        <v>189.5</v>
       </c>
       <c r="D23" t="n">
-        <v>219.9</v>
+        <v>189.5</v>
       </c>
       <c r="E23" t="n">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="F23" t="n">
-        <v>38706.83443129283</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>-31208.22625472113</v>
+        <v>-35145.89749406203</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1358,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1376,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>214</v>
+        <v>188.9</v>
       </c>
       <c r="C24" t="n">
-        <v>196.3</v>
+        <v>188.9</v>
       </c>
       <c r="D24" t="n">
-        <v>214</v>
+        <v>188.9</v>
       </c>
       <c r="E24" t="n">
-        <v>196.3</v>
+        <v>188.9</v>
       </c>
       <c r="F24" t="n">
-        <v>39558.92326757905</v>
+        <v>4.778</v>
       </c>
       <c r="G24" t="n">
-        <v>-70767.14952230017</v>
+        <v>-35150.67549406203</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1400,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1418,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>198.5</v>
+        <v>187.2</v>
       </c>
       <c r="C25" t="n">
-        <v>193.7</v>
+        <v>187.2</v>
       </c>
       <c r="D25" t="n">
-        <v>198.6</v>
+        <v>187.2</v>
       </c>
       <c r="E25" t="n">
-        <v>191.4</v>
+        <v>187.2</v>
       </c>
       <c r="F25" t="n">
-        <v>8206.534941802443</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>-78973.68446410261</v>
+        <v>-35155.67549406203</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1442,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1460,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>194.7</v>
+        <v>187</v>
       </c>
       <c r="C26" t="n">
-        <v>196.9</v>
+        <v>187.2</v>
       </c>
       <c r="D26" t="n">
-        <v>196.9</v>
+        <v>187.2</v>
       </c>
       <c r="E26" t="n">
-        <v>193.7</v>
+        <v>187</v>
       </c>
       <c r="F26" t="n">
-        <v>5051.4972</v>
+        <v>25.678</v>
       </c>
       <c r="G26" t="n">
-        <v>-73922.18726410261</v>
+        <v>-35155.67549406203</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1484,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1502,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>196.9</v>
+        <v>189</v>
       </c>
       <c r="C27" t="n">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D27" t="n">
-        <v>215.8</v>
+        <v>190</v>
       </c>
       <c r="E27" t="n">
-        <v>196.9</v>
+        <v>189</v>
       </c>
       <c r="F27" t="n">
-        <v>14786.04999874055</v>
+        <v>99</v>
       </c>
       <c r="G27" t="n">
-        <v>-59136.13726536206</v>
+        <v>-35056.67549406203</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1526,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1544,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>206.7</v>
+        <v>187</v>
       </c>
       <c r="C28" t="n">
-        <v>197.9</v>
+        <v>189.5</v>
       </c>
       <c r="D28" t="n">
-        <v>206.7</v>
+        <v>189.5</v>
       </c>
       <c r="E28" t="n">
-        <v>197.9</v>
+        <v>187</v>
       </c>
       <c r="F28" t="n">
-        <v>8868.3115</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>-68004.44876536206</v>
+        <v>-35045.67549406203</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1568,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1586,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>200.9</v>
+        <v>189.4</v>
       </c>
       <c r="C29" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D29" t="n">
-        <v>202</v>
+        <v>189.4</v>
       </c>
       <c r="E29" t="n">
-        <v>200.9</v>
+        <v>186.1</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>166.0183</v>
       </c>
       <c r="G29" t="n">
-        <v>-67998.44876536206</v>
+        <v>-35211.69379406203</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1610,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1628,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>201</v>
+        <v>186.1</v>
       </c>
       <c r="C30" t="n">
-        <v>204.9</v>
+        <v>189</v>
       </c>
       <c r="D30" t="n">
-        <v>204.9</v>
+        <v>189</v>
       </c>
       <c r="E30" t="n">
-        <v>201</v>
+        <v>186.1</v>
       </c>
       <c r="F30" t="n">
-        <v>19005.70027891655</v>
+        <v>1884.2809</v>
       </c>
       <c r="G30" t="n">
-        <v>-48992.74848644551</v>
+        <v>-35211.69379406203</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1652,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1670,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C31" t="n">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D31" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E31" t="n">
-        <v>199.9</v>
+        <v>185</v>
       </c>
       <c r="F31" t="n">
-        <v>11279.587</v>
+        <v>347.9392</v>
       </c>
       <c r="G31" t="n">
-        <v>-60272.33548644551</v>
+        <v>-35211.69379406203</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1694,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1712,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>200</v>
+        <v>188.5</v>
       </c>
       <c r="C32" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D32" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E32" t="n">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F32" t="n">
-        <v>3363.6671</v>
+        <v>109.6857</v>
       </c>
       <c r="G32" t="n">
-        <v>-56908.66838644551</v>
+        <v>-35102.00809406203</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1736,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1754,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>199.5</v>
+        <v>186</v>
       </c>
       <c r="C33" t="n">
-        <v>208.4</v>
+        <v>188.9</v>
       </c>
       <c r="D33" t="n">
-        <v>208.4</v>
+        <v>188.9</v>
       </c>
       <c r="E33" t="n">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F33" t="n">
-        <v>15778.7018</v>
+        <v>184.2885</v>
       </c>
       <c r="G33" t="n">
-        <v>-41129.96658644551</v>
+        <v>-35286.29659406203</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1778,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1796,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>208.2</v>
+        <v>189</v>
       </c>
       <c r="C34" t="n">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D34" t="n">
-        <v>215.6</v>
+        <v>189</v>
       </c>
       <c r="E34" t="n">
-        <v>204.4</v>
+        <v>186</v>
       </c>
       <c r="F34" t="n">
-        <v>28128.42811368274</v>
+        <v>7.778</v>
       </c>
       <c r="G34" t="n">
-        <v>-69258.39470012825</v>
+        <v>-35294.07459406203</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1820,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1838,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>213.5</v>
+        <v>188</v>
       </c>
       <c r="C35" t="n">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D35" t="n">
-        <v>214.5</v>
+        <v>189</v>
       </c>
       <c r="E35" t="n">
-        <v>210.1</v>
+        <v>185</v>
       </c>
       <c r="F35" t="n">
-        <v>76883.8147</v>
+        <v>9185.565699999999</v>
       </c>
       <c r="G35" t="n">
-        <v>7625.419999871752</v>
+        <v>-35294.07459406203</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1862,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1880,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>210.3</v>
+        <v>186</v>
       </c>
       <c r="C36" t="n">
-        <v>206.7</v>
+        <v>186.5</v>
       </c>
       <c r="D36" t="n">
-        <v>210.3</v>
+        <v>186.5</v>
       </c>
       <c r="E36" t="n">
-        <v>206.7</v>
+        <v>186</v>
       </c>
       <c r="F36" t="n">
-        <v>5306.0631</v>
+        <v>1152.6075</v>
       </c>
       <c r="G36" t="n">
-        <v>2319.356899871752</v>
+        <v>-34141.46709406203</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1904,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1922,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>210.3</v>
+        <v>188.5</v>
       </c>
       <c r="C37" t="n">
-        <v>210.3</v>
+        <v>188.8</v>
       </c>
       <c r="D37" t="n">
-        <v>210.3</v>
+        <v>189</v>
       </c>
       <c r="E37" t="n">
-        <v>206.7</v>
+        <v>186</v>
       </c>
       <c r="F37" t="n">
-        <v>13646.3392</v>
+        <v>1370.5705</v>
       </c>
       <c r="G37" t="n">
-        <v>15965.69609987175</v>
+        <v>-32770.89659406203</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1946,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1964,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>210.3</v>
+        <v>186</v>
       </c>
       <c r="C38" t="n">
-        <v>213.4</v>
+        <v>187.9</v>
       </c>
       <c r="D38" t="n">
-        <v>214.5</v>
+        <v>188.8</v>
       </c>
       <c r="E38" t="n">
-        <v>210.3</v>
+        <v>185</v>
       </c>
       <c r="F38" t="n">
-        <v>50788.9532</v>
+        <v>5467.7899</v>
       </c>
       <c r="G38" t="n">
-        <v>66754.64929987176</v>
+        <v>-38238.68649406203</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1988,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2006,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>213.4</v>
+        <v>186</v>
       </c>
       <c r="C39" t="n">
-        <v>217.6</v>
+        <v>186</v>
       </c>
       <c r="D39" t="n">
-        <v>218.5</v>
+        <v>187.9</v>
       </c>
       <c r="E39" t="n">
-        <v>213.4</v>
+        <v>186</v>
       </c>
       <c r="F39" t="n">
-        <v>8417.513999999999</v>
+        <v>1491.1793</v>
       </c>
       <c r="G39" t="n">
-        <v>75172.16329987175</v>
+        <v>-39729.86579406203</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2030,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2048,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>217.6</v>
+        <v>187.9</v>
       </c>
       <c r="C40" t="n">
-        <v>218.5</v>
+        <v>187.9</v>
       </c>
       <c r="D40" t="n">
-        <v>218.8</v>
+        <v>187.9</v>
       </c>
       <c r="E40" t="n">
-        <v>217.6</v>
+        <v>187.9</v>
       </c>
       <c r="F40" t="n">
-        <v>20937.86845740402</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>96110.03175727578</v>
+        <v>-39725.86579406203</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2072,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2090,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>218.5</v>
+        <v>185.2</v>
       </c>
       <c r="C41" t="n">
-        <v>218.4</v>
+        <v>187.9</v>
       </c>
       <c r="D41" t="n">
-        <v>218.7</v>
+        <v>187.9</v>
       </c>
       <c r="E41" t="n">
-        <v>218.4</v>
+        <v>185</v>
       </c>
       <c r="F41" t="n">
-        <v>14198.9251</v>
+        <v>10161.9886</v>
       </c>
       <c r="G41" t="n">
-        <v>81911.10665727578</v>
+        <v>-39725.86579406203</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2114,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2132,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>218.3</v>
+        <v>185.9</v>
       </c>
       <c r="C42" t="n">
-        <v>213.1</v>
+        <v>186</v>
       </c>
       <c r="D42" t="n">
-        <v>218.3</v>
+        <v>186</v>
       </c>
       <c r="E42" t="n">
-        <v>211</v>
+        <v>185.9</v>
       </c>
       <c r="F42" t="n">
-        <v>4734.6961</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>77176.41055727578</v>
+        <v>-39736.86579406203</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2156,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2174,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>217.2</v>
+        <v>184.8</v>
       </c>
       <c r="C43" t="n">
-        <v>213.3</v>
+        <v>185</v>
       </c>
       <c r="D43" t="n">
-        <v>217.2</v>
+        <v>185</v>
       </c>
       <c r="E43" t="n">
-        <v>213.3</v>
+        <v>184.1</v>
       </c>
       <c r="F43" t="n">
-        <v>1773.5699</v>
+        <v>355.3438</v>
       </c>
       <c r="G43" t="n">
-        <v>78949.98045727579</v>
+        <v>-40092.20959406203</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2198,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2216,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>215.9</v>
+        <v>184.1</v>
       </c>
       <c r="C44" t="n">
-        <v>213.4</v>
+        <v>184</v>
       </c>
       <c r="D44" t="n">
-        <v>217.2</v>
+        <v>185.5</v>
       </c>
       <c r="E44" t="n">
-        <v>213.3</v>
+        <v>184</v>
       </c>
       <c r="F44" t="n">
-        <v>10408.74268268877</v>
+        <v>19814.6439</v>
       </c>
       <c r="G44" t="n">
-        <v>89358.72313996455</v>
+        <v>-59906.85349406203</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2240,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2258,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>215.8</v>
+        <v>183.9</v>
       </c>
       <c r="C45" t="n">
-        <v>213.3</v>
+        <v>183.9</v>
       </c>
       <c r="D45" t="n">
-        <v>215.8</v>
+        <v>183.9</v>
       </c>
       <c r="E45" t="n">
-        <v>213.3</v>
+        <v>183.9</v>
       </c>
       <c r="F45" t="n">
-        <v>5456.6265</v>
+        <v>272.6548</v>
       </c>
       <c r="G45" t="n">
-        <v>83902.09663996455</v>
+        <v>-60179.50829406203</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2282,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2300,72 +2022,64 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>213.3</v>
+        <v>184</v>
       </c>
       <c r="C46" t="n">
-        <v>213.3</v>
+        <v>184</v>
       </c>
       <c r="D46" t="n">
-        <v>213.3</v>
+        <v>184</v>
       </c>
       <c r="E46" t="n">
-        <v>213.3</v>
+        <v>184</v>
       </c>
       <c r="F46" t="n">
-        <v>6162.1299</v>
+        <v>166.8528</v>
       </c>
       <c r="G46" t="n">
-        <v>83902.09663996455</v>
+        <v>-60012.65549406203</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>1.154869494290375</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.015934065934066</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>213.3</v>
+        <v>184</v>
       </c>
       <c r="C47" t="n">
-        <v>213.3</v>
+        <v>184</v>
       </c>
       <c r="D47" t="n">
-        <v>213.3</v>
+        <v>184</v>
       </c>
       <c r="E47" t="n">
-        <v>213.3</v>
+        <v>184</v>
       </c>
       <c r="F47" t="n">
-        <v>4723.8648</v>
+        <v>253.6772</v>
       </c>
       <c r="G47" t="n">
-        <v>83902.09663996455</v>
+        <v>-60012.65549406203</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2380,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>209.1</v>
+        <v>182.5</v>
       </c>
       <c r="C48" t="n">
-        <v>209.1</v>
+        <v>182.5</v>
       </c>
       <c r="D48" t="n">
-        <v>209.1</v>
+        <v>182.5</v>
       </c>
       <c r="E48" t="n">
-        <v>209.1</v>
+        <v>182.5</v>
       </c>
       <c r="F48" t="n">
-        <v>991</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>82911.09663996455</v>
+        <v>-60015.65549406203</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2416,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>209.1</v>
+        <v>183.3</v>
       </c>
       <c r="C49" t="n">
-        <v>208.1</v>
+        <v>183.3</v>
       </c>
       <c r="D49" t="n">
-        <v>209.1</v>
+        <v>183.3</v>
       </c>
       <c r="E49" t="n">
-        <v>208.1</v>
+        <v>183.3</v>
       </c>
       <c r="F49" t="n">
-        <v>523.7907</v>
+        <v>121.978</v>
       </c>
       <c r="G49" t="n">
-        <v>82387.30593996456</v>
+        <v>-59893.67749406202</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2452,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>204</v>
+        <v>183.1</v>
       </c>
       <c r="C50" t="n">
-        <v>200.2</v>
+        <v>183</v>
       </c>
       <c r="D50" t="n">
-        <v>204</v>
+        <v>183.1</v>
       </c>
       <c r="E50" t="n">
-        <v>200.2</v>
+        <v>183</v>
       </c>
       <c r="F50" t="n">
-        <v>1157.8345</v>
+        <v>5222.0071</v>
       </c>
       <c r="G50" t="n">
-        <v>81229.47143996456</v>
+        <v>-65115.68459406203</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2488,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>202.9</v>
+        <v>182.9</v>
       </c>
       <c r="C51" t="n">
-        <v>198.2</v>
+        <v>182.9</v>
       </c>
       <c r="D51" t="n">
-        <v>202.9</v>
+        <v>182.9</v>
       </c>
       <c r="E51" t="n">
-        <v>198.2</v>
+        <v>182.9</v>
       </c>
       <c r="F51" t="n">
-        <v>2832.5852</v>
+        <v>290.6508</v>
       </c>
       <c r="G51" t="n">
-        <v>78396.88623996456</v>
+        <v>-65406.33539406203</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2524,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>202</v>
+        <v>183.4</v>
       </c>
       <c r="C52" t="n">
-        <v>202</v>
+        <v>183.4</v>
       </c>
       <c r="D52" t="n">
-        <v>202</v>
+        <v>183.4</v>
       </c>
       <c r="E52" t="n">
-        <v>202</v>
+        <v>183.4</v>
       </c>
       <c r="F52" t="n">
-        <v>22</v>
+        <v>1936.555</v>
       </c>
       <c r="G52" t="n">
-        <v>78418.88623996456</v>
+        <v>-63469.78039406203</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2560,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>198.1</v>
+        <v>183.5</v>
       </c>
       <c r="C53" t="n">
-        <v>198</v>
+        <v>183.5</v>
       </c>
       <c r="D53" t="n">
-        <v>198.1</v>
+        <v>183.5</v>
       </c>
       <c r="E53" t="n">
-        <v>198</v>
+        <v>183.5</v>
       </c>
       <c r="F53" t="n">
-        <v>3097.0122</v>
+        <v>4027.426</v>
       </c>
       <c r="G53" t="n">
-        <v>75321.87403996456</v>
+        <v>-59442.35439406203</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2596,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>199</v>
+        <v>183.5</v>
       </c>
       <c r="C54" t="n">
-        <v>198</v>
+        <v>182.2</v>
       </c>
       <c r="D54" t="n">
-        <v>199</v>
+        <v>183.5</v>
       </c>
       <c r="E54" t="n">
-        <v>198</v>
+        <v>182.2</v>
       </c>
       <c r="F54" t="n">
-        <v>6099.8774</v>
+        <v>35081.4019</v>
       </c>
       <c r="G54" t="n">
-        <v>75321.87403996456</v>
+        <v>-94523.75629406203</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2632,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>197.1</v>
+        <v>183.5</v>
       </c>
       <c r="C55" t="n">
-        <v>196.9</v>
+        <v>183.5</v>
       </c>
       <c r="D55" t="n">
-        <v>197.1</v>
+        <v>183.5</v>
       </c>
       <c r="E55" t="n">
-        <v>190.6</v>
+        <v>183.5</v>
       </c>
       <c r="F55" t="n">
-        <v>13201.5783</v>
+        <v>1893.7333</v>
       </c>
       <c r="G55" t="n">
-        <v>62120.29573996456</v>
+        <v>-92630.02299406202</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2668,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>193</v>
+        <v>183.5</v>
       </c>
       <c r="C56" t="n">
-        <v>193</v>
+        <v>183.5</v>
       </c>
       <c r="D56" t="n">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E56" t="n">
-        <v>193</v>
+        <v>183.5</v>
       </c>
       <c r="F56" t="n">
-        <v>3070.0012</v>
+        <v>11433.3802</v>
       </c>
       <c r="G56" t="n">
-        <v>59050.29453996456</v>
+        <v>-92630.02299406202</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2704,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>193.1</v>
+        <v>183.1</v>
       </c>
       <c r="C57" t="n">
-        <v>193.1</v>
+        <v>183</v>
       </c>
       <c r="D57" t="n">
-        <v>193.1</v>
+        <v>183.1</v>
       </c>
       <c r="E57" t="n">
-        <v>193.1</v>
+        <v>183</v>
       </c>
       <c r="F57" t="n">
-        <v>1070.0012</v>
+        <v>7993.6985</v>
       </c>
       <c r="G57" t="n">
-        <v>60120.29573996456</v>
+        <v>-100623.721494062</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2740,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>193.1</v>
+        <v>185</v>
       </c>
       <c r="C58" t="n">
-        <v>193.1</v>
+        <v>182.2</v>
       </c>
       <c r="D58" t="n">
-        <v>193.1</v>
+        <v>185</v>
       </c>
       <c r="E58" t="n">
-        <v>193.1</v>
+        <v>182.2</v>
       </c>
       <c r="F58" t="n">
-        <v>2302.0257</v>
+        <v>10117.1232</v>
       </c>
       <c r="G58" t="n">
-        <v>60120.29573996456</v>
+        <v>-110740.844694062</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2776,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>195</v>
+        <v>183.1</v>
       </c>
       <c r="C59" t="n">
-        <v>204</v>
+        <v>183.1</v>
       </c>
       <c r="D59" t="n">
-        <v>204</v>
+        <v>183.1</v>
       </c>
       <c r="E59" t="n">
-        <v>195</v>
+        <v>183.1</v>
       </c>
       <c r="F59" t="n">
-        <v>10813.1486</v>
+        <v>95.6872</v>
       </c>
       <c r="G59" t="n">
-        <v>70933.44433996457</v>
+        <v>-110645.157494062</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2812,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>204</v>
+        <v>183.2</v>
       </c>
       <c r="C60" t="n">
-        <v>208</v>
+        <v>183.2</v>
       </c>
       <c r="D60" t="n">
-        <v>208</v>
+        <v>183.2</v>
       </c>
       <c r="E60" t="n">
-        <v>204</v>
+        <v>183.2</v>
       </c>
       <c r="F60" t="n">
-        <v>3075.784</v>
+        <v>722.3152</v>
       </c>
       <c r="G60" t="n">
-        <v>74009.22833996457</v>
+        <v>-109922.842294062</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2848,31 +2562,35 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>207.9</v>
+        <v>184.9</v>
       </c>
       <c r="C61" t="n">
-        <v>207.9</v>
+        <v>184.9</v>
       </c>
       <c r="D61" t="n">
-        <v>207.9</v>
+        <v>184.9</v>
       </c>
       <c r="E61" t="n">
-        <v>207.9</v>
+        <v>184.9</v>
       </c>
       <c r="F61" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>73969.22833996457</v>
+        <v>-109919.842294062</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>183.2</v>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
@@ -2884,32 +2602,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>204.1</v>
+        <v>183.2</v>
       </c>
       <c r="C62" t="n">
-        <v>204.1</v>
+        <v>183.2</v>
       </c>
       <c r="D62" t="n">
-        <v>204.1</v>
+        <v>183.2</v>
       </c>
       <c r="E62" t="n">
-        <v>204.1</v>
+        <v>183.2</v>
       </c>
       <c r="F62" t="n">
-        <v>1246.0555</v>
+        <v>5548.5878</v>
       </c>
       <c r="G62" t="n">
-        <v>72723.17283996457</v>
+        <v>-115468.430094062</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K62" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2920,32 +2646,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>206.8</v>
+        <v>184.9</v>
       </c>
       <c r="C63" t="n">
-        <v>206.8</v>
+        <v>184.9</v>
       </c>
       <c r="D63" t="n">
-        <v>206.8</v>
+        <v>184.9</v>
       </c>
       <c r="E63" t="n">
-        <v>206.8</v>
+        <v>184.9</v>
       </c>
       <c r="F63" t="n">
-        <v>50.8273</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>72774.00013996457</v>
+        <v>-115465.430094062</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2956,31 +2690,35 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>204.2</v>
+        <v>183.9</v>
       </c>
       <c r="C64" t="n">
-        <v>192.1</v>
+        <v>183.9</v>
       </c>
       <c r="D64" t="n">
-        <v>204.2</v>
+        <v>183.9</v>
       </c>
       <c r="E64" t="n">
-        <v>192.1</v>
+        <v>183.9</v>
       </c>
       <c r="F64" t="n">
-        <v>6400.908</v>
+        <v>1669.5784</v>
       </c>
       <c r="G64" t="n">
-        <v>66373.09213996457</v>
+        <v>-117135.008494062</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K64" t="n">
+        <v>184.9</v>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
@@ -2992,32 +2730,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>194.1</v>
+        <v>184.9</v>
       </c>
       <c r="C65" t="n">
-        <v>194.1</v>
+        <v>184.9</v>
       </c>
       <c r="D65" t="n">
-        <v>195</v>
+        <v>184.9</v>
       </c>
       <c r="E65" t="n">
-        <v>194.1</v>
+        <v>184.9</v>
       </c>
       <c r="F65" t="n">
-        <v>5700</v>
+        <v>2.8</v>
       </c>
       <c r="G65" t="n">
-        <v>72073.09213996457</v>
+        <v>-117132.208494062</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3028,22 +2772,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>199</v>
+        <v>184.9</v>
       </c>
       <c r="C66" t="n">
-        <v>198</v>
+        <v>184.9</v>
       </c>
       <c r="D66" t="n">
-        <v>199</v>
+        <v>184.9</v>
       </c>
       <c r="E66" t="n">
-        <v>198</v>
+        <v>184.9</v>
       </c>
       <c r="F66" t="n">
-        <v>1453.2362</v>
+        <v>2104.8567</v>
       </c>
       <c r="G66" t="n">
-        <v>73526.32833996457</v>
+        <v>-117132.208494062</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3052,8 +2796,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3064,22 +2814,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>198</v>
+        <v>184.8</v>
       </c>
       <c r="C67" t="n">
-        <v>197.9</v>
+        <v>184.9</v>
       </c>
       <c r="D67" t="n">
-        <v>198</v>
+        <v>184.9</v>
       </c>
       <c r="E67" t="n">
-        <v>197.9</v>
+        <v>184.8</v>
       </c>
       <c r="F67" t="n">
-        <v>9548.663200000001</v>
+        <v>21559.8105</v>
       </c>
       <c r="G67" t="n">
-        <v>63977.66513996457</v>
+        <v>-117132.208494062</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3100,22 +2850,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>198</v>
+        <v>183.8</v>
       </c>
       <c r="C68" t="n">
-        <v>196.1</v>
+        <v>183.8</v>
       </c>
       <c r="D68" t="n">
-        <v>199</v>
+        <v>183.8</v>
       </c>
       <c r="E68" t="n">
-        <v>196.1</v>
+        <v>183.8</v>
       </c>
       <c r="F68" t="n">
-        <v>5852.9488</v>
+        <v>1960</v>
       </c>
       <c r="G68" t="n">
-        <v>58124.71633996457</v>
+        <v>-119092.208494062</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3136,22 +2886,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>200</v>
+        <v>183.8</v>
       </c>
       <c r="C69" t="n">
-        <v>196.1</v>
+        <v>182.3</v>
       </c>
       <c r="D69" t="n">
-        <v>203</v>
+        <v>183.8</v>
       </c>
       <c r="E69" t="n">
-        <v>196.1</v>
+        <v>182.3</v>
       </c>
       <c r="F69" t="n">
-        <v>11862.8707</v>
+        <v>802.46</v>
       </c>
       <c r="G69" t="n">
-        <v>58124.71633996457</v>
+        <v>-119894.668494062</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3172,22 +2922,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>200.8</v>
+        <v>182.2</v>
       </c>
       <c r="C70" t="n">
-        <v>198</v>
+        <v>182.1</v>
       </c>
       <c r="D70" t="n">
-        <v>202</v>
+        <v>182.2</v>
       </c>
       <c r="E70" t="n">
-        <v>197</v>
+        <v>182.1</v>
       </c>
       <c r="F70" t="n">
-        <v>28358.77</v>
+        <v>5000</v>
       </c>
       <c r="G70" t="n">
-        <v>86483.48633996457</v>
+        <v>-124894.668494062</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3208,22 +2958,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>197.1</v>
+        <v>182.1</v>
       </c>
       <c r="C71" t="n">
-        <v>194.1</v>
+        <v>182.1</v>
       </c>
       <c r="D71" t="n">
-        <v>197.1</v>
+        <v>182.1</v>
       </c>
       <c r="E71" t="n">
-        <v>194.1</v>
+        <v>182.1</v>
       </c>
       <c r="F71" t="n">
-        <v>10043.6236</v>
+        <v>25.136</v>
       </c>
       <c r="G71" t="n">
-        <v>76439.86273996456</v>
+        <v>-124894.668494062</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3244,31 +2994,35 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>194.1</v>
+        <v>182.1</v>
       </c>
       <c r="C72" t="n">
-        <v>192.3</v>
+        <v>182.1</v>
       </c>
       <c r="D72" t="n">
-        <v>194.1</v>
+        <v>182.1</v>
       </c>
       <c r="E72" t="n">
-        <v>192.2</v>
+        <v>182.1</v>
       </c>
       <c r="F72" t="n">
-        <v>24097.3841</v>
+        <v>1060</v>
       </c>
       <c r="G72" t="n">
-        <v>52342.47863996457</v>
+        <v>-124894.668494062</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>182.1</v>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
@@ -3280,32 +3034,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>192.3</v>
+        <v>182.1</v>
       </c>
       <c r="C73" t="n">
-        <v>192.3</v>
+        <v>182.1</v>
       </c>
       <c r="D73" t="n">
-        <v>192.3</v>
+        <v>182.1</v>
       </c>
       <c r="E73" t="n">
-        <v>192.3</v>
+        <v>182.1</v>
       </c>
       <c r="F73" t="n">
-        <v>2570.3581</v>
+        <v>147.3833</v>
       </c>
       <c r="G73" t="n">
-        <v>52342.47863996457</v>
+        <v>-124894.668494062</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3316,32 +3078,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>192.2</v>
+        <v>182</v>
       </c>
       <c r="C74" t="n">
-        <v>192.2</v>
+        <v>182</v>
       </c>
       <c r="D74" t="n">
-        <v>192.2</v>
+        <v>182</v>
       </c>
       <c r="E74" t="n">
-        <v>192.2</v>
+        <v>182</v>
       </c>
       <c r="F74" t="n">
-        <v>1519.6185</v>
+        <v>147.3833</v>
       </c>
       <c r="G74" t="n">
-        <v>50822.86013996457</v>
+        <v>-125042.051794062</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3352,31 +3122,35 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>192.1</v>
+        <v>183</v>
       </c>
       <c r="C75" t="n">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D75" t="n">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E75" t="n">
-        <v>192.1</v>
+        <v>183</v>
       </c>
       <c r="F75" t="n">
-        <v>14141.867</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>64964.72713996457</v>
+        <v>-125039.051794062</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>182</v>
+      </c>
+      <c r="K75" t="n">
+        <v>182</v>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
@@ -3388,32 +3162,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>192.8</v>
+        <v>183</v>
       </c>
       <c r="C76" t="n">
-        <v>192.2</v>
+        <v>183.9</v>
       </c>
       <c r="D76" t="n">
-        <v>192.8</v>
+        <v>183.9</v>
       </c>
       <c r="E76" t="n">
-        <v>192.2</v>
+        <v>183</v>
       </c>
       <c r="F76" t="n">
-        <v>7833.0771</v>
+        <v>300</v>
       </c>
       <c r="G76" t="n">
-        <v>57131.65003996457</v>
+        <v>-124739.051794062</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>183</v>
+      </c>
+      <c r="K76" t="n">
+        <v>182</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3424,32 +3206,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>192</v>
+        <v>183.9</v>
       </c>
       <c r="C77" t="n">
-        <v>192</v>
+        <v>183.9</v>
       </c>
       <c r="D77" t="n">
-        <v>192</v>
+        <v>183.9</v>
       </c>
       <c r="E77" t="n">
-        <v>192</v>
+        <v>183.9</v>
       </c>
       <c r="F77" t="n">
-        <v>251.2992</v>
+        <v>3326.9185</v>
       </c>
       <c r="G77" t="n">
-        <v>56880.35083996457</v>
+        <v>-124739.051794062</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="K77" t="n">
+        <v>182</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3460,31 +3250,35 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>192</v>
+        <v>184.9</v>
       </c>
       <c r="C78" t="n">
-        <v>187.3</v>
+        <v>184.8</v>
       </c>
       <c r="D78" t="n">
-        <v>192</v>
+        <v>184.9</v>
       </c>
       <c r="E78" t="n">
-        <v>187.3</v>
+        <v>184.8</v>
       </c>
       <c r="F78" t="n">
-        <v>13795.5989</v>
+        <v>3116.297214593591</v>
       </c>
       <c r="G78" t="n">
-        <v>43084.75193996457</v>
+        <v>-121622.7545794684</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="K78" t="n">
+        <v>183.9</v>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
@@ -3496,32 +3290,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>189.9</v>
+        <v>184.8</v>
       </c>
       <c r="C79" t="n">
-        <v>190</v>
+        <v>183.9</v>
       </c>
       <c r="D79" t="n">
-        <v>190</v>
+        <v>184.8</v>
       </c>
       <c r="E79" t="n">
-        <v>189.9</v>
+        <v>183.9</v>
       </c>
       <c r="F79" t="n">
-        <v>33147.0026</v>
+        <v>5000.000016450216</v>
       </c>
       <c r="G79" t="n">
-        <v>76231.75453996458</v>
+        <v>-126622.7545959186</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="K79" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3532,32 +3334,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>192</v>
+        <v>184.9</v>
       </c>
       <c r="C80" t="n">
-        <v>192.8</v>
+        <v>184.9</v>
       </c>
       <c r="D80" t="n">
-        <v>192.8</v>
+        <v>184.9</v>
       </c>
       <c r="E80" t="n">
-        <v>192</v>
+        <v>184.9</v>
       </c>
       <c r="F80" t="n">
-        <v>11004.5003</v>
+        <v>4.8789</v>
       </c>
       <c r="G80" t="n">
-        <v>87236.25483996457</v>
+        <v>-126617.8756959186</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="K80" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3568,32 +3378,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>194.5</v>
+        <v>184.9</v>
       </c>
       <c r="C81" t="n">
-        <v>200.9</v>
+        <v>184.9</v>
       </c>
       <c r="D81" t="n">
-        <v>200.9</v>
+        <v>184.9</v>
       </c>
       <c r="E81" t="n">
-        <v>194.5</v>
+        <v>184.9</v>
       </c>
       <c r="F81" t="n">
-        <v>1300</v>
+        <v>3152.6779</v>
       </c>
       <c r="G81" t="n">
-        <v>88536.25483996457</v>
+        <v>-126617.8756959186</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K81" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3604,32 +3422,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>193</v>
+        <v>184.9</v>
       </c>
       <c r="C82" t="n">
-        <v>194</v>
+        <v>184.9</v>
       </c>
       <c r="D82" t="n">
-        <v>194</v>
+        <v>184.9</v>
       </c>
       <c r="E82" t="n">
-        <v>190</v>
+        <v>184.9</v>
       </c>
       <c r="F82" t="n">
-        <v>17114.1344</v>
+        <v>5098.1253</v>
       </c>
       <c r="G82" t="n">
-        <v>71422.12043996458</v>
+        <v>-126617.8756959186</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K82" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3640,32 +3466,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>191</v>
+        <v>184.9</v>
       </c>
       <c r="C83" t="n">
-        <v>191</v>
+        <v>183.1</v>
       </c>
       <c r="D83" t="n">
-        <v>191</v>
+        <v>184.9</v>
       </c>
       <c r="E83" t="n">
-        <v>191</v>
+        <v>183.1</v>
       </c>
       <c r="F83" t="n">
-        <v>383.4848</v>
+        <v>1679.16</v>
       </c>
       <c r="G83" t="n">
-        <v>71038.63563996457</v>
+        <v>-128297.0356959186</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="K83" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3676,32 +3510,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C84" t="n">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D84" t="n">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E84" t="n">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F84" t="n">
-        <v>765.1979</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>71038.63563996457</v>
+        <v>-128293.0356959186</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3712,32 +3554,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>191.1</v>
+        <v>185</v>
       </c>
       <c r="C85" t="n">
-        <v>191</v>
+        <v>188.3</v>
       </c>
       <c r="D85" t="n">
-        <v>191.1</v>
+        <v>188.3</v>
       </c>
       <c r="E85" t="n">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F85" t="n">
-        <v>1149.089</v>
+        <v>20349.3579</v>
       </c>
       <c r="G85" t="n">
-        <v>71038.63563996457</v>
+        <v>-107943.6777959186</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>185</v>
+      </c>
+      <c r="K85" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3748,22 +3598,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C86" t="n">
-        <v>188.3</v>
+        <v>185.8</v>
       </c>
       <c r="D86" t="n">
-        <v>191.1</v>
+        <v>197</v>
       </c>
       <c r="E86" t="n">
-        <v>188.3</v>
+        <v>183</v>
       </c>
       <c r="F86" t="n">
-        <v>16848.7928</v>
+        <v>76408.50810000001</v>
       </c>
       <c r="G86" t="n">
-        <v>54189.84283996458</v>
+        <v>-184352.1858959186</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3772,8 +3622,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3784,22 +3640,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>189</v>
+        <v>188.1</v>
       </c>
       <c r="C87" t="n">
-        <v>188</v>
+        <v>188.1</v>
       </c>
       <c r="D87" t="n">
-        <v>189</v>
+        <v>188.1</v>
       </c>
       <c r="E87" t="n">
-        <v>187.3</v>
+        <v>188.1</v>
       </c>
       <c r="F87" t="n">
-        <v>12137.0279</v>
+        <v>1927.6482</v>
       </c>
       <c r="G87" t="n">
-        <v>42052.81493996458</v>
+        <v>-182424.5376959186</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3808,8 +3664,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3820,22 +3682,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>187.5</v>
+        <v>188.1</v>
       </c>
       <c r="C88" t="n">
-        <v>189.9</v>
+        <v>188.1</v>
       </c>
       <c r="D88" t="n">
-        <v>189.9</v>
+        <v>190.4</v>
       </c>
       <c r="E88" t="n">
-        <v>187.5</v>
+        <v>188.1</v>
       </c>
       <c r="F88" t="n">
-        <v>2422.9128</v>
+        <v>6613.2711</v>
       </c>
       <c r="G88" t="n">
-        <v>44475.72773996458</v>
+        <v>-182424.5376959186</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3844,8 +3706,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3856,22 +3724,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>189</v>
+        <v>188.1</v>
       </c>
       <c r="C89" t="n">
-        <v>191.5</v>
+        <v>190.5</v>
       </c>
       <c r="D89" t="n">
-        <v>193</v>
+        <v>190.5</v>
       </c>
       <c r="E89" t="n">
-        <v>189</v>
+        <v>188.1</v>
       </c>
       <c r="F89" t="n">
-        <v>6832.52</v>
+        <v>3863.5471</v>
       </c>
       <c r="G89" t="n">
-        <v>51308.24773996457</v>
+        <v>-178560.9905959186</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3880,8 +3748,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3892,22 +3766,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>189.6</v>
+        <v>190.5</v>
       </c>
       <c r="C90" t="n">
-        <v>189.6</v>
+        <v>196</v>
       </c>
       <c r="D90" t="n">
-        <v>189.6</v>
+        <v>199.7</v>
       </c>
       <c r="E90" t="n">
-        <v>189.6</v>
+        <v>190.5</v>
       </c>
       <c r="F90" t="n">
-        <v>1592.2061</v>
+        <v>72833.68769999999</v>
       </c>
       <c r="G90" t="n">
-        <v>49716.04163996457</v>
+        <v>-105727.3028959186</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3916,8 +3790,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3928,22 +3808,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C91" t="n">
-        <v>187.7</v>
+        <v>199.8</v>
       </c>
       <c r="D91" t="n">
-        <v>191</v>
+        <v>199.8</v>
       </c>
       <c r="E91" t="n">
-        <v>187.7</v>
+        <v>195.3</v>
       </c>
       <c r="F91" t="n">
-        <v>6353.6473</v>
+        <v>17931.535</v>
       </c>
       <c r="G91" t="n">
-        <v>43362.39433996457</v>
+        <v>-87795.76789591865</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3952,8 +3832,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3964,22 +3850,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>190</v>
+        <v>199.7</v>
       </c>
       <c r="C92" t="n">
-        <v>191.9</v>
+        <v>205</v>
       </c>
       <c r="D92" t="n">
-        <v>191.9</v>
+        <v>207.2</v>
       </c>
       <c r="E92" t="n">
-        <v>190</v>
+        <v>199.7</v>
       </c>
       <c r="F92" t="n">
-        <v>1578.015</v>
+        <v>30284.99357249035</v>
       </c>
       <c r="G92" t="n">
-        <v>44940.40933996457</v>
+        <v>-57510.7743234283</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3988,8 +3874,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4000,22 +3892,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>191.9</v>
+        <v>205.1</v>
       </c>
       <c r="C93" t="n">
-        <v>190.9</v>
+        <v>219.9</v>
       </c>
       <c r="D93" t="n">
-        <v>192</v>
+        <v>219.9</v>
       </c>
       <c r="E93" t="n">
-        <v>190.9</v>
+        <v>205</v>
       </c>
       <c r="F93" t="n">
-        <v>570.8102</v>
+        <v>65009.3825</v>
       </c>
       <c r="G93" t="n">
-        <v>44369.59913996457</v>
+        <v>7498.608176571703</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4024,8 +3916,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4036,22 +3934,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>190.9</v>
+        <v>218.9</v>
       </c>
       <c r="C94" t="n">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="D94" t="n">
-        <v>192</v>
+        <v>219.9</v>
       </c>
       <c r="E94" t="n">
-        <v>190.9</v>
+        <v>214</v>
       </c>
       <c r="F94" t="n">
-        <v>399.3577</v>
+        <v>38706.83443129283</v>
       </c>
       <c r="G94" t="n">
-        <v>44768.95683996457</v>
+        <v>-31208.22625472113</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4060,8 +3958,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4072,22 +3976,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>191.9</v>
+        <v>214</v>
       </c>
       <c r="C95" t="n">
-        <v>191.9</v>
+        <v>196.3</v>
       </c>
       <c r="D95" t="n">
-        <v>191.9</v>
+        <v>214</v>
       </c>
       <c r="E95" t="n">
-        <v>191.9</v>
+        <v>196.3</v>
       </c>
       <c r="F95" t="n">
-        <v>794.4335</v>
+        <v>39558.92326757905</v>
       </c>
       <c r="G95" t="n">
-        <v>43974.52333996457</v>
+        <v>-70767.14952230017</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4096,8 +4000,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4018,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>190.9</v>
+        <v>198.5</v>
       </c>
       <c r="C96" t="n">
-        <v>190.9</v>
+        <v>193.7</v>
       </c>
       <c r="D96" t="n">
-        <v>190.9</v>
+        <v>198.6</v>
       </c>
       <c r="E96" t="n">
-        <v>190.9</v>
+        <v>191.4</v>
       </c>
       <c r="F96" t="n">
-        <v>1245.9325</v>
+        <v>8206.534941802443</v>
       </c>
       <c r="G96" t="n">
-        <v>42728.59083996457</v>
+        <v>-78973.68446410261</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4132,8 +4042,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4144,22 +4060,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>191.9</v>
+        <v>194.7</v>
       </c>
       <c r="C97" t="n">
-        <v>192</v>
+        <v>196.9</v>
       </c>
       <c r="D97" t="n">
-        <v>192</v>
+        <v>196.9</v>
       </c>
       <c r="E97" t="n">
-        <v>191.9</v>
+        <v>193.7</v>
       </c>
       <c r="F97" t="n">
-        <v>169.7918</v>
+        <v>5051.4972</v>
       </c>
       <c r="G97" t="n">
-        <v>42898.38263996457</v>
+        <v>-73922.18726410261</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4168,8 +4084,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4180,22 +4102,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>192</v>
+        <v>196.9</v>
       </c>
       <c r="C98" t="n">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D98" t="n">
-        <v>192</v>
+        <v>215.8</v>
       </c>
       <c r="E98" t="n">
-        <v>192</v>
+        <v>196.9</v>
       </c>
       <c r="F98" t="n">
-        <v>57.0996</v>
+        <v>14786.04999874055</v>
       </c>
       <c r="G98" t="n">
-        <v>42898.38263996457</v>
+        <v>-59136.13726536206</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4204,8 +4126,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4216,22 +4144,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>192</v>
+        <v>206.7</v>
       </c>
       <c r="C99" t="n">
-        <v>192</v>
+        <v>197.9</v>
       </c>
       <c r="D99" t="n">
-        <v>192</v>
+        <v>206.7</v>
       </c>
       <c r="E99" t="n">
-        <v>192</v>
+        <v>197.9</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9004</v>
+        <v>8868.3115</v>
       </c>
       <c r="G99" t="n">
-        <v>42898.38263996457</v>
+        <v>-68004.44876536206</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4240,8 +4168,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4252,22 +4186,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>191.9</v>
+        <v>200.9</v>
       </c>
       <c r="C100" t="n">
-        <v>190.9</v>
+        <v>202</v>
       </c>
       <c r="D100" t="n">
-        <v>191.9</v>
+        <v>202</v>
       </c>
       <c r="E100" t="n">
-        <v>190.9</v>
+        <v>200.9</v>
       </c>
       <c r="F100" t="n">
-        <v>15134.6669</v>
+        <v>6</v>
       </c>
       <c r="G100" t="n">
-        <v>27763.71573996457</v>
+        <v>-67998.44876536206</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4276,8 +4210,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4288,22 +4228,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C101" t="n">
-        <v>190</v>
+        <v>204.9</v>
       </c>
       <c r="D101" t="n">
-        <v>190</v>
+        <v>204.9</v>
       </c>
       <c r="E101" t="n">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F101" t="n">
-        <v>92.04089999999999</v>
+        <v>19005.70027891655</v>
       </c>
       <c r="G101" t="n">
-        <v>27671.67483996457</v>
+        <v>-48992.74848644551</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4312,8 +4252,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4324,22 +4270,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C102" t="n">
-        <v>188.8</v>
+        <v>200</v>
       </c>
       <c r="D102" t="n">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E102" t="n">
-        <v>188.8</v>
+        <v>199.9</v>
       </c>
       <c r="F102" t="n">
-        <v>11227.3025</v>
+        <v>11279.587</v>
       </c>
       <c r="G102" t="n">
-        <v>16444.37233996457</v>
+        <v>-60272.33548644551</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4348,8 +4294,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4360,22 +4312,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C103" t="n">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D103" t="n">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E103" t="n">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F103" t="n">
-        <v>4544.0754</v>
+        <v>3363.6671</v>
       </c>
       <c r="G103" t="n">
-        <v>20988.44773996457</v>
+        <v>-56908.66838644551</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4384,8 +4336,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4396,22 +4354,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>190.8</v>
+        <v>199.5</v>
       </c>
       <c r="C104" t="n">
-        <v>190.8</v>
+        <v>208.4</v>
       </c>
       <c r="D104" t="n">
-        <v>190.8</v>
+        <v>208.4</v>
       </c>
       <c r="E104" t="n">
-        <v>190.8</v>
+        <v>199</v>
       </c>
       <c r="F104" t="n">
-        <v>664.6844</v>
+        <v>15778.7018</v>
       </c>
       <c r="G104" t="n">
-        <v>21653.13213996457</v>
+        <v>-41129.96658644551</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4420,8 +4378,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4432,22 +4396,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>190</v>
+        <v>208.2</v>
       </c>
       <c r="C105" t="n">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D105" t="n">
-        <v>190</v>
+        <v>215.6</v>
       </c>
       <c r="E105" t="n">
-        <v>190</v>
+        <v>204.4</v>
       </c>
       <c r="F105" t="n">
-        <v>811.8953</v>
+        <v>28128.42811368274</v>
       </c>
       <c r="G105" t="n">
-        <v>20841.23683996457</v>
+        <v>-69258.39470012825</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4456,8 +4420,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4468,22 +4438,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>190.9</v>
+        <v>213.5</v>
       </c>
       <c r="C106" t="n">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D106" t="n">
-        <v>191</v>
+        <v>214.5</v>
       </c>
       <c r="E106" t="n">
-        <v>190.8</v>
+        <v>210.1</v>
       </c>
       <c r="F106" t="n">
-        <v>3933.305</v>
+        <v>76883.8147</v>
       </c>
       <c r="G106" t="n">
-        <v>24774.54183996457</v>
+        <v>7625.419999871752</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4492,8 +4462,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4504,22 +4480,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>191</v>
+        <v>210.3</v>
       </c>
       <c r="C107" t="n">
-        <v>191</v>
+        <v>206.7</v>
       </c>
       <c r="D107" t="n">
-        <v>191</v>
+        <v>210.3</v>
       </c>
       <c r="E107" t="n">
-        <v>191</v>
+        <v>206.7</v>
       </c>
       <c r="F107" t="n">
-        <v>2766.8072</v>
+        <v>5306.0631</v>
       </c>
       <c r="G107" t="n">
-        <v>24774.54183996457</v>
+        <v>2319.356899871752</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4528,8 +4504,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4540,22 +4522,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>191</v>
+        <v>210.3</v>
       </c>
       <c r="C108" t="n">
-        <v>191</v>
+        <v>210.3</v>
       </c>
       <c r="D108" t="n">
-        <v>191</v>
+        <v>210.3</v>
       </c>
       <c r="E108" t="n">
-        <v>191</v>
+        <v>206.7</v>
       </c>
       <c r="F108" t="n">
-        <v>751.8773</v>
+        <v>13646.3392</v>
       </c>
       <c r="G108" t="n">
-        <v>24774.54183996457</v>
+        <v>15965.69609987175</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4564,8 +4546,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4576,22 +4564,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>191</v>
+        <v>210.3</v>
       </c>
       <c r="C109" t="n">
-        <v>190.9</v>
+        <v>213.4</v>
       </c>
       <c r="D109" t="n">
-        <v>191</v>
+        <v>214.5</v>
       </c>
       <c r="E109" t="n">
-        <v>190.9</v>
+        <v>210.3</v>
       </c>
       <c r="F109" t="n">
-        <v>471.8938</v>
+        <v>50788.9532</v>
       </c>
       <c r="G109" t="n">
-        <v>24302.64803996457</v>
+        <v>66754.64929987176</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4600,8 +4588,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4612,22 +4606,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>190.9</v>
+        <v>213.4</v>
       </c>
       <c r="C110" t="n">
-        <v>190.9</v>
+        <v>217.6</v>
       </c>
       <c r="D110" t="n">
-        <v>190.9</v>
+        <v>218.5</v>
       </c>
       <c r="E110" t="n">
-        <v>190.9</v>
+        <v>213.4</v>
       </c>
       <c r="F110" t="n">
-        <v>59.7321</v>
+        <v>8417.513999999999</v>
       </c>
       <c r="G110" t="n">
-        <v>24302.64803996457</v>
+        <v>75172.16329987175</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4636,8 +4630,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4648,22 +4648,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>190</v>
+        <v>217.6</v>
       </c>
       <c r="C111" t="n">
-        <v>190</v>
+        <v>218.5</v>
       </c>
       <c r="D111" t="n">
-        <v>190</v>
+        <v>218.8</v>
       </c>
       <c r="E111" t="n">
-        <v>190</v>
+        <v>217.6</v>
       </c>
       <c r="F111" t="n">
-        <v>1311.0874</v>
+        <v>20937.86845740402</v>
       </c>
       <c r="G111" t="n">
-        <v>22991.56063996457</v>
+        <v>96110.03175727578</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4672,8 +4672,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4684,22 +4690,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>190</v>
+        <v>218.5</v>
       </c>
       <c r="C112" t="n">
-        <v>190</v>
+        <v>218.4</v>
       </c>
       <c r="D112" t="n">
-        <v>190</v>
+        <v>218.7</v>
       </c>
       <c r="E112" t="n">
-        <v>190</v>
+        <v>218.4</v>
       </c>
       <c r="F112" t="n">
-        <v>125.6142</v>
+        <v>14198.9251</v>
       </c>
       <c r="G112" t="n">
-        <v>22991.56063996457</v>
+        <v>81911.10665727578</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4708,8 +4714,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4720,22 +4732,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>190</v>
+        <v>218.3</v>
       </c>
       <c r="C113" t="n">
-        <v>189</v>
+        <v>213.1</v>
       </c>
       <c r="D113" t="n">
-        <v>190</v>
+        <v>218.3</v>
       </c>
       <c r="E113" t="n">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="F113" t="n">
-        <v>173.2984</v>
+        <v>4734.6961</v>
       </c>
       <c r="G113" t="n">
-        <v>22818.26223996457</v>
+        <v>77176.41055727578</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4744,8 +4756,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4756,22 +4774,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>189</v>
+        <v>217.2</v>
       </c>
       <c r="C114" t="n">
-        <v>189</v>
+        <v>213.3</v>
       </c>
       <c r="D114" t="n">
-        <v>189</v>
+        <v>217.2</v>
       </c>
       <c r="E114" t="n">
-        <v>189</v>
+        <v>213.3</v>
       </c>
       <c r="F114" t="n">
-        <v>159.498</v>
+        <v>1773.5699</v>
       </c>
       <c r="G114" t="n">
-        <v>22818.26223996457</v>
+        <v>78949.98045727579</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4780,8 +4798,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4792,22 +4816,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>190</v>
+        <v>215.9</v>
       </c>
       <c r="C115" t="n">
-        <v>190</v>
+        <v>213.4</v>
       </c>
       <c r="D115" t="n">
-        <v>190</v>
+        <v>217.2</v>
       </c>
       <c r="E115" t="n">
-        <v>190</v>
+        <v>213.3</v>
       </c>
       <c r="F115" t="n">
-        <v>4274.0542</v>
+        <v>10408.74268268877</v>
       </c>
       <c r="G115" t="n">
-        <v>27092.31643996456</v>
+        <v>89358.72313996455</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4816,8 +4840,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4828,22 +4858,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>190.9</v>
+        <v>215.8</v>
       </c>
       <c r="C116" t="n">
-        <v>188.7</v>
+        <v>213.3</v>
       </c>
       <c r="D116" t="n">
-        <v>191.9</v>
+        <v>215.8</v>
       </c>
       <c r="E116" t="n">
-        <v>188.7</v>
+        <v>213.3</v>
       </c>
       <c r="F116" t="n">
-        <v>2878.4156</v>
+        <v>5456.6265</v>
       </c>
       <c r="G116" t="n">
-        <v>24213.90083996456</v>
+        <v>83902.09663996455</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4852,8 +4882,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4864,58 +4900,66 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>190</v>
+        <v>213.3</v>
       </c>
       <c r="C117" t="n">
-        <v>190</v>
+        <v>213.3</v>
       </c>
       <c r="D117" t="n">
-        <v>190</v>
+        <v>213.3</v>
       </c>
       <c r="E117" t="n">
-        <v>190</v>
+        <v>213.3</v>
       </c>
       <c r="F117" t="n">
-        <v>150</v>
+        <v>6162.1299</v>
       </c>
       <c r="G117" t="n">
-        <v>24363.90083996456</v>
+        <v>83902.09663996455</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>1.154869494290375</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1.071428571428571</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>192</v>
+        <v>213.3</v>
       </c>
       <c r="C118" t="n">
-        <v>192</v>
+        <v>213.3</v>
       </c>
       <c r="D118" t="n">
-        <v>192</v>
+        <v>213.3</v>
       </c>
       <c r="E118" t="n">
-        <v>192</v>
+        <v>213.3</v>
       </c>
       <c r="F118" t="n">
-        <v>108.9886</v>
+        <v>4723.8648</v>
       </c>
       <c r="G118" t="n">
-        <v>24472.88943996457</v>
+        <v>83902.09663996455</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4936,28 +4980,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>192</v>
+        <v>209.1</v>
       </c>
       <c r="C119" t="n">
-        <v>188.7</v>
+        <v>209.1</v>
       </c>
       <c r="D119" t="n">
-        <v>192</v>
+        <v>209.1</v>
       </c>
       <c r="E119" t="n">
-        <v>188.7</v>
+        <v>209.1</v>
       </c>
       <c r="F119" t="n">
-        <v>6239.2326</v>
+        <v>991</v>
       </c>
       <c r="G119" t="n">
-        <v>18233.65683996457</v>
+        <v>82911.09663996455</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4972,28 +5016,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>188.7</v>
+        <v>209.1</v>
       </c>
       <c r="C120" t="n">
-        <v>190.9</v>
+        <v>208.1</v>
       </c>
       <c r="D120" t="n">
-        <v>190.9</v>
+        <v>209.1</v>
       </c>
       <c r="E120" t="n">
-        <v>188.7</v>
+        <v>208.1</v>
       </c>
       <c r="F120" t="n">
-        <v>19393.0186</v>
+        <v>523.7907</v>
       </c>
       <c r="G120" t="n">
-        <v>37626.67543996457</v>
+        <v>82387.30593996456</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5008,28 +5052,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>188.8</v>
+        <v>204</v>
       </c>
       <c r="C121" t="n">
-        <v>188.7</v>
+        <v>200.2</v>
       </c>
       <c r="D121" t="n">
-        <v>188.8</v>
+        <v>204</v>
       </c>
       <c r="E121" t="n">
-        <v>188.7</v>
+        <v>200.2</v>
       </c>
       <c r="F121" t="n">
-        <v>2498.5754</v>
+        <v>1157.8345</v>
       </c>
       <c r="G121" t="n">
-        <v>35128.10003996456</v>
+        <v>81229.47143996456</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5044,22 +5088,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>188.7</v>
+        <v>202.9</v>
       </c>
       <c r="C122" t="n">
-        <v>188.7</v>
+        <v>198.2</v>
       </c>
       <c r="D122" t="n">
-        <v>188.7</v>
+        <v>202.9</v>
       </c>
       <c r="E122" t="n">
-        <v>188.7</v>
+        <v>198.2</v>
       </c>
       <c r="F122" t="n">
-        <v>2168.154</v>
+        <v>2832.5852</v>
       </c>
       <c r="G122" t="n">
-        <v>35128.10003996456</v>
+        <v>78396.88623996456</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5080,22 +5124,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>188.7</v>
+        <v>202</v>
       </c>
       <c r="C123" t="n">
-        <v>188.7</v>
+        <v>202</v>
       </c>
       <c r="D123" t="n">
-        <v>188.7</v>
+        <v>202</v>
       </c>
       <c r="E123" t="n">
-        <v>188.7</v>
+        <v>202</v>
       </c>
       <c r="F123" t="n">
-        <v>1044.7684</v>
+        <v>22</v>
       </c>
       <c r="G123" t="n">
-        <v>35128.10003996456</v>
+        <v>78418.88623996456</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5116,22 +5160,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>190.7</v>
+        <v>198.1</v>
       </c>
       <c r="C124" t="n">
-        <v>190.7</v>
+        <v>198</v>
       </c>
       <c r="D124" t="n">
-        <v>190.7</v>
+        <v>198.1</v>
       </c>
       <c r="E124" t="n">
-        <v>190.7</v>
+        <v>198</v>
       </c>
       <c r="F124" t="n">
-        <v>605.61</v>
+        <v>3097.0122</v>
       </c>
       <c r="G124" t="n">
-        <v>35733.71003996456</v>
+        <v>75321.87403996456</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5152,22 +5196,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>190.7</v>
+        <v>199</v>
       </c>
       <c r="C125" t="n">
-        <v>188.7</v>
+        <v>198</v>
       </c>
       <c r="D125" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E125" t="n">
-        <v>188.7</v>
+        <v>198</v>
       </c>
       <c r="F125" t="n">
-        <v>12531.3638</v>
+        <v>6099.8774</v>
       </c>
       <c r="G125" t="n">
-        <v>23202.34623996457</v>
+        <v>75321.87403996456</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5188,22 +5232,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>188.8</v>
+        <v>197.1</v>
       </c>
       <c r="C126" t="n">
-        <v>192</v>
+        <v>196.9</v>
       </c>
       <c r="D126" t="n">
-        <v>192</v>
+        <v>197.1</v>
       </c>
       <c r="E126" t="n">
-        <v>188.7</v>
+        <v>190.6</v>
       </c>
       <c r="F126" t="n">
-        <v>303</v>
+        <v>13201.5783</v>
       </c>
       <c r="G126" t="n">
-        <v>23505.34623996457</v>
+        <v>62120.29573996456</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5224,28 +5268,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C127" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D127" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E127" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F127" t="n">
-        <v>7078.0892</v>
+        <v>3070.0012</v>
       </c>
       <c r="G127" t="n">
-        <v>23505.34623996457</v>
+        <v>59050.29453996456</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5260,22 +5304,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>192</v>
+        <v>193.1</v>
       </c>
       <c r="C128" t="n">
-        <v>189.7</v>
+        <v>193.1</v>
       </c>
       <c r="D128" t="n">
-        <v>192</v>
+        <v>193.1</v>
       </c>
       <c r="E128" t="n">
-        <v>189.7</v>
+        <v>193.1</v>
       </c>
       <c r="F128" t="n">
-        <v>5258.2286</v>
+        <v>1070.0012</v>
       </c>
       <c r="G128" t="n">
-        <v>18247.11763996456</v>
+        <v>60120.29573996456</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5296,22 +5340,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>189.7</v>
+        <v>193.1</v>
       </c>
       <c r="C129" t="n">
-        <v>189.7</v>
+        <v>193.1</v>
       </c>
       <c r="D129" t="n">
-        <v>189.7</v>
+        <v>193.1</v>
       </c>
       <c r="E129" t="n">
-        <v>189.7</v>
+        <v>193.1</v>
       </c>
       <c r="F129" t="n">
-        <v>9432.677</v>
+        <v>2302.0257</v>
       </c>
       <c r="G129" t="n">
-        <v>18247.11763996456</v>
+        <v>60120.29573996456</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5332,28 +5376,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>191.5</v>
+        <v>195</v>
       </c>
       <c r="C130" t="n">
-        <v>191.5</v>
+        <v>204</v>
       </c>
       <c r="D130" t="n">
-        <v>191.5</v>
+        <v>204</v>
       </c>
       <c r="E130" t="n">
-        <v>191.5</v>
+        <v>195</v>
       </c>
       <c r="F130" t="n">
-        <v>5</v>
+        <v>10813.1486</v>
       </c>
       <c r="G130" t="n">
-        <v>18252.11763996456</v>
+        <v>70933.44433996457</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5368,28 +5412,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>191.5</v>
+        <v>204</v>
       </c>
       <c r="C131" t="n">
-        <v>191.5</v>
+        <v>208</v>
       </c>
       <c r="D131" t="n">
-        <v>191.5</v>
+        <v>208</v>
       </c>
       <c r="E131" t="n">
-        <v>191.5</v>
+        <v>204</v>
       </c>
       <c r="F131" t="n">
-        <v>48.0385</v>
+        <v>3075.784</v>
       </c>
       <c r="G131" t="n">
-        <v>18252.11763996456</v>
+        <v>74009.22833996457</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5404,28 +5448,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>191.5</v>
+        <v>207.9</v>
       </c>
       <c r="C132" t="n">
-        <v>191.5</v>
+        <v>207.9</v>
       </c>
       <c r="D132" t="n">
-        <v>191.5</v>
+        <v>207.9</v>
       </c>
       <c r="E132" t="n">
-        <v>191.5</v>
+        <v>207.9</v>
       </c>
       <c r="F132" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G132" t="n">
-        <v>18252.11763996456</v>
+        <v>73969.22833996457</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5440,28 +5484,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>191.5</v>
+        <v>204.1</v>
       </c>
       <c r="C133" t="n">
-        <v>191.5</v>
+        <v>204.1</v>
       </c>
       <c r="D133" t="n">
-        <v>191.5</v>
+        <v>204.1</v>
       </c>
       <c r="E133" t="n">
-        <v>191.5</v>
+        <v>204.1</v>
       </c>
       <c r="F133" t="n">
-        <v>5</v>
+        <v>1246.0555</v>
       </c>
       <c r="G133" t="n">
-        <v>18252.11763996456</v>
+        <v>72723.17283996457</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5476,28 +5520,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>191.5</v>
+        <v>206.8</v>
       </c>
       <c r="C134" t="n">
-        <v>191.5</v>
+        <v>206.8</v>
       </c>
       <c r="D134" t="n">
-        <v>191.5</v>
+        <v>206.8</v>
       </c>
       <c r="E134" t="n">
-        <v>191.5</v>
+        <v>206.8</v>
       </c>
       <c r="F134" t="n">
-        <v>1037.7545691906</v>
+        <v>50.8273</v>
       </c>
       <c r="G134" t="n">
-        <v>18252.11763996456</v>
+        <v>72774.00013996457</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5512,22 +5556,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>189.7</v>
+        <v>204.2</v>
       </c>
       <c r="C135" t="n">
-        <v>189.7</v>
+        <v>192.1</v>
       </c>
       <c r="D135" t="n">
-        <v>189.7</v>
+        <v>204.2</v>
       </c>
       <c r="E135" t="n">
-        <v>189.7</v>
+        <v>192.1</v>
       </c>
       <c r="F135" t="n">
-        <v>1037.7546</v>
+        <v>6400.908</v>
       </c>
       <c r="G135" t="n">
-        <v>17214.36303996456</v>
+        <v>66373.09213996457</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5548,22 +5592,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>191.5</v>
+        <v>194.1</v>
       </c>
       <c r="C136" t="n">
-        <v>191.5</v>
+        <v>194.1</v>
       </c>
       <c r="D136" t="n">
-        <v>191.5</v>
+        <v>195</v>
       </c>
       <c r="E136" t="n">
-        <v>191.5</v>
+        <v>194.1</v>
       </c>
       <c r="F136" t="n">
-        <v>6</v>
+        <v>5700</v>
       </c>
       <c r="G136" t="n">
-        <v>17220.36303996456</v>
+        <v>72073.09213996457</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5584,22 +5628,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>191.4</v>
+        <v>199</v>
       </c>
       <c r="C137" t="n">
-        <v>191.4</v>
+        <v>198</v>
       </c>
       <c r="D137" t="n">
-        <v>191.4</v>
+        <v>199</v>
       </c>
       <c r="E137" t="n">
-        <v>191.4</v>
+        <v>198</v>
       </c>
       <c r="F137" t="n">
-        <v>6</v>
+        <v>1453.2362</v>
       </c>
       <c r="G137" t="n">
-        <v>17214.36303996456</v>
+        <v>73526.32833996457</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5620,22 +5664,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>189.7</v>
+        <v>198</v>
       </c>
       <c r="C138" t="n">
-        <v>189.7</v>
+        <v>197.9</v>
       </c>
       <c r="D138" t="n">
-        <v>189.7</v>
+        <v>198</v>
       </c>
       <c r="E138" t="n">
-        <v>189.7</v>
+        <v>197.9</v>
       </c>
       <c r="F138" t="n">
-        <v>3718.7121</v>
+        <v>9548.663200000001</v>
       </c>
       <c r="G138" t="n">
-        <v>13495.65093996456</v>
+        <v>63977.66513996457</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5656,22 +5700,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>189.7</v>
+        <v>198</v>
       </c>
       <c r="C139" t="n">
-        <v>189.7</v>
+        <v>196.1</v>
       </c>
       <c r="D139" t="n">
-        <v>189.7</v>
+        <v>199</v>
       </c>
       <c r="E139" t="n">
-        <v>189.7</v>
+        <v>196.1</v>
       </c>
       <c r="F139" t="n">
-        <v>880.466</v>
+        <v>5852.9488</v>
       </c>
       <c r="G139" t="n">
-        <v>13495.65093996456</v>
+        <v>58124.71633996457</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5692,22 +5736,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>191.4</v>
+        <v>200</v>
       </c>
       <c r="C140" t="n">
-        <v>189.7</v>
+        <v>196.1</v>
       </c>
       <c r="D140" t="n">
-        <v>191.4</v>
+        <v>203</v>
       </c>
       <c r="E140" t="n">
-        <v>189.7</v>
+        <v>196.1</v>
       </c>
       <c r="F140" t="n">
-        <v>1068.4815</v>
+        <v>11862.8707</v>
       </c>
       <c r="G140" t="n">
-        <v>13495.65093996456</v>
+        <v>58124.71633996457</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5728,22 +5772,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>191.5</v>
+        <v>200.8</v>
       </c>
       <c r="C141" t="n">
-        <v>191.5</v>
+        <v>198</v>
       </c>
       <c r="D141" t="n">
-        <v>191.5</v>
+        <v>202</v>
       </c>
       <c r="E141" t="n">
-        <v>191.5</v>
+        <v>197</v>
       </c>
       <c r="F141" t="n">
-        <v>3</v>
+        <v>28358.77</v>
       </c>
       <c r="G141" t="n">
-        <v>13498.65093996456</v>
+        <v>86483.48633996457</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5764,22 +5808,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>191.4</v>
+        <v>197.1</v>
       </c>
       <c r="C142" t="n">
-        <v>192</v>
+        <v>194.1</v>
       </c>
       <c r="D142" t="n">
-        <v>192</v>
+        <v>197.1</v>
       </c>
       <c r="E142" t="n">
-        <v>191.4</v>
+        <v>194.1</v>
       </c>
       <c r="F142" t="n">
-        <v>5006</v>
+        <v>10043.6236</v>
       </c>
       <c r="G142" t="n">
-        <v>18504.65093996456</v>
+        <v>76439.86273996456</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5800,22 +5844,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>192</v>
+        <v>194.1</v>
       </c>
       <c r="C143" t="n">
-        <v>192</v>
+        <v>192.3</v>
       </c>
       <c r="D143" t="n">
-        <v>192</v>
+        <v>194.1</v>
       </c>
       <c r="E143" t="n">
-        <v>192</v>
+        <v>192.2</v>
       </c>
       <c r="F143" t="n">
-        <v>44</v>
+        <v>24097.3841</v>
       </c>
       <c r="G143" t="n">
-        <v>18504.65093996456</v>
+        <v>52342.47863996457</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5836,22 +5880,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>190</v>
+        <v>192.3</v>
       </c>
       <c r="C144" t="n">
-        <v>192</v>
+        <v>192.3</v>
       </c>
       <c r="D144" t="n">
-        <v>192</v>
+        <v>192.3</v>
       </c>
       <c r="E144" t="n">
-        <v>190</v>
+        <v>192.3</v>
       </c>
       <c r="F144" t="n">
-        <v>94.6765</v>
+        <v>2570.3581</v>
       </c>
       <c r="G144" t="n">
-        <v>18504.65093996456</v>
+        <v>52342.47863996457</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5872,22 +5916,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>192</v>
+        <v>192.2</v>
       </c>
       <c r="C145" t="n">
-        <v>192</v>
+        <v>192.2</v>
       </c>
       <c r="D145" t="n">
-        <v>192</v>
+        <v>192.2</v>
       </c>
       <c r="E145" t="n">
-        <v>192</v>
+        <v>192.2</v>
       </c>
       <c r="F145" t="n">
-        <v>1000</v>
+        <v>1519.6185</v>
       </c>
       <c r="G145" t="n">
-        <v>18504.65093996456</v>
+        <v>50822.86013996457</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5908,22 +5952,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>192</v>
+        <v>192.1</v>
       </c>
       <c r="C146" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D146" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E146" t="n">
-        <v>192</v>
+        <v>192.1</v>
       </c>
       <c r="F146" t="n">
-        <v>110</v>
+        <v>14141.867</v>
       </c>
       <c r="G146" t="n">
-        <v>18504.65093996456</v>
+        <v>64964.72713996457</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5944,22 +5988,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>192</v>
+        <v>192.8</v>
       </c>
       <c r="C147" t="n">
-        <v>192</v>
+        <v>192.2</v>
       </c>
       <c r="D147" t="n">
-        <v>192</v>
+        <v>192.8</v>
       </c>
       <c r="E147" t="n">
-        <v>192</v>
+        <v>192.2</v>
       </c>
       <c r="F147" t="n">
-        <v>2.7778</v>
+        <v>7833.0771</v>
       </c>
       <c r="G147" t="n">
-        <v>18504.65093996456</v>
+        <v>57131.65003996457</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5980,22 +6024,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>190.1</v>
+        <v>192</v>
       </c>
       <c r="C148" t="n">
-        <v>190.1</v>
+        <v>192</v>
       </c>
       <c r="D148" t="n">
-        <v>190.1</v>
+        <v>192</v>
       </c>
       <c r="E148" t="n">
-        <v>190.1</v>
+        <v>192</v>
       </c>
       <c r="F148" t="n">
-        <v>6</v>
+        <v>251.2992</v>
       </c>
       <c r="G148" t="n">
-        <v>18498.65093996456</v>
+        <v>56880.35083996457</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6019,19 +6063,19 @@
         <v>192</v>
       </c>
       <c r="C149" t="n">
-        <v>192</v>
+        <v>187.3</v>
       </c>
       <c r="D149" t="n">
         <v>192</v>
       </c>
       <c r="E149" t="n">
-        <v>192</v>
+        <v>187.3</v>
       </c>
       <c r="F149" t="n">
-        <v>6</v>
+        <v>13795.5989</v>
       </c>
       <c r="G149" t="n">
-        <v>18504.65093996456</v>
+        <v>43084.75193996457</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6052,22 +6096,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>192</v>
+        <v>189.9</v>
       </c>
       <c r="C150" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D150" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E150" t="n">
-        <v>192</v>
+        <v>189.9</v>
       </c>
       <c r="F150" t="n">
-        <v>9.4513</v>
+        <v>33147.0026</v>
       </c>
       <c r="G150" t="n">
-        <v>18504.65093996456</v>
+        <v>76231.75453996458</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6088,22 +6132,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C151" t="n">
-        <v>190.1</v>
+        <v>192.8</v>
       </c>
       <c r="D151" t="n">
-        <v>191</v>
+        <v>192.8</v>
       </c>
       <c r="E151" t="n">
-        <v>190.1</v>
+        <v>192</v>
       </c>
       <c r="F151" t="n">
-        <v>150</v>
+        <v>11004.5003</v>
       </c>
       <c r="G151" t="n">
-        <v>18354.65093996456</v>
+        <v>87236.25483996457</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6124,22 +6168,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>191</v>
+        <v>194.5</v>
       </c>
       <c r="C152" t="n">
-        <v>191</v>
+        <v>200.9</v>
       </c>
       <c r="D152" t="n">
-        <v>191</v>
+        <v>200.9</v>
       </c>
       <c r="E152" t="n">
-        <v>191</v>
+        <v>194.5</v>
       </c>
       <c r="F152" t="n">
-        <v>76.8322</v>
+        <v>1300</v>
       </c>
       <c r="G152" t="n">
-        <v>18431.48313996456</v>
+        <v>88536.25483996457</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6160,22 +6204,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>193.2</v>
+        <v>193</v>
       </c>
       <c r="C153" t="n">
-        <v>193.2</v>
+        <v>194</v>
       </c>
       <c r="D153" t="n">
-        <v>193.2</v>
+        <v>194</v>
       </c>
       <c r="E153" t="n">
-        <v>193.2</v>
+        <v>190</v>
       </c>
       <c r="F153" t="n">
-        <v>6</v>
+        <v>17114.1344</v>
       </c>
       <c r="G153" t="n">
-        <v>18437.48313996456</v>
+        <v>71422.12043996458</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6196,22 +6240,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>193.2</v>
+        <v>191</v>
       </c>
       <c r="C154" t="n">
-        <v>190.1</v>
+        <v>191</v>
       </c>
       <c r="D154" t="n">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E154" t="n">
-        <v>190.1</v>
+        <v>191</v>
       </c>
       <c r="F154" t="n">
-        <v>14632.8762</v>
+        <v>383.4848</v>
       </c>
       <c r="G154" t="n">
-        <v>3804.606939964562</v>
+        <v>71038.63563996457</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6232,22 +6276,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>196.7</v>
+        <v>191</v>
       </c>
       <c r="C155" t="n">
-        <v>196.7</v>
+        <v>191</v>
       </c>
       <c r="D155" t="n">
-        <v>196.7</v>
+        <v>191</v>
       </c>
       <c r="E155" t="n">
-        <v>196.7</v>
+        <v>191</v>
       </c>
       <c r="F155" t="n">
-        <v>101.677</v>
+        <v>765.1979</v>
       </c>
       <c r="G155" t="n">
-        <v>3906.283939964562</v>
+        <v>71038.63563996457</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6268,28 +6312,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>191.2</v>
+        <v>191.1</v>
       </c>
       <c r="C156" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D156" t="n">
-        <v>192</v>
+        <v>191.1</v>
       </c>
       <c r="E156" t="n">
-        <v>191.1</v>
+        <v>191</v>
       </c>
       <c r="F156" t="n">
-        <v>990</v>
+        <v>1149.089</v>
       </c>
       <c r="G156" t="n">
-        <v>2916.283939964562</v>
+        <v>71038.63563996457</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -6304,22 +6348,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>191.1</v>
+        <v>191</v>
       </c>
       <c r="C157" t="n">
-        <v>191.1</v>
+        <v>188.3</v>
       </c>
       <c r="D157" t="n">
         <v>191.1</v>
       </c>
       <c r="E157" t="n">
-        <v>191.1</v>
+        <v>188.3</v>
       </c>
       <c r="F157" t="n">
-        <v>2304.1857</v>
+        <v>16848.7928</v>
       </c>
       <c r="G157" t="n">
-        <v>612.0982399645623</v>
+        <v>54189.84283996458</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6340,22 +6384,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>191.2</v>
+        <v>189</v>
       </c>
       <c r="C158" t="n">
-        <v>191.2</v>
+        <v>188</v>
       </c>
       <c r="D158" t="n">
-        <v>191.2</v>
+        <v>189</v>
       </c>
       <c r="E158" t="n">
-        <v>191.2</v>
+        <v>187.3</v>
       </c>
       <c r="F158" t="n">
-        <v>153.93</v>
+        <v>12137.0279</v>
       </c>
       <c r="G158" t="n">
-        <v>766.0282399645623</v>
+        <v>42052.81493996458</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6376,22 +6420,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>191.2</v>
+        <v>187.5</v>
       </c>
       <c r="C159" t="n">
-        <v>191.1</v>
+        <v>189.9</v>
       </c>
       <c r="D159" t="n">
-        <v>191.2</v>
+        <v>189.9</v>
       </c>
       <c r="E159" t="n">
-        <v>191.1</v>
+        <v>187.5</v>
       </c>
       <c r="F159" t="n">
-        <v>1089.2303</v>
+        <v>2422.9128</v>
       </c>
       <c r="G159" t="n">
-        <v>-323.2020600354376</v>
+        <v>44475.72773996458</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6412,22 +6456,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>191.2</v>
+        <v>189</v>
       </c>
       <c r="C160" t="n">
-        <v>191.2</v>
+        <v>191.5</v>
       </c>
       <c r="D160" t="n">
-        <v>191.2</v>
+        <v>193</v>
       </c>
       <c r="E160" t="n">
-        <v>191.2</v>
+        <v>189</v>
       </c>
       <c r="F160" t="n">
-        <v>5</v>
+        <v>6832.52</v>
       </c>
       <c r="G160" t="n">
-        <v>-318.2020600354376</v>
+        <v>51308.24773996457</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6448,22 +6492,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>193.9</v>
+        <v>189.6</v>
       </c>
       <c r="C161" t="n">
-        <v>193.9</v>
+        <v>189.6</v>
       </c>
       <c r="D161" t="n">
-        <v>193.9</v>
+        <v>189.6</v>
       </c>
       <c r="E161" t="n">
-        <v>193.9</v>
+        <v>189.6</v>
       </c>
       <c r="F161" t="n">
-        <v>4.9055</v>
+        <v>1592.2061</v>
       </c>
       <c r="G161" t="n">
-        <v>-313.2965600354376</v>
+        <v>49716.04163996457</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6484,22 +6528,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>193.9</v>
+        <v>191</v>
       </c>
       <c r="C162" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="D162" t="n">
         <v>191</v>
       </c>
-      <c r="D162" t="n">
-        <v>193.9</v>
-      </c>
       <c r="E162" t="n">
-        <v>191</v>
+        <v>187.7</v>
       </c>
       <c r="F162" t="n">
-        <v>11471.1445</v>
+        <v>6353.6473</v>
       </c>
       <c r="G162" t="n">
-        <v>-11784.44106003544</v>
+        <v>43362.39433996457</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6520,22 +6564,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>192.1</v>
+        <v>190</v>
       </c>
       <c r="C163" t="n">
-        <v>192.1</v>
+        <v>191.9</v>
       </c>
       <c r="D163" t="n">
-        <v>192.1</v>
+        <v>191.9</v>
       </c>
       <c r="E163" t="n">
-        <v>192.1</v>
+        <v>190</v>
       </c>
       <c r="F163" t="n">
-        <v>72.62179999999999</v>
+        <v>1578.015</v>
       </c>
       <c r="G163" t="n">
-        <v>-11711.81926003544</v>
+        <v>44940.40933996457</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6556,22 +6600,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>192</v>
+        <v>191.9</v>
       </c>
       <c r="C164" t="n">
-        <v>191.7</v>
+        <v>190.9</v>
       </c>
       <c r="D164" t="n">
         <v>192</v>
       </c>
       <c r="E164" t="n">
-        <v>191.7</v>
+        <v>190.9</v>
       </c>
       <c r="F164" t="n">
-        <v>182.4142</v>
+        <v>570.8102</v>
       </c>
       <c r="G164" t="n">
-        <v>-11894.23346003544</v>
+        <v>44369.59913996457</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6592,7 +6636,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>192</v>
+        <v>190.9</v>
       </c>
       <c r="C165" t="n">
         <v>192</v>
@@ -6601,13 +6645,13 @@
         <v>192</v>
       </c>
       <c r="E165" t="n">
-        <v>192</v>
+        <v>190.9</v>
       </c>
       <c r="F165" t="n">
-        <v>6588.4278</v>
+        <v>399.3577</v>
       </c>
       <c r="G165" t="n">
-        <v>-5305.805660035437</v>
+        <v>44768.95683996457</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6628,22 +6672,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>191.1</v>
+        <v>191.9</v>
       </c>
       <c r="C166" t="n">
-        <v>190.9</v>
+        <v>191.9</v>
       </c>
       <c r="D166" t="n">
-        <v>191.1</v>
+        <v>191.9</v>
       </c>
       <c r="E166" t="n">
-        <v>190.9</v>
+        <v>191.9</v>
       </c>
       <c r="F166" t="n">
-        <v>2628.6163</v>
+        <v>794.4335</v>
       </c>
       <c r="G166" t="n">
-        <v>-7934.421960035437</v>
+        <v>43974.52333996457</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6664,22 +6708,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>190.8</v>
+        <v>190.9</v>
       </c>
       <c r="C167" t="n">
-        <v>190.8</v>
+        <v>190.9</v>
       </c>
       <c r="D167" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="E167" t="n">
-        <v>190.8</v>
+        <v>190.9</v>
       </c>
       <c r="F167" t="n">
-        <v>2368.6501</v>
+        <v>1245.9325</v>
       </c>
       <c r="G167" t="n">
-        <v>-10303.07206003544</v>
+        <v>42728.59083996457</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6700,22 +6744,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>190.8</v>
+        <v>191.9</v>
       </c>
       <c r="C168" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="D168" t="n">
         <v>192</v>
       </c>
       <c r="E168" t="n">
-        <v>190.8</v>
+        <v>191.9</v>
       </c>
       <c r="F168" t="n">
-        <v>64</v>
+        <v>169.7918</v>
       </c>
       <c r="G168" t="n">
-        <v>-10303.07206003544</v>
+        <v>42898.38263996457</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6736,22 +6780,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="C169" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="D169" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="E169" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="F169" t="n">
-        <v>15</v>
+        <v>57.0996</v>
       </c>
       <c r="G169" t="n">
-        <v>-10303.07206003544</v>
+        <v>42898.38263996457</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6772,22 +6816,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="C170" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="D170" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="E170" t="n">
-        <v>190.8</v>
+        <v>192</v>
       </c>
       <c r="F170" t="n">
-        <v>5</v>
+        <v>0.9004</v>
       </c>
       <c r="G170" t="n">
-        <v>-10303.07206003544</v>
+        <v>42898.38263996457</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6808,22 +6852,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="C171" t="n">
         <v>190.9</v>
       </c>
-      <c r="C171" t="n">
-        <v>190.8</v>
-      </c>
       <c r="D171" t="n">
-        <v>191.8</v>
+        <v>191.9</v>
       </c>
       <c r="E171" t="n">
-        <v>190.8</v>
+        <v>190.9</v>
       </c>
       <c r="F171" t="n">
-        <v>1689.5135</v>
+        <v>15134.6669</v>
       </c>
       <c r="G171" t="n">
-        <v>-10303.07206003544</v>
+        <v>27763.71573996457</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6844,22 +6888,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>190.7</v>
+        <v>190</v>
       </c>
       <c r="C172" t="n">
-        <v>190.1</v>
+        <v>190</v>
       </c>
       <c r="D172" t="n">
-        <v>190.8</v>
+        <v>190</v>
       </c>
       <c r="E172" t="n">
-        <v>190.1</v>
+        <v>190</v>
       </c>
       <c r="F172" t="n">
-        <v>25027.2385</v>
+        <v>92.04089999999999</v>
       </c>
       <c r="G172" t="n">
-        <v>-35330.31056003543</v>
+        <v>27671.67483996457</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6880,22 +6924,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C173" t="n">
-        <v>190</v>
+        <v>188.8</v>
       </c>
       <c r="D173" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E173" t="n">
-        <v>190</v>
+        <v>188.8</v>
       </c>
       <c r="F173" t="n">
-        <v>359.6523</v>
+        <v>11227.3025</v>
       </c>
       <c r="G173" t="n">
-        <v>-35689.96286003543</v>
+        <v>16444.37233996457</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6919,19 +6963,19 @@
         <v>190</v>
       </c>
       <c r="C174" t="n">
-        <v>190.8</v>
+        <v>189</v>
       </c>
       <c r="D174" t="n">
-        <v>190.8</v>
+        <v>190</v>
       </c>
       <c r="E174" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F174" t="n">
-        <v>12292.25</v>
+        <v>4544.0754</v>
       </c>
       <c r="G174" t="n">
-        <v>-23397.71286003543</v>
+        <v>20988.44773996457</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6952,22 +6996,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>190.2</v>
+        <v>190.8</v>
       </c>
       <c r="C175" t="n">
-        <v>191</v>
+        <v>190.8</v>
       </c>
       <c r="D175" t="n">
-        <v>192.9</v>
+        <v>190.8</v>
       </c>
       <c r="E175" t="n">
-        <v>190.2</v>
+        <v>190.8</v>
       </c>
       <c r="F175" t="n">
-        <v>4020.959</v>
+        <v>664.6844</v>
       </c>
       <c r="G175" t="n">
-        <v>-19376.75386003543</v>
+        <v>21653.13213996457</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6988,22 +7032,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C176" t="n">
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="D176" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E176" t="n">
-        <v>190.2</v>
+        <v>190</v>
       </c>
       <c r="F176" t="n">
-        <v>7831.6875</v>
+        <v>811.8953</v>
       </c>
       <c r="G176" t="n">
-        <v>-27208.44136003543</v>
+        <v>20841.23683996457</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7024,22 +7068,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>190.3</v>
+        <v>190.9</v>
       </c>
       <c r="C177" t="n">
-        <v>191.5</v>
+        <v>191</v>
       </c>
       <c r="D177" t="n">
-        <v>191.5</v>
+        <v>191</v>
       </c>
       <c r="E177" t="n">
-        <v>190.3</v>
+        <v>190.8</v>
       </c>
       <c r="F177" t="n">
-        <v>69.86422976501305</v>
+        <v>3933.305</v>
       </c>
       <c r="G177" t="n">
-        <v>-27138.57713027042</v>
+        <v>24774.54183996457</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7060,22 +7104,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>190.3</v>
+        <v>191</v>
       </c>
       <c r="C178" t="n">
-        <v>189.9</v>
+        <v>191</v>
       </c>
       <c r="D178" t="n">
-        <v>190.3</v>
+        <v>191</v>
       </c>
       <c r="E178" t="n">
-        <v>189.9</v>
+        <v>191</v>
       </c>
       <c r="F178" t="n">
-        <v>15681.9503</v>
+        <v>2766.8072</v>
       </c>
       <c r="G178" t="n">
-        <v>-42820.52743027042</v>
+        <v>24774.54183996457</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7096,22 +7140,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>190.2</v>
+        <v>191</v>
       </c>
       <c r="C179" t="n">
-        <v>192.7</v>
+        <v>191</v>
       </c>
       <c r="D179" t="n">
-        <v>192.7</v>
+        <v>191</v>
       </c>
       <c r="E179" t="n">
-        <v>190.2</v>
+        <v>191</v>
       </c>
       <c r="F179" t="n">
-        <v>7788.1125</v>
+        <v>751.8773</v>
       </c>
       <c r="G179" t="n">
-        <v>-35032.41493027042</v>
+        <v>24774.54183996457</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7132,22 +7176,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>192.2</v>
+        <v>191</v>
       </c>
       <c r="C180" t="n">
-        <v>192.2</v>
+        <v>190.9</v>
       </c>
       <c r="D180" t="n">
-        <v>192.2</v>
+        <v>191</v>
       </c>
       <c r="E180" t="n">
-        <v>192.2</v>
+        <v>190.9</v>
       </c>
       <c r="F180" t="n">
-        <v>5</v>
+        <v>471.8938</v>
       </c>
       <c r="G180" t="n">
-        <v>-35037.41493027042</v>
+        <v>24302.64803996457</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7168,22 +7212,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>191.3</v>
+        <v>190.9</v>
       </c>
       <c r="C181" t="n">
-        <v>191.5</v>
+        <v>190.9</v>
       </c>
       <c r="D181" t="n">
-        <v>191.5</v>
+        <v>190.9</v>
       </c>
       <c r="E181" t="n">
-        <v>191</v>
+        <v>190.9</v>
       </c>
       <c r="F181" t="n">
-        <v>40</v>
+        <v>59.7321</v>
       </c>
       <c r="G181" t="n">
-        <v>-35077.41493027042</v>
+        <v>24302.64803996457</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7204,22 +7248,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>191.6</v>
+        <v>190</v>
       </c>
       <c r="C182" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D182" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E182" t="n">
-        <v>191.6</v>
+        <v>190</v>
       </c>
       <c r="F182" t="n">
-        <v>35</v>
+        <v>1311.0874</v>
       </c>
       <c r="G182" t="n">
-        <v>-35042.41493027042</v>
+        <v>22991.56063996457</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7235,6 +7279,2562 @@
       </c>
       <c r="N182" t="inlineStr"/>
     </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>190</v>
+      </c>
+      <c r="C183" t="n">
+        <v>190</v>
+      </c>
+      <c r="D183" t="n">
+        <v>190</v>
+      </c>
+      <c r="E183" t="n">
+        <v>190</v>
+      </c>
+      <c r="F183" t="n">
+        <v>125.6142</v>
+      </c>
+      <c r="G183" t="n">
+        <v>22991.56063996457</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>190</v>
+      </c>
+      <c r="C184" t="n">
+        <v>189</v>
+      </c>
+      <c r="D184" t="n">
+        <v>190</v>
+      </c>
+      <c r="E184" t="n">
+        <v>189</v>
+      </c>
+      <c r="F184" t="n">
+        <v>173.2984</v>
+      </c>
+      <c r="G184" t="n">
+        <v>22818.26223996457</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>189</v>
+      </c>
+      <c r="C185" t="n">
+        <v>189</v>
+      </c>
+      <c r="D185" t="n">
+        <v>189</v>
+      </c>
+      <c r="E185" t="n">
+        <v>189</v>
+      </c>
+      <c r="F185" t="n">
+        <v>159.498</v>
+      </c>
+      <c r="G185" t="n">
+        <v>22818.26223996457</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>190</v>
+      </c>
+      <c r="C186" t="n">
+        <v>190</v>
+      </c>
+      <c r="D186" t="n">
+        <v>190</v>
+      </c>
+      <c r="E186" t="n">
+        <v>190</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4274.0542</v>
+      </c>
+      <c r="G186" t="n">
+        <v>27092.31643996456</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="C187" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="D187" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2878.4156</v>
+      </c>
+      <c r="G187" t="n">
+        <v>24213.90083996456</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>190</v>
+      </c>
+      <c r="C188" t="n">
+        <v>190</v>
+      </c>
+      <c r="D188" t="n">
+        <v>190</v>
+      </c>
+      <c r="E188" t="n">
+        <v>190</v>
+      </c>
+      <c r="F188" t="n">
+        <v>150</v>
+      </c>
+      <c r="G188" t="n">
+        <v>24363.90083996456</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>192</v>
+      </c>
+      <c r="C189" t="n">
+        <v>192</v>
+      </c>
+      <c r="D189" t="n">
+        <v>192</v>
+      </c>
+      <c r="E189" t="n">
+        <v>192</v>
+      </c>
+      <c r="F189" t="n">
+        <v>108.9886</v>
+      </c>
+      <c r="G189" t="n">
+        <v>24472.88943996457</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>192</v>
+      </c>
+      <c r="C190" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="D190" t="n">
+        <v>192</v>
+      </c>
+      <c r="E190" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6239.2326</v>
+      </c>
+      <c r="G190" t="n">
+        <v>18233.65683996457</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="C191" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="D191" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="E191" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19393.0186</v>
+      </c>
+      <c r="G191" t="n">
+        <v>37626.67543996457</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="C192" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="D192" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="E192" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2498.5754</v>
+      </c>
+      <c r="G192" t="n">
+        <v>35128.10003996456</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="D193" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="E193" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2168.154</v>
+      </c>
+      <c r="G193" t="n">
+        <v>35128.10003996456</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="C194" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="D194" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="E194" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1044.7684</v>
+      </c>
+      <c r="G194" t="n">
+        <v>35128.10003996456</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="C195" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="D195" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="E195" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="F195" t="n">
+        <v>605.61</v>
+      </c>
+      <c r="G195" t="n">
+        <v>35733.71003996456</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="C196" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="D196" t="n">
+        <v>191</v>
+      </c>
+      <c r="E196" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="F196" t="n">
+        <v>12531.3638</v>
+      </c>
+      <c r="G196" t="n">
+        <v>23202.34623996457</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="C197" t="n">
+        <v>192</v>
+      </c>
+      <c r="D197" t="n">
+        <v>192</v>
+      </c>
+      <c r="E197" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="F197" t="n">
+        <v>303</v>
+      </c>
+      <c r="G197" t="n">
+        <v>23505.34623996457</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>191</v>
+      </c>
+      <c r="C198" t="n">
+        <v>192</v>
+      </c>
+      <c r="D198" t="n">
+        <v>192</v>
+      </c>
+      <c r="E198" t="n">
+        <v>191</v>
+      </c>
+      <c r="F198" t="n">
+        <v>7078.0892</v>
+      </c>
+      <c r="G198" t="n">
+        <v>23505.34623996457</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>192</v>
+      </c>
+      <c r="C199" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="D199" t="n">
+        <v>192</v>
+      </c>
+      <c r="E199" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="F199" t="n">
+        <v>5258.2286</v>
+      </c>
+      <c r="G199" t="n">
+        <v>18247.11763996456</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="C200" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="D200" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="E200" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="F200" t="n">
+        <v>9432.677</v>
+      </c>
+      <c r="G200" t="n">
+        <v>18247.11763996456</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="C201" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E201" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>5</v>
+      </c>
+      <c r="G201" t="n">
+        <v>18252.11763996456</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="C202" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E202" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>48.0385</v>
+      </c>
+      <c r="G202" t="n">
+        <v>18252.11763996456</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="C203" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="F203" t="n">
+        <v>5</v>
+      </c>
+      <c r="G203" t="n">
+        <v>18252.11763996456</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="C204" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E204" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>5</v>
+      </c>
+      <c r="G204" t="n">
+        <v>18252.11763996456</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="C205" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D205" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E205" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1037.7545691906</v>
+      </c>
+      <c r="G205" t="n">
+        <v>18252.11763996456</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="C206" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="D206" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="E206" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1037.7546</v>
+      </c>
+      <c r="G206" t="n">
+        <v>17214.36303996456</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="C207" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D207" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E207" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="F207" t="n">
+        <v>6</v>
+      </c>
+      <c r="G207" t="n">
+        <v>17220.36303996456</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="C208" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="D208" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="E208" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="F208" t="n">
+        <v>6</v>
+      </c>
+      <c r="G208" t="n">
+        <v>17214.36303996456</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="C209" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="D209" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="E209" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="F209" t="n">
+        <v>3718.7121</v>
+      </c>
+      <c r="G209" t="n">
+        <v>13495.65093996456</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="C210" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="D210" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="E210" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="F210" t="n">
+        <v>880.466</v>
+      </c>
+      <c r="G210" t="n">
+        <v>13495.65093996456</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="C211" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="D211" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="E211" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1068.4815</v>
+      </c>
+      <c r="G211" t="n">
+        <v>13495.65093996456</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="C212" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D212" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E212" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3</v>
+      </c>
+      <c r="G212" t="n">
+        <v>13498.65093996456</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="C213" t="n">
+        <v>192</v>
+      </c>
+      <c r="D213" t="n">
+        <v>192</v>
+      </c>
+      <c r="E213" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="F213" t="n">
+        <v>5006</v>
+      </c>
+      <c r="G213" t="n">
+        <v>18504.65093996456</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>192</v>
+      </c>
+      <c r="C214" t="n">
+        <v>192</v>
+      </c>
+      <c r="D214" t="n">
+        <v>192</v>
+      </c>
+      <c r="E214" t="n">
+        <v>192</v>
+      </c>
+      <c r="F214" t="n">
+        <v>44</v>
+      </c>
+      <c r="G214" t="n">
+        <v>18504.65093996456</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>190</v>
+      </c>
+      <c r="C215" t="n">
+        <v>192</v>
+      </c>
+      <c r="D215" t="n">
+        <v>192</v>
+      </c>
+      <c r="E215" t="n">
+        <v>190</v>
+      </c>
+      <c r="F215" t="n">
+        <v>94.6765</v>
+      </c>
+      <c r="G215" t="n">
+        <v>18504.65093996456</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>192</v>
+      </c>
+      <c r="C216" t="n">
+        <v>192</v>
+      </c>
+      <c r="D216" t="n">
+        <v>192</v>
+      </c>
+      <c r="E216" t="n">
+        <v>192</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>18504.65093996456</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>192</v>
+      </c>
+      <c r="C217" t="n">
+        <v>192</v>
+      </c>
+      <c r="D217" t="n">
+        <v>192</v>
+      </c>
+      <c r="E217" t="n">
+        <v>192</v>
+      </c>
+      <c r="F217" t="n">
+        <v>110</v>
+      </c>
+      <c r="G217" t="n">
+        <v>18504.65093996456</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>192</v>
+      </c>
+      <c r="C218" t="n">
+        <v>192</v>
+      </c>
+      <c r="D218" t="n">
+        <v>192</v>
+      </c>
+      <c r="E218" t="n">
+        <v>192</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2.7778</v>
+      </c>
+      <c r="G218" t="n">
+        <v>18504.65093996456</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>6</v>
+      </c>
+      <c r="G219" t="n">
+        <v>18498.65093996456</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>192</v>
+      </c>
+      <c r="C220" t="n">
+        <v>192</v>
+      </c>
+      <c r="D220" t="n">
+        <v>192</v>
+      </c>
+      <c r="E220" t="n">
+        <v>192</v>
+      </c>
+      <c r="F220" t="n">
+        <v>6</v>
+      </c>
+      <c r="G220" t="n">
+        <v>18504.65093996456</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>192</v>
+      </c>
+      <c r="C221" t="n">
+        <v>192</v>
+      </c>
+      <c r="D221" t="n">
+        <v>192</v>
+      </c>
+      <c r="E221" t="n">
+        <v>192</v>
+      </c>
+      <c r="F221" t="n">
+        <v>9.4513</v>
+      </c>
+      <c r="G221" t="n">
+        <v>18504.65093996456</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>191</v>
+      </c>
+      <c r="C222" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>191</v>
+      </c>
+      <c r="E222" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>150</v>
+      </c>
+      <c r="G222" t="n">
+        <v>18354.65093996456</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>191</v>
+      </c>
+      <c r="C223" t="n">
+        <v>191</v>
+      </c>
+      <c r="D223" t="n">
+        <v>191</v>
+      </c>
+      <c r="E223" t="n">
+        <v>191</v>
+      </c>
+      <c r="F223" t="n">
+        <v>76.8322</v>
+      </c>
+      <c r="G223" t="n">
+        <v>18431.48313996456</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>193.2</v>
+      </c>
+      <c r="C224" t="n">
+        <v>193.2</v>
+      </c>
+      <c r="D224" t="n">
+        <v>193.2</v>
+      </c>
+      <c r="E224" t="n">
+        <v>193.2</v>
+      </c>
+      <c r="F224" t="n">
+        <v>6</v>
+      </c>
+      <c r="G224" t="n">
+        <v>18437.48313996456</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>193.2</v>
+      </c>
+      <c r="C225" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>196</v>
+      </c>
+      <c r="E225" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="F225" t="n">
+        <v>14632.8762</v>
+      </c>
+      <c r="G225" t="n">
+        <v>3804.606939964562</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="C226" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="D226" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="E226" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="F226" t="n">
+        <v>101.677</v>
+      </c>
+      <c r="G226" t="n">
+        <v>3906.283939964562</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="C227" t="n">
+        <v>192</v>
+      </c>
+      <c r="D227" t="n">
+        <v>192</v>
+      </c>
+      <c r="E227" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>990</v>
+      </c>
+      <c r="G227" t="n">
+        <v>2916.283939964562</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2304.1857</v>
+      </c>
+      <c r="G228" t="n">
+        <v>612.0982399645623</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="C229" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="D229" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="E229" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="F229" t="n">
+        <v>153.93</v>
+      </c>
+      <c r="G229" t="n">
+        <v>766.0282399645623</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="C230" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="E230" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1089.2303</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-323.2020600354376</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="C231" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="E231" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="F231" t="n">
+        <v>5</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-318.2020600354376</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="C232" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="D232" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="E232" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="F232" t="n">
+        <v>4.9055</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-313.2965600354376</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="C233" t="n">
+        <v>191</v>
+      </c>
+      <c r="D233" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="E233" t="n">
+        <v>191</v>
+      </c>
+      <c r="F233" t="n">
+        <v>11471.1445</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-11784.44106003544</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>192.1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>192.1</v>
+      </c>
+      <c r="D234" t="n">
+        <v>192.1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>192.1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>72.62179999999999</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-11711.81926003544</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>192</v>
+      </c>
+      <c r="C235" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="D235" t="n">
+        <v>192</v>
+      </c>
+      <c r="E235" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="F235" t="n">
+        <v>182.4142</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-11894.23346003544</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>192</v>
+      </c>
+      <c r="C236" t="n">
+        <v>192</v>
+      </c>
+      <c r="D236" t="n">
+        <v>192</v>
+      </c>
+      <c r="E236" t="n">
+        <v>192</v>
+      </c>
+      <c r="F236" t="n">
+        <v>6588.4278</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-5305.805660035437</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="D237" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2628.6163</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-7934.421960035437</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="C238" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="D238" t="n">
+        <v>191</v>
+      </c>
+      <c r="E238" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2368.6501</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-10303.07206003544</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="C239" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="D239" t="n">
+        <v>192</v>
+      </c>
+      <c r="E239" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="F239" t="n">
+        <v>64</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-10303.07206003544</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="C240" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="D240" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="E240" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="F240" t="n">
+        <v>15</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-10303.07206003544</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="C241" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="D241" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="E241" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="F241" t="n">
+        <v>5</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-10303.07206003544</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="C242" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="E242" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1689.5135</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-10303.07206003544</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="C243" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="E243" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>25027.2385</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-35330.31056003543</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>190</v>
+      </c>
+      <c r="C244" t="n">
+        <v>190</v>
+      </c>
+      <c r="D244" t="n">
+        <v>190</v>
+      </c>
+      <c r="E244" t="n">
+        <v>190</v>
+      </c>
+      <c r="F244" t="n">
+        <v>359.6523</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-35689.96286003543</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>190</v>
+      </c>
+      <c r="C245" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="D245" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="E245" t="n">
+        <v>190</v>
+      </c>
+      <c r="F245" t="n">
+        <v>12292.25</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-23397.71286003543</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="C246" t="n">
+        <v>191</v>
+      </c>
+      <c r="D246" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="E246" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>4020.959</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-19376.75386003543</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>191</v>
+      </c>
+      <c r="C247" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="D247" t="n">
+        <v>191</v>
+      </c>
+      <c r="E247" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="F247" t="n">
+        <v>7831.6875</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-27208.44136003543</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="C248" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E248" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="F248" t="n">
+        <v>69.86422976501305</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-27138.57713027042</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="C249" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="D249" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="E249" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="F249" t="n">
+        <v>15681.9503</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-42820.52743027042</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="C250" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="D250" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="E250" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="F250" t="n">
+        <v>7788.1125</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-35032.41493027042</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="C251" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="D251" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="E251" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="F251" t="n">
+        <v>5</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-35037.41493027042</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="C252" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D252" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E252" t="n">
+        <v>191</v>
+      </c>
+      <c r="F252" t="n">
+        <v>40</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-35077.41493027042</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="C253" t="n">
+        <v>192</v>
+      </c>
+      <c r="D253" t="n">
+        <v>192</v>
+      </c>
+      <c r="E253" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="F253" t="n">
+        <v>35</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-35042.41493027042</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-19 BackTest AE.xlsx
+++ b/BackTest/2020-01-19 BackTest AE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N253"/>
+  <dimension ref="A1:M253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,21 @@
         <v>-92630.02299406202</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>183.5</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2272,21 @@
         <v>-100623.721494062</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>183.5</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2311,21 @@
         <v>-110740.844694062</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2350,21 @@
         <v>-110645.157494062</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>182.2</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2389,21 @@
         <v>-109922.842294062</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>183.1</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,22 +2428,21 @@
         <v>-109919.842294062</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
         <v>183.2</v>
       </c>
-      <c r="K61" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2620,26 +2467,19 @@
         <v>-115468.430094062</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K62" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2664,26 +2504,19 @@
         <v>-115465.430094062</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="K63" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2708,22 +2541,19 @@
         <v>-117135.008494062</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="K64" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2748,24 +2578,21 @@
         <v>-117132.208494062</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>183.9</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2790,24 +2617,21 @@
         <v>-117132.208494062</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>184.9</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2834,16 +2658,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2870,16 +2695,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2904,18 +2730,21 @@
         <v>-119894.668494062</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>183.8</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2942,16 +2771,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2976,18 +2806,21 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>182.1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3012,22 +2845,21 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
         <v>182.1</v>
       </c>
-      <c r="K72" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3052,26 +2884,21 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
         <v>182.1</v>
       </c>
-      <c r="K73" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3096,26 +2923,21 @@
         <v>-125042.051794062</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
         <v>182.1</v>
       </c>
-      <c r="K74" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3140,22 +2962,21 @@
         <v>-125039.051794062</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
         <v>182</v>
       </c>
-      <c r="K75" t="n">
-        <v>182</v>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3180,26 +3001,21 @@
         <v>-124739.051794062</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
         <v>183</v>
       </c>
-      <c r="K76" t="n">
-        <v>182</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3224,26 +3040,21 @@
         <v>-124739.051794062</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
         <v>183.9</v>
       </c>
-      <c r="K77" t="n">
-        <v>182</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3268,22 +3079,21 @@
         <v>-121622.7545794684</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
         <v>183.9</v>
       </c>
-      <c r="K78" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3308,26 +3118,21 @@
         <v>-126622.7545959186</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
         <v>184.8</v>
       </c>
-      <c r="K79" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3352,26 +3157,21 @@
         <v>-126617.8756959186</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
         <v>183.9</v>
       </c>
-      <c r="K80" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3396,26 +3196,21 @@
         <v>-126617.8756959186</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
         <v>184.9</v>
       </c>
-      <c r="K81" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3440,26 +3235,21 @@
         <v>-126617.8756959186</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
         <v>184.9</v>
       </c>
-      <c r="K82" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3484,26 +3274,21 @@
         <v>-128297.0356959186</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
         <v>184.9</v>
       </c>
-      <c r="K83" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3528,26 +3313,21 @@
         <v>-128293.0356959186</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
         <v>183.1</v>
       </c>
-      <c r="K84" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3572,26 +3352,21 @@
         <v>-107943.6777959186</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
         <v>185</v>
       </c>
-      <c r="K85" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3616,24 +3391,21 @@
         <v>-184352.1858959186</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>188.3</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3660,22 +3432,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3702,22 +3469,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3744,22 +3506,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3786,22 +3543,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3828,22 +3580,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3870,22 +3617,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3912,22 +3654,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3954,22 +3691,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3996,22 +3728,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4038,22 +3765,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4080,22 +3802,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4122,22 +3839,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4164,22 +3876,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4206,22 +3913,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4248,22 +3950,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4290,22 +3987,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4332,22 +4024,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4374,22 +4061,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4416,22 +4098,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4458,22 +4135,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4500,22 +4172,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4542,22 +4209,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4584,22 +4246,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4626,22 +4283,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4668,22 +4320,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4710,22 +4357,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4752,22 +4394,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4794,22 +4431,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4836,22 +4468,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4878,22 +4505,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4920,24 +4542,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1.154869494290375</v>
-      </c>
-      <c r="N117" t="n">
-        <v>1.071428571428571</v>
-      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4964,16 +4579,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5000,16 +4616,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5036,16 +4653,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5072,16 +4690,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5108,16 +4727,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5144,16 +4764,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5180,16 +4801,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5216,16 +4838,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5252,16 +4875,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5288,16 +4912,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5324,16 +4949,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5360,16 +4986,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5396,16 +5023,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5432,16 +5060,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5468,16 +5097,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5504,16 +5134,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5540,16 +5171,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5576,16 +5208,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5612,16 +5245,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5648,16 +5282,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5684,16 +5319,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5720,16 +5356,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5756,16 +5393,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5792,16 +5430,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5828,16 +5467,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5864,16 +5504,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5900,16 +5541,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5936,16 +5578,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5972,16 +5615,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6008,16 +5652,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6044,16 +5689,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6080,16 +5726,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6114,18 +5761,19 @@
         <v>76231.75453996458</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6150,18 +5798,19 @@
         <v>87236.25483996457</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6186,18 +5835,19 @@
         <v>88536.25483996457</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6222,18 +5872,19 @@
         <v>71422.12043996458</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6258,18 +5909,19 @@
         <v>71038.63563996457</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6294,18 +5946,19 @@
         <v>71038.63563996457</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6330,18 +5983,19 @@
         <v>71038.63563996457</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6366,18 +6020,19 @@
         <v>54189.84283996458</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6404,16 +6059,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6440,16 +6096,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6476,16 +6133,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6510,18 +6168,19 @@
         <v>49716.04163996457</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6548,16 +6207,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6584,16 +6244,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6620,16 +6281,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6656,16 +6318,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6692,16 +6355,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6728,16 +6392,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6764,16 +6429,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6800,16 +6466,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6836,16 +6503,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6872,16 +6540,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6908,16 +6577,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6944,16 +6614,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6980,16 +6651,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7016,16 +6688,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7052,16 +6725,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7088,16 +6762,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7124,16 +6799,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7160,16 +6836,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7196,16 +6873,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7232,16 +6910,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7268,16 +6947,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7304,16 +6984,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7340,16 +7021,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7376,16 +7058,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7412,16 +7095,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7448,16 +7132,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7484,16 +7169,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7518,18 +7204,17 @@
         <v>24472.88943996457</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7554,18 +7239,15 @@
         <v>18233.65683996457</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7590,18 +7272,15 @@
         <v>37626.67543996457</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7626,18 +7305,15 @@
         <v>35128.10003996456</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7664,16 +7340,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7700,16 +7373,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7736,16 +7406,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7772,16 +7439,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7808,16 +7472,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7842,18 +7503,15 @@
         <v>23505.34623996457</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7878,18 +7536,15 @@
         <v>18247.11763996456</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7914,18 +7569,15 @@
         <v>18247.11763996456</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7950,18 +7602,15 @@
         <v>18252.11763996456</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7988,16 +7637,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8024,16 +7670,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8058,18 +7701,15 @@
         <v>18252.11763996456</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8096,16 +7736,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8132,16 +7769,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8168,16 +7802,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8204,16 +7835,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8238,18 +7866,15 @@
         <v>13495.65093996456</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8274,18 +7899,15 @@
         <v>13495.65093996456</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8310,18 +7932,15 @@
         <v>13495.65093996456</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8346,18 +7965,15 @@
         <v>13498.65093996456</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8382,18 +7998,15 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8418,18 +8031,15 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8454,18 +8064,15 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8490,18 +8097,15 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8526,18 +8130,15 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8562,18 +8163,15 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8598,18 +8196,15 @@
         <v>18498.65093996456</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8634,18 +8229,15 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8670,18 +8262,15 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8706,18 +8295,15 @@
         <v>18354.65093996456</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8742,18 +8328,15 @@
         <v>18431.48313996456</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8778,18 +8361,15 @@
         <v>18437.48313996456</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8814,18 +8394,15 @@
         <v>3804.606939964562</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8850,18 +8427,15 @@
         <v>3906.283939964562</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8886,18 +8460,15 @@
         <v>2916.283939964562</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8922,18 +8493,15 @@
         <v>612.0982399645623</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8958,18 +8526,15 @@
         <v>766.0282399645623</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8994,18 +8559,15 @@
         <v>-323.2020600354376</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9030,18 +8592,15 @@
         <v>-318.2020600354376</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9066,18 +8625,15 @@
         <v>-313.2965600354376</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9102,18 +8658,15 @@
         <v>-11784.44106003544</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9138,18 +8691,15 @@
         <v>-11711.81926003544</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9174,18 +8724,15 @@
         <v>-11894.23346003544</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9210,18 +8757,15 @@
         <v>-5305.805660035437</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9246,18 +8790,15 @@
         <v>-7934.421960035437</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9282,18 +8823,15 @@
         <v>-10303.07206003544</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9318,18 +8856,15 @@
         <v>-10303.07206003544</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9356,16 +8891,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9392,16 +8924,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9428,16 +8957,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9462,18 +8988,15 @@
         <v>-35330.31056003543</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9498,18 +9021,15 @@
         <v>-35689.96286003543</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9534,18 +9054,15 @@
         <v>-23397.71286003543</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9570,18 +9087,15 @@
         <v>-19376.75386003543</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9606,18 +9120,15 @@
         <v>-27208.44136003543</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9642,18 +9153,15 @@
         <v>-27138.57713027042</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9680,16 +9188,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9716,16 +9221,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9750,18 +9252,15 @@
         <v>-35037.41493027042</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9786,18 +9285,15 @@
         <v>-35077.41493027042</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9824,18 +9320,15 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest AE.xlsx
+++ b/BackTest/2020-01-19 BackTest AE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2167,11 +2167,17 @@
         <v>-94523.75629406203</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>183.5</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2210,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,15 +2243,13 @@
         <v>-92630.02299406202</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>183.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2272,11 +2280,9 @@
         <v>-100623.721494062</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>183.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2311,11 +2317,9 @@
         <v>-110740.844694062</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2350,7 +2354,7 @@
         <v>-110645.157494062</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>182.2</v>
@@ -2389,7 +2393,7 @@
         <v>-109922.842294062</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>183.1</v>
@@ -2428,7 +2432,7 @@
         <v>-109919.842294062</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>183.2</v>
@@ -2467,9 +2471,11 @@
         <v>-115468.430094062</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>184.9</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2504,9 +2510,11 @@
         <v>-115465.430094062</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>183.2</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2541,9 +2549,11 @@
         <v>-117135.008494062</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>184.9</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2578,7 +2588,7 @@
         <v>-117132.208494062</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>183.9</v>
@@ -2617,7 +2627,7 @@
         <v>-117132.208494062</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>184.9</v>
@@ -2656,9 +2666,11 @@
         <v>-117132.208494062</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>184.9</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2730,7 +2742,7 @@
         <v>-119894.668494062</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>183.8</v>
@@ -2806,11 +2818,9 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>182.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -2845,7 +2855,7 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>182.1</v>
@@ -2884,7 +2894,7 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>182.1</v>
@@ -2923,7 +2933,7 @@
         <v>-125042.051794062</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>182.1</v>
@@ -2962,7 +2972,7 @@
         <v>-125039.051794062</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>182</v>
@@ -3001,7 +3011,7 @@
         <v>-124739.051794062</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>183</v>
@@ -3040,7 +3050,7 @@
         <v>-124739.051794062</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>183.9</v>
@@ -3079,7 +3089,7 @@
         <v>-121622.7545794684</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>183.9</v>
@@ -3118,7 +3128,7 @@
         <v>-126622.7545959186</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>184.8</v>
@@ -3157,7 +3167,7 @@
         <v>-126617.8756959186</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>183.9</v>
@@ -3196,7 +3206,7 @@
         <v>-126617.8756959186</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>184.9</v>
@@ -3235,7 +3245,7 @@
         <v>-126617.8756959186</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>184.9</v>
@@ -3274,7 +3284,7 @@
         <v>-128297.0356959186</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>184.9</v>
@@ -3313,7 +3323,7 @@
         <v>-128293.0356959186</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>183.1</v>
@@ -3352,7 +3362,7 @@
         <v>-107943.6777959186</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>185</v>
@@ -3391,11 +3401,9 @@
         <v>-184352.1858959186</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>188.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -4910,18 +4918,16 @@
         <v>59050.29453996456</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -4947,15 +4953,11 @@
         <v>60120.29573996456</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4984,15 +4986,11 @@
         <v>60120.29573996456</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5025,11 +5023,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5058,15 +5052,11 @@
         <v>74009.22833996457</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5095,15 +5085,11 @@
         <v>73969.22833996457</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5132,15 +5118,11 @@
         <v>72723.17283996457</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5169,15 +5151,11 @@
         <v>72774.00013996457</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5206,15 +5184,11 @@
         <v>66373.09213996457</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5243,15 +5217,11 @@
         <v>72073.09213996457</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5280,15 +5250,11 @@
         <v>73526.32833996457</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5317,15 +5283,11 @@
         <v>63977.66513996457</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5354,15 +5316,11 @@
         <v>58124.71633996457</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5395,11 +5353,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5428,15 +5382,11 @@
         <v>86483.48633996457</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5465,15 +5415,11 @@
         <v>76439.86273996456</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5506,11 +5452,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5539,15 +5481,11 @@
         <v>52342.47863996457</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5576,15 +5514,11 @@
         <v>50822.86013996457</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5613,15 +5547,11 @@
         <v>64964.72713996457</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5650,15 +5580,11 @@
         <v>57131.65003996457</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5687,15 +5613,11 @@
         <v>56880.35083996457</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5724,15 +5646,11 @@
         <v>43084.75193996457</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5761,15 +5679,11 @@
         <v>76231.75453996458</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5798,15 +5712,11 @@
         <v>87236.25483996457</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5835,15 +5745,11 @@
         <v>88536.25483996457</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5872,15 +5778,11 @@
         <v>71422.12043996458</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5909,15 +5811,11 @@
         <v>71038.63563996457</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5946,15 +5844,11 @@
         <v>71038.63563996457</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5983,15 +5877,11 @@
         <v>71038.63563996457</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6020,15 +5910,11 @@
         <v>54189.84283996458</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6057,15 +5943,11 @@
         <v>42052.81493996458</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6094,15 +5976,11 @@
         <v>44475.72773996458</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6131,15 +6009,11 @@
         <v>51308.24773996457</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6168,15 +6042,11 @@
         <v>49716.04163996457</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6205,15 +6075,11 @@
         <v>43362.39433996457</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6242,15 +6108,11 @@
         <v>44940.40933996457</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6279,15 +6141,11 @@
         <v>44369.59913996457</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6320,11 +6178,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6357,11 +6211,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6394,11 +6244,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6431,11 +6277,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6468,11 +6310,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6505,11 +6343,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6542,11 +6376,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6579,11 +6409,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6616,11 +6442,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6653,11 +6475,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6690,11 +6508,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6727,11 +6541,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6764,11 +6574,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6801,11 +6607,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6838,11 +6640,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6875,11 +6673,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6912,11 +6706,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6949,11 +6739,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6986,11 +6772,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7023,11 +6805,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7060,11 +6838,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7097,11 +6871,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7134,11 +6904,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7171,11 +6937,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7204,16 +6966,14 @@
         <v>24472.88943996457</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
       <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
@@ -7239,7 +6999,7 @@
         <v>18233.65683996457</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7272,7 +7032,7 @@
         <v>37626.67543996457</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7305,7 +7065,7 @@
         <v>35128.10003996456</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7503,7 +7263,7 @@
         <v>23505.34623996457</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7536,7 +7296,7 @@
         <v>18247.11763996456</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7569,7 +7329,7 @@
         <v>18247.11763996456</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7602,7 +7362,7 @@
         <v>18252.11763996456</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7701,7 +7461,7 @@
         <v>18252.11763996456</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7866,7 +7626,7 @@
         <v>13495.65093996456</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7899,7 +7659,7 @@
         <v>13495.65093996456</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7932,7 +7692,7 @@
         <v>13495.65093996456</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7965,7 +7725,7 @@
         <v>13498.65093996456</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7998,7 +7758,7 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8031,7 +7791,7 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8064,7 +7824,7 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8097,7 +7857,7 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8130,7 +7890,7 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8163,7 +7923,7 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8196,7 +7956,7 @@
         <v>18498.65093996456</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8229,7 +7989,7 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8262,7 +8022,7 @@
         <v>18504.65093996456</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8295,7 +8055,7 @@
         <v>18354.65093996456</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8328,7 +8088,7 @@
         <v>18431.48313996456</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8361,7 +8121,7 @@
         <v>18437.48313996456</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8394,7 +8154,7 @@
         <v>3804.606939964562</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8427,7 +8187,7 @@
         <v>3906.283939964562</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8460,7 +8220,7 @@
         <v>2916.283939964562</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8493,7 +8253,7 @@
         <v>612.0982399645623</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8526,7 +8286,7 @@
         <v>766.0282399645623</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8559,7 +8319,7 @@
         <v>-323.2020600354376</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8592,7 +8352,7 @@
         <v>-318.2020600354376</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8625,7 +8385,7 @@
         <v>-313.2965600354376</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8658,7 +8418,7 @@
         <v>-11784.44106003544</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8691,7 +8451,7 @@
         <v>-11711.81926003544</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8724,7 +8484,7 @@
         <v>-11894.23346003544</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8757,7 +8517,7 @@
         <v>-5305.805660035437</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8790,7 +8550,7 @@
         <v>-7934.421960035437</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8823,7 +8583,7 @@
         <v>-10303.07206003544</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8856,7 +8616,7 @@
         <v>-10303.07206003544</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8988,7 +8748,7 @@
         <v>-35330.31056003543</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9021,7 +8781,7 @@
         <v>-35689.96286003543</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9054,7 +8814,7 @@
         <v>-23397.71286003543</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9087,7 +8847,7 @@
         <v>-19376.75386003543</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9120,7 +8880,7 @@
         <v>-27208.44136003543</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9153,7 +8913,7 @@
         <v>-27138.57713027042</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9252,7 +9012,7 @@
         <v>-35037.41493027042</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9285,7 +9045,7 @@
         <v>-35077.41493027042</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9329,6 +9089,6 @@
       <c r="M253" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest AE.xlsx
+++ b/BackTest/2020-01-19 BackTest AE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2167,629 +2167,545 @@
         <v>-94523.75629406203</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>183.5</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+      <c r="C55" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1893.7333</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-92630.02299406202</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>184</v>
+      </c>
+      <c r="E56" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>11433.3802</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-92630.02299406202</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>183</v>
+      </c>
+      <c r="D57" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>183</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7993.6985</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-100623.721494062</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>185</v>
+      </c>
+      <c r="C58" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>185</v>
+      </c>
+      <c r="E58" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10117.1232</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-110740.844694062</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>95.6872</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-110645.157494062</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>722.3152</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-109922.842294062</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D61" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E61" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-109919.842294062</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5548.5878</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-115468.430094062</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C63" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D63" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-115465.430094062</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D64" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E64" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1669.5784</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-117135.008494062</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E65" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-117132.208494062</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C66" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D66" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E66" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2104.8567</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-117132.208494062</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C67" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D67" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E67" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>21559.8105</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-117132.208494062</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="C68" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1960</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-119092.208494062</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="E69" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>802.46</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-119894.668494062</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-124894.668494062</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="C55" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="D55" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="E55" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1893.7333</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-92630.02299406202</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="C56" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="D56" t="n">
-        <v>184</v>
-      </c>
-      <c r="E56" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="F56" t="n">
-        <v>11433.3802</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-92630.02299406202</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>183</v>
-      </c>
-      <c r="D57" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>183</v>
-      </c>
-      <c r="F57" t="n">
-        <v>7993.6985</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-100623.721494062</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>185</v>
-      </c>
-      <c r="C58" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="D58" t="n">
-        <v>185</v>
-      </c>
-      <c r="E58" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="F58" t="n">
-        <v>10117.1232</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-110740.844694062</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="E59" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="F59" t="n">
-        <v>95.6872</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-110645.157494062</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="C60" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="D60" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="E60" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="F60" t="n">
-        <v>722.3152</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-109922.842294062</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="C61" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D61" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E61" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-109919.842294062</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="D62" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="E62" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5548.5878</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-115468.430094062</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="C63" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D63" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E63" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-115465.430094062</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="C64" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D64" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E64" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1669.5784</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-117135.008494062</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="C65" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D65" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E65" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-117132.208494062</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="C66" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D66" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E66" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2104.8567</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-117132.208494062</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="C67" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="D67" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E67" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="F67" t="n">
-        <v>21559.8105</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-117132.208494062</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="C68" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="D68" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="E68" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1960</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-119092.208494062</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="C69" t="n">
-        <v>182.3</v>
-      </c>
-      <c r="D69" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="E69" t="n">
-        <v>182.3</v>
-      </c>
-      <c r="F69" t="n">
-        <v>802.46</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-119894.668494062</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="C70" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="E70" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-124894.668494062</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2818,9 +2734,11 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>182.1</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3401,9 +3319,11 @@
         <v>-184352.1858959186</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>188.3</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -4844,18 +4764,16 @@
         <v>75321.87403996456</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -4881,15 +4799,11 @@
         <v>62120.29573996456</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4922,12 +4836,10 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
       <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -5052,7 +4964,7 @@
         <v>74009.22833996457</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5085,7 +4997,7 @@
         <v>73969.22833996457</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5118,7 +5030,7 @@
         <v>72723.17283996457</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5151,7 +5063,7 @@
         <v>72774.00013996457</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5184,7 +5096,7 @@
         <v>66373.09213996457</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5217,7 +5129,7 @@
         <v>72073.09213996457</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5250,7 +5162,7 @@
         <v>73526.32833996457</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5283,7 +5195,7 @@
         <v>63977.66513996457</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5316,7 +5228,7 @@
         <v>58124.71633996457</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5382,7 +5294,7 @@
         <v>86483.48633996457</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5415,7 +5327,7 @@
         <v>76439.86273996456</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5481,7 +5393,7 @@
         <v>52342.47863996457</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5514,7 +5426,7 @@
         <v>50822.86013996457</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5547,7 +5459,7 @@
         <v>64964.72713996457</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5580,7 +5492,7 @@
         <v>57131.65003996457</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5613,7 +5525,7 @@
         <v>56880.35083996457</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5646,7 +5558,7 @@
         <v>43084.75193996457</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5679,7 +5591,7 @@
         <v>76231.75453996458</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5712,7 +5624,7 @@
         <v>87236.25483996457</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5745,7 +5657,7 @@
         <v>88536.25483996457</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5778,7 +5690,7 @@
         <v>71422.12043996458</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5811,7 +5723,7 @@
         <v>71038.63563996457</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5844,7 +5756,7 @@
         <v>71038.63563996457</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5877,7 +5789,7 @@
         <v>71038.63563996457</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5910,7 +5822,7 @@
         <v>54189.84283996458</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5943,7 +5855,7 @@
         <v>42052.81493996458</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5976,7 +5888,7 @@
         <v>44475.72773996458</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6009,7 +5921,7 @@
         <v>51308.24773996457</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6042,7 +5954,7 @@
         <v>49716.04163996457</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6075,7 +5987,7 @@
         <v>43362.39433996457</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6108,7 +6020,7 @@
         <v>44940.40933996457</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6141,7 +6053,7 @@
         <v>44369.59913996457</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -9089,6 +9001,6 @@
       <c r="M253" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest AE.xlsx
+++ b/BackTest/2020-01-19 BackTest AE.xlsx
@@ -2695,368 +2695,348 @@
         <v>-124894.668494062</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>182.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>25.136</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-124894.668494062</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1060</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-124894.668494062</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>147.3833</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-124894.668494062</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>182</v>
+      </c>
+      <c r="C74" t="n">
+        <v>182</v>
+      </c>
+      <c r="D74" t="n">
+        <v>182</v>
+      </c>
+      <c r="E74" t="n">
+        <v>182</v>
+      </c>
+      <c r="F74" t="n">
+        <v>147.3833</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-125042.051794062</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>183</v>
+      </c>
+      <c r="C75" t="n">
+        <v>183</v>
+      </c>
+      <c r="D75" t="n">
+        <v>183</v>
+      </c>
+      <c r="E75" t="n">
+        <v>183</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-125039.051794062</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>182</v>
+      </c>
+      <c r="J75" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>183</v>
+      </c>
+      <c r="C76" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D76" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E76" t="n">
+        <v>183</v>
+      </c>
+      <c r="F76" t="n">
+        <v>300</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-124739.051794062</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>183</v>
+      </c>
+      <c r="J76" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="C77" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D77" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="E77" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3326.9185</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-124739.051794062</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="J77" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="C78" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="E78" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3116.297214593591</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-121622.7545794684</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="C79" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="E79" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5000.000016450216</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-126622.7545959186</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="J79" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="F71" t="n">
-        <v>25.136</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-124894.668494062</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1060</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-124894.668494062</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="E73" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="F73" t="n">
-        <v>147.3833</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-124894.668494062</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>182</v>
-      </c>
-      <c r="C74" t="n">
-        <v>182</v>
-      </c>
-      <c r="D74" t="n">
-        <v>182</v>
-      </c>
-      <c r="E74" t="n">
-        <v>182</v>
-      </c>
-      <c r="F74" t="n">
-        <v>147.3833</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-125042.051794062</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>183</v>
-      </c>
-      <c r="C75" t="n">
-        <v>183</v>
-      </c>
-      <c r="D75" t="n">
-        <v>183</v>
-      </c>
-      <c r="E75" t="n">
-        <v>183</v>
-      </c>
-      <c r="F75" t="n">
-        <v>3</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-125039.051794062</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>182</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>183</v>
-      </c>
-      <c r="C76" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D76" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E76" t="n">
-        <v>183</v>
-      </c>
-      <c r="F76" t="n">
-        <v>300</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-124739.051794062</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>183</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="C77" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D77" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="E77" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F77" t="n">
-        <v>3326.9185</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-124739.051794062</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="C78" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="D78" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="E78" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="F78" t="n">
-        <v>3116.297214593591</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-121622.7545794684</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="C79" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="D79" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="E79" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="F79" t="n">
-        <v>5000.000016450216</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-126622.7545959186</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3090,7 +3070,9 @@
       <c r="I80" t="n">
         <v>183.9</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3129,7 +3111,9 @@
       <c r="I81" t="n">
         <v>184.9</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,7 +3152,9 @@
       <c r="I82" t="n">
         <v>184.9</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3207,7 +3193,9 @@
       <c r="I83" t="n">
         <v>184.9</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3246,7 +3234,9 @@
       <c r="I84" t="n">
         <v>183.1</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,7 +3275,9 @@
       <c r="I85" t="n">
         <v>185</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3319,12 +3311,12 @@
         <v>-184352.1858959186</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>188.3</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3361,7 +3353,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3398,7 +3392,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3435,7 +3431,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,7 +3470,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3509,7 +3509,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3546,7 +3548,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3583,7 +3587,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3620,7 +3626,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3657,7 +3665,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3694,7 +3704,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3731,7 +3743,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3768,7 +3782,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3805,7 +3821,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3842,7 +3860,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3879,7 +3899,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3916,7 +3938,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3953,7 +3977,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3990,7 +4016,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4027,7 +4055,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4064,7 +4094,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4101,7 +4133,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4138,7 +4172,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4175,7 +4211,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4212,7 +4250,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4249,7 +4289,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4283,19 +4325,23 @@
         <v>81911.10665727578</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>183.9</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>1.182601957585645</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.071428571428571</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4320,15 +4366,11 @@
         <v>77176.41055727578</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4357,15 +4399,11 @@
         <v>78949.98045727579</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4394,15 +4432,11 @@
         <v>89358.72313996455</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4431,15 +4465,11 @@
         <v>83902.09663996455</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4468,15 +4498,11 @@
         <v>83902.09663996455</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4505,15 +4531,11 @@
         <v>83902.09663996455</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4542,15 +4564,11 @@
         <v>82911.09663996455</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4579,15 +4597,11 @@
         <v>82387.30593996456</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4616,15 +4630,11 @@
         <v>81229.47143996456</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4657,11 +4667,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4694,11 +4700,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4731,11 +4733,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4764,16 +4762,14 @@
         <v>75321.87403996456</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
       <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -4799,7 +4795,7 @@
         <v>62120.29573996456</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4832,7 +4828,7 @@
         <v>59050.29453996456</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4865,7 +4861,7 @@
         <v>60120.29573996456</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4898,7 +4894,7 @@
         <v>60120.29573996456</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>

--- a/BackTest/2020-01-19 BackTest AE.xlsx
+++ b/BackTest/2020-01-19 BackTest AE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:L253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1750.5612</v>
       </c>
       <c r="G2" t="n">
-        <v>-27934.24229406203</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>23244.5478</v>
       </c>
       <c r="G3" t="n">
-        <v>-51178.79009406203</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6284.5031</v>
       </c>
       <c r="G4" t="n">
-        <v>-44894.28699406203</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>44.2151</v>
       </c>
       <c r="G5" t="n">
-        <v>-44938.50209406203</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>14.3743</v>
       </c>
       <c r="G6" t="n">
-        <v>-44924.12779406203</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>45.6789</v>
       </c>
       <c r="G7" t="n">
-        <v>-44969.80669406203</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>8443.331700000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-53413.13839406203</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>5623.0359</v>
       </c>
       <c r="G9" t="n">
-        <v>-47790.10249406203</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>5163.4233</v>
       </c>
       <c r="G10" t="n">
-        <v>-47790.10249406203</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>3258.6982</v>
       </c>
       <c r="G11" t="n">
-        <v>-47790.10249406203</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>5.778</v>
       </c>
       <c r="G12" t="n">
-        <v>-47795.88049406202</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>174.5222</v>
       </c>
       <c r="G13" t="n">
-        <v>-47795.88049406202</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>5802.8561</v>
       </c>
       <c r="G14" t="n">
-        <v>-47795.88049406202</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>180</v>
       </c>
       <c r="G15" t="n">
-        <v>-47795.88049406202</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>7030.4857</v>
       </c>
       <c r="G16" t="n">
-        <v>-40765.39479406203</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2204.6789</v>
       </c>
       <c r="G17" t="n">
-        <v>-38560.71589406203</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3699.5212</v>
       </c>
       <c r="G18" t="n">
-        <v>-42260.23709406203</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2318.5537</v>
       </c>
       <c r="G19" t="n">
-        <v>-42260.23709406203</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2255.851</v>
       </c>
       <c r="G20" t="n">
-        <v>-42260.23709406203</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>5134.3471</v>
       </c>
       <c r="G21" t="n">
-        <v>-37125.88999406203</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1967.9925</v>
       </c>
       <c r="G22" t="n">
-        <v>-35157.89749406203</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>-35145.89749406203</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>4.778</v>
       </c>
       <c r="G24" t="n">
-        <v>-35150.67549406203</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>-35155.67549406203</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>25.678</v>
       </c>
       <c r="G26" t="n">
-        <v>-35155.67549406203</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>99</v>
       </c>
       <c r="G27" t="n">
-        <v>-35056.67549406203</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>-35045.67549406203</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>166.0183</v>
       </c>
       <c r="G29" t="n">
-        <v>-35211.69379406203</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1884.2809</v>
       </c>
       <c r="G30" t="n">
-        <v>-35211.69379406203</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>347.9392</v>
       </c>
       <c r="G31" t="n">
-        <v>-35211.69379406203</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>109.6857</v>
       </c>
       <c r="G32" t="n">
-        <v>-35102.00809406203</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>184.2885</v>
       </c>
       <c r="G33" t="n">
-        <v>-35286.29659406203</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>7.778</v>
       </c>
       <c r="G34" t="n">
-        <v>-35294.07459406203</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>9185.565699999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-35294.07459406203</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1152.6075</v>
       </c>
       <c r="G36" t="n">
-        <v>-34141.46709406203</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1370.5705</v>
       </c>
       <c r="G37" t="n">
-        <v>-32770.89659406203</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>5467.7899</v>
       </c>
       <c r="G38" t="n">
-        <v>-38238.68649406203</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1491.1793</v>
       </c>
       <c r="G39" t="n">
-        <v>-39729.86579406203</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>-39725.86579406203</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>10161.9886</v>
       </c>
       <c r="G41" t="n">
-        <v>-39725.86579406203</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>-39736.86579406203</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>355.3438</v>
       </c>
       <c r="G43" t="n">
-        <v>-40092.20959406203</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>19814.6439</v>
       </c>
       <c r="G44" t="n">
-        <v>-59906.85349406203</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>272.6548</v>
       </c>
       <c r="G45" t="n">
-        <v>-60179.50829406203</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>166.8528</v>
       </c>
       <c r="G46" t="n">
-        <v>-60012.65549406203</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>253.6772</v>
       </c>
       <c r="G47" t="n">
-        <v>-60012.65549406203</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>-60015.65549406203</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>121.978</v>
       </c>
       <c r="G49" t="n">
-        <v>-59893.67749406202</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>5222.0071</v>
       </c>
       <c r="G50" t="n">
-        <v>-65115.68459406203</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>290.6508</v>
       </c>
       <c r="G51" t="n">
-        <v>-65406.33539406203</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1936.555</v>
       </c>
       <c r="G52" t="n">
-        <v>-63469.78039406203</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>4027.426</v>
       </c>
       <c r="G53" t="n">
-        <v>-59442.35439406203</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>35081.4019</v>
       </c>
       <c r="G54" t="n">
-        <v>-94523.75629406203</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1893.7333</v>
       </c>
       <c r="G55" t="n">
-        <v>-92630.02299406202</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>11433.3802</v>
       </c>
       <c r="G56" t="n">
-        <v>-92630.02299406202</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>7993.6985</v>
       </c>
       <c r="G57" t="n">
-        <v>-100623.721494062</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>10117.1232</v>
       </c>
       <c r="G58" t="n">
-        <v>-110740.844694062</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>95.6872</v>
       </c>
       <c r="G59" t="n">
-        <v>-110645.157494062</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>722.3152</v>
       </c>
       <c r="G60" t="n">
-        <v>-109922.842294062</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>-109919.842294062</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>5548.5878</v>
       </c>
       <c r="G62" t="n">
-        <v>-115468.430094062</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>-115465.430094062</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1669.5784</v>
       </c>
       <c r="G64" t="n">
-        <v>-117135.008494062</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>2.8</v>
       </c>
       <c r="G65" t="n">
-        <v>-117132.208494062</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>2104.8567</v>
       </c>
       <c r="G66" t="n">
-        <v>-117132.208494062</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>21559.8105</v>
       </c>
       <c r="G67" t="n">
-        <v>-117132.208494062</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1960</v>
       </c>
       <c r="G68" t="n">
-        <v>-119092.208494062</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>802.46</v>
       </c>
       <c r="G69" t="n">
-        <v>-119894.668494062</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>5000</v>
       </c>
       <c r="G70" t="n">
-        <v>-124894.668494062</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>25.136</v>
       </c>
       <c r="G71" t="n">
-        <v>-124894.668494062</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1060</v>
       </c>
       <c r="G72" t="n">
-        <v>-124894.668494062</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>147.3833</v>
       </c>
       <c r="G73" t="n">
-        <v>-124894.668494062</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,22 +2603,15 @@
         <v>147.3833</v>
       </c>
       <c r="G74" t="n">
-        <v>-125042.051794062</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2861,26 +2633,15 @@
         <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>-125039.051794062</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>182</v>
-      </c>
-      <c r="J75" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2902,26 +2663,21 @@
         <v>300</v>
       </c>
       <c r="G76" t="n">
-        <v>-124739.051794062</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
         <v>183</v>
       </c>
-      <c r="J76" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="K76" t="inlineStr">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2943,22 +2699,21 @@
         <v>3326.9185</v>
       </c>
       <c r="G77" t="n">
-        <v>-124739.051794062</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
         <v>183.9</v>
       </c>
-      <c r="J77" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2980,26 +2735,21 @@
         <v>3116.297214593591</v>
       </c>
       <c r="G78" t="n">
-        <v>-121622.7545794684</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
         <v>183.9</v>
       </c>
-      <c r="J78" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K78" t="inlineStr">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3021,26 +2771,21 @@
         <v>5000.000016450216</v>
       </c>
       <c r="G79" t="n">
-        <v>-126622.7545959186</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
         <v>184.8</v>
       </c>
-      <c r="J79" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K79" t="inlineStr">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3062,26 +2807,21 @@
         <v>4.8789</v>
       </c>
       <c r="G80" t="n">
-        <v>-126617.8756959186</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
         <v>183.9</v>
       </c>
-      <c r="J80" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K80" t="inlineStr">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3103,26 +2843,21 @@
         <v>3152.6779</v>
       </c>
       <c r="G81" t="n">
-        <v>-126617.8756959186</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
         <v>184.9</v>
       </c>
-      <c r="J81" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K81" t="inlineStr">
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3144,26 +2879,21 @@
         <v>5098.1253</v>
       </c>
       <c r="G82" t="n">
-        <v>-126617.8756959186</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
         <v>184.9</v>
       </c>
-      <c r="J82" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K82" t="inlineStr">
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3185,26 +2915,19 @@
         <v>1679.16</v>
       </c>
       <c r="G83" t="n">
-        <v>-128297.0356959186</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>184.9</v>
-      </c>
-      <c r="J83" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3226,26 +2949,19 @@
         <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>-128293.0356959186</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3267,26 +2983,19 @@
         <v>20349.3579</v>
       </c>
       <c r="G85" t="n">
-        <v>-107943.6777959186</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>185</v>
-      </c>
-      <c r="J85" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3308,24 +3017,19 @@
         <v>76408.50810000001</v>
       </c>
       <c r="G86" t="n">
-        <v>-184352.1858959186</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3347,24 +3051,19 @@
         <v>1927.6482</v>
       </c>
       <c r="G87" t="n">
-        <v>-182424.5376959186</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3386,24 +3085,19 @@
         <v>6613.2711</v>
       </c>
       <c r="G88" t="n">
-        <v>-182424.5376959186</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3425,24 +3119,19 @@
         <v>3863.5471</v>
       </c>
       <c r="G89" t="n">
-        <v>-178560.9905959186</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3464,24 +3153,19 @@
         <v>72833.68769999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-105727.3028959186</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3503,24 +3187,19 @@
         <v>17931.535</v>
       </c>
       <c r="G91" t="n">
-        <v>-87795.76789591865</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3542,24 +3221,19 @@
         <v>30284.99357249035</v>
       </c>
       <c r="G92" t="n">
-        <v>-57510.7743234283</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3581,24 +3255,19 @@
         <v>65009.3825</v>
       </c>
       <c r="G93" t="n">
-        <v>7498.608176571703</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3620,24 +3289,19 @@
         <v>38706.83443129283</v>
       </c>
       <c r="G94" t="n">
-        <v>-31208.22625472113</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3659,24 +3323,17 @@
         <v>39558.92326757905</v>
       </c>
       <c r="G95" t="n">
-        <v>-70767.14952230017</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3698,24 +3355,15 @@
         <v>8206.534941802443</v>
       </c>
       <c r="G96" t="n">
-        <v>-78973.68446410261</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3737,24 +3385,15 @@
         <v>5051.4972</v>
       </c>
       <c r="G97" t="n">
-        <v>-73922.18726410261</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3776,24 +3415,15 @@
         <v>14786.04999874055</v>
       </c>
       <c r="G98" t="n">
-        <v>-59136.13726536206</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3815,24 +3445,15 @@
         <v>8868.3115</v>
       </c>
       <c r="G99" t="n">
-        <v>-68004.44876536206</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3854,24 +3475,15 @@
         <v>6</v>
       </c>
       <c r="G100" t="n">
-        <v>-67998.44876536206</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3893,24 +3505,15 @@
         <v>19005.70027891655</v>
       </c>
       <c r="G101" t="n">
-        <v>-48992.74848644551</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3932,24 +3535,15 @@
         <v>11279.587</v>
       </c>
       <c r="G102" t="n">
-        <v>-60272.33548644551</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3971,24 +3565,15 @@
         <v>3363.6671</v>
       </c>
       <c r="G103" t="n">
-        <v>-56908.66838644551</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4010,24 +3595,15 @@
         <v>15778.7018</v>
       </c>
       <c r="G104" t="n">
-        <v>-41129.96658644551</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4049,24 +3625,15 @@
         <v>28128.42811368274</v>
       </c>
       <c r="G105" t="n">
-        <v>-69258.39470012825</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4088,24 +3655,15 @@
         <v>76883.8147</v>
       </c>
       <c r="G106" t="n">
-        <v>7625.419999871752</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4127,24 +3685,15 @@
         <v>5306.0631</v>
       </c>
       <c r="G107" t="n">
-        <v>2319.356899871752</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4166,24 +3715,15 @@
         <v>13646.3392</v>
       </c>
       <c r="G108" t="n">
-        <v>15965.69609987175</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4205,24 +3745,15 @@
         <v>50788.9532</v>
       </c>
       <c r="G109" t="n">
-        <v>66754.64929987176</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4244,24 +3775,15 @@
         <v>8417.513999999999</v>
       </c>
       <c r="G110" t="n">
-        <v>75172.16329987175</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4283,24 +3805,15 @@
         <v>20937.86845740402</v>
       </c>
       <c r="G111" t="n">
-        <v>96110.03175727578</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4322,26 +3835,15 @@
         <v>14198.9251</v>
       </c>
       <c r="G112" t="n">
-        <v>81911.10665727578</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>183.9</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1.182601957585645</v>
-      </c>
-      <c r="M112" t="n">
-        <v>1.071428571428571</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4363,18 +3865,15 @@
         <v>4734.6961</v>
       </c>
       <c r="G113" t="n">
-        <v>77176.41055727578</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4396,18 +3895,15 @@
         <v>1773.5699</v>
       </c>
       <c r="G114" t="n">
-        <v>78949.98045727579</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4429,18 +3925,15 @@
         <v>10408.74268268877</v>
       </c>
       <c r="G115" t="n">
-        <v>89358.72313996455</v>
-      </c>
-      <c r="H115" t="n">
         <v>2</v>
       </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4462,18 +3955,15 @@
         <v>5456.6265</v>
       </c>
       <c r="G116" t="n">
-        <v>83902.09663996455</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4495,18 +3985,15 @@
         <v>6162.1299</v>
       </c>
       <c r="G117" t="n">
-        <v>83902.09663996455</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4528,18 +4015,15 @@
         <v>4723.8648</v>
       </c>
       <c r="G118" t="n">
-        <v>83902.09663996455</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4561,18 +4045,15 @@
         <v>991</v>
       </c>
       <c r="G119" t="n">
-        <v>82911.09663996455</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4594,18 +4075,15 @@
         <v>523.7907</v>
       </c>
       <c r="G120" t="n">
-        <v>82387.30593996456</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4627,18 +4105,15 @@
         <v>1157.8345</v>
       </c>
       <c r="G121" t="n">
-        <v>81229.47143996456</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4660,18 +4135,15 @@
         <v>2832.5852</v>
       </c>
       <c r="G122" t="n">
-        <v>78396.88623996456</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4693,18 +4165,15 @@
         <v>22</v>
       </c>
       <c r="G123" t="n">
-        <v>78418.88623996456</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4726,18 +4195,15 @@
         <v>3097.0122</v>
       </c>
       <c r="G124" t="n">
-        <v>75321.87403996456</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4759,18 +4225,15 @@
         <v>6099.8774</v>
       </c>
       <c r="G125" t="n">
-        <v>75321.87403996456</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4792,18 +4255,15 @@
         <v>13201.5783</v>
       </c>
       <c r="G126" t="n">
-        <v>62120.29573996456</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4825,18 +4285,15 @@
         <v>3070.0012</v>
       </c>
       <c r="G127" t="n">
-        <v>59050.29453996456</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4858,18 +4315,15 @@
         <v>1070.0012</v>
       </c>
       <c r="G128" t="n">
-        <v>60120.29573996456</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4891,18 +4345,15 @@
         <v>2302.0257</v>
       </c>
       <c r="G129" t="n">
-        <v>60120.29573996456</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4924,18 +4375,15 @@
         <v>10813.1486</v>
       </c>
       <c r="G130" t="n">
-        <v>70933.44433996457</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4957,18 +4405,15 @@
         <v>3075.784</v>
       </c>
       <c r="G131" t="n">
-        <v>74009.22833996457</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4990,18 +4435,15 @@
         <v>40</v>
       </c>
       <c r="G132" t="n">
-        <v>73969.22833996457</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5023,18 +4465,15 @@
         <v>1246.0555</v>
       </c>
       <c r="G133" t="n">
-        <v>72723.17283996457</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5056,18 +4495,15 @@
         <v>50.8273</v>
       </c>
       <c r="G134" t="n">
-        <v>72774.00013996457</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5089,18 +4525,15 @@
         <v>6400.908</v>
       </c>
       <c r="G135" t="n">
-        <v>66373.09213996457</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5122,18 +4555,15 @@
         <v>5700</v>
       </c>
       <c r="G136" t="n">
-        <v>72073.09213996457</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5155,18 +4585,15 @@
         <v>1453.2362</v>
       </c>
       <c r="G137" t="n">
-        <v>73526.32833996457</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5188,18 +4615,15 @@
         <v>9548.663200000001</v>
       </c>
       <c r="G138" t="n">
-        <v>63977.66513996457</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5221,18 +4645,15 @@
         <v>5852.9488</v>
       </c>
       <c r="G139" t="n">
-        <v>58124.71633996457</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5254,18 +4675,15 @@
         <v>11862.8707</v>
       </c>
       <c r="G140" t="n">
-        <v>58124.71633996457</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5287,18 +4705,15 @@
         <v>28358.77</v>
       </c>
       <c r="G141" t="n">
-        <v>86483.48633996457</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5320,18 +4735,15 @@
         <v>10043.6236</v>
       </c>
       <c r="G142" t="n">
-        <v>76439.86273996456</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5353,18 +4765,15 @@
         <v>24097.3841</v>
       </c>
       <c r="G143" t="n">
-        <v>52342.47863996457</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5386,18 +4795,15 @@
         <v>2570.3581</v>
       </c>
       <c r="G144" t="n">
-        <v>52342.47863996457</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5419,18 +4825,15 @@
         <v>1519.6185</v>
       </c>
       <c r="G145" t="n">
-        <v>50822.86013996457</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5452,18 +4855,15 @@
         <v>14141.867</v>
       </c>
       <c r="G146" t="n">
-        <v>64964.72713996457</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5485,18 +4885,15 @@
         <v>7833.0771</v>
       </c>
       <c r="G147" t="n">
-        <v>57131.65003996457</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5518,18 +4915,15 @@
         <v>251.2992</v>
       </c>
       <c r="G148" t="n">
-        <v>56880.35083996457</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5551,18 +4945,15 @@
         <v>13795.5989</v>
       </c>
       <c r="G149" t="n">
-        <v>43084.75193996457</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5584,18 +4975,15 @@
         <v>33147.0026</v>
       </c>
       <c r="G150" t="n">
-        <v>76231.75453996458</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5617,18 +5005,15 @@
         <v>11004.5003</v>
       </c>
       <c r="G151" t="n">
-        <v>87236.25483996457</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5650,18 +5035,15 @@
         <v>1300</v>
       </c>
       <c r="G152" t="n">
-        <v>88536.25483996457</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5683,18 +5065,15 @@
         <v>17114.1344</v>
       </c>
       <c r="G153" t="n">
-        <v>71422.12043996458</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5716,18 +5095,15 @@
         <v>383.4848</v>
       </c>
       <c r="G154" t="n">
-        <v>71038.63563996457</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5749,18 +5125,15 @@
         <v>765.1979</v>
       </c>
       <c r="G155" t="n">
-        <v>71038.63563996457</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5782,18 +5155,15 @@
         <v>1149.089</v>
       </c>
       <c r="G156" t="n">
-        <v>71038.63563996457</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5815,18 +5185,15 @@
         <v>16848.7928</v>
       </c>
       <c r="G157" t="n">
-        <v>54189.84283996458</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5848,18 +5215,15 @@
         <v>12137.0279</v>
       </c>
       <c r="G158" t="n">
-        <v>42052.81493996458</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5881,18 +5245,15 @@
         <v>2422.9128</v>
       </c>
       <c r="G159" t="n">
-        <v>44475.72773996458</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5914,18 +5275,15 @@
         <v>6832.52</v>
       </c>
       <c r="G160" t="n">
-        <v>51308.24773996457</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5947,18 +5305,15 @@
         <v>1592.2061</v>
       </c>
       <c r="G161" t="n">
-        <v>49716.04163996457</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5980,18 +5335,15 @@
         <v>6353.6473</v>
       </c>
       <c r="G162" t="n">
-        <v>43362.39433996457</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6013,18 +5365,15 @@
         <v>1578.015</v>
       </c>
       <c r="G163" t="n">
-        <v>44940.40933996457</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6046,18 +5395,15 @@
         <v>570.8102</v>
       </c>
       <c r="G164" t="n">
-        <v>44369.59913996457</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6079,18 +5425,15 @@
         <v>399.3577</v>
       </c>
       <c r="G165" t="n">
-        <v>44768.95683996457</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6112,18 +5455,15 @@
         <v>794.4335</v>
       </c>
       <c r="G166" t="n">
-        <v>43974.52333996457</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6145,18 +5485,15 @@
         <v>1245.9325</v>
       </c>
       <c r="G167" t="n">
-        <v>42728.59083996457</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6178,18 +5515,15 @@
         <v>169.7918</v>
       </c>
       <c r="G168" t="n">
-        <v>42898.38263996457</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6211,18 +5545,15 @@
         <v>57.0996</v>
       </c>
       <c r="G169" t="n">
-        <v>42898.38263996457</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6244,18 +5575,15 @@
         <v>0.9004</v>
       </c>
       <c r="G170" t="n">
-        <v>42898.38263996457</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6277,18 +5605,15 @@
         <v>15134.6669</v>
       </c>
       <c r="G171" t="n">
-        <v>27763.71573996457</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6310,18 +5635,15 @@
         <v>92.04089999999999</v>
       </c>
       <c r="G172" t="n">
-        <v>27671.67483996457</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6343,18 +5665,15 @@
         <v>11227.3025</v>
       </c>
       <c r="G173" t="n">
-        <v>16444.37233996457</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6376,18 +5695,15 @@
         <v>4544.0754</v>
       </c>
       <c r="G174" t="n">
-        <v>20988.44773996457</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6409,18 +5725,15 @@
         <v>664.6844</v>
       </c>
       <c r="G175" t="n">
-        <v>21653.13213996457</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6442,18 +5755,15 @@
         <v>811.8953</v>
       </c>
       <c r="G176" t="n">
-        <v>20841.23683996457</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6475,18 +5785,15 @@
         <v>3933.305</v>
       </c>
       <c r="G177" t="n">
-        <v>24774.54183996457</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6508,18 +5815,15 @@
         <v>2766.8072</v>
       </c>
       <c r="G178" t="n">
-        <v>24774.54183996457</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6541,18 +5845,15 @@
         <v>751.8773</v>
       </c>
       <c r="G179" t="n">
-        <v>24774.54183996457</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6574,18 +5875,15 @@
         <v>471.8938</v>
       </c>
       <c r="G180" t="n">
-        <v>24302.64803996457</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6607,18 +5905,15 @@
         <v>59.7321</v>
       </c>
       <c r="G181" t="n">
-        <v>24302.64803996457</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6640,18 +5935,15 @@
         <v>1311.0874</v>
       </c>
       <c r="G182" t="n">
-        <v>22991.56063996457</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6673,18 +5965,15 @@
         <v>125.6142</v>
       </c>
       <c r="G183" t="n">
-        <v>22991.56063996457</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6706,18 +5995,15 @@
         <v>173.2984</v>
       </c>
       <c r="G184" t="n">
-        <v>22818.26223996457</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6739,18 +6025,15 @@
         <v>159.498</v>
       </c>
       <c r="G185" t="n">
-        <v>22818.26223996457</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6772,18 +6055,15 @@
         <v>4274.0542</v>
       </c>
       <c r="G186" t="n">
-        <v>27092.31643996456</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6805,18 +6085,15 @@
         <v>2878.4156</v>
       </c>
       <c r="G187" t="n">
-        <v>24213.90083996456</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6838,18 +6115,15 @@
         <v>150</v>
       </c>
       <c r="G188" t="n">
-        <v>24363.90083996456</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6871,18 +6145,15 @@
         <v>108.9886</v>
       </c>
       <c r="G189" t="n">
-        <v>24472.88943996457</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6904,18 +6175,15 @@
         <v>6239.2326</v>
       </c>
       <c r="G190" t="n">
-        <v>18233.65683996457</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6937,18 +6205,15 @@
         <v>19393.0186</v>
       </c>
       <c r="G191" t="n">
-        <v>37626.67543996457</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6970,18 +6235,15 @@
         <v>2498.5754</v>
       </c>
       <c r="G192" t="n">
-        <v>35128.10003996456</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7003,18 +6265,15 @@
         <v>2168.154</v>
       </c>
       <c r="G193" t="n">
-        <v>35128.10003996456</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7036,18 +6295,15 @@
         <v>1044.7684</v>
       </c>
       <c r="G194" t="n">
-        <v>35128.10003996456</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7069,18 +6325,15 @@
         <v>605.61</v>
       </c>
       <c r="G195" t="n">
-        <v>35733.71003996456</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7102,18 +6355,15 @@
         <v>12531.3638</v>
       </c>
       <c r="G196" t="n">
-        <v>23202.34623996457</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7135,18 +6385,15 @@
         <v>303</v>
       </c>
       <c r="G197" t="n">
-        <v>23505.34623996457</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7168,18 +6415,15 @@
         <v>7078.0892</v>
       </c>
       <c r="G198" t="n">
-        <v>23505.34623996457</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7201,18 +6445,15 @@
         <v>5258.2286</v>
       </c>
       <c r="G199" t="n">
-        <v>18247.11763996456</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7234,18 +6475,15 @@
         <v>9432.677</v>
       </c>
       <c r="G200" t="n">
-        <v>18247.11763996456</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7267,18 +6505,15 @@
         <v>5</v>
       </c>
       <c r="G201" t="n">
-        <v>18252.11763996456</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7300,18 +6535,15 @@
         <v>48.0385</v>
       </c>
       <c r="G202" t="n">
-        <v>18252.11763996456</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7333,18 +6565,15 @@
         <v>5</v>
       </c>
       <c r="G203" t="n">
-        <v>18252.11763996456</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7366,18 +6595,15 @@
         <v>5</v>
       </c>
       <c r="G204" t="n">
-        <v>18252.11763996456</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7399,18 +6625,15 @@
         <v>1037.7545691906</v>
       </c>
       <c r="G205" t="n">
-        <v>18252.11763996456</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7432,18 +6655,15 @@
         <v>1037.7546</v>
       </c>
       <c r="G206" t="n">
-        <v>17214.36303996456</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7465,18 +6685,15 @@
         <v>6</v>
       </c>
       <c r="G207" t="n">
-        <v>17220.36303996456</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7498,18 +6715,15 @@
         <v>6</v>
       </c>
       <c r="G208" t="n">
-        <v>17214.36303996456</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7531,18 +6745,15 @@
         <v>3718.7121</v>
       </c>
       <c r="G209" t="n">
-        <v>13495.65093996456</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7564,18 +6775,15 @@
         <v>880.466</v>
       </c>
       <c r="G210" t="n">
-        <v>13495.65093996456</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7597,18 +6805,15 @@
         <v>1068.4815</v>
       </c>
       <c r="G211" t="n">
-        <v>13495.65093996456</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7630,18 +6835,15 @@
         <v>3</v>
       </c>
       <c r="G212" t="n">
-        <v>13498.65093996456</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7663,18 +6865,15 @@
         <v>5006</v>
       </c>
       <c r="G213" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7696,18 +6895,15 @@
         <v>44</v>
       </c>
       <c r="G214" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7729,18 +6925,15 @@
         <v>94.6765</v>
       </c>
       <c r="G215" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7762,18 +6955,15 @@
         <v>1000</v>
       </c>
       <c r="G216" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7795,18 +6985,15 @@
         <v>110</v>
       </c>
       <c r="G217" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7828,18 +7015,15 @@
         <v>2.7778</v>
       </c>
       <c r="G218" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7861,18 +7045,15 @@
         <v>6</v>
       </c>
       <c r="G219" t="n">
-        <v>18498.65093996456</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7894,18 +7075,15 @@
         <v>6</v>
       </c>
       <c r="G220" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7927,18 +7105,15 @@
         <v>9.4513</v>
       </c>
       <c r="G221" t="n">
-        <v>18504.65093996456</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7960,18 +7135,15 @@
         <v>150</v>
       </c>
       <c r="G222" t="n">
-        <v>18354.65093996456</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7993,18 +7165,15 @@
         <v>76.8322</v>
       </c>
       <c r="G223" t="n">
-        <v>18431.48313996456</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8026,18 +7195,15 @@
         <v>6</v>
       </c>
       <c r="G224" t="n">
-        <v>18437.48313996456</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8059,18 +7225,15 @@
         <v>14632.8762</v>
       </c>
       <c r="G225" t="n">
-        <v>3804.606939964562</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8092,18 +7255,15 @@
         <v>101.677</v>
       </c>
       <c r="G226" t="n">
-        <v>3906.283939964562</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8125,18 +7285,15 @@
         <v>990</v>
       </c>
       <c r="G227" t="n">
-        <v>2916.283939964562</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8158,18 +7315,15 @@
         <v>2304.1857</v>
       </c>
       <c r="G228" t="n">
-        <v>612.0982399645623</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8191,18 +7345,15 @@
         <v>153.93</v>
       </c>
       <c r="G229" t="n">
-        <v>766.0282399645623</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8224,18 +7375,15 @@
         <v>1089.2303</v>
       </c>
       <c r="G230" t="n">
-        <v>-323.2020600354376</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8257,18 +7405,15 @@
         <v>5</v>
       </c>
       <c r="G231" t="n">
-        <v>-318.2020600354376</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8290,18 +7435,15 @@
         <v>4.9055</v>
       </c>
       <c r="G232" t="n">
-        <v>-313.2965600354376</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8323,18 +7465,15 @@
         <v>11471.1445</v>
       </c>
       <c r="G233" t="n">
-        <v>-11784.44106003544</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8356,18 +7495,15 @@
         <v>72.62179999999999</v>
       </c>
       <c r="G234" t="n">
-        <v>-11711.81926003544</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8389,18 +7525,15 @@
         <v>182.4142</v>
       </c>
       <c r="G235" t="n">
-        <v>-11894.23346003544</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8422,18 +7555,15 @@
         <v>6588.4278</v>
       </c>
       <c r="G236" t="n">
-        <v>-5305.805660035437</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8455,18 +7585,15 @@
         <v>2628.6163</v>
       </c>
       <c r="G237" t="n">
-        <v>-7934.421960035437</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8488,18 +7615,15 @@
         <v>2368.6501</v>
       </c>
       <c r="G238" t="n">
-        <v>-10303.07206003544</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8521,18 +7645,15 @@
         <v>64</v>
       </c>
       <c r="G239" t="n">
-        <v>-10303.07206003544</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8554,18 +7675,15 @@
         <v>15</v>
       </c>
       <c r="G240" t="n">
-        <v>-10303.07206003544</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8587,18 +7705,15 @@
         <v>5</v>
       </c>
       <c r="G241" t="n">
-        <v>-10303.07206003544</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8620,18 +7735,15 @@
         <v>1689.5135</v>
       </c>
       <c r="G242" t="n">
-        <v>-10303.07206003544</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8653,18 +7765,15 @@
         <v>25027.2385</v>
       </c>
       <c r="G243" t="n">
-        <v>-35330.31056003543</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8686,18 +7795,15 @@
         <v>359.6523</v>
       </c>
       <c r="G244" t="n">
-        <v>-35689.96286003543</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8719,18 +7825,15 @@
         <v>12292.25</v>
       </c>
       <c r="G245" t="n">
-        <v>-23397.71286003543</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8752,18 +7855,15 @@
         <v>4020.959</v>
       </c>
       <c r="G246" t="n">
-        <v>-19376.75386003543</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8785,18 +7885,15 @@
         <v>7831.6875</v>
       </c>
       <c r="G247" t="n">
-        <v>-27208.44136003543</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8818,18 +7915,15 @@
         <v>69.86422976501305</v>
       </c>
       <c r="G248" t="n">
-        <v>-27138.57713027042</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8851,18 +7945,15 @@
         <v>15681.9503</v>
       </c>
       <c r="G249" t="n">
-        <v>-42820.52743027042</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8884,18 +7975,15 @@
         <v>7788.1125</v>
       </c>
       <c r="G250" t="n">
-        <v>-35032.41493027042</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8917,18 +8005,15 @@
         <v>5</v>
       </c>
       <c r="G251" t="n">
-        <v>-35037.41493027042</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8950,18 +8035,15 @@
         <v>40</v>
       </c>
       <c r="G252" t="n">
-        <v>-35077.41493027042</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8983,18 +8065,15 @@
         <v>35</v>
       </c>
       <c r="G253" t="n">
-        <v>-35042.41493027042</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
